--- a/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>IMOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>179600</v>
+        <v>186300</v>
       </c>
       <c r="E8" s="3">
-        <v>163200</v>
+        <v>185800</v>
       </c>
       <c r="F8" s="3">
-        <v>148400</v>
+        <v>180100</v>
       </c>
       <c r="G8" s="3">
-        <v>165400</v>
+        <v>163600</v>
       </c>
       <c r="H8" s="3">
-        <v>166500</v>
+        <v>148800</v>
       </c>
       <c r="I8" s="3">
+        <v>165800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>166900</v>
+      </c>
+      <c r="K8" s="3">
         <v>149400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>133400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>142900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>143600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>147200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>148700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>599600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>155500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>141200</v>
+        <v>143900</v>
       </c>
       <c r="E9" s="3">
-        <v>135300</v>
+        <v>143600</v>
       </c>
       <c r="F9" s="3">
-        <v>126200</v>
+        <v>141600</v>
       </c>
       <c r="G9" s="3">
-        <v>127600</v>
+        <v>135600</v>
       </c>
       <c r="H9" s="3">
-        <v>134000</v>
+        <v>126500</v>
       </c>
       <c r="I9" s="3">
+        <v>128000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>134400</v>
+      </c>
+      <c r="K9" s="3">
         <v>124900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>114000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>118600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>119000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>117700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>122100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>480800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>38300</v>
+        <v>42400</v>
       </c>
       <c r="E10" s="3">
-        <v>27900</v>
+        <v>42300</v>
       </c>
       <c r="F10" s="3">
-        <v>22200</v>
+        <v>38400</v>
       </c>
       <c r="G10" s="3">
-        <v>37700</v>
+        <v>28000</v>
       </c>
       <c r="H10" s="3">
+        <v>22300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>37800</v>
+      </c>
+      <c r="J10" s="3">
         <v>32500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>24500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>19400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>24300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>24700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>29500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>26600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>118800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-100900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F12" s="3">
         <v>8400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>8800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>7900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>8000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>7800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>8300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>7200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>7700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>8000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>7900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>8400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>27400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,37 +1002,43 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1007,14 +1046,20 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>153400</v>
+        <v>156300</v>
       </c>
       <c r="E17" s="3">
-        <v>148100</v>
+        <v>155800</v>
       </c>
       <c r="F17" s="3">
-        <v>137800</v>
+        <v>153900</v>
       </c>
       <c r="G17" s="3">
-        <v>139000</v>
+        <v>148500</v>
       </c>
       <c r="H17" s="3">
-        <v>145300</v>
+        <v>138200</v>
       </c>
       <c r="I17" s="3">
+        <v>139400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>145700</v>
+      </c>
+      <c r="K17" s="3">
         <v>135600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>124800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>132000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>130600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>132600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>114300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>534400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>26100</v>
+        <v>30000</v>
       </c>
       <c r="E18" s="3">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="F18" s="3">
+        <v>26200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>15100</v>
+      </c>
+      <c r="H18" s="3">
         <v>10600</v>
       </c>
-      <c r="G18" s="3">
-        <v>26300</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>26400</v>
+      </c>
+      <c r="J18" s="3">
         <v>21200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>13800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>8600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>10800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>13000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>14500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>34400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>65200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>32000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-5600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-12400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-5000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>57400</v>
+        <v>64800</v>
       </c>
       <c r="E21" s="3">
-        <v>77700</v>
+        <v>55900</v>
       </c>
       <c r="F21" s="3">
-        <v>39800</v>
+        <v>57600</v>
       </c>
       <c r="G21" s="3">
-        <v>53000</v>
+        <v>77900</v>
       </c>
       <c r="H21" s="3">
-        <v>48500</v>
+        <v>39900</v>
       </c>
       <c r="I21" s="3">
+        <v>53100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>48600</v>
+      </c>
+      <c r="K21" s="3">
         <v>45200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>30000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>33800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>35000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>37300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>43700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>165400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,131 +1354,149 @@
         <v>1400</v>
       </c>
       <c r="E22" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F22" s="3">
         <v>1400</v>
       </c>
       <c r="G22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J22" s="3">
         <v>1100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1600</v>
       </c>
       <c r="M22" s="3">
         <v>1600</v>
       </c>
       <c r="N22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>4700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>24300</v>
+        <v>29900</v>
       </c>
       <c r="E23" s="3">
-        <v>45500</v>
+        <v>22500</v>
       </c>
       <c r="F23" s="3">
-        <v>8400</v>
+        <v>24400</v>
       </c>
       <c r="G23" s="3">
+        <v>45700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I23" s="3">
         <v>23000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>18800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>15900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>6900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>9300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>12700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>20300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>55500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F24" s="3">
         <v>4800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>5800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>4200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>11700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>11500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F26" s="3">
         <v>19500</v>
       </c>
-      <c r="E26" s="3">
-        <v>42400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>6400</v>
-      </c>
       <c r="G26" s="3">
+        <v>42500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I26" s="3">
         <v>17200</v>
       </c>
-      <c r="H26" s="3">
-        <v>14600</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K26" s="3">
         <v>4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>5300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>7400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>10400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>16300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>44000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F27" s="3">
         <v>19500</v>
       </c>
-      <c r="E27" s="3">
-        <v>42400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>6400</v>
-      </c>
       <c r="G27" s="3">
+        <v>42500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I27" s="3">
         <v>17200</v>
       </c>
-      <c r="H27" s="3">
-        <v>14600</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K27" s="3">
         <v>4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>5300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>7400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>10400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>16300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>53900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1604,22 +1725,28 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-2100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>61300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-4000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-32000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>5600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>12400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>5000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F33" s="3">
         <v>19500</v>
       </c>
-      <c r="E33" s="3">
-        <v>42400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>6400</v>
-      </c>
       <c r="G33" s="3">
+        <v>42500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I33" s="3">
         <v>17200</v>
       </c>
-      <c r="H33" s="3">
-        <v>14600</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K33" s="3">
         <v>4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>5300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>5300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>10400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>77600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>50000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F35" s="3">
         <v>19500</v>
       </c>
-      <c r="E35" s="3">
-        <v>42400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>6400</v>
-      </c>
       <c r="G35" s="3">
+        <v>42500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I35" s="3">
         <v>17200</v>
       </c>
-      <c r="H35" s="3">
-        <v>14600</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K35" s="3">
         <v>4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>5300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>5300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>10400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>77600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>50000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,79 +2138,87 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>154200</v>
+        <v>250500</v>
       </c>
       <c r="E41" s="3">
-        <v>177200</v>
+        <v>156900</v>
       </c>
       <c r="F41" s="3">
-        <v>168600</v>
+        <v>154600</v>
       </c>
       <c r="G41" s="3">
-        <v>154400</v>
+        <v>177600</v>
       </c>
       <c r="H41" s="3">
-        <v>201800</v>
+        <v>169000</v>
       </c>
       <c r="I41" s="3">
+        <v>154800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>202300</v>
+      </c>
+      <c r="K41" s="3">
         <v>135800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>222500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>260400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>280900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>359000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>381300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>246900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>396300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F42" s="3">
         <v>5800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>5800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>5700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>5600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>500</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
@@ -2050,277 +2229,319 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>190500</v>
+        <v>176000</v>
       </c>
       <c r="E43" s="3">
-        <v>170400</v>
+        <v>168900</v>
       </c>
       <c r="F43" s="3">
-        <v>154800</v>
+        <v>191000</v>
       </c>
       <c r="G43" s="3">
-        <v>174700</v>
+        <v>170800</v>
       </c>
       <c r="H43" s="3">
-        <v>172600</v>
+        <v>155200</v>
       </c>
       <c r="I43" s="3">
+        <v>175200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>173100</v>
+      </c>
+      <c r="K43" s="3">
         <v>159800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>135700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>135500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>141200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>122700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>125700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>136900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>58900</v>
+        <v>77300</v>
       </c>
       <c r="E44" s="3">
-        <v>57100</v>
+        <v>59000</v>
       </c>
       <c r="F44" s="3">
-        <v>55400</v>
+        <v>59100</v>
       </c>
       <c r="G44" s="3">
-        <v>59200</v>
+        <v>57200</v>
       </c>
       <c r="H44" s="3">
-        <v>58900</v>
+        <v>55600</v>
       </c>
       <c r="I44" s="3">
+        <v>59300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>59000</v>
+      </c>
+      <c r="K44" s="3">
         <v>59900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>59400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>62500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>61900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>62600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>63100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>56200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1500</v>
       </c>
-      <c r="H45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1800</v>
-      </c>
       <c r="J45" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="K45" s="3">
         <v>1800</v>
       </c>
       <c r="L45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N45" s="3">
         <v>1500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>4000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>105900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>411800</v>
+        <v>518400</v>
       </c>
       <c r="E46" s="3">
-        <v>412200</v>
+        <v>392300</v>
       </c>
       <c r="F46" s="3">
-        <v>386500</v>
+        <v>413000</v>
       </c>
       <c r="G46" s="3">
-        <v>395400</v>
+        <v>413300</v>
       </c>
       <c r="H46" s="3">
-        <v>435600</v>
+        <v>387500</v>
       </c>
       <c r="I46" s="3">
+        <v>396500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>436800</v>
+      </c>
+      <c r="K46" s="3">
         <v>357800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>419700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>460300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>485500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>545800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>574100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>551000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>623200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>123500</v>
+        <v>117200</v>
       </c>
       <c r="E47" s="3">
-        <v>127300</v>
+        <v>119900</v>
       </c>
       <c r="F47" s="3">
-        <v>137600</v>
+        <v>123800</v>
       </c>
       <c r="G47" s="3">
+        <v>127700</v>
+      </c>
+      <c r="H47" s="3">
         <v>138000</v>
       </c>
-      <c r="H47" s="3">
-        <v>138900</v>
-      </c>
       <c r="I47" s="3">
+        <v>138400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>139300</v>
+      </c>
+      <c r="K47" s="3">
         <v>143100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>146800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>114200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>115100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>116600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>73900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>14700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>597100</v>
+        <v>631200</v>
       </c>
       <c r="E48" s="3">
-        <v>572700</v>
+        <v>622500</v>
       </c>
       <c r="F48" s="3">
-        <v>579200</v>
+        <v>598700</v>
       </c>
       <c r="G48" s="3">
-        <v>559400</v>
+        <v>574300</v>
       </c>
       <c r="H48" s="3">
-        <v>531500</v>
+        <v>580700</v>
       </c>
       <c r="I48" s="3">
+        <v>560900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>532900</v>
+      </c>
+      <c r="K48" s="3">
         <v>527000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>522700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>494700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>485900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>473800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>454500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>440100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>490100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F52" s="3">
         <v>9800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>12600</v>
       </c>
-      <c r="F52" s="3">
-        <v>11700</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
+        <v>11800</v>
+      </c>
+      <c r="I52" s="3">
         <v>9200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>10800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>9600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>10100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>8700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>9200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>9100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>9400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>14800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1142200</v>
+        <v>1275100</v>
       </c>
       <c r="E54" s="3">
-        <v>1124800</v>
+        <v>1144100</v>
       </c>
       <c r="F54" s="3">
-        <v>1115000</v>
+        <v>1145300</v>
       </c>
       <c r="G54" s="3">
-        <v>1102000</v>
+        <v>1127800</v>
       </c>
       <c r="H54" s="3">
-        <v>1116800</v>
+        <v>1118000</v>
       </c>
       <c r="I54" s="3">
+        <v>1105000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1119800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1037600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1099200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1078000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1095800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1145300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1111900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1020600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>36800</v>
+        <v>27400</v>
       </c>
       <c r="E57" s="3">
-        <v>24500</v>
+        <v>27300</v>
       </c>
       <c r="F57" s="3">
-        <v>19200</v>
+        <v>36900</v>
       </c>
       <c r="G57" s="3">
-        <v>21200</v>
+        <v>24600</v>
       </c>
       <c r="H57" s="3">
+        <v>19300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>21300</v>
+      </c>
+      <c r="J57" s="3">
         <v>25600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>24000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>21600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>22300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>21100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>24800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>23700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>26900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>25800</v>
+      </c>
+      <c r="F58" s="3">
         <v>26100</v>
       </c>
-      <c r="E58" s="3">
-        <v>26200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>36200</v>
-      </c>
       <c r="G58" s="3">
+        <v>26300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>36300</v>
+      </c>
+      <c r="I58" s="3">
         <v>25500</v>
       </c>
-      <c r="H58" s="3">
-        <v>25500</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K58" s="3">
         <v>25200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>106500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>101300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>95200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>128600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>69400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>35000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>104400</v>
+        <v>96200</v>
       </c>
       <c r="E59" s="3">
-        <v>109300</v>
+        <v>110400</v>
       </c>
       <c r="F59" s="3">
-        <v>95100</v>
+        <v>104600</v>
       </c>
       <c r="G59" s="3">
-        <v>126000</v>
+        <v>109600</v>
       </c>
       <c r="H59" s="3">
-        <v>143600</v>
+        <v>95400</v>
       </c>
       <c r="I59" s="3">
+        <v>126300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>144000</v>
+      </c>
+      <c r="K59" s="3">
         <v>95300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>77700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>92600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>88800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>108700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>80700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>90200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>120100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>167200</v>
+        <v>150400</v>
       </c>
       <c r="E60" s="3">
-        <v>160000</v>
+        <v>163500</v>
       </c>
       <c r="F60" s="3">
-        <v>150500</v>
+        <v>167700</v>
       </c>
       <c r="G60" s="3">
-        <v>172600</v>
+        <v>160400</v>
       </c>
       <c r="H60" s="3">
-        <v>194700</v>
+        <v>150900</v>
       </c>
       <c r="I60" s="3">
+        <v>173100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>195200</v>
+      </c>
+      <c r="K60" s="3">
         <v>144500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>205900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>216200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>205100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>262100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>173900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>152100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>310800</v>
+        <v>419200</v>
       </c>
       <c r="E61" s="3">
-        <v>316100</v>
+        <v>298900</v>
       </c>
       <c r="F61" s="3">
-        <v>328600</v>
+        <v>311600</v>
       </c>
       <c r="G61" s="3">
-        <v>300700</v>
+        <v>317000</v>
       </c>
       <c r="H61" s="3">
-        <v>313300</v>
+        <v>329500</v>
       </c>
       <c r="I61" s="3">
+        <v>301600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>314100</v>
+      </c>
+      <c r="K61" s="3">
         <v>253700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>250000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>243600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>278600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>278600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>315400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>316900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>269700</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27200</v>
+        <v>28200</v>
       </c>
       <c r="E62" s="3">
-        <v>27200</v>
+        <v>26400</v>
       </c>
       <c r="F62" s="3">
-        <v>26900</v>
+        <v>27300</v>
       </c>
       <c r="G62" s="3">
-        <v>27600</v>
+        <v>27300</v>
       </c>
       <c r="H62" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>27700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K62" s="3">
         <v>25100</v>
       </c>
-      <c r="I62" s="3">
-        <v>25100</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>24800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>22000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>23400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>23100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>22300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>20900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>505300</v>
+        <v>597800</v>
       </c>
       <c r="E66" s="3">
-        <v>503400</v>
+        <v>488700</v>
       </c>
       <c r="F66" s="3">
-        <v>506000</v>
+        <v>506600</v>
       </c>
       <c r="G66" s="3">
-        <v>501000</v>
+        <v>504700</v>
       </c>
       <c r="H66" s="3">
-        <v>533100</v>
+        <v>507400</v>
       </c>
       <c r="I66" s="3">
+        <v>502300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>534500</v>
+      </c>
+      <c r="K66" s="3">
         <v>423400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>480700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>481800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>507000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>563800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>511600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>489900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>572600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>192600</v>
+        <v>235200</v>
       </c>
       <c r="E72" s="3">
-        <v>181400</v>
+        <v>211400</v>
       </c>
       <c r="F72" s="3">
-        <v>176200</v>
+        <v>193100</v>
       </c>
       <c r="G72" s="3">
-        <v>169800</v>
+        <v>181900</v>
       </c>
       <c r="H72" s="3">
-        <v>154200</v>
+        <v>176700</v>
       </c>
       <c r="I72" s="3">
+        <v>170200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>154600</v>
+      </c>
+      <c r="K72" s="3">
         <v>139600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>144000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>137400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>130700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>125400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>124100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>46500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>192400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>637000</v>
+        <v>677400</v>
       </c>
       <c r="E76" s="3">
-        <v>621400</v>
+        <v>655400</v>
       </c>
       <c r="F76" s="3">
-        <v>609000</v>
+        <v>638700</v>
       </c>
       <c r="G76" s="3">
-        <v>601000</v>
+        <v>623100</v>
       </c>
       <c r="H76" s="3">
-        <v>583700</v>
+        <v>610600</v>
       </c>
       <c r="I76" s="3">
+        <v>602700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>585300</v>
+      </c>
+      <c r="K76" s="3">
         <v>614200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>618600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>596100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>588800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>581500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>600300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>530700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>564300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F81" s="3">
         <v>19500</v>
       </c>
-      <c r="E81" s="3">
-        <v>42400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>6400</v>
-      </c>
       <c r="G81" s="3">
+        <v>42500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I81" s="3">
         <v>17200</v>
       </c>
-      <c r="H81" s="3">
-        <v>14600</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K81" s="3">
         <v>4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>5300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>5300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>10400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>77600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>50000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>31700</v>
+        <v>33500</v>
       </c>
       <c r="E83" s="3">
-        <v>30600</v>
+        <v>32000</v>
       </c>
       <c r="F83" s="3">
-        <v>29900</v>
+        <v>31800</v>
       </c>
       <c r="G83" s="3">
+        <v>30700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>28700</v>
+      </c>
+      <c r="J83" s="3">
         <v>28600</v>
       </c>
-      <c r="H83" s="3">
-        <v>28600</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>28100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>27000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>25300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>24100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>23000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>21700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>105300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>46700</v>
+        <v>24400</v>
       </c>
       <c r="E89" s="3">
-        <v>24500</v>
+        <v>71600</v>
       </c>
       <c r="F89" s="3">
-        <v>56700</v>
+        <v>46800</v>
       </c>
       <c r="G89" s="3">
-        <v>47000</v>
+        <v>24600</v>
       </c>
       <c r="H89" s="3">
+        <v>56800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>47100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>24100</v>
+      </c>
+      <c r="L89" s="3">
+        <v>25200</v>
+      </c>
+      <c r="M89" s="3">
         <v>41000</v>
       </c>
-      <c r="I89" s="3">
-        <v>24100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>25200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>41000</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>13400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>39400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>60700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>120300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-43200</v>
+        <v>-51600</v>
       </c>
       <c r="E91" s="3">
-        <v>-31400</v>
+        <v>-57800</v>
       </c>
       <c r="F91" s="3">
-        <v>-48800</v>
+        <v>-43300</v>
       </c>
       <c r="G91" s="3">
-        <v>-26100</v>
+        <v>-31500</v>
       </c>
       <c r="H91" s="3">
-        <v>-34200</v>
+        <v>-48900</v>
       </c>
       <c r="I91" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-32400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-45500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-34700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-31900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-44100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-32500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-291600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-78500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-40300</v>
+        <v>-47800</v>
       </c>
       <c r="E94" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="G94" s="3">
         <v>7000</v>
       </c>
-      <c r="F94" s="3">
-        <v>-52000</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-31200</v>
-      </c>
       <c r="H94" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-34900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-32100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-72400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-32300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-29300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-84900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>41300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-156800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-39200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4163,13 +4630,13 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-8500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-8600</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4187,13 +4654,19 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-58500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-29400</v>
+        <v>117000</v>
       </c>
       <c r="E100" s="3">
-        <v>-23000</v>
+        <v>-12900</v>
       </c>
       <c r="F100" s="3">
-        <v>9500</v>
+        <v>-29500</v>
       </c>
       <c r="G100" s="3">
-        <v>-63800</v>
+        <v>-23100</v>
       </c>
       <c r="H100" s="3">
-        <v>59900</v>
+        <v>9600</v>
       </c>
       <c r="I100" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-78400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-29000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-61200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>24600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>32900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-105100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-23000</v>
+        <v>93700</v>
       </c>
       <c r="E102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="G102" s="3">
         <v>8600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>14200</v>
       </c>
-      <c r="G102" s="3">
-        <v>-47400</v>
-      </c>
-      <c r="H102" s="3">
-        <v>66000</v>
-      </c>
       <c r="I102" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>66200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-86700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-44800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-20500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-78200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-19900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>134400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-148600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-23900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>IMOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>186300</v>
+        <v>184900</v>
       </c>
       <c r="E8" s="3">
-        <v>185800</v>
+        <v>190300</v>
       </c>
       <c r="F8" s="3">
-        <v>180100</v>
+        <v>189800</v>
       </c>
       <c r="G8" s="3">
-        <v>163600</v>
+        <v>183900</v>
       </c>
       <c r="H8" s="3">
-        <v>148800</v>
+        <v>167100</v>
       </c>
       <c r="I8" s="3">
-        <v>165800</v>
+        <v>152000</v>
       </c>
       <c r="J8" s="3">
+        <v>169400</v>
+      </c>
+      <c r="K8" s="3">
         <v>166900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>149400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>133400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>142900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>143600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>147200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>148700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>599600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>155500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>143900</v>
+        <v>146600</v>
       </c>
       <c r="E9" s="3">
-        <v>143600</v>
+        <v>147000</v>
       </c>
       <c r="F9" s="3">
-        <v>141600</v>
+        <v>146700</v>
       </c>
       <c r="G9" s="3">
-        <v>135600</v>
+        <v>144700</v>
       </c>
       <c r="H9" s="3">
-        <v>126500</v>
+        <v>138600</v>
       </c>
       <c r="I9" s="3">
-        <v>128000</v>
+        <v>129300</v>
       </c>
       <c r="J9" s="3">
+        <v>130700</v>
+      </c>
+      <c r="K9" s="3">
         <v>134400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>124900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>114000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>118600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>119000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>117700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>122100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>480800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>42400</v>
+        <v>38300</v>
       </c>
       <c r="E10" s="3">
-        <v>42300</v>
+        <v>43300</v>
       </c>
       <c r="F10" s="3">
-        <v>38400</v>
+        <v>43200</v>
       </c>
       <c r="G10" s="3">
-        <v>28000</v>
+        <v>39300</v>
       </c>
       <c r="H10" s="3">
-        <v>22300</v>
+        <v>28600</v>
       </c>
       <c r="I10" s="3">
-        <v>37800</v>
+        <v>22800</v>
       </c>
       <c r="J10" s="3">
+        <v>38700</v>
+      </c>
+      <c r="K10" s="3">
         <v>32500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>29500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>26600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>118800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-100900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -917,49 +931,52 @@
         <v>8600</v>
       </c>
       <c r="E12" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="F12" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="L12" s="3">
+        <v>8300</v>
+      </c>
+      <c r="M12" s="3">
+        <v>7200</v>
+      </c>
+      <c r="N12" s="3">
+        <v>7700</v>
+      </c>
+      <c r="O12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="P12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="Q12" s="3">
         <v>8400</v>
       </c>
-      <c r="G12" s="3">
-        <v>8800</v>
-      </c>
-      <c r="H12" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>8000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>7800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>8300</v>
-      </c>
-      <c r="L12" s="3">
-        <v>7200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>7700</v>
-      </c>
-      <c r="N12" s="3">
-        <v>8000</v>
-      </c>
-      <c r="O12" s="3">
-        <v>7900</v>
-      </c>
-      <c r="P12" s="3">
-        <v>8400</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>27400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,19 +1025,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1034,14 +1054,14 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1052,14 +1072,17 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>156300</v>
+        <v>158000</v>
       </c>
       <c r="E17" s="3">
-        <v>155800</v>
+        <v>159700</v>
       </c>
       <c r="F17" s="3">
-        <v>153900</v>
+        <v>159100</v>
       </c>
       <c r="G17" s="3">
-        <v>148500</v>
+        <v>157200</v>
       </c>
       <c r="H17" s="3">
-        <v>138200</v>
+        <v>151700</v>
       </c>
       <c r="I17" s="3">
-        <v>139400</v>
+        <v>141200</v>
       </c>
       <c r="J17" s="3">
+        <v>142400</v>
+      </c>
+      <c r="K17" s="3">
         <v>145700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>135600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>124800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>132000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>130600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>132600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>114300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>534400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>30000</v>
+        <v>26900</v>
       </c>
       <c r="E18" s="3">
-        <v>30000</v>
+        <v>30700</v>
       </c>
       <c r="F18" s="3">
-        <v>26200</v>
+        <v>30700</v>
       </c>
       <c r="G18" s="3">
-        <v>15100</v>
+        <v>26800</v>
       </c>
       <c r="H18" s="3">
-        <v>10600</v>
+        <v>15400</v>
       </c>
       <c r="I18" s="3">
-        <v>26400</v>
+        <v>10800</v>
       </c>
       <c r="J18" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K18" s="3">
         <v>21200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>34400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>65200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,113 +1278,120 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
-        <v>-6100</v>
-      </c>
       <c r="F20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
-        <v>32000</v>
-      </c>
       <c r="H20" s="3">
+        <v>32700</v>
+      </c>
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>64800</v>
+        <v>59600</v>
       </c>
       <c r="E21" s="3">
-        <v>55900</v>
+        <v>66200</v>
       </c>
       <c r="F21" s="3">
-        <v>57600</v>
+        <v>57100</v>
       </c>
       <c r="G21" s="3">
-        <v>77900</v>
+        <v>58800</v>
       </c>
       <c r="H21" s="3">
-        <v>39900</v>
+        <v>79500</v>
       </c>
       <c r="I21" s="3">
-        <v>53100</v>
+        <v>40800</v>
       </c>
       <c r="J21" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K21" s="3">
         <v>48600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>45200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>30000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>33800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>35000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>37300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>43700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>165400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="E22" s="3">
         <v>1400</v>
@@ -1360,25 +1400,25 @@
         <v>1400</v>
       </c>
       <c r="G22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J22" s="3">
         <v>1400</v>
       </c>
-      <c r="I22" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1300</v>
       </c>
       <c r="L22" s="3">
         <v>1300</v>
       </c>
       <c r="M22" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="N22" s="3">
         <v>1600</v>
@@ -1387,116 +1427,125 @@
         <v>1600</v>
       </c>
       <c r="P22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>29900</v>
+        <v>22400</v>
       </c>
       <c r="E23" s="3">
-        <v>22500</v>
+        <v>30500</v>
       </c>
       <c r="F23" s="3">
-        <v>24400</v>
+        <v>23000</v>
       </c>
       <c r="G23" s="3">
-        <v>45700</v>
+        <v>24900</v>
       </c>
       <c r="H23" s="3">
-        <v>8500</v>
+        <v>46700</v>
       </c>
       <c r="I23" s="3">
-        <v>23000</v>
+        <v>8700</v>
       </c>
       <c r="J23" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K23" s="3">
         <v>18800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>20300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>55500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6100</v>
+        <v>3800</v>
       </c>
       <c r="E24" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G24" s="3">
         <v>4900</v>
       </c>
-      <c r="F24" s="3">
-        <v>4800</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L24" s="3">
+        <v>11700</v>
+      </c>
+      <c r="M24" s="3">
+        <v>900</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
-        <v>5800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>11700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>23800</v>
+        <v>18600</v>
       </c>
       <c r="E26" s="3">
-        <v>17700</v>
+        <v>24300</v>
       </c>
       <c r="F26" s="3">
-        <v>19500</v>
+        <v>18100</v>
       </c>
       <c r="G26" s="3">
-        <v>42500</v>
+        <v>20000</v>
       </c>
       <c r="H26" s="3">
-        <v>6500</v>
+        <v>43400</v>
       </c>
       <c r="I26" s="3">
-        <v>17200</v>
+        <v>6600</v>
       </c>
       <c r="J26" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K26" s="3">
         <v>14700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>44000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>23800</v>
+        <v>18600</v>
       </c>
       <c r="E27" s="3">
-        <v>17700</v>
+        <v>24300</v>
       </c>
       <c r="F27" s="3">
-        <v>19500</v>
+        <v>18100</v>
       </c>
       <c r="G27" s="3">
-        <v>42500</v>
+        <v>20000</v>
       </c>
       <c r="H27" s="3">
-        <v>6500</v>
+        <v>43400</v>
       </c>
       <c r="I27" s="3">
-        <v>17200</v>
+        <v>6600</v>
       </c>
       <c r="J27" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K27" s="3">
         <v>14700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>53900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1731,22 +1792,25 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>61300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-4000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
-        <v>6100</v>
-      </c>
       <c r="F32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
-        <v>-32000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>12400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>23800</v>
+        <v>18600</v>
       </c>
       <c r="E33" s="3">
-        <v>17700</v>
+        <v>24300</v>
       </c>
       <c r="F33" s="3">
-        <v>19500</v>
+        <v>18100</v>
       </c>
       <c r="G33" s="3">
-        <v>42500</v>
+        <v>20000</v>
       </c>
       <c r="H33" s="3">
-        <v>6500</v>
+        <v>43400</v>
       </c>
       <c r="I33" s="3">
-        <v>17200</v>
+        <v>6600</v>
       </c>
       <c r="J33" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K33" s="3">
         <v>14700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>5300</v>
       </c>
       <c r="N33" s="3">
         <v>5300</v>
       </c>
       <c r="O33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="P33" s="3">
         <v>10400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>77600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>50000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>23800</v>
+        <v>18600</v>
       </c>
       <c r="E35" s="3">
-        <v>17700</v>
+        <v>24300</v>
       </c>
       <c r="F35" s="3">
-        <v>19500</v>
+        <v>18100</v>
       </c>
       <c r="G35" s="3">
-        <v>42500</v>
+        <v>20000</v>
       </c>
       <c r="H35" s="3">
-        <v>6500</v>
+        <v>43400</v>
       </c>
       <c r="I35" s="3">
-        <v>17200</v>
+        <v>6600</v>
       </c>
       <c r="J35" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K35" s="3">
         <v>14700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>5300</v>
       </c>
       <c r="N35" s="3">
         <v>5300</v>
       </c>
       <c r="O35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="P35" s="3">
         <v>10400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>77600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>50000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,87 +2226,91 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>250500</v>
+        <v>189900</v>
       </c>
       <c r="E41" s="3">
-        <v>156900</v>
+        <v>255900</v>
       </c>
       <c r="F41" s="3">
-        <v>154600</v>
+        <v>160300</v>
       </c>
       <c r="G41" s="3">
-        <v>177600</v>
+        <v>157900</v>
       </c>
       <c r="H41" s="3">
-        <v>169000</v>
+        <v>181500</v>
       </c>
       <c r="I41" s="3">
-        <v>154800</v>
+        <v>172700</v>
       </c>
       <c r="J41" s="3">
+        <v>158200</v>
+      </c>
+      <c r="K41" s="3">
         <v>202300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>135800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>222500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>260400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>280900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>359000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>381300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>246900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>396300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10700</v>
+        <v>11700</v>
       </c>
       <c r="E42" s="3">
-        <v>5600</v>
+        <v>10900</v>
       </c>
       <c r="F42" s="3">
         <v>5800</v>
       </c>
       <c r="G42" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H42" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I42" s="3">
         <v>5800</v>
       </c>
-      <c r="H42" s="3">
-        <v>5700</v>
-      </c>
-      <c r="I42" s="3">
-        <v>5600</v>
-      </c>
       <c r="J42" s="3">
-        <v>500</v>
+        <v>5800</v>
       </c>
       <c r="K42" s="3">
         <v>500</v>
       </c>
       <c r="L42" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2235,313 +2325,334 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>176000</v>
+        <v>166300</v>
       </c>
       <c r="E43" s="3">
-        <v>168900</v>
+        <v>179800</v>
       </c>
       <c r="F43" s="3">
-        <v>191000</v>
+        <v>172500</v>
       </c>
       <c r="G43" s="3">
-        <v>170800</v>
+        <v>195100</v>
       </c>
       <c r="H43" s="3">
-        <v>155200</v>
+        <v>174500</v>
       </c>
       <c r="I43" s="3">
-        <v>175200</v>
+        <v>158500</v>
       </c>
       <c r="J43" s="3">
+        <v>179000</v>
+      </c>
+      <c r="K43" s="3">
         <v>173100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>159800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>135700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>135500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>141200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>122700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>125700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>136900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>77300</v>
+        <v>78900</v>
       </c>
       <c r="E44" s="3">
+        <v>79000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>60200</v>
+      </c>
+      <c r="G44" s="3">
+        <v>60400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>58500</v>
+      </c>
+      <c r="I44" s="3">
+        <v>56800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>60600</v>
+      </c>
+      <c r="K44" s="3">
         <v>59000</v>
       </c>
-      <c r="F44" s="3">
-        <v>59100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>57200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>55600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>59300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>59000</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>59900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>59400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>62500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>61900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>62600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>63100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>56200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3800</v>
+        <v>1700</v>
       </c>
       <c r="E45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O45" s="3">
         <v>1500</v>
       </c>
-      <c r="J45" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L45" s="3">
-        <v>2100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>105900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>518400</v>
+        <v>448400</v>
       </c>
       <c r="E46" s="3">
-        <v>392300</v>
+        <v>529600</v>
       </c>
       <c r="F46" s="3">
-        <v>413000</v>
+        <v>400700</v>
       </c>
       <c r="G46" s="3">
-        <v>413300</v>
+        <v>421900</v>
       </c>
       <c r="H46" s="3">
-        <v>387500</v>
+        <v>422200</v>
       </c>
       <c r="I46" s="3">
-        <v>396500</v>
+        <v>395900</v>
       </c>
       <c r="J46" s="3">
+        <v>405000</v>
+      </c>
+      <c r="K46" s="3">
         <v>436800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>357800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>419700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>460300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>485500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>545800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>574100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>551000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>623200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>117200</v>
+        <v>120100</v>
       </c>
       <c r="E47" s="3">
-        <v>119900</v>
+        <v>119700</v>
       </c>
       <c r="F47" s="3">
-        <v>123800</v>
+        <v>122500</v>
       </c>
       <c r="G47" s="3">
-        <v>127700</v>
+        <v>126500</v>
       </c>
       <c r="H47" s="3">
-        <v>138000</v>
+        <v>130400</v>
       </c>
       <c r="I47" s="3">
-        <v>138400</v>
+        <v>141000</v>
       </c>
       <c r="J47" s="3">
+        <v>141300</v>
+      </c>
+      <c r="K47" s="3">
         <v>139300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>143100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>146800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>114200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>115100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>116600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>73900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>14700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>631200</v>
+        <v>636700</v>
       </c>
       <c r="E48" s="3">
-        <v>622500</v>
+        <v>644800</v>
       </c>
       <c r="F48" s="3">
-        <v>598700</v>
+        <v>636000</v>
       </c>
       <c r="G48" s="3">
-        <v>574300</v>
+        <v>611700</v>
       </c>
       <c r="H48" s="3">
-        <v>580700</v>
+        <v>586700</v>
       </c>
       <c r="I48" s="3">
-        <v>560900</v>
+        <v>593300</v>
       </c>
       <c r="J48" s="3">
+        <v>573000</v>
+      </c>
+      <c r="K48" s="3">
         <v>532900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>527000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>522700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>494700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>485900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>473800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>454500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>440100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>490100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8400</v>
+        <v>9300</v>
       </c>
       <c r="E52" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G52" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J52" s="3">
         <v>9400</v>
       </c>
-      <c r="F52" s="3">
-        <v>9800</v>
-      </c>
-      <c r="G52" s="3">
-        <v>12600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>11800</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="L52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="M52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="N52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="O52" s="3">
         <v>9200</v>
       </c>
-      <c r="J52" s="3">
-        <v>10800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>9600</v>
-      </c>
-      <c r="L52" s="3">
-        <v>10100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>8700</v>
-      </c>
-      <c r="N52" s="3">
-        <v>9200</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1275100</v>
+        <v>1214500</v>
       </c>
       <c r="E54" s="3">
-        <v>1144100</v>
+        <v>1302600</v>
       </c>
       <c r="F54" s="3">
+        <v>1168800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1170000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1152200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1142200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1128900</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1119800</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1037600</v>
+      </c>
+      <c r="M54" s="3">
+        <v>1099200</v>
+      </c>
+      <c r="N54" s="3">
+        <v>1078000</v>
+      </c>
+      <c r="O54" s="3">
+        <v>1095800</v>
+      </c>
+      <c r="P54" s="3">
         <v>1145300</v>
       </c>
-      <c r="G54" s="3">
-        <v>1127800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1118000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1105000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1119800</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1037600</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1099200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1078000</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1095800</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1145300</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1111900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1020600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>27400</v>
+        <v>28500</v>
       </c>
       <c r="E57" s="3">
-        <v>27300</v>
+        <v>28000</v>
       </c>
       <c r="F57" s="3">
-        <v>36900</v>
+        <v>27900</v>
       </c>
       <c r="G57" s="3">
-        <v>24600</v>
+        <v>37700</v>
       </c>
       <c r="H57" s="3">
-        <v>19300</v>
+        <v>25100</v>
       </c>
       <c r="I57" s="3">
-        <v>21300</v>
+        <v>19700</v>
       </c>
       <c r="J57" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K57" s="3">
         <v>25600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>24000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>21100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>24800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>23700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>26900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>26300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>26700</v>
+      </c>
+      <c r="H58" s="3">
         <v>26800</v>
       </c>
-      <c r="E58" s="3">
-        <v>25800</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
+        <v>37100</v>
+      </c>
+      <c r="J58" s="3">
         <v>26100</v>
       </c>
-      <c r="G58" s="3">
-        <v>26300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>36300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>25500</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>25600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>25200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>106500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>101300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>95200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>128600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>69400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>35000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>96200</v>
+        <v>149800</v>
       </c>
       <c r="E59" s="3">
-        <v>110400</v>
+        <v>98300</v>
       </c>
       <c r="F59" s="3">
-        <v>104600</v>
+        <v>112700</v>
       </c>
       <c r="G59" s="3">
-        <v>109600</v>
+        <v>106900</v>
       </c>
       <c r="H59" s="3">
-        <v>95400</v>
+        <v>111900</v>
       </c>
       <c r="I59" s="3">
-        <v>126300</v>
+        <v>97400</v>
       </c>
       <c r="J59" s="3">
+        <v>129000</v>
+      </c>
+      <c r="K59" s="3">
         <v>144000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>95300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>77700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>92600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>88800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>108700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>80700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>90200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>120100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>150400</v>
+        <v>205700</v>
       </c>
       <c r="E60" s="3">
-        <v>163500</v>
+        <v>153700</v>
       </c>
       <c r="F60" s="3">
-        <v>167700</v>
+        <v>167000</v>
       </c>
       <c r="G60" s="3">
-        <v>160400</v>
+        <v>171300</v>
       </c>
       <c r="H60" s="3">
-        <v>150900</v>
+        <v>163900</v>
       </c>
       <c r="I60" s="3">
-        <v>173100</v>
+        <v>154200</v>
       </c>
       <c r="J60" s="3">
+        <v>176800</v>
+      </c>
+      <c r="K60" s="3">
         <v>195200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>144500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>205900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>216200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>205100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>262100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>173900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>152100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>419200</v>
+        <v>313500</v>
       </c>
       <c r="E61" s="3">
-        <v>298900</v>
+        <v>428200</v>
       </c>
       <c r="F61" s="3">
-        <v>311600</v>
+        <v>305300</v>
       </c>
       <c r="G61" s="3">
-        <v>317000</v>
+        <v>318300</v>
       </c>
       <c r="H61" s="3">
-        <v>329500</v>
+        <v>323800</v>
       </c>
       <c r="I61" s="3">
-        <v>301600</v>
+        <v>336600</v>
       </c>
       <c r="J61" s="3">
+        <v>308100</v>
+      </c>
+      <c r="K61" s="3">
         <v>314100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>253700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>250000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>243600</v>
-      </c>
-      <c r="N61" s="3">
-        <v>278600</v>
       </c>
       <c r="O61" s="3">
         <v>278600</v>
       </c>
       <c r="P61" s="3">
+        <v>278600</v>
+      </c>
+      <c r="Q61" s="3">
         <v>315400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>316900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>269700</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28200</v>
+        <v>28700</v>
       </c>
       <c r="E62" s="3">
-        <v>26400</v>
+        <v>28800</v>
       </c>
       <c r="F62" s="3">
-        <v>27300</v>
+        <v>27000</v>
       </c>
       <c r="G62" s="3">
-        <v>27300</v>
+        <v>27900</v>
       </c>
       <c r="H62" s="3">
-        <v>27000</v>
+        <v>27900</v>
       </c>
       <c r="I62" s="3">
-        <v>27700</v>
+        <v>27600</v>
       </c>
       <c r="J62" s="3">
+        <v>28300</v>
+      </c>
+      <c r="K62" s="3">
         <v>25200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>20900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>597800</v>
+        <v>547900</v>
       </c>
       <c r="E66" s="3">
-        <v>488700</v>
+        <v>610700</v>
       </c>
       <c r="F66" s="3">
-        <v>506600</v>
+        <v>499300</v>
       </c>
       <c r="G66" s="3">
-        <v>504700</v>
+        <v>517600</v>
       </c>
       <c r="H66" s="3">
-        <v>507400</v>
+        <v>515600</v>
       </c>
       <c r="I66" s="3">
-        <v>502300</v>
+        <v>518300</v>
       </c>
       <c r="J66" s="3">
+        <v>513200</v>
+      </c>
+      <c r="K66" s="3">
         <v>534500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>423400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>480700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>481800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>507000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>563800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>511600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>489900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>572600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>235200</v>
+        <v>214200</v>
       </c>
       <c r="E72" s="3">
-        <v>211400</v>
+        <v>240200</v>
       </c>
       <c r="F72" s="3">
-        <v>193100</v>
+        <v>216000</v>
       </c>
       <c r="G72" s="3">
-        <v>181900</v>
+        <v>197300</v>
       </c>
       <c r="H72" s="3">
-        <v>176700</v>
+        <v>185800</v>
       </c>
       <c r="I72" s="3">
-        <v>170200</v>
+        <v>180500</v>
       </c>
       <c r="J72" s="3">
+        <v>173900</v>
+      </c>
+      <c r="K72" s="3">
         <v>154600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>139600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>144000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>137400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>130700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>125400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>124100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>46500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>192400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>677400</v>
+        <v>666600</v>
       </c>
       <c r="E76" s="3">
-        <v>655400</v>
+        <v>692000</v>
       </c>
       <c r="F76" s="3">
-        <v>638700</v>
+        <v>669500</v>
       </c>
       <c r="G76" s="3">
-        <v>623100</v>
+        <v>652500</v>
       </c>
       <c r="H76" s="3">
-        <v>610600</v>
+        <v>636600</v>
       </c>
       <c r="I76" s="3">
-        <v>602700</v>
+        <v>623800</v>
       </c>
       <c r="J76" s="3">
+        <v>615700</v>
+      </c>
+      <c r="K76" s="3">
         <v>585300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>614200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>618600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>596100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>588800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>581500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>600300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>530700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>564300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>23800</v>
+        <v>18600</v>
       </c>
       <c r="E81" s="3">
-        <v>17700</v>
+        <v>24300</v>
       </c>
       <c r="F81" s="3">
-        <v>19500</v>
+        <v>18100</v>
       </c>
       <c r="G81" s="3">
-        <v>42500</v>
+        <v>20000</v>
       </c>
       <c r="H81" s="3">
-        <v>6500</v>
+        <v>43400</v>
       </c>
       <c r="I81" s="3">
-        <v>17200</v>
+        <v>6600</v>
       </c>
       <c r="J81" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K81" s="3">
         <v>14700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>5300</v>
       </c>
       <c r="N81" s="3">
         <v>5300</v>
       </c>
       <c r="O81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="P81" s="3">
         <v>10400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>77600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>50000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>33500</v>
+        <v>35700</v>
       </c>
       <c r="E83" s="3">
-        <v>32000</v>
+        <v>34200</v>
       </c>
       <c r="F83" s="3">
-        <v>31800</v>
+        <v>32600</v>
       </c>
       <c r="G83" s="3">
-        <v>30700</v>
+        <v>32500</v>
       </c>
       <c r="H83" s="3">
-        <v>30000</v>
+        <v>31400</v>
       </c>
       <c r="I83" s="3">
-        <v>28700</v>
+        <v>30600</v>
       </c>
       <c r="J83" s="3">
+        <v>29300</v>
+      </c>
+      <c r="K83" s="3">
         <v>28600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>28100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>27000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>25300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>24100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>23000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>105300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>24400</v>
+        <v>69700</v>
       </c>
       <c r="E89" s="3">
-        <v>71600</v>
+        <v>24900</v>
       </c>
       <c r="F89" s="3">
-        <v>46800</v>
+        <v>73200</v>
       </c>
       <c r="G89" s="3">
-        <v>24600</v>
+        <v>47900</v>
       </c>
       <c r="H89" s="3">
-        <v>56800</v>
+        <v>25100</v>
       </c>
       <c r="I89" s="3">
-        <v>47100</v>
+        <v>58000</v>
       </c>
       <c r="J89" s="3">
+        <v>48200</v>
+      </c>
+      <c r="K89" s="3">
         <v>41100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>25200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>41000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>39400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>60700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>120300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-51600</v>
+        <v>-22300</v>
       </c>
       <c r="E91" s="3">
-        <v>-57800</v>
+        <v>-52700</v>
       </c>
       <c r="F91" s="3">
-        <v>-43300</v>
+        <v>-59000</v>
       </c>
       <c r="G91" s="3">
-        <v>-31500</v>
+        <v>-44200</v>
       </c>
       <c r="H91" s="3">
-        <v>-48900</v>
+        <v>-32100</v>
       </c>
       <c r="I91" s="3">
-        <v>-26200</v>
+        <v>-50000</v>
       </c>
       <c r="J91" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-34300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-32400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-45500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-44100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-291600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-78500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-47800</v>
+        <v>-20500</v>
       </c>
       <c r="E94" s="3">
-        <v>-56100</v>
+        <v>-48800</v>
       </c>
       <c r="F94" s="3">
-        <v>-40400</v>
+        <v>-57300</v>
       </c>
       <c r="G94" s="3">
-        <v>7000</v>
+        <v>-41300</v>
       </c>
       <c r="H94" s="3">
-        <v>-52200</v>
+        <v>7200</v>
       </c>
       <c r="I94" s="3">
-        <v>-31300</v>
+        <v>-53300</v>
       </c>
       <c r="J94" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-34900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-32100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-72400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-32300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-84900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>41300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-156800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-39200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4636,10 +4870,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-8600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-8700</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4660,13 +4894,16 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-58500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,76 +5058,82 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>117000</v>
+        <v>-115000</v>
       </c>
       <c r="E100" s="3">
-        <v>-12900</v>
+        <v>119500</v>
       </c>
       <c r="F100" s="3">
-        <v>-29500</v>
+        <v>-13200</v>
       </c>
       <c r="G100" s="3">
-        <v>-23100</v>
+        <v>-30100</v>
       </c>
       <c r="H100" s="3">
-        <v>9600</v>
+        <v>-23600</v>
       </c>
       <c r="I100" s="3">
-        <v>-64000</v>
+        <v>9800</v>
       </c>
       <c r="J100" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="K100" s="3">
         <v>60000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-78400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-29000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-61200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>24600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>32900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-105100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -4892,77 +5141,83 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>93700</v>
+        <v>-66000</v>
       </c>
       <c r="E102" s="3">
-        <v>2300</v>
+        <v>95700</v>
       </c>
       <c r="F102" s="3">
-        <v>-23100</v>
+        <v>2400</v>
       </c>
       <c r="G102" s="3">
-        <v>8600</v>
+        <v>-23600</v>
       </c>
       <c r="H102" s="3">
-        <v>14200</v>
+        <v>8800</v>
       </c>
       <c r="I102" s="3">
-        <v>-47500</v>
+        <v>14500</v>
       </c>
       <c r="J102" s="3">
+        <v>-48500</v>
+      </c>
+      <c r="K102" s="3">
         <v>66200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-86700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-44800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-20500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-78200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-19900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>134400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-148600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-23900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>IMOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>184900</v>
+        <v>199500</v>
       </c>
       <c r="E8" s="3">
-        <v>190300</v>
+        <v>190400</v>
       </c>
       <c r="F8" s="3">
-        <v>189800</v>
+        <v>196000</v>
       </c>
       <c r="G8" s="3">
-        <v>183900</v>
+        <v>195400</v>
       </c>
       <c r="H8" s="3">
-        <v>167100</v>
+        <v>189400</v>
       </c>
       <c r="I8" s="3">
-        <v>152000</v>
+        <v>172100</v>
       </c>
       <c r="J8" s="3">
+        <v>156500</v>
+      </c>
+      <c r="K8" s="3">
         <v>169400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>166900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>149400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>133400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>142900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>143600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>147200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>148700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>599600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>155500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>146600</v>
+        <v>161000</v>
       </c>
       <c r="E9" s="3">
-        <v>147000</v>
+        <v>151000</v>
       </c>
       <c r="F9" s="3">
-        <v>146700</v>
+        <v>151400</v>
       </c>
       <c r="G9" s="3">
-        <v>144700</v>
+        <v>151000</v>
       </c>
       <c r="H9" s="3">
-        <v>138600</v>
+        <v>149000</v>
       </c>
       <c r="I9" s="3">
-        <v>129300</v>
+        <v>142700</v>
       </c>
       <c r="J9" s="3">
+        <v>133100</v>
+      </c>
+      <c r="K9" s="3">
         <v>130700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>134400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>124900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>114000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>118600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>119000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>117700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>122100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>480800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>38300</v>
+        <v>38400</v>
       </c>
       <c r="E10" s="3">
-        <v>43300</v>
+        <v>39400</v>
       </c>
       <c r="F10" s="3">
-        <v>43200</v>
+        <v>44600</v>
       </c>
       <c r="G10" s="3">
-        <v>39300</v>
+        <v>44400</v>
       </c>
       <c r="H10" s="3">
-        <v>28600</v>
+        <v>40400</v>
       </c>
       <c r="I10" s="3">
-        <v>22800</v>
+        <v>29400</v>
       </c>
       <c r="J10" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K10" s="3">
         <v>38700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>26600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>118800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-100900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -931,52 +945,55 @@
         <v>8600</v>
       </c>
       <c r="E12" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="F12" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="G12" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="H12" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="I12" s="3">
-        <v>8100</v>
+        <v>9300</v>
       </c>
       <c r="J12" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K12" s="3">
         <v>8200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>27400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1039,11 +1059,11 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1057,14 +1077,14 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>158000</v>
+        <v>174300</v>
       </c>
       <c r="E17" s="3">
-        <v>159700</v>
+        <v>162700</v>
       </c>
       <c r="F17" s="3">
-        <v>159100</v>
+        <v>164400</v>
       </c>
       <c r="G17" s="3">
-        <v>157200</v>
+        <v>163900</v>
       </c>
       <c r="H17" s="3">
-        <v>151700</v>
+        <v>161800</v>
       </c>
       <c r="I17" s="3">
-        <v>141200</v>
+        <v>156200</v>
       </c>
       <c r="J17" s="3">
+        <v>145400</v>
+      </c>
+      <c r="K17" s="3">
         <v>142400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>145700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>135600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>124800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>132000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>130600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>132600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>114300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>534400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>26900</v>
+        <v>25200</v>
       </c>
       <c r="E18" s="3">
-        <v>30700</v>
+        <v>27700</v>
       </c>
       <c r="F18" s="3">
-        <v>30700</v>
+        <v>31600</v>
       </c>
       <c r="G18" s="3">
-        <v>26800</v>
+        <v>31600</v>
       </c>
       <c r="H18" s="3">
-        <v>15400</v>
+        <v>27600</v>
       </c>
       <c r="I18" s="3">
+        <v>15900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>27000</v>
+      </c>
+      <c r="L18" s="3">
+        <v>21200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>13800</v>
+      </c>
+      <c r="N18" s="3">
+        <v>8600</v>
+      </c>
+      <c r="O18" s="3">
         <v>10800</v>
       </c>
-      <c r="J18" s="3">
-        <v>27000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>21200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>13800</v>
-      </c>
-      <c r="M18" s="3">
-        <v>8600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>10800</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>34400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>65200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,128 +1312,135 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2900</v>
+        <v>-4900</v>
       </c>
       <c r="E20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
-        <v>-6200</v>
-      </c>
       <c r="G20" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
-        <v>32700</v>
-      </c>
       <c r="I20" s="3">
+        <v>33700</v>
+      </c>
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>59600</v>
+        <v>57500</v>
       </c>
       <c r="E21" s="3">
-        <v>66200</v>
+        <v>61400</v>
       </c>
       <c r="F21" s="3">
-        <v>57100</v>
+        <v>68200</v>
       </c>
       <c r="G21" s="3">
         <v>58800</v>
       </c>
       <c r="H21" s="3">
-        <v>79500</v>
+        <v>60600</v>
       </c>
       <c r="I21" s="3">
-        <v>40800</v>
+        <v>81900</v>
       </c>
       <c r="J21" s="3">
+        <v>42000</v>
+      </c>
+      <c r="K21" s="3">
         <v>54300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>48600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>45200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>30000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>33800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>35000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>37300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>43700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>165400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1600</v>
       </c>
-      <c r="E22" s="3">
-        <v>1400</v>
-      </c>
       <c r="F22" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G22" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H22" s="3">
         <v>1500</v>
@@ -1409,19 +1449,19 @@
         <v>1500</v>
       </c>
       <c r="J22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1300</v>
       </c>
       <c r="M22" s="3">
         <v>1300</v>
       </c>
       <c r="N22" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="O22" s="3">
         <v>1600</v>
@@ -1430,122 +1470,131 @@
         <v>1600</v>
       </c>
       <c r="Q22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R22" s="3">
         <v>1700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>22400</v>
+        <v>18900</v>
       </c>
       <c r="E23" s="3">
-        <v>30500</v>
+        <v>23000</v>
       </c>
       <c r="F23" s="3">
-        <v>23000</v>
+        <v>31400</v>
       </c>
       <c r="G23" s="3">
-        <v>24900</v>
+        <v>23700</v>
       </c>
       <c r="H23" s="3">
-        <v>46700</v>
+        <v>25600</v>
       </c>
       <c r="I23" s="3">
-        <v>8700</v>
+        <v>48000</v>
       </c>
       <c r="J23" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K23" s="3">
         <v>23500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>20300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>55500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="E24" s="3">
-        <v>6200</v>
+        <v>3900</v>
       </c>
       <c r="F24" s="3">
-        <v>5000</v>
+        <v>6400</v>
       </c>
       <c r="G24" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="H24" s="3">
-        <v>3200</v>
+        <v>5100</v>
       </c>
       <c r="I24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J24" s="3">
         <v>2100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G26" s="3">
         <v>18600</v>
       </c>
-      <c r="E26" s="3">
-        <v>24300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>18100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>20000</v>
-      </c>
       <c r="H26" s="3">
-        <v>43400</v>
+        <v>20600</v>
       </c>
       <c r="I26" s="3">
-        <v>6600</v>
+        <v>44700</v>
       </c>
       <c r="J26" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K26" s="3">
         <v>17600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>44000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G27" s="3">
         <v>18600</v>
       </c>
-      <c r="E27" s="3">
-        <v>24300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>18100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>20000</v>
-      </c>
       <c r="H27" s="3">
-        <v>43400</v>
+        <v>20600</v>
       </c>
       <c r="I27" s="3">
-        <v>6600</v>
+        <v>44700</v>
       </c>
       <c r="J27" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K27" s="3">
         <v>17600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>53900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1795,22 +1856,25 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-2100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>61300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-4000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2900</v>
+        <v>4900</v>
       </c>
       <c r="E32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
-        <v>6200</v>
-      </c>
       <c r="G32" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
-        <v>-32700</v>
-      </c>
       <c r="I32" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G33" s="3">
         <v>18600</v>
       </c>
-      <c r="E33" s="3">
-        <v>24300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>18100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>20000</v>
-      </c>
       <c r="H33" s="3">
-        <v>43400</v>
+        <v>20600</v>
       </c>
       <c r="I33" s="3">
-        <v>6600</v>
+        <v>44700</v>
       </c>
       <c r="J33" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K33" s="3">
         <v>17600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>5300</v>
       </c>
       <c r="O33" s="3">
         <v>5300</v>
       </c>
       <c r="P33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>10400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>77600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>50000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G35" s="3">
         <v>18600</v>
       </c>
-      <c r="E35" s="3">
-        <v>24300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>18100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>20000</v>
-      </c>
       <c r="H35" s="3">
-        <v>43400</v>
+        <v>20600</v>
       </c>
       <c r="I35" s="3">
-        <v>6600</v>
+        <v>44700</v>
       </c>
       <c r="J35" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K35" s="3">
         <v>17600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>5300</v>
       </c>
       <c r="O35" s="3">
         <v>5300</v>
       </c>
       <c r="P35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>10400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>77600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>50000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,93 +2313,97 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>189900</v>
+        <v>168000</v>
       </c>
       <c r="E41" s="3">
-        <v>255900</v>
+        <v>195500</v>
       </c>
       <c r="F41" s="3">
-        <v>160300</v>
+        <v>263500</v>
       </c>
       <c r="G41" s="3">
-        <v>157900</v>
+        <v>165000</v>
       </c>
       <c r="H41" s="3">
-        <v>181500</v>
+        <v>162600</v>
       </c>
       <c r="I41" s="3">
-        <v>172700</v>
+        <v>186900</v>
       </c>
       <c r="J41" s="3">
+        <v>177800</v>
+      </c>
+      <c r="K41" s="3">
         <v>158200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>202300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>135800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>222500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>260400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>280900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>359000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>381300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>246900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>396300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11700</v>
+        <v>14000</v>
       </c>
       <c r="E42" s="3">
-        <v>10900</v>
+        <v>12000</v>
       </c>
       <c r="F42" s="3">
-        <v>5800</v>
+        <v>11200</v>
       </c>
       <c r="G42" s="3">
         <v>5900</v>
       </c>
       <c r="H42" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="I42" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K42" s="3">
         <v>5800</v>
-      </c>
-      <c r="J42" s="3">
-        <v>5800</v>
-      </c>
-      <c r="K42" s="3">
-        <v>500</v>
       </c>
       <c r="L42" s="3">
         <v>500</v>
       </c>
       <c r="M42" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2328,331 +2418,352 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>166300</v>
+        <v>176600</v>
       </c>
       <c r="E43" s="3">
-        <v>179800</v>
+        <v>171200</v>
       </c>
       <c r="F43" s="3">
-        <v>172500</v>
+        <v>185100</v>
       </c>
       <c r="G43" s="3">
-        <v>195100</v>
+        <v>177700</v>
       </c>
       <c r="H43" s="3">
-        <v>174500</v>
+        <v>200900</v>
       </c>
       <c r="I43" s="3">
-        <v>158500</v>
+        <v>179700</v>
       </c>
       <c r="J43" s="3">
+        <v>163200</v>
+      </c>
+      <c r="K43" s="3">
         <v>179000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>173100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>159800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>135700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>135500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>141200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>122700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>125700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>136900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>78900</v>
+        <v>71400</v>
       </c>
       <c r="E44" s="3">
-        <v>79000</v>
+        <v>81200</v>
       </c>
       <c r="F44" s="3">
+        <v>81300</v>
+      </c>
+      <c r="G44" s="3">
+        <v>62000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>62200</v>
+      </c>
+      <c r="I44" s="3">
         <v>60200</v>
       </c>
-      <c r="G44" s="3">
-        <v>60400</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>58500</v>
       </c>
-      <c r="I44" s="3">
-        <v>56800</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>60600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>59000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>59900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>59400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>62500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>61900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>62600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>63100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>56200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="E45" s="3">
-        <v>3900</v>
+        <v>1800</v>
       </c>
       <c r="F45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3">
-        <v>2500</v>
-      </c>
       <c r="H45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="N45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P45" s="3">
         <v>1500</v>
       </c>
-      <c r="K45" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M45" s="3">
-        <v>2100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1500</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>105900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>448400</v>
+        <v>432100</v>
       </c>
       <c r="E46" s="3">
-        <v>529600</v>
+        <v>461700</v>
       </c>
       <c r="F46" s="3">
-        <v>400700</v>
+        <v>545300</v>
       </c>
       <c r="G46" s="3">
-        <v>421900</v>
+        <v>412600</v>
       </c>
       <c r="H46" s="3">
-        <v>422200</v>
+        <v>434400</v>
       </c>
       <c r="I46" s="3">
-        <v>395900</v>
+        <v>434700</v>
       </c>
       <c r="J46" s="3">
+        <v>407600</v>
+      </c>
+      <c r="K46" s="3">
         <v>405000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>436800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>357800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>419700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>460300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>485500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>545800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>574100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>551000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>623200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>120100</v>
+        <v>125100</v>
       </c>
       <c r="E47" s="3">
-        <v>119700</v>
+        <v>123700</v>
       </c>
       <c r="F47" s="3">
-        <v>122500</v>
+        <v>123300</v>
       </c>
       <c r="G47" s="3">
-        <v>126500</v>
+        <v>126100</v>
       </c>
       <c r="H47" s="3">
-        <v>130400</v>
+        <v>130200</v>
       </c>
       <c r="I47" s="3">
-        <v>141000</v>
+        <v>134300</v>
       </c>
       <c r="J47" s="3">
+        <v>145200</v>
+      </c>
+      <c r="K47" s="3">
         <v>141300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>139300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>143100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>146800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>114200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>115100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>116600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>73900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>14700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>636700</v>
+        <v>631700</v>
       </c>
       <c r="E48" s="3">
-        <v>644800</v>
+        <v>655500</v>
       </c>
       <c r="F48" s="3">
-        <v>636000</v>
+        <v>663900</v>
       </c>
       <c r="G48" s="3">
-        <v>611700</v>
+        <v>654800</v>
       </c>
       <c r="H48" s="3">
-        <v>586700</v>
+        <v>629800</v>
       </c>
       <c r="I48" s="3">
-        <v>593300</v>
+        <v>604100</v>
       </c>
       <c r="J48" s="3">
+        <v>610900</v>
+      </c>
+      <c r="K48" s="3">
         <v>573000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>532900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>527000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>522700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>494700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>485900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>473800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>454500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>440100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>490100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9300</v>
+        <v>9100</v>
       </c>
       <c r="E52" s="3">
-        <v>8600</v>
+        <v>9600</v>
       </c>
       <c r="F52" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G52" s="3">
+        <v>9900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>10300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>13200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="L52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="M52" s="3">
         <v>9600</v>
       </c>
-      <c r="G52" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>12900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>12000</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="N52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="O52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="P52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>9100</v>
+      </c>
+      <c r="R52" s="3">
         <v>9400</v>
       </c>
-      <c r="K52" s="3">
-        <v>10800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>9600</v>
-      </c>
-      <c r="M52" s="3">
-        <v>10100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>8700</v>
-      </c>
-      <c r="O52" s="3">
-        <v>9200</v>
-      </c>
-      <c r="P52" s="3">
-        <v>9100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>9400</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1214500</v>
+        <v>1198000</v>
       </c>
       <c r="E54" s="3">
-        <v>1302600</v>
+        <v>1250500</v>
       </c>
       <c r="F54" s="3">
-        <v>1168800</v>
+        <v>1341300</v>
       </c>
       <c r="G54" s="3">
-        <v>1170000</v>
+        <v>1203500</v>
       </c>
       <c r="H54" s="3">
-        <v>1152200</v>
+        <v>1204700</v>
       </c>
       <c r="I54" s="3">
-        <v>1142200</v>
+        <v>1186300</v>
       </c>
       <c r="J54" s="3">
+        <v>1176000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1128900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1119800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1037600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1099200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1078000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1095800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1145300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1111900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1020600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>28500</v>
+        <v>27800</v>
       </c>
       <c r="E57" s="3">
-        <v>28000</v>
+        <v>29400</v>
       </c>
       <c r="F57" s="3">
-        <v>27900</v>
+        <v>28800</v>
       </c>
       <c r="G57" s="3">
-        <v>37700</v>
+        <v>28700</v>
       </c>
       <c r="H57" s="3">
-        <v>25100</v>
+        <v>38900</v>
       </c>
       <c r="I57" s="3">
-        <v>19700</v>
+        <v>25900</v>
       </c>
       <c r="J57" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K57" s="3">
         <v>21700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>24000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>21600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>22300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>21100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>24800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>23700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>26900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27400</v>
+        <v>28100</v>
       </c>
       <c r="E58" s="3">
-        <v>27400</v>
+        <v>28200</v>
       </c>
       <c r="F58" s="3">
-        <v>26300</v>
+        <v>28200</v>
       </c>
       <c r="G58" s="3">
-        <v>26700</v>
+        <v>27100</v>
       </c>
       <c r="H58" s="3">
-        <v>26800</v>
+        <v>27500</v>
       </c>
       <c r="I58" s="3">
-        <v>37100</v>
+        <v>27600</v>
       </c>
       <c r="J58" s="3">
+        <v>38200</v>
+      </c>
+      <c r="K58" s="3">
         <v>26100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>25600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>25200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>106500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>101300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>95200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>128600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>69400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>35000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>149800</v>
+        <v>87400</v>
       </c>
       <c r="E59" s="3">
-        <v>98300</v>
+        <v>154300</v>
       </c>
       <c r="F59" s="3">
-        <v>112700</v>
+        <v>101200</v>
       </c>
       <c r="G59" s="3">
-        <v>106900</v>
+        <v>116100</v>
       </c>
       <c r="H59" s="3">
-        <v>111900</v>
+        <v>110100</v>
       </c>
       <c r="I59" s="3">
-        <v>97400</v>
+        <v>115300</v>
       </c>
       <c r="J59" s="3">
+        <v>100300</v>
+      </c>
+      <c r="K59" s="3">
         <v>129000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>144000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>95300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>77700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>92600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>88800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>108700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>80700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>90200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>120100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>205700</v>
+        <v>143300</v>
       </c>
       <c r="E60" s="3">
-        <v>153700</v>
+        <v>211800</v>
       </c>
       <c r="F60" s="3">
-        <v>167000</v>
+        <v>158200</v>
       </c>
       <c r="G60" s="3">
-        <v>171300</v>
+        <v>172000</v>
       </c>
       <c r="H60" s="3">
-        <v>163900</v>
+        <v>176400</v>
       </c>
       <c r="I60" s="3">
-        <v>154200</v>
+        <v>168800</v>
       </c>
       <c r="J60" s="3">
+        <v>158700</v>
+      </c>
+      <c r="K60" s="3">
         <v>176800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>195200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>144500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>205900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>216200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>205100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>262100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>173900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>152100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>313500</v>
+        <v>321200</v>
       </c>
       <c r="E61" s="3">
-        <v>428200</v>
+        <v>322800</v>
       </c>
       <c r="F61" s="3">
-        <v>305300</v>
+        <v>440900</v>
       </c>
       <c r="G61" s="3">
-        <v>318300</v>
+        <v>314400</v>
       </c>
       <c r="H61" s="3">
-        <v>323800</v>
+        <v>327800</v>
       </c>
       <c r="I61" s="3">
-        <v>336600</v>
+        <v>333400</v>
       </c>
       <c r="J61" s="3">
+        <v>346600</v>
+      </c>
+      <c r="K61" s="3">
         <v>308100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>314100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>253700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>250000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>243600</v>
-      </c>
-      <c r="O61" s="3">
-        <v>278600</v>
       </c>
       <c r="P61" s="3">
         <v>278600</v>
       </c>
       <c r="Q61" s="3">
+        <v>278600</v>
+      </c>
+      <c r="R61" s="3">
         <v>315400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>316900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>269700</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>29500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>29600</v>
+      </c>
+      <c r="G62" s="3">
+        <v>27800</v>
+      </c>
+      <c r="H62" s="3">
         <v>28700</v>
       </c>
-      <c r="E62" s="3">
-        <v>28800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>27000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>27900</v>
-      </c>
-      <c r="H62" s="3">
-        <v>27900</v>
-      </c>
       <c r="I62" s="3">
-        <v>27600</v>
+        <v>28700</v>
       </c>
       <c r="J62" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K62" s="3">
         <v>28300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>23100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>22300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>20900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>547900</v>
+        <v>493800</v>
       </c>
       <c r="E66" s="3">
-        <v>610700</v>
+        <v>564100</v>
       </c>
       <c r="F66" s="3">
-        <v>499300</v>
+        <v>628800</v>
       </c>
       <c r="G66" s="3">
-        <v>517600</v>
+        <v>514100</v>
       </c>
       <c r="H66" s="3">
-        <v>515600</v>
+        <v>532900</v>
       </c>
       <c r="I66" s="3">
-        <v>518300</v>
+        <v>530900</v>
       </c>
       <c r="J66" s="3">
+        <v>533700</v>
+      </c>
+      <c r="K66" s="3">
         <v>513200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>534500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>423400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>480700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>481800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>507000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>563800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>511600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>489900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>572600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>214200</v>
+        <v>235400</v>
       </c>
       <c r="E72" s="3">
-        <v>240200</v>
+        <v>220600</v>
       </c>
       <c r="F72" s="3">
-        <v>216000</v>
+        <v>247400</v>
       </c>
       <c r="G72" s="3">
-        <v>197300</v>
+        <v>222400</v>
       </c>
       <c r="H72" s="3">
-        <v>185800</v>
+        <v>203200</v>
       </c>
       <c r="I72" s="3">
-        <v>180500</v>
+        <v>191300</v>
       </c>
       <c r="J72" s="3">
+        <v>185900</v>
+      </c>
+      <c r="K72" s="3">
         <v>173900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>154600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>139600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>144000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>137400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>130700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>125400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>124100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>46500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>192400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>666600</v>
+        <v>704200</v>
       </c>
       <c r="E76" s="3">
-        <v>692000</v>
+        <v>686300</v>
       </c>
       <c r="F76" s="3">
-        <v>669500</v>
+        <v>712500</v>
       </c>
       <c r="G76" s="3">
-        <v>652500</v>
+        <v>689400</v>
       </c>
       <c r="H76" s="3">
-        <v>636600</v>
+        <v>671800</v>
       </c>
       <c r="I76" s="3">
-        <v>623800</v>
+        <v>655400</v>
       </c>
       <c r="J76" s="3">
+        <v>642300</v>
+      </c>
+      <c r="K76" s="3">
         <v>615700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>585300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>614200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>618600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>596100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>588800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>581500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>600300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>530700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>564300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G81" s="3">
         <v>18600</v>
       </c>
-      <c r="E81" s="3">
-        <v>24300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>18100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>20000</v>
-      </c>
       <c r="H81" s="3">
-        <v>43400</v>
+        <v>20600</v>
       </c>
       <c r="I81" s="3">
-        <v>6600</v>
+        <v>44700</v>
       </c>
       <c r="J81" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K81" s="3">
         <v>17600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>5300</v>
       </c>
       <c r="O81" s="3">
         <v>5300</v>
       </c>
       <c r="P81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>10400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>77600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>50000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>35700</v>
+        <v>37300</v>
       </c>
       <c r="E83" s="3">
-        <v>34200</v>
+        <v>36800</v>
       </c>
       <c r="F83" s="3">
-        <v>32600</v>
+        <v>35300</v>
       </c>
       <c r="G83" s="3">
-        <v>32500</v>
+        <v>33600</v>
       </c>
       <c r="H83" s="3">
-        <v>31400</v>
+        <v>33400</v>
       </c>
       <c r="I83" s="3">
-        <v>30600</v>
+        <v>32300</v>
       </c>
       <c r="J83" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K83" s="3">
         <v>29300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>28600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>28100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>27000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>25300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>24100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>23000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>105300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>69700</v>
+        <v>44700</v>
       </c>
       <c r="E89" s="3">
-        <v>24900</v>
+        <v>71800</v>
       </c>
       <c r="F89" s="3">
-        <v>73200</v>
+        <v>25700</v>
       </c>
       <c r="G89" s="3">
-        <v>47900</v>
+        <v>75300</v>
       </c>
       <c r="H89" s="3">
-        <v>25100</v>
+        <v>49300</v>
       </c>
       <c r="I89" s="3">
-        <v>58000</v>
+        <v>25900</v>
       </c>
       <c r="J89" s="3">
+        <v>59800</v>
+      </c>
+      <c r="K89" s="3">
         <v>48200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>41100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>24100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>25200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>41000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>39400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>60700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>120300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-22300</v>
+        <v>-25400</v>
       </c>
       <c r="E91" s="3">
-        <v>-52700</v>
+        <v>-23000</v>
       </c>
       <c r="F91" s="3">
-        <v>-59000</v>
+        <v>-54200</v>
       </c>
       <c r="G91" s="3">
-        <v>-44200</v>
+        <v>-60800</v>
       </c>
       <c r="H91" s="3">
-        <v>-32100</v>
+        <v>-45500</v>
       </c>
       <c r="I91" s="3">
-        <v>-50000</v>
+        <v>-33100</v>
       </c>
       <c r="J91" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-26700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-32400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-45500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-31900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-44100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-32500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-291600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-78500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-20500</v>
+        <v>-25600</v>
       </c>
       <c r="E94" s="3">
-        <v>-48800</v>
+        <v>-21200</v>
       </c>
       <c r="F94" s="3">
-        <v>-57300</v>
+        <v>-50300</v>
       </c>
       <c r="G94" s="3">
-        <v>-41300</v>
+        <v>-59000</v>
       </c>
       <c r="H94" s="3">
-        <v>7200</v>
+        <v>-42500</v>
       </c>
       <c r="I94" s="3">
-        <v>-53300</v>
+        <v>7400</v>
       </c>
       <c r="J94" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-31900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-32100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-72400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-32300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-29300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-84900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>41300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-156800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-39200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4873,11 +5107,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4897,13 +5131,16 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-58500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,82 +5304,88 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-115000</v>
+        <v>-46500</v>
       </c>
       <c r="E100" s="3">
-        <v>119500</v>
+        <v>-118400</v>
       </c>
       <c r="F100" s="3">
-        <v>-13200</v>
+        <v>123000</v>
       </c>
       <c r="G100" s="3">
-        <v>-30100</v>
+        <v>-13600</v>
       </c>
       <c r="H100" s="3">
-        <v>-23600</v>
+        <v>-31000</v>
       </c>
       <c r="I100" s="3">
-        <v>9800</v>
+        <v>-24300</v>
       </c>
       <c r="J100" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-65400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>60000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-78400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-29000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-61200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>24600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>32900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-105100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -5144,80 +5393,86 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-66000</v>
+        <v>-27500</v>
       </c>
       <c r="E102" s="3">
-        <v>95700</v>
+        <v>-68000</v>
       </c>
       <c r="F102" s="3">
+        <v>98500</v>
+      </c>
+      <c r="G102" s="3">
         <v>2400</v>
       </c>
-      <c r="G102" s="3">
-        <v>-23600</v>
-      </c>
       <c r="H102" s="3">
-        <v>8800</v>
+        <v>-24300</v>
       </c>
       <c r="I102" s="3">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="J102" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-48500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>66200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-86700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-44800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-20500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-78200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>134400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-148600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-23900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>IMOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>199500</v>
+        <v>220500</v>
       </c>
       <c r="E8" s="3">
-        <v>190400</v>
+        <v>198700</v>
       </c>
       <c r="F8" s="3">
-        <v>196000</v>
+        <v>189700</v>
       </c>
       <c r="G8" s="3">
-        <v>195400</v>
+        <v>195300</v>
       </c>
       <c r="H8" s="3">
-        <v>189400</v>
+        <v>194700</v>
       </c>
       <c r="I8" s="3">
-        <v>172100</v>
+        <v>188700</v>
       </c>
       <c r="J8" s="3">
+        <v>171400</v>
+      </c>
+      <c r="K8" s="3">
         <v>156500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>169400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>166900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>149400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>133400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>142900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>143600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>147200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>148700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>599600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>155500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>161000</v>
+        <v>166700</v>
       </c>
       <c r="E9" s="3">
-        <v>151000</v>
+        <v>160400</v>
       </c>
       <c r="F9" s="3">
-        <v>151400</v>
+        <v>150400</v>
       </c>
       <c r="G9" s="3">
-        <v>151000</v>
+        <v>150800</v>
       </c>
       <c r="H9" s="3">
-        <v>149000</v>
+        <v>150400</v>
       </c>
       <c r="I9" s="3">
-        <v>142700</v>
+        <v>148400</v>
       </c>
       <c r="J9" s="3">
+        <v>142100</v>
+      </c>
+      <c r="K9" s="3">
         <v>133100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>130700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>134400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>124900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>114000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>118600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>119000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>117700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>122100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>480800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>38400</v>
+        <v>53900</v>
       </c>
       <c r="E10" s="3">
-        <v>39400</v>
+        <v>38300</v>
       </c>
       <c r="F10" s="3">
-        <v>44600</v>
+        <v>39300</v>
       </c>
       <c r="G10" s="3">
         <v>44400</v>
       </c>
       <c r="H10" s="3">
-        <v>40400</v>
+        <v>44300</v>
       </c>
       <c r="I10" s="3">
-        <v>29400</v>
+        <v>40300</v>
       </c>
       <c r="J10" s="3">
+        <v>29300</v>
+      </c>
+      <c r="K10" s="3">
         <v>23400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>38700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>29500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>26600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>118800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-100900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E12" s="3">
         <v>8600</v>
       </c>
-      <c r="E12" s="3">
-        <v>8900</v>
-      </c>
       <c r="F12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G12" s="3">
         <v>9000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8900</v>
       </c>
       <c r="H12" s="3">
         <v>8900</v>
       </c>
       <c r="I12" s="3">
-        <v>9300</v>
+        <v>8900</v>
       </c>
       <c r="J12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K12" s="3">
         <v>8300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>27400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1062,11 +1081,11 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1080,14 +1099,14 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1098,14 +1117,17 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>174300</v>
+        <v>180000</v>
       </c>
       <c r="E17" s="3">
-        <v>162700</v>
+        <v>173600</v>
       </c>
       <c r="F17" s="3">
-        <v>164400</v>
+        <v>162100</v>
       </c>
       <c r="G17" s="3">
-        <v>163900</v>
+        <v>163800</v>
       </c>
       <c r="H17" s="3">
-        <v>161800</v>
+        <v>163200</v>
       </c>
       <c r="I17" s="3">
-        <v>156200</v>
+        <v>161200</v>
       </c>
       <c r="J17" s="3">
+        <v>155600</v>
+      </c>
+      <c r="K17" s="3">
         <v>145400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>142400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>145700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>135600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>124800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>132000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>130600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>132600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>114300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>534400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>25200</v>
+        <v>40500</v>
       </c>
       <c r="E18" s="3">
-        <v>27700</v>
+        <v>25100</v>
       </c>
       <c r="F18" s="3">
-        <v>31600</v>
+        <v>27600</v>
       </c>
       <c r="G18" s="3">
-        <v>31600</v>
+        <v>31500</v>
       </c>
       <c r="H18" s="3">
-        <v>27600</v>
+        <v>31500</v>
       </c>
       <c r="I18" s="3">
-        <v>15900</v>
+        <v>27500</v>
       </c>
       <c r="J18" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K18" s="3">
         <v>11200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>27000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>34400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>65200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
-        <v>33700</v>
-      </c>
       <c r="J20" s="3">
+        <v>33600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-12400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>57500</v>
+        <v>69100</v>
       </c>
       <c r="E21" s="3">
-        <v>61400</v>
+        <v>57300</v>
       </c>
       <c r="F21" s="3">
-        <v>68200</v>
+        <v>61200</v>
       </c>
       <c r="G21" s="3">
-        <v>58800</v>
+        <v>67900</v>
       </c>
       <c r="H21" s="3">
-        <v>60600</v>
+        <v>58600</v>
       </c>
       <c r="I21" s="3">
-        <v>81900</v>
+        <v>60300</v>
       </c>
       <c r="J21" s="3">
+        <v>81600</v>
+      </c>
+      <c r="K21" s="3">
         <v>42000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>54300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>48600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>45200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>30000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>33800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>35000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>37300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>43700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>165400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,10 +1473,10 @@
         <v>1300</v>
       </c>
       <c r="E22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F22" s="3">
         <v>1600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1500</v>
       </c>
       <c r="G22" s="3">
         <v>1500</v>
@@ -1452,19 +1491,19 @@
         <v>1500</v>
       </c>
       <c r="K22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1300</v>
       </c>
       <c r="N22" s="3">
         <v>1300</v>
       </c>
       <c r="O22" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="P22" s="3">
         <v>1600</v>
@@ -1473,128 +1512,137 @@
         <v>1600</v>
       </c>
       <c r="R22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S22" s="3">
         <v>1700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>18900</v>
+        <v>30800</v>
       </c>
       <c r="E23" s="3">
-        <v>23000</v>
+        <v>18800</v>
       </c>
       <c r="F23" s="3">
-        <v>31400</v>
+        <v>22900</v>
       </c>
       <c r="G23" s="3">
-        <v>23700</v>
+        <v>31300</v>
       </c>
       <c r="H23" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I23" s="3">
         <v>25600</v>
       </c>
-      <c r="I23" s="3">
-        <v>48000</v>
-      </c>
       <c r="J23" s="3">
+        <v>47900</v>
+      </c>
+      <c r="K23" s="3">
         <v>8900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>23500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>18800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>20300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>55500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4100</v>
+        <v>6800</v>
       </c>
       <c r="E24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F24" s="3">
         <v>3900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>5100</v>
       </c>
       <c r="H24" s="3">
         <v>5100</v>
       </c>
       <c r="I24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J24" s="3">
         <v>3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>14900</v>
+        <v>24000</v>
       </c>
       <c r="E26" s="3">
-        <v>19100</v>
+        <v>14800</v>
       </c>
       <c r="F26" s="3">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="G26" s="3">
-        <v>18600</v>
+        <v>24900</v>
       </c>
       <c r="H26" s="3">
-        <v>20600</v>
+        <v>18500</v>
       </c>
       <c r="I26" s="3">
-        <v>44700</v>
+        <v>20500</v>
       </c>
       <c r="J26" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K26" s="3">
         <v>6800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>44000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>14900</v>
+        <v>24000</v>
       </c>
       <c r="E27" s="3">
-        <v>19100</v>
+        <v>14800</v>
       </c>
       <c r="F27" s="3">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="G27" s="3">
-        <v>18600</v>
+        <v>24900</v>
       </c>
       <c r="H27" s="3">
-        <v>20600</v>
+        <v>18500</v>
       </c>
       <c r="I27" s="3">
-        <v>44700</v>
+        <v>20500</v>
       </c>
       <c r="J27" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K27" s="3">
         <v>6800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>53900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1859,22 +1919,25 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>61300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-4000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E32" s="3">
         <v>4900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
-        <v>-33700</v>
-      </c>
       <c r="J32" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>14900</v>
+        <v>24000</v>
       </c>
       <c r="E33" s="3">
-        <v>19100</v>
+        <v>14800</v>
       </c>
       <c r="F33" s="3">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="G33" s="3">
-        <v>18600</v>
+        <v>24900</v>
       </c>
       <c r="H33" s="3">
-        <v>20600</v>
+        <v>18500</v>
       </c>
       <c r="I33" s="3">
-        <v>44700</v>
+        <v>20500</v>
       </c>
       <c r="J33" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K33" s="3">
         <v>6800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>800</v>
-      </c>
-      <c r="O33" s="3">
-        <v>5300</v>
       </c>
       <c r="P33" s="3">
         <v>5300</v>
       </c>
       <c r="Q33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="R33" s="3">
         <v>10400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>77600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>50000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>14900</v>
+        <v>24000</v>
       </c>
       <c r="E35" s="3">
-        <v>19100</v>
+        <v>14800</v>
       </c>
       <c r="F35" s="3">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="G35" s="3">
-        <v>18600</v>
+        <v>24900</v>
       </c>
       <c r="H35" s="3">
-        <v>20600</v>
+        <v>18500</v>
       </c>
       <c r="I35" s="3">
-        <v>44700</v>
+        <v>20500</v>
       </c>
       <c r="J35" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K35" s="3">
         <v>6800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>800</v>
-      </c>
-      <c r="O35" s="3">
-        <v>5300</v>
       </c>
       <c r="P35" s="3">
         <v>5300</v>
       </c>
       <c r="Q35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="R35" s="3">
         <v>10400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>77600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>50000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,99 +2399,103 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>168000</v>
+        <v>143800</v>
       </c>
       <c r="E41" s="3">
-        <v>195500</v>
+        <v>167300</v>
       </c>
       <c r="F41" s="3">
-        <v>263500</v>
+        <v>194800</v>
       </c>
       <c r="G41" s="3">
-        <v>165000</v>
+        <v>262600</v>
       </c>
       <c r="H41" s="3">
-        <v>162600</v>
+        <v>164400</v>
       </c>
       <c r="I41" s="3">
-        <v>186900</v>
+        <v>162000</v>
       </c>
       <c r="J41" s="3">
+        <v>186200</v>
+      </c>
+      <c r="K41" s="3">
         <v>177800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>158200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>202300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>135800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>222500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>260400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>280900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>359000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>381300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>246900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>396300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E42" s="3">
         <v>14000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>12000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>11200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5900</v>
-      </c>
-      <c r="H42" s="3">
-        <v>6100</v>
       </c>
       <c r="I42" s="3">
         <v>6100</v>
       </c>
       <c r="J42" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K42" s="3">
         <v>6000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5800</v>
-      </c>
-      <c r="L42" s="3">
-        <v>500</v>
       </c>
       <c r="M42" s="3">
         <v>500</v>
       </c>
       <c r="N42" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2421,349 +2510,370 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>176600</v>
+        <v>202900</v>
       </c>
       <c r="E43" s="3">
-        <v>171200</v>
+        <v>176000</v>
       </c>
       <c r="F43" s="3">
-        <v>185100</v>
+        <v>170600</v>
       </c>
       <c r="G43" s="3">
-        <v>177700</v>
+        <v>184400</v>
       </c>
       <c r="H43" s="3">
-        <v>200900</v>
+        <v>177000</v>
       </c>
       <c r="I43" s="3">
-        <v>179700</v>
+        <v>200200</v>
       </c>
       <c r="J43" s="3">
+        <v>179000</v>
+      </c>
+      <c r="K43" s="3">
         <v>163200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>179000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>173100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>159800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>135700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>135500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>141200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>122700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>125700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>136900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>71400</v>
+        <v>73500</v>
       </c>
       <c r="E44" s="3">
-        <v>81200</v>
+        <v>71200</v>
       </c>
       <c r="F44" s="3">
-        <v>81300</v>
+        <v>80900</v>
       </c>
       <c r="G44" s="3">
-        <v>62000</v>
+        <v>81000</v>
       </c>
       <c r="H44" s="3">
-        <v>62200</v>
+        <v>61800</v>
       </c>
       <c r="I44" s="3">
-        <v>60200</v>
+        <v>61900</v>
       </c>
       <c r="J44" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K44" s="3">
         <v>58500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>60600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>59000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>59900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>59400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>62500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>61900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>62600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>63100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>56200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="O45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S45" s="3">
         <v>4000</v>
       </c>
-      <c r="G45" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J45" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1900</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N45" s="3">
-        <v>2100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="R45" s="3">
-        <v>4000</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>105900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>432100</v>
+        <v>431800</v>
       </c>
       <c r="E46" s="3">
-        <v>461700</v>
+        <v>430500</v>
       </c>
       <c r="F46" s="3">
-        <v>545300</v>
+        <v>460000</v>
       </c>
       <c r="G46" s="3">
-        <v>412600</v>
+        <v>543200</v>
       </c>
       <c r="H46" s="3">
-        <v>434400</v>
+        <v>411100</v>
       </c>
       <c r="I46" s="3">
-        <v>434700</v>
+        <v>432800</v>
       </c>
       <c r="J46" s="3">
+        <v>433100</v>
+      </c>
+      <c r="K46" s="3">
         <v>407600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>405000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>436800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>357800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>419700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>460300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>485500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>545800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>574100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>551000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>623200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>125100</v>
+        <v>125600</v>
       </c>
       <c r="E47" s="3">
-        <v>123700</v>
+        <v>124600</v>
       </c>
       <c r="F47" s="3">
-        <v>123300</v>
+        <v>123200</v>
       </c>
       <c r="G47" s="3">
-        <v>126100</v>
+        <v>122800</v>
       </c>
       <c r="H47" s="3">
-        <v>130200</v>
+        <v>125600</v>
       </c>
       <c r="I47" s="3">
-        <v>134300</v>
+        <v>129800</v>
       </c>
       <c r="J47" s="3">
+        <v>133800</v>
+      </c>
+      <c r="K47" s="3">
         <v>145200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>141300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>139300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>143100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>146800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>114200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>115100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>116600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>73900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>14700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>631700</v>
+        <v>658900</v>
       </c>
       <c r="E48" s="3">
-        <v>655500</v>
+        <v>629400</v>
       </c>
       <c r="F48" s="3">
-        <v>663900</v>
+        <v>653100</v>
       </c>
       <c r="G48" s="3">
-        <v>654800</v>
+        <v>661400</v>
       </c>
       <c r="H48" s="3">
-        <v>629800</v>
+        <v>652400</v>
       </c>
       <c r="I48" s="3">
-        <v>604100</v>
+        <v>627500</v>
       </c>
       <c r="J48" s="3">
+        <v>601800</v>
+      </c>
+      <c r="K48" s="3">
         <v>610900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>573000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>532900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>527000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>522700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>494700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>485900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>473800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>454500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>440100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>490100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E52" s="3">
         <v>9100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G52" s="3">
+        <v>8800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K52" s="3">
+        <v>12400</v>
+      </c>
+      <c r="L52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="M52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="N52" s="3">
         <v>9600</v>
       </c>
-      <c r="F52" s="3">
-        <v>8800</v>
-      </c>
-      <c r="G52" s="3">
-        <v>9900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>10300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>13200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>12400</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="P52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="R52" s="3">
+        <v>9100</v>
+      </c>
+      <c r="S52" s="3">
         <v>9400</v>
       </c>
-      <c r="L52" s="3">
-        <v>10800</v>
-      </c>
-      <c r="M52" s="3">
-        <v>9600</v>
-      </c>
-      <c r="N52" s="3">
-        <v>10100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>8700</v>
-      </c>
-      <c r="P52" s="3">
-        <v>9200</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>9100</v>
-      </c>
-      <c r="R52" s="3">
-        <v>9400</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>14800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1198000</v>
+        <v>1226100</v>
       </c>
       <c r="E54" s="3">
-        <v>1250500</v>
+        <v>1193600</v>
       </c>
       <c r="F54" s="3">
-        <v>1341300</v>
+        <v>1245800</v>
       </c>
       <c r="G54" s="3">
-        <v>1203500</v>
+        <v>1336300</v>
       </c>
       <c r="H54" s="3">
-        <v>1204700</v>
+        <v>1199000</v>
       </c>
       <c r="I54" s="3">
-        <v>1186300</v>
+        <v>1200300</v>
       </c>
       <c r="J54" s="3">
+        <v>1181900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1176000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1128900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1119800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1037600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1099200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1078000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1095800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1145300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1111900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1020600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>27800</v>
+        <v>33900</v>
       </c>
       <c r="E57" s="3">
-        <v>29400</v>
+        <v>27700</v>
       </c>
       <c r="F57" s="3">
-        <v>28800</v>
+        <v>29200</v>
       </c>
       <c r="G57" s="3">
         <v>28700</v>
       </c>
       <c r="H57" s="3">
-        <v>38900</v>
+        <v>28600</v>
       </c>
       <c r="I57" s="3">
-        <v>25900</v>
+        <v>38700</v>
       </c>
       <c r="J57" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K57" s="3">
         <v>20300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>25600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>24000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>21600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>22300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>21100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>24800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>23700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>26900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F58" s="3">
         <v>28100</v>
       </c>
-      <c r="E58" s="3">
-        <v>28200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>28200</v>
-      </c>
       <c r="G58" s="3">
-        <v>27100</v>
+        <v>28100</v>
       </c>
       <c r="H58" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>27400</v>
+      </c>
+      <c r="J58" s="3">
         <v>27500</v>
       </c>
-      <c r="I58" s="3">
-        <v>27600</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>38200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>26100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>25600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>25200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>106500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>101300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>95200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>128600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>69400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>35000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>87400</v>
+        <v>131700</v>
       </c>
       <c r="E59" s="3">
-        <v>154300</v>
+        <v>87100</v>
       </c>
       <c r="F59" s="3">
-        <v>101200</v>
+        <v>153700</v>
       </c>
       <c r="G59" s="3">
-        <v>116100</v>
+        <v>100800</v>
       </c>
       <c r="H59" s="3">
-        <v>110100</v>
+        <v>115700</v>
       </c>
       <c r="I59" s="3">
-        <v>115300</v>
+        <v>109700</v>
       </c>
       <c r="J59" s="3">
+        <v>114800</v>
+      </c>
+      <c r="K59" s="3">
         <v>100300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>129000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>144000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>95300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>77700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>92600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>88800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>108700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>80700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>90200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>120100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>143300</v>
+        <v>196400</v>
       </c>
       <c r="E60" s="3">
-        <v>211800</v>
+        <v>142800</v>
       </c>
       <c r="F60" s="3">
-        <v>158200</v>
+        <v>211000</v>
       </c>
       <c r="G60" s="3">
-        <v>172000</v>
+        <v>157700</v>
       </c>
       <c r="H60" s="3">
-        <v>176400</v>
+        <v>171300</v>
       </c>
       <c r="I60" s="3">
-        <v>168800</v>
+        <v>175700</v>
       </c>
       <c r="J60" s="3">
+        <v>168100</v>
+      </c>
+      <c r="K60" s="3">
         <v>158700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>176800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>195200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>144500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>205900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>216200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>205100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>262100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>173900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>152100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>321200</v>
+        <v>269900</v>
       </c>
       <c r="E61" s="3">
-        <v>322800</v>
+        <v>320000</v>
       </c>
       <c r="F61" s="3">
-        <v>440900</v>
+        <v>321600</v>
       </c>
       <c r="G61" s="3">
-        <v>314400</v>
+        <v>439300</v>
       </c>
       <c r="H61" s="3">
-        <v>327800</v>
+        <v>313200</v>
       </c>
       <c r="I61" s="3">
-        <v>333400</v>
+        <v>326600</v>
       </c>
       <c r="J61" s="3">
+        <v>332200</v>
+      </c>
+      <c r="K61" s="3">
         <v>346600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>308100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>314100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>253700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>250000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>243600</v>
-      </c>
-      <c r="P61" s="3">
-        <v>278600</v>
       </c>
       <c r="Q61" s="3">
         <v>278600</v>
       </c>
       <c r="R61" s="3">
+        <v>278600</v>
+      </c>
+      <c r="S61" s="3">
         <v>315400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>316900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>269700</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>29300</v>
+        <v>31700</v>
       </c>
       <c r="E62" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>29400</v>
+      </c>
+      <c r="G62" s="3">
         <v>29500</v>
       </c>
-      <c r="F62" s="3">
-        <v>29600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>27800</v>
-      </c>
       <c r="H62" s="3">
-        <v>28700</v>
+        <v>27700</v>
       </c>
       <c r="I62" s="3">
-        <v>28700</v>
+        <v>28600</v>
       </c>
       <c r="J62" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K62" s="3">
         <v>28400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>28300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>23400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>23100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>22300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>20900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>493800</v>
+        <v>498000</v>
       </c>
       <c r="E66" s="3">
-        <v>564100</v>
+        <v>491900</v>
       </c>
       <c r="F66" s="3">
-        <v>628800</v>
+        <v>562100</v>
       </c>
       <c r="G66" s="3">
-        <v>514100</v>
+        <v>626400</v>
       </c>
       <c r="H66" s="3">
-        <v>532900</v>
+        <v>512200</v>
       </c>
       <c r="I66" s="3">
         <v>530900</v>
       </c>
       <c r="J66" s="3">
+        <v>528900</v>
+      </c>
+      <c r="K66" s="3">
         <v>533700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>513200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>534500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>423400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>480700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>481800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>507000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>563800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>511600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>489900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>572600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>235400</v>
+        <v>257100</v>
       </c>
       <c r="E72" s="3">
-        <v>220600</v>
+        <v>234600</v>
       </c>
       <c r="F72" s="3">
-        <v>247400</v>
+        <v>219800</v>
       </c>
       <c r="G72" s="3">
-        <v>222400</v>
+        <v>246500</v>
       </c>
       <c r="H72" s="3">
-        <v>203200</v>
+        <v>221500</v>
       </c>
       <c r="I72" s="3">
-        <v>191300</v>
+        <v>202400</v>
       </c>
       <c r="J72" s="3">
+        <v>190600</v>
+      </c>
+      <c r="K72" s="3">
         <v>185900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>173900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>154600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>139600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>144000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>137400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>130700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>125400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>124100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>46500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>192400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>704200</v>
+        <v>728100</v>
       </c>
       <c r="E76" s="3">
-        <v>686300</v>
+        <v>701600</v>
       </c>
       <c r="F76" s="3">
-        <v>712500</v>
+        <v>683800</v>
       </c>
       <c r="G76" s="3">
-        <v>689400</v>
+        <v>709900</v>
       </c>
       <c r="H76" s="3">
-        <v>671800</v>
+        <v>686800</v>
       </c>
       <c r="I76" s="3">
-        <v>655400</v>
+        <v>669300</v>
       </c>
       <c r="J76" s="3">
+        <v>653000</v>
+      </c>
+      <c r="K76" s="3">
         <v>642300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>615700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>585300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>614200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>618600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>596100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>588800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>581500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>600300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>530700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>564300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>14900</v>
+        <v>24000</v>
       </c>
       <c r="E81" s="3">
-        <v>19100</v>
+        <v>14800</v>
       </c>
       <c r="F81" s="3">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="G81" s="3">
-        <v>18600</v>
+        <v>24900</v>
       </c>
       <c r="H81" s="3">
-        <v>20600</v>
+        <v>18500</v>
       </c>
       <c r="I81" s="3">
-        <v>44700</v>
+        <v>20500</v>
       </c>
       <c r="J81" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K81" s="3">
         <v>6800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>800</v>
-      </c>
-      <c r="O81" s="3">
-        <v>5300</v>
       </c>
       <c r="P81" s="3">
         <v>5300</v>
       </c>
       <c r="Q81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="R81" s="3">
         <v>10400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>77600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>50000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>37300</v>
+        <v>37000</v>
       </c>
       <c r="E83" s="3">
-        <v>36800</v>
+        <v>37200</v>
       </c>
       <c r="F83" s="3">
-        <v>35300</v>
+        <v>36600</v>
       </c>
       <c r="G83" s="3">
-        <v>33600</v>
+        <v>35100</v>
       </c>
       <c r="H83" s="3">
-        <v>33400</v>
+        <v>33500</v>
       </c>
       <c r="I83" s="3">
-        <v>32300</v>
+        <v>33300</v>
       </c>
       <c r="J83" s="3">
+        <v>32200</v>
+      </c>
+      <c r="K83" s="3">
         <v>31500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>29300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>28600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>28100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>27000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>25300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>24100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>105300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>44700</v>
+        <v>66000</v>
       </c>
       <c r="E89" s="3">
-        <v>71800</v>
+        <v>44500</v>
       </c>
       <c r="F89" s="3">
-        <v>25700</v>
+        <v>71500</v>
       </c>
       <c r="G89" s="3">
-        <v>75300</v>
+        <v>25600</v>
       </c>
       <c r="H89" s="3">
-        <v>49300</v>
+        <v>75100</v>
       </c>
       <c r="I89" s="3">
-        <v>25900</v>
+        <v>49100</v>
       </c>
       <c r="J89" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K89" s="3">
         <v>59800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>48200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>41100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>24100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>25200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>41000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>39400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>60700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>120300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-25400</v>
+        <v>-36200</v>
       </c>
       <c r="E91" s="3">
-        <v>-23000</v>
+        <v>-25300</v>
       </c>
       <c r="F91" s="3">
-        <v>-54200</v>
+        <v>-22900</v>
       </c>
       <c r="G91" s="3">
-        <v>-60800</v>
+        <v>-54000</v>
       </c>
       <c r="H91" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="O91" s="3">
         <v>-45500</v>
       </c>
-      <c r="I91" s="3">
-        <v>-33100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-51500</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-26700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-34300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-32400</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-45500</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-34700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-31900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-44100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-32500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-291600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-78500</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-25600</v>
+        <v>-36100</v>
       </c>
       <c r="E94" s="3">
-        <v>-21200</v>
+        <v>-25500</v>
       </c>
       <c r="F94" s="3">
-        <v>-50300</v>
+        <v>-21100</v>
       </c>
       <c r="G94" s="3">
-        <v>-59000</v>
+        <v>-50100</v>
       </c>
       <c r="H94" s="3">
-        <v>-42500</v>
+        <v>-58800</v>
       </c>
       <c r="I94" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="J94" s="3">
         <v>7400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-54900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-31900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-34900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-32100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-72400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-32300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-29300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-84900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>41300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-156800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-39200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5110,11 +5343,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-8700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5134,13 +5367,16 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-58500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-46500</v>
+        <v>-53300</v>
       </c>
       <c r="E100" s="3">
-        <v>-118400</v>
+        <v>-46400</v>
       </c>
       <c r="F100" s="3">
-        <v>123000</v>
+        <v>-118000</v>
       </c>
       <c r="G100" s="3">
+        <v>122600</v>
+      </c>
+      <c r="H100" s="3">
         <v>-13600</v>
       </c>
-      <c r="H100" s="3">
-        <v>-31000</v>
-      </c>
       <c r="I100" s="3">
-        <v>-24300</v>
+        <v>-30900</v>
       </c>
       <c r="J100" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="K100" s="3">
         <v>10100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-65400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>60000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-78400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-29000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-61200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>24600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>32900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-105100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5372,23 +5620,23 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -5396,83 +5644,89 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-27500</v>
+        <v>-23600</v>
       </c>
       <c r="E102" s="3">
-        <v>-68000</v>
+        <v>-27400</v>
       </c>
       <c r="F102" s="3">
-        <v>98500</v>
+        <v>-67800</v>
       </c>
       <c r="G102" s="3">
+        <v>98100</v>
+      </c>
+      <c r="H102" s="3">
         <v>2400</v>
       </c>
-      <c r="H102" s="3">
-        <v>-24300</v>
-      </c>
       <c r="I102" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="J102" s="3">
         <v>9000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-48500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>66200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-86700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-44800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-20500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-78200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-19900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>134400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-148600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-23900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>IMOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>220500</v>
+        <v>231800</v>
       </c>
       <c r="E8" s="3">
-        <v>198700</v>
+        <v>226300</v>
       </c>
       <c r="F8" s="3">
-        <v>189700</v>
+        <v>203900</v>
       </c>
       <c r="G8" s="3">
-        <v>195300</v>
+        <v>194700</v>
       </c>
       <c r="H8" s="3">
-        <v>194700</v>
+        <v>200300</v>
       </c>
       <c r="I8" s="3">
-        <v>188700</v>
+        <v>199800</v>
       </c>
       <c r="J8" s="3">
+        <v>193600</v>
+      </c>
+      <c r="K8" s="3">
         <v>171400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>156500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>169400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>166900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>149400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>133400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>142900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>143600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>147200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>148700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>599600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>155500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>166700</v>
+        <v>175800</v>
       </c>
       <c r="E9" s="3">
-        <v>160400</v>
+        <v>171000</v>
       </c>
       <c r="F9" s="3">
-        <v>150400</v>
+        <v>164600</v>
       </c>
       <c r="G9" s="3">
-        <v>150800</v>
+        <v>154300</v>
       </c>
       <c r="H9" s="3">
-        <v>150400</v>
+        <v>154800</v>
       </c>
       <c r="I9" s="3">
-        <v>148400</v>
+        <v>154400</v>
       </c>
       <c r="J9" s="3">
+        <v>152300</v>
+      </c>
+      <c r="K9" s="3">
         <v>142100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>133100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>130700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>134400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>124900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>114000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>118600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>119000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>117700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>122100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>480800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>53900</v>
+        <v>56000</v>
       </c>
       <c r="E10" s="3">
-        <v>38300</v>
+        <v>55300</v>
       </c>
       <c r="F10" s="3">
         <v>39300</v>
       </c>
       <c r="G10" s="3">
-        <v>44400</v>
+        <v>40300</v>
       </c>
       <c r="H10" s="3">
-        <v>44300</v>
+        <v>45600</v>
       </c>
       <c r="I10" s="3">
-        <v>40300</v>
+        <v>45400</v>
       </c>
       <c r="J10" s="3">
+        <v>41300</v>
+      </c>
+      <c r="K10" s="3">
         <v>29300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>24700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>29500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>26600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>118800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-100900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>9100</v>
+        <v>9600</v>
       </c>
       <c r="E12" s="3">
-        <v>8600</v>
+        <v>9300</v>
       </c>
       <c r="F12" s="3">
         <v>8800</v>
       </c>
       <c r="G12" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="H12" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="I12" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="J12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K12" s="3">
         <v>9200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>27400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1084,11 +1104,11 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>300</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>400</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -1102,14 +1122,14 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1120,14 +1140,17 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>180000</v>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E17" s="3">
-        <v>173600</v>
+        <v>184700</v>
       </c>
       <c r="F17" s="3">
-        <v>162100</v>
+        <v>178200</v>
       </c>
       <c r="G17" s="3">
-        <v>163800</v>
+        <v>166400</v>
       </c>
       <c r="H17" s="3">
-        <v>163200</v>
+        <v>168100</v>
       </c>
       <c r="I17" s="3">
-        <v>161200</v>
+        <v>167500</v>
       </c>
       <c r="J17" s="3">
+        <v>165400</v>
+      </c>
+      <c r="K17" s="3">
         <v>155600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>145400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>142400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>145700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>135600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>124800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>132000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>130600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>132600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>114300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>534400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>40500</v>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E18" s="3">
-        <v>25100</v>
+        <v>41600</v>
       </c>
       <c r="F18" s="3">
-        <v>27600</v>
+        <v>25700</v>
       </c>
       <c r="G18" s="3">
-        <v>31500</v>
+        <v>28300</v>
       </c>
       <c r="H18" s="3">
-        <v>31500</v>
+        <v>32300</v>
       </c>
       <c r="I18" s="3">
-        <v>27500</v>
+        <v>32300</v>
       </c>
       <c r="J18" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K18" s="3">
         <v>15800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>27000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>34400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>65200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,140 +1379,147 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-8400</v>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="3">
-        <v>-4900</v>
+        <v>-8700</v>
       </c>
       <c r="F20" s="3">
-        <v>-3000</v>
+        <v>-5000</v>
       </c>
       <c r="G20" s="3">
-        <v>1300</v>
+        <v>-3100</v>
       </c>
       <c r="H20" s="3">
-        <v>-6400</v>
+        <v>1400</v>
       </c>
       <c r="I20" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>33600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-12400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>69100</v>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E21" s="3">
-        <v>57300</v>
+        <v>70900</v>
       </c>
       <c r="F21" s="3">
-        <v>61200</v>
+        <v>58800</v>
       </c>
       <c r="G21" s="3">
-        <v>67900</v>
+        <v>62800</v>
       </c>
       <c r="H21" s="3">
-        <v>58600</v>
+        <v>69700</v>
       </c>
       <c r="I21" s="3">
-        <v>60300</v>
+        <v>60100</v>
       </c>
       <c r="J21" s="3">
+        <v>61900</v>
+      </c>
+      <c r="K21" s="3">
         <v>81600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>42000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>54300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>48600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>45200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>30000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>33800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>35000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>37300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>43700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>165400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E22" s="3">
         <v>1300</v>
       </c>
       <c r="F22" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="G22" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="H22" s="3">
         <v>1500</v>
@@ -1494,19 +1534,19 @@
         <v>1500</v>
       </c>
       <c r="L22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1300</v>
       </c>
       <c r="O22" s="3">
         <v>1300</v>
       </c>
       <c r="P22" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="Q22" s="3">
         <v>1600</v>
@@ -1515,134 +1555,143 @@
         <v>1600</v>
       </c>
       <c r="S22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T22" s="3">
         <v>1700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>30800</v>
+        <v>42500</v>
       </c>
       <c r="E23" s="3">
+        <v>31600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>19300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>23500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>32100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>24200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K23" s="3">
+        <v>47900</v>
+      </c>
+      <c r="L23" s="3">
+        <v>8900</v>
+      </c>
+      <c r="M23" s="3">
+        <v>23500</v>
+      </c>
+      <c r="N23" s="3">
         <v>18800</v>
       </c>
-      <c r="F23" s="3">
-        <v>22900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>31300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>23600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>25600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>47900</v>
-      </c>
-      <c r="K23" s="3">
-        <v>8900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>23500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>18800</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>20300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>55500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6800</v>
+        <v>8100</v>
       </c>
       <c r="E24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G24" s="3">
         <v>4000</v>
       </c>
-      <c r="F24" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>6400</v>
-      </c>
       <c r="H24" s="3">
-        <v>5100</v>
+        <v>6600</v>
       </c>
       <c r="I24" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="J24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K24" s="3">
         <v>3300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>24000</v>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E26" s="3">
-        <v>14800</v>
+        <v>24600</v>
       </c>
       <c r="F26" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>19500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>25600</v>
+      </c>
+      <c r="I26" s="3">
         <v>19000</v>
       </c>
-      <c r="G26" s="3">
-        <v>24900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>18500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>20500</v>
-      </c>
       <c r="J26" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K26" s="3">
         <v>44500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>44000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>24000</v>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E27" s="3">
-        <v>14800</v>
+        <v>24600</v>
       </c>
       <c r="F27" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>19500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>25600</v>
+      </c>
+      <c r="I27" s="3">
         <v>19000</v>
       </c>
-      <c r="G27" s="3">
-        <v>24900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>18500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>20500</v>
-      </c>
       <c r="J27" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K27" s="3">
         <v>44500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>14700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>53900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1922,22 +1983,25 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-2100</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>61300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-4000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>8400</v>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="3">
-        <v>4900</v>
+        <v>8700</v>
       </c>
       <c r="F32" s="3">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G32" s="3">
-        <v>-1300</v>
+        <v>3100</v>
       </c>
       <c r="H32" s="3">
-        <v>6400</v>
+        <v>-1400</v>
       </c>
       <c r="I32" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-33600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>12400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>24000</v>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E33" s="3">
-        <v>14800</v>
+        <v>24600</v>
       </c>
       <c r="F33" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>19500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>25600</v>
+      </c>
+      <c r="I33" s="3">
         <v>19000</v>
       </c>
-      <c r="G33" s="3">
-        <v>24900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>18500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>20500</v>
-      </c>
       <c r="J33" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K33" s="3">
         <v>44500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>14700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>800</v>
-      </c>
-      <c r="P33" s="3">
-        <v>5300</v>
       </c>
       <c r="Q33" s="3">
         <v>5300</v>
       </c>
       <c r="R33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="S33" s="3">
         <v>10400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>77600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>50000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>24000</v>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E35" s="3">
-        <v>14800</v>
+        <v>24600</v>
       </c>
       <c r="F35" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G35" s="3">
+        <v>19500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>25600</v>
+      </c>
+      <c r="I35" s="3">
         <v>19000</v>
       </c>
-      <c r="G35" s="3">
-        <v>24900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>18500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>20500</v>
-      </c>
       <c r="J35" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K35" s="3">
         <v>44500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>14700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>800</v>
-      </c>
-      <c r="P35" s="3">
-        <v>5300</v>
       </c>
       <c r="Q35" s="3">
         <v>5300</v>
       </c>
       <c r="R35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="S35" s="3">
         <v>10400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>77600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>50000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,105 +2486,109 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>143800</v>
+        <v>200500</v>
       </c>
       <c r="E41" s="3">
-        <v>167300</v>
+        <v>147500</v>
       </c>
       <c r="F41" s="3">
-        <v>194800</v>
+        <v>171700</v>
       </c>
       <c r="G41" s="3">
-        <v>262600</v>
+        <v>199900</v>
       </c>
       <c r="H41" s="3">
-        <v>164400</v>
+        <v>269400</v>
       </c>
       <c r="I41" s="3">
-        <v>162000</v>
+        <v>168700</v>
       </c>
       <c r="J41" s="3">
+        <v>166200</v>
+      </c>
+      <c r="K41" s="3">
         <v>186200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>177800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>158200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>202300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>135800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>222500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>260400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>280900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>359000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>381300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>246900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>396300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9100</v>
+        <v>9600</v>
       </c>
       <c r="E42" s="3">
-        <v>14000</v>
+        <v>9300</v>
       </c>
       <c r="F42" s="3">
-        <v>12000</v>
+        <v>14300</v>
       </c>
       <c r="G42" s="3">
-        <v>11200</v>
+        <v>12300</v>
       </c>
       <c r="H42" s="3">
-        <v>5900</v>
+        <v>11500</v>
       </c>
       <c r="I42" s="3">
         <v>6100</v>
       </c>
       <c r="J42" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K42" s="3">
         <v>6100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5800</v>
-      </c>
-      <c r="M42" s="3">
-        <v>500</v>
       </c>
       <c r="N42" s="3">
         <v>500</v>
       </c>
       <c r="O42" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2513,367 +2603,388 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>202900</v>
+        <v>210500</v>
       </c>
       <c r="E43" s="3">
-        <v>176000</v>
+        <v>208200</v>
       </c>
       <c r="F43" s="3">
-        <v>170600</v>
+        <v>180500</v>
       </c>
       <c r="G43" s="3">
-        <v>184400</v>
+        <v>175000</v>
       </c>
       <c r="H43" s="3">
-        <v>177000</v>
+        <v>189200</v>
       </c>
       <c r="I43" s="3">
-        <v>200200</v>
+        <v>181600</v>
       </c>
       <c r="J43" s="3">
+        <v>205400</v>
+      </c>
+      <c r="K43" s="3">
         <v>179000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>163200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>179000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>173100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>159800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>135700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>135500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>141200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>122700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>125700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>136900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>73500</v>
+        <v>81700</v>
       </c>
       <c r="E44" s="3">
-        <v>71200</v>
+        <v>75400</v>
       </c>
       <c r="F44" s="3">
-        <v>80900</v>
+        <v>73000</v>
       </c>
       <c r="G44" s="3">
-        <v>81000</v>
+        <v>83000</v>
       </c>
       <c r="H44" s="3">
-        <v>61800</v>
+        <v>83200</v>
       </c>
       <c r="I44" s="3">
+        <v>63400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>63500</v>
+      </c>
+      <c r="K44" s="3">
+        <v>60000</v>
+      </c>
+      <c r="L44" s="3">
+        <v>58500</v>
+      </c>
+      <c r="M44" s="3">
+        <v>60600</v>
+      </c>
+      <c r="N44" s="3">
+        <v>59000</v>
+      </c>
+      <c r="O44" s="3">
+        <v>59900</v>
+      </c>
+      <c r="P44" s="3">
+        <v>59400</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>62500</v>
+      </c>
+      <c r="R44" s="3">
         <v>61900</v>
       </c>
-      <c r="J44" s="3">
-        <v>60000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>58500</v>
-      </c>
-      <c r="L44" s="3">
-        <v>60600</v>
-      </c>
-      <c r="M44" s="3">
-        <v>59000</v>
-      </c>
-      <c r="N44" s="3">
-        <v>59900</v>
-      </c>
-      <c r="O44" s="3">
-        <v>59400</v>
-      </c>
-      <c r="P44" s="3">
-        <v>62500</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>61900</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>62600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>63100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>56200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="E45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F45" s="3">
         <v>2100</v>
       </c>
-      <c r="F45" s="3">
-        <v>1700</v>
-      </c>
       <c r="G45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T45" s="3">
         <v>4000</v>
       </c>
-      <c r="H45" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K45" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O45" s="3">
-        <v>2100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>1500</v>
-      </c>
-      <c r="R45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="S45" s="3">
-        <v>4000</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>105900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>431800</v>
+        <v>505700</v>
       </c>
       <c r="E46" s="3">
-        <v>430500</v>
+        <v>443100</v>
       </c>
       <c r="F46" s="3">
-        <v>460000</v>
+        <v>441700</v>
       </c>
       <c r="G46" s="3">
-        <v>543200</v>
+        <v>472000</v>
       </c>
       <c r="H46" s="3">
-        <v>411100</v>
+        <v>557400</v>
       </c>
       <c r="I46" s="3">
-        <v>432800</v>
+        <v>421800</v>
       </c>
       <c r="J46" s="3">
+        <v>444000</v>
+      </c>
+      <c r="K46" s="3">
         <v>433100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>407600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>405000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>436800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>357800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>419700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>460300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>485500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>545800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>574100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>551000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>623200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>125600</v>
+        <v>129200</v>
       </c>
       <c r="E47" s="3">
-        <v>124600</v>
+        <v>128800</v>
       </c>
       <c r="F47" s="3">
-        <v>123200</v>
+        <v>127900</v>
       </c>
       <c r="G47" s="3">
-        <v>122800</v>
+        <v>126400</v>
       </c>
       <c r="H47" s="3">
-        <v>125600</v>
+        <v>126000</v>
       </c>
       <c r="I47" s="3">
-        <v>129800</v>
+        <v>128900</v>
       </c>
       <c r="J47" s="3">
+        <v>133100</v>
+      </c>
+      <c r="K47" s="3">
         <v>133800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>145200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>141300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>139300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>143100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>146800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>114200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>115100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>116600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>73900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>14700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>658900</v>
+        <v>684600</v>
       </c>
       <c r="E48" s="3">
-        <v>629400</v>
+        <v>676100</v>
       </c>
       <c r="F48" s="3">
-        <v>653100</v>
+        <v>645800</v>
       </c>
       <c r="G48" s="3">
-        <v>661400</v>
+        <v>670100</v>
       </c>
       <c r="H48" s="3">
-        <v>652400</v>
+        <v>678700</v>
       </c>
       <c r="I48" s="3">
-        <v>627500</v>
+        <v>669400</v>
       </c>
       <c r="J48" s="3">
+        <v>643800</v>
+      </c>
+      <c r="K48" s="3">
         <v>601800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>610900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>573000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>532900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>527000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>522700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>494700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>485900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>473800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>454500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>440100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>490100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9700</v>
+        <v>11300</v>
       </c>
       <c r="E52" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K52" s="3">
+        <v>13200</v>
+      </c>
+      <c r="L52" s="3">
+        <v>12400</v>
+      </c>
+      <c r="M52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="N52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="O52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="P52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="R52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="S52" s="3">
         <v>9100</v>
       </c>
-      <c r="F52" s="3">
-        <v>9500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>8800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>9900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>10300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>13200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>12400</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="T52" s="3">
         <v>9400</v>
       </c>
-      <c r="M52" s="3">
-        <v>10800</v>
-      </c>
-      <c r="N52" s="3">
-        <v>9600</v>
-      </c>
-      <c r="O52" s="3">
-        <v>10100</v>
-      </c>
-      <c r="P52" s="3">
-        <v>8700</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>9200</v>
-      </c>
-      <c r="R52" s="3">
-        <v>9100</v>
-      </c>
-      <c r="S52" s="3">
-        <v>9400</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>14800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1226100</v>
+        <v>1330800</v>
       </c>
       <c r="E54" s="3">
-        <v>1193600</v>
+        <v>1258000</v>
       </c>
       <c r="F54" s="3">
-        <v>1245800</v>
+        <v>1224600</v>
       </c>
       <c r="G54" s="3">
-        <v>1336300</v>
+        <v>1278300</v>
       </c>
       <c r="H54" s="3">
-        <v>1199000</v>
+        <v>1371100</v>
       </c>
       <c r="I54" s="3">
-        <v>1200300</v>
+        <v>1230200</v>
       </c>
       <c r="J54" s="3">
+        <v>1231500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1181900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1176000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1128900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1119800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1037600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1099200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1078000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1095800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1145300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1111900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1020600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>33900</v>
+        <v>40800</v>
       </c>
       <c r="E57" s="3">
-        <v>27700</v>
+        <v>34800</v>
       </c>
       <c r="F57" s="3">
-        <v>29200</v>
+        <v>28400</v>
       </c>
       <c r="G57" s="3">
-        <v>28700</v>
+        <v>30000</v>
       </c>
       <c r="H57" s="3">
-        <v>28600</v>
+        <v>29500</v>
       </c>
       <c r="I57" s="3">
-        <v>38700</v>
+        <v>29400</v>
       </c>
       <c r="J57" s="3">
+        <v>39700</v>
+      </c>
+      <c r="K57" s="3">
         <v>25800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>25600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>24000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>21600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>22300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>21100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>24800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>23700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>26900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>30800</v>
+        <v>20900</v>
       </c>
       <c r="E58" s="3">
-        <v>28000</v>
+        <v>31600</v>
       </c>
       <c r="F58" s="3">
+        <v>28700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>28800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>28900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>27700</v>
+      </c>
+      <c r="J58" s="3">
         <v>28100</v>
       </c>
-      <c r="G58" s="3">
-        <v>28100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>27000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>27400</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>27500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>38200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>26100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>25600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>25200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>106500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>101300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>95200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>128600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>69400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>35000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>131700</v>
+        <v>151400</v>
       </c>
       <c r="E59" s="3">
-        <v>87100</v>
+        <v>135200</v>
       </c>
       <c r="F59" s="3">
-        <v>153700</v>
+        <v>89400</v>
       </c>
       <c r="G59" s="3">
-        <v>100800</v>
+        <v>157700</v>
       </c>
       <c r="H59" s="3">
-        <v>115700</v>
+        <v>103400</v>
       </c>
       <c r="I59" s="3">
-        <v>109700</v>
+        <v>118700</v>
       </c>
       <c r="J59" s="3">
+        <v>112500</v>
+      </c>
+      <c r="K59" s="3">
         <v>114800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>129000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>144000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>95300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>77700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>92600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>88800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>108700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>80700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>90200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>120100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>196400</v>
+        <v>213100</v>
       </c>
       <c r="E60" s="3">
-        <v>142800</v>
+        <v>201500</v>
       </c>
       <c r="F60" s="3">
-        <v>211000</v>
+        <v>146500</v>
       </c>
       <c r="G60" s="3">
-        <v>157700</v>
+        <v>216500</v>
       </c>
       <c r="H60" s="3">
-        <v>171300</v>
+        <v>161800</v>
       </c>
       <c r="I60" s="3">
-        <v>175700</v>
+        <v>175800</v>
       </c>
       <c r="J60" s="3">
+        <v>180300</v>
+      </c>
+      <c r="K60" s="3">
         <v>168100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>158700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>176800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>195200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>144500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>205900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>216200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>205100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>262100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>173900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>152100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>269900</v>
+        <v>304900</v>
       </c>
       <c r="E61" s="3">
-        <v>320000</v>
+        <v>277000</v>
       </c>
       <c r="F61" s="3">
-        <v>321600</v>
+        <v>328300</v>
       </c>
       <c r="G61" s="3">
-        <v>439300</v>
+        <v>330000</v>
       </c>
       <c r="H61" s="3">
-        <v>313200</v>
+        <v>450700</v>
       </c>
       <c r="I61" s="3">
-        <v>326600</v>
+        <v>321400</v>
       </c>
       <c r="J61" s="3">
+        <v>335100</v>
+      </c>
+      <c r="K61" s="3">
         <v>332200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>346600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>308100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>314100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>253700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>250000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>243600</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>278600</v>
       </c>
       <c r="R61" s="3">
         <v>278600</v>
       </c>
       <c r="S61" s="3">
+        <v>278600</v>
+      </c>
+      <c r="T61" s="3">
         <v>315400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>316900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>269700</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>31700</v>
+        <v>32400</v>
       </c>
       <c r="E62" s="3">
-        <v>29200</v>
+        <v>32500</v>
       </c>
       <c r="F62" s="3">
+        <v>29900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>30200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>30300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>28400</v>
+      </c>
+      <c r="J62" s="3">
         <v>29400</v>
       </c>
-      <c r="G62" s="3">
-        <v>29500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>27700</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>28600</v>
       </c>
-      <c r="J62" s="3">
-        <v>28600</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>28400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>28300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>23400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>23100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>22300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>20900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>498000</v>
+        <v>550500</v>
       </c>
       <c r="E66" s="3">
-        <v>491900</v>
+        <v>511000</v>
       </c>
       <c r="F66" s="3">
-        <v>562100</v>
+        <v>504800</v>
       </c>
       <c r="G66" s="3">
-        <v>626400</v>
+        <v>576700</v>
       </c>
       <c r="H66" s="3">
-        <v>512200</v>
+        <v>642700</v>
       </c>
       <c r="I66" s="3">
-        <v>530900</v>
+        <v>525500</v>
       </c>
       <c r="J66" s="3">
+        <v>544800</v>
+      </c>
+      <c r="K66" s="3">
         <v>528900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>533700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>513200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>534500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>423400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>480700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>481800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>507000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>563800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>511600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>489900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>572600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>257100</v>
+        <v>298200</v>
       </c>
       <c r="E72" s="3">
-        <v>234600</v>
+        <v>263800</v>
       </c>
       <c r="F72" s="3">
-        <v>219800</v>
+        <v>240700</v>
       </c>
       <c r="G72" s="3">
-        <v>246500</v>
+        <v>225500</v>
       </c>
       <c r="H72" s="3">
-        <v>221500</v>
+        <v>252900</v>
       </c>
       <c r="I72" s="3">
-        <v>202400</v>
+        <v>227300</v>
       </c>
       <c r="J72" s="3">
+        <v>207700</v>
+      </c>
+      <c r="K72" s="3">
         <v>190600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>185900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>173900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>154600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>139600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>144000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>137400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>130700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>125400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>124100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>46500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>192400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>728100</v>
+        <v>780300</v>
       </c>
       <c r="E76" s="3">
+        <v>747000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>719900</v>
+      </c>
+      <c r="G76" s="3">
         <v>701600</v>
       </c>
-      <c r="F76" s="3">
-        <v>683800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>709900</v>
-      </c>
       <c r="H76" s="3">
+        <v>728300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>704700</v>
+      </c>
+      <c r="J76" s="3">
         <v>686800</v>
       </c>
-      <c r="I76" s="3">
-        <v>669300</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>653000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>642300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>615700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>585300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>614200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>618600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>596100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>588800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>581500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>600300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>530700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>564300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>24000</v>
+      <c r="D81" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E81" s="3">
-        <v>14800</v>
+        <v>24600</v>
       </c>
       <c r="F81" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G81" s="3">
+        <v>19500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>25600</v>
+      </c>
+      <c r="I81" s="3">
         <v>19000</v>
       </c>
-      <c r="G81" s="3">
-        <v>24900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>18500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>20500</v>
-      </c>
       <c r="J81" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K81" s="3">
         <v>44500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>14700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>800</v>
-      </c>
-      <c r="P81" s="3">
-        <v>5300</v>
       </c>
       <c r="Q81" s="3">
         <v>5300</v>
       </c>
       <c r="R81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="S81" s="3">
         <v>10400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>77600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>50000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>37000</v>
+        <v>40400</v>
       </c>
       <c r="E83" s="3">
-        <v>37200</v>
+        <v>38000</v>
       </c>
       <c r="F83" s="3">
-        <v>36600</v>
+        <v>38100</v>
       </c>
       <c r="G83" s="3">
-        <v>35100</v>
+        <v>37600</v>
       </c>
       <c r="H83" s="3">
-        <v>33500</v>
+        <v>36000</v>
       </c>
       <c r="I83" s="3">
-        <v>33300</v>
+        <v>34400</v>
       </c>
       <c r="J83" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K83" s="3">
         <v>32200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>29300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>28600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>28100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>25300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>24100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>105300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>66000</v>
+        <v>72500</v>
       </c>
       <c r="E89" s="3">
-        <v>44500</v>
+        <v>67700</v>
       </c>
       <c r="F89" s="3">
-        <v>71500</v>
+        <v>45700</v>
       </c>
       <c r="G89" s="3">
-        <v>25600</v>
+        <v>73300</v>
       </c>
       <c r="H89" s="3">
-        <v>75100</v>
+        <v>26300</v>
       </c>
       <c r="I89" s="3">
-        <v>49100</v>
+        <v>77000</v>
       </c>
       <c r="J89" s="3">
+        <v>50400</v>
+      </c>
+      <c r="K89" s="3">
         <v>25800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>59800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>48200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>41100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>24100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>25200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>41000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>39400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>60700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>120300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-36200</v>
+        <v>-53500</v>
       </c>
       <c r="E91" s="3">
-        <v>-25300</v>
+        <v>-37100</v>
       </c>
       <c r="F91" s="3">
-        <v>-22900</v>
+        <v>-26000</v>
       </c>
       <c r="G91" s="3">
-        <v>-54000</v>
+        <v>-23500</v>
       </c>
       <c r="H91" s="3">
-        <v>-60600</v>
+        <v>-55500</v>
       </c>
       <c r="I91" s="3">
-        <v>-45400</v>
+        <v>-62100</v>
       </c>
       <c r="J91" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-33000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-51500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-45500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-34700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-31900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-44100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-32500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-291600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-78500</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-36100</v>
+        <v>-54200</v>
       </c>
       <c r="E94" s="3">
-        <v>-25500</v>
+        <v>-37100</v>
       </c>
       <c r="F94" s="3">
-        <v>-21100</v>
+        <v>-26200</v>
       </c>
       <c r="G94" s="3">
-        <v>-50100</v>
+        <v>-21600</v>
       </c>
       <c r="H94" s="3">
-        <v>-58800</v>
+        <v>-51400</v>
       </c>
       <c r="I94" s="3">
-        <v>-42400</v>
+        <v>-60300</v>
       </c>
       <c r="J94" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="K94" s="3">
         <v>7400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-54900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-31900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-34900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-32100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-72400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-32300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-29300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-84900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>41300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-156800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-39200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5346,11 +5580,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-8700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5370,13 +5604,16 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-58500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,94 +5795,100 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-53300</v>
+        <v>34700</v>
       </c>
       <c r="E100" s="3">
-        <v>-46400</v>
+        <v>-54700</v>
       </c>
       <c r="F100" s="3">
-        <v>-118000</v>
+        <v>-47600</v>
       </c>
       <c r="G100" s="3">
-        <v>122600</v>
+        <v>-121100</v>
       </c>
       <c r="H100" s="3">
-        <v>-13600</v>
+        <v>125800</v>
       </c>
       <c r="I100" s="3">
-        <v>-30900</v>
+        <v>-13900</v>
       </c>
       <c r="J100" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-24200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-65400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>60000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-78400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-61200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>24600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>32900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-105100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -5647,86 +5896,92 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-23600</v>
+        <v>53000</v>
       </c>
       <c r="E102" s="3">
-        <v>-27400</v>
+        <v>-24200</v>
       </c>
       <c r="F102" s="3">
-        <v>-67800</v>
+        <v>-28200</v>
       </c>
       <c r="G102" s="3">
-        <v>98100</v>
+        <v>-69500</v>
       </c>
       <c r="H102" s="3">
-        <v>2400</v>
+        <v>100700</v>
       </c>
       <c r="I102" s="3">
-        <v>-24200</v>
+        <v>2500</v>
       </c>
       <c r="J102" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="K102" s="3">
         <v>9000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-48500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>66200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-86700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-44800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-78200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-19900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>134400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-148600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-23900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>IMOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>231800</v>
+        <v>249100</v>
       </c>
       <c r="E8" s="3">
-        <v>226300</v>
+        <v>230700</v>
       </c>
       <c r="F8" s="3">
-        <v>203900</v>
+        <v>225200</v>
       </c>
       <c r="G8" s="3">
-        <v>194700</v>
+        <v>202900</v>
       </c>
       <c r="H8" s="3">
-        <v>200300</v>
+        <v>193700</v>
       </c>
       <c r="I8" s="3">
-        <v>199800</v>
+        <v>199300</v>
       </c>
       <c r="J8" s="3">
+        <v>198800</v>
+      </c>
+      <c r="K8" s="3">
         <v>193600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>171400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>156500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>169400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>166900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>149400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>133400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>142900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>143600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>147200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>148700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>599600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>155500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>175800</v>
+        <v>179000</v>
       </c>
       <c r="E9" s="3">
-        <v>171000</v>
+        <v>175000</v>
       </c>
       <c r="F9" s="3">
-        <v>164600</v>
+        <v>170200</v>
       </c>
       <c r="G9" s="3">
-        <v>154300</v>
+        <v>163800</v>
       </c>
       <c r="H9" s="3">
-        <v>154800</v>
+        <v>153600</v>
       </c>
       <c r="I9" s="3">
-        <v>154400</v>
+        <v>154000</v>
       </c>
       <c r="J9" s="3">
+        <v>153600</v>
+      </c>
+      <c r="K9" s="3">
         <v>152300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>142100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>133100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>130700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>134400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>124900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>114000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>118600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>119000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>117700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>122100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>480800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>56000</v>
+        <v>70100</v>
       </c>
       <c r="E10" s="3">
-        <v>55300</v>
+        <v>55700</v>
       </c>
       <c r="F10" s="3">
-        <v>39300</v>
+        <v>55000</v>
       </c>
       <c r="G10" s="3">
-        <v>40300</v>
+        <v>39100</v>
       </c>
       <c r="H10" s="3">
-        <v>45600</v>
+        <v>40100</v>
       </c>
       <c r="I10" s="3">
-        <v>45400</v>
+        <v>45300</v>
       </c>
       <c r="J10" s="3">
+        <v>45200</v>
+      </c>
+      <c r="K10" s="3">
         <v>41300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>24300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>24700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>29500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>26600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>118800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-100900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E12" s="3">
         <v>9600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9300</v>
       </c>
-      <c r="F12" s="3">
-        <v>8800</v>
-      </c>
       <c r="G12" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="H12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I12" s="3">
         <v>9200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>9100</v>
       </c>
       <c r="J12" s="3">
         <v>9100</v>
       </c>
       <c r="K12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="L12" s="3">
         <v>9200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>27400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,11 +1127,11 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1125,14 +1145,14 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1143,14 +1163,17 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1241,61 +1268,64 @@
         <v>10</v>
       </c>
       <c r="E17" s="3">
-        <v>184700</v>
+        <v>189300</v>
       </c>
       <c r="F17" s="3">
-        <v>178200</v>
+        <v>183800</v>
       </c>
       <c r="G17" s="3">
-        <v>166400</v>
+        <v>177300</v>
       </c>
       <c r="H17" s="3">
-        <v>168100</v>
+        <v>165500</v>
       </c>
       <c r="I17" s="3">
-        <v>167500</v>
+        <v>167200</v>
       </c>
       <c r="J17" s="3">
+        <v>166700</v>
+      </c>
+      <c r="K17" s="3">
         <v>165400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>155600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>145400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>142400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>145700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>135600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>124800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>132000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>130600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>132600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>114300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>534400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1333,64 @@
         <v>10</v>
       </c>
       <c r="E18" s="3">
-        <v>41600</v>
+        <v>41400</v>
       </c>
       <c r="F18" s="3">
-        <v>25700</v>
+        <v>41400</v>
       </c>
       <c r="G18" s="3">
-        <v>28300</v>
+        <v>25600</v>
       </c>
       <c r="H18" s="3">
-        <v>32300</v>
+        <v>28200</v>
       </c>
       <c r="I18" s="3">
-        <v>32300</v>
+        <v>32100</v>
       </c>
       <c r="J18" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K18" s="3">
         <v>28200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>27000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>21200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>34400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>65200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,61 +1423,64 @@
         <v>10</v>
       </c>
       <c r="E20" s="3">
-        <v>-8700</v>
+        <v>2000</v>
       </c>
       <c r="F20" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-5000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3100</v>
       </c>
-      <c r="H20" s="3">
-        <v>1400</v>
-      </c>
       <c r="I20" s="3">
-        <v>-6600</v>
+        <v>1300</v>
       </c>
       <c r="J20" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>33600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-12400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,61 +1488,64 @@
         <v>10</v>
       </c>
       <c r="E21" s="3">
-        <v>70900</v>
+        <v>83500</v>
       </c>
       <c r="F21" s="3">
-        <v>58800</v>
+        <v>70600</v>
       </c>
       <c r="G21" s="3">
-        <v>62800</v>
+        <v>58500</v>
       </c>
       <c r="H21" s="3">
-        <v>69700</v>
+        <v>62500</v>
       </c>
       <c r="I21" s="3">
-        <v>60100</v>
+        <v>69300</v>
       </c>
       <c r="J21" s="3">
+        <v>59800</v>
+      </c>
+      <c r="K21" s="3">
         <v>61900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>81600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>42000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>54300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>48600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>45200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>30000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>33800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>35000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>37300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>43700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>165400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,16 +1553,16 @@
         <v>1200</v>
       </c>
       <c r="E22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
-        <v>1400</v>
-      </c>
       <c r="G22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H22" s="3">
         <v>1700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1500</v>
       </c>
       <c r="I22" s="3">
         <v>1500</v>
@@ -1537,19 +1577,19 @@
         <v>1500</v>
       </c>
       <c r="M22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1300</v>
       </c>
       <c r="P22" s="3">
         <v>1300</v>
       </c>
       <c r="Q22" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="R22" s="3">
         <v>1600</v>
@@ -1558,140 +1598,149 @@
         <v>1600</v>
       </c>
       <c r="T22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U22" s="3">
         <v>1700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>42500</v>
+        <v>54300</v>
       </c>
       <c r="E23" s="3">
-        <v>31600</v>
+        <v>42300</v>
       </c>
       <c r="F23" s="3">
-        <v>19300</v>
+        <v>31500</v>
       </c>
       <c r="G23" s="3">
+        <v>19200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>23400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>32000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>26200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>47900</v>
+      </c>
+      <c r="M23" s="3">
+        <v>8900</v>
+      </c>
+      <c r="N23" s="3">
         <v>23500</v>
       </c>
-      <c r="H23" s="3">
-        <v>32100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>24200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>26200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>47900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>8900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>23500</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>18800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>20300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>55500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E24" s="3">
         <v>8100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7000</v>
       </c>
-      <c r="F24" s="3">
-        <v>4200</v>
-      </c>
       <c r="G24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H24" s="3">
         <v>4000</v>
       </c>
-      <c r="H24" s="3">
-        <v>6600</v>
-      </c>
       <c r="I24" s="3">
-        <v>5200</v>
+        <v>6500</v>
       </c>
       <c r="J24" s="3">
         <v>5200</v>
       </c>
       <c r="K24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L24" s="3">
         <v>3300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,61 +1813,64 @@
         <v>10</v>
       </c>
       <c r="E26" s="3">
-        <v>24600</v>
+        <v>34200</v>
       </c>
       <c r="F26" s="3">
-        <v>15200</v>
+        <v>24500</v>
       </c>
       <c r="G26" s="3">
-        <v>19500</v>
+        <v>15100</v>
       </c>
       <c r="H26" s="3">
-        <v>25600</v>
+        <v>19400</v>
       </c>
       <c r="I26" s="3">
-        <v>19000</v>
+        <v>25400</v>
       </c>
       <c r="J26" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K26" s="3">
         <v>21000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>44500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>16300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>44000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,61 +1878,64 @@
         <v>10</v>
       </c>
       <c r="E27" s="3">
-        <v>24600</v>
+        <v>34200</v>
       </c>
       <c r="F27" s="3">
-        <v>15200</v>
+        <v>24500</v>
       </c>
       <c r="G27" s="3">
-        <v>19500</v>
+        <v>15100</v>
       </c>
       <c r="H27" s="3">
-        <v>25600</v>
+        <v>19400</v>
       </c>
       <c r="I27" s="3">
-        <v>19000</v>
+        <v>25400</v>
       </c>
       <c r="J27" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K27" s="3">
         <v>21000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>44500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>14700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>53900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1986,22 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-2100</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>61300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-4000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,61 +2203,64 @@
         <v>10</v>
       </c>
       <c r="E32" s="3">
-        <v>8700</v>
+        <v>-2000</v>
       </c>
       <c r="F32" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G32" s="3">
         <v>5000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3100</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1400</v>
-      </c>
       <c r="I32" s="3">
-        <v>6600</v>
+        <v>-1300</v>
       </c>
       <c r="J32" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-33600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>12400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,61 +2268,64 @@
         <v>10</v>
       </c>
       <c r="E33" s="3">
-        <v>24600</v>
+        <v>34200</v>
       </c>
       <c r="F33" s="3">
-        <v>15200</v>
+        <v>24500</v>
       </c>
       <c r="G33" s="3">
-        <v>19500</v>
+        <v>15100</v>
       </c>
       <c r="H33" s="3">
-        <v>25600</v>
+        <v>19400</v>
       </c>
       <c r="I33" s="3">
-        <v>19000</v>
+        <v>25400</v>
       </c>
       <c r="J33" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K33" s="3">
         <v>21000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>44500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>14700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>800</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>5300</v>
       </c>
       <c r="R33" s="3">
         <v>5300</v>
       </c>
       <c r="S33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="T33" s="3">
         <v>10400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>77600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>50000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,128 +2398,134 @@
         <v>10</v>
       </c>
       <c r="E35" s="3">
-        <v>24600</v>
+        <v>34200</v>
       </c>
       <c r="F35" s="3">
-        <v>15200</v>
+        <v>24500</v>
       </c>
       <c r="G35" s="3">
-        <v>19500</v>
+        <v>15100</v>
       </c>
       <c r="H35" s="3">
-        <v>25600</v>
+        <v>19400</v>
       </c>
       <c r="I35" s="3">
-        <v>19000</v>
+        <v>25400</v>
       </c>
       <c r="J35" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K35" s="3">
         <v>21000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>44500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>14700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>800</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>5300</v>
       </c>
       <c r="R35" s="3">
         <v>5300</v>
       </c>
       <c r="S35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="T35" s="3">
         <v>10400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>77600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>50000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,111 +2573,115 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200500</v>
+        <v>192600</v>
       </c>
       <c r="E41" s="3">
-        <v>147500</v>
+        <v>199500</v>
       </c>
       <c r="F41" s="3">
-        <v>171700</v>
+        <v>146800</v>
       </c>
       <c r="G41" s="3">
-        <v>199900</v>
+        <v>170800</v>
       </c>
       <c r="H41" s="3">
-        <v>269400</v>
+        <v>198900</v>
       </c>
       <c r="I41" s="3">
-        <v>168700</v>
+        <v>268000</v>
       </c>
       <c r="J41" s="3">
+        <v>167800</v>
+      </c>
+      <c r="K41" s="3">
         <v>166200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>186200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>177800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>158200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>202300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>135800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>222500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>260400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>280900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>359000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>381300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>246900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>396300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E42" s="3">
         <v>9600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>9300</v>
       </c>
-      <c r="F42" s="3">
-        <v>14300</v>
-      </c>
       <c r="G42" s="3">
-        <v>12300</v>
+        <v>14200</v>
       </c>
       <c r="H42" s="3">
-        <v>11500</v>
+        <v>12200</v>
       </c>
       <c r="I42" s="3">
+        <v>11400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K42" s="3">
+        <v>6200</v>
+      </c>
+      <c r="L42" s="3">
         <v>6100</v>
       </c>
-      <c r="J42" s="3">
-        <v>6200</v>
-      </c>
-      <c r="K42" s="3">
-        <v>6100</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5800</v>
-      </c>
-      <c r="N42" s="3">
-        <v>500</v>
       </c>
       <c r="O42" s="3">
         <v>500</v>
       </c>
       <c r="P42" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2606,385 +2696,406 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>210500</v>
+        <v>230100</v>
       </c>
       <c r="E43" s="3">
-        <v>208200</v>
+        <v>209400</v>
       </c>
       <c r="F43" s="3">
-        <v>180500</v>
+        <v>207100</v>
       </c>
       <c r="G43" s="3">
-        <v>175000</v>
+        <v>179600</v>
       </c>
       <c r="H43" s="3">
-        <v>189200</v>
+        <v>174100</v>
       </c>
       <c r="I43" s="3">
-        <v>181600</v>
+        <v>188300</v>
       </c>
       <c r="J43" s="3">
+        <v>180700</v>
+      </c>
+      <c r="K43" s="3">
         <v>205400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>179000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>163200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>179000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>173100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>159800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>135700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>135500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>141200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>122700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>125700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>136900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>81700</v>
+        <v>90100</v>
       </c>
       <c r="E44" s="3">
-        <v>75400</v>
+        <v>81300</v>
       </c>
       <c r="F44" s="3">
-        <v>73000</v>
+        <v>75000</v>
       </c>
       <c r="G44" s="3">
-        <v>83000</v>
+        <v>72700</v>
       </c>
       <c r="H44" s="3">
-        <v>83200</v>
+        <v>82600</v>
       </c>
       <c r="I44" s="3">
-        <v>63400</v>
+        <v>82700</v>
       </c>
       <c r="J44" s="3">
+        <v>63100</v>
+      </c>
+      <c r="K44" s="3">
         <v>63500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>60000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>58500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>60600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>59000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>59900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>59400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>62500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>61900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>62600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>63100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>56200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="E45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>105900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>505700</v>
+        <v>524500</v>
       </c>
       <c r="E46" s="3">
-        <v>443100</v>
+        <v>503100</v>
       </c>
       <c r="F46" s="3">
-        <v>441700</v>
+        <v>440900</v>
       </c>
       <c r="G46" s="3">
-        <v>472000</v>
+        <v>439500</v>
       </c>
       <c r="H46" s="3">
-        <v>557400</v>
+        <v>469600</v>
       </c>
       <c r="I46" s="3">
-        <v>421800</v>
+        <v>554600</v>
       </c>
       <c r="J46" s="3">
+        <v>419700</v>
+      </c>
+      <c r="K46" s="3">
         <v>444000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>433100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>407600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>405000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>436800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>357800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>419700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>460300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>485500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>545800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>574100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>551000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>623200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>129200</v>
+        <v>131100</v>
       </c>
       <c r="E47" s="3">
-        <v>128800</v>
+        <v>128500</v>
       </c>
       <c r="F47" s="3">
-        <v>127900</v>
+        <v>128200</v>
       </c>
       <c r="G47" s="3">
-        <v>126400</v>
+        <v>127200</v>
       </c>
       <c r="H47" s="3">
-        <v>126000</v>
+        <v>125800</v>
       </c>
       <c r="I47" s="3">
-        <v>128900</v>
+        <v>125400</v>
       </c>
       <c r="J47" s="3">
+        <v>128200</v>
+      </c>
+      <c r="K47" s="3">
         <v>133100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>133800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>145200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>141300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>139300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>143100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>146800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>114200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>115100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>116600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>73900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>14700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>684600</v>
+        <v>696100</v>
       </c>
       <c r="E48" s="3">
-        <v>676100</v>
+        <v>681100</v>
       </c>
       <c r="F48" s="3">
-        <v>645800</v>
+        <v>672700</v>
       </c>
       <c r="G48" s="3">
-        <v>670100</v>
+        <v>642500</v>
       </c>
       <c r="H48" s="3">
-        <v>678700</v>
+        <v>666700</v>
       </c>
       <c r="I48" s="3">
-        <v>669400</v>
+        <v>675300</v>
       </c>
       <c r="J48" s="3">
+        <v>666000</v>
+      </c>
+      <c r="K48" s="3">
         <v>643800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>601800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>610900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>573000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>532900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>527000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>522700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>494700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>485900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>473800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>454500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>440100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>490100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E52" s="3">
         <v>11300</v>
       </c>
-      <c r="E52" s="3">
-        <v>10000</v>
-      </c>
       <c r="F52" s="3">
-        <v>9300</v>
+        <v>9900</v>
       </c>
       <c r="G52" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="H52" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I52" s="3">
         <v>9000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>14800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1330800</v>
+        <v>1362400</v>
       </c>
       <c r="E54" s="3">
-        <v>1258000</v>
+        <v>1324100</v>
       </c>
       <c r="F54" s="3">
-        <v>1224600</v>
+        <v>1251700</v>
       </c>
       <c r="G54" s="3">
-        <v>1278300</v>
+        <v>1218500</v>
       </c>
       <c r="H54" s="3">
-        <v>1371100</v>
+        <v>1271800</v>
       </c>
       <c r="I54" s="3">
-        <v>1230200</v>
+        <v>1364200</v>
       </c>
       <c r="J54" s="3">
+        <v>1224000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1231500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1181900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1176000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1128900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1119800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1037600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1099200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1078000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1095800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1145300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1111900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1020600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>40800</v>
+        <v>40200</v>
       </c>
       <c r="E57" s="3">
-        <v>34800</v>
+        <v>40600</v>
       </c>
       <c r="F57" s="3">
-        <v>28400</v>
+        <v>34600</v>
       </c>
       <c r="G57" s="3">
-        <v>30000</v>
+        <v>28200</v>
       </c>
       <c r="H57" s="3">
-        <v>29500</v>
+        <v>29900</v>
       </c>
       <c r="I57" s="3">
-        <v>29400</v>
+        <v>29300</v>
       </c>
       <c r="J57" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K57" s="3">
         <v>39700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>21700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>25600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>24000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>21600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>22300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>21100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>24800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>23700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>26900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20900</v>
+        <v>43400</v>
       </c>
       <c r="E58" s="3">
-        <v>31600</v>
+        <v>47500</v>
       </c>
       <c r="F58" s="3">
+        <v>31400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>28600</v>
+      </c>
+      <c r="H58" s="3">
         <v>28700</v>
       </c>
-      <c r="G58" s="3">
-        <v>28800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>28900</v>
-      </c>
       <c r="I58" s="3">
-        <v>27700</v>
+        <v>28700</v>
       </c>
       <c r="J58" s="3">
+        <v>27600</v>
+      </c>
+      <c r="K58" s="3">
         <v>28100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>38200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>26100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>25600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>25200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>106500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>101300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>95200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>128600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>69400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>35000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>151400</v>
+        <v>153700</v>
       </c>
       <c r="E59" s="3">
-        <v>135200</v>
+        <v>123900</v>
       </c>
       <c r="F59" s="3">
-        <v>89400</v>
+        <v>134500</v>
       </c>
       <c r="G59" s="3">
-        <v>157700</v>
+        <v>88900</v>
       </c>
       <c r="H59" s="3">
-        <v>103400</v>
+        <v>156900</v>
       </c>
       <c r="I59" s="3">
-        <v>118700</v>
+        <v>102900</v>
       </c>
       <c r="J59" s="3">
+        <v>118100</v>
+      </c>
+      <c r="K59" s="3">
         <v>112500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>114800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>129000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>144000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>95300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>77700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>92600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>88800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>108700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>80700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>90200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>120100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>213100</v>
+        <v>237400</v>
       </c>
       <c r="E60" s="3">
-        <v>201500</v>
+        <v>212000</v>
       </c>
       <c r="F60" s="3">
-        <v>146500</v>
+        <v>200500</v>
       </c>
       <c r="G60" s="3">
-        <v>216500</v>
+        <v>145700</v>
       </c>
       <c r="H60" s="3">
-        <v>161800</v>
+        <v>215400</v>
       </c>
       <c r="I60" s="3">
-        <v>175800</v>
+        <v>160900</v>
       </c>
       <c r="J60" s="3">
+        <v>174900</v>
+      </c>
+      <c r="K60" s="3">
         <v>180300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>168100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>158700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>176800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>195200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>144500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>205900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>216200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>205100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>262100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>173900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>152100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>304900</v>
+        <v>270900</v>
       </c>
       <c r="E61" s="3">
-        <v>277000</v>
+        <v>303400</v>
       </c>
       <c r="F61" s="3">
+        <v>275600</v>
+      </c>
+      <c r="G61" s="3">
+        <v>326700</v>
+      </c>
+      <c r="H61" s="3">
         <v>328300</v>
       </c>
-      <c r="G61" s="3">
-        <v>330000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>450700</v>
-      </c>
       <c r="I61" s="3">
-        <v>321400</v>
+        <v>448400</v>
       </c>
       <c r="J61" s="3">
+        <v>319800</v>
+      </c>
+      <c r="K61" s="3">
         <v>335100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>332200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>346600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>308100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>314100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>253700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>250000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>243600</v>
-      </c>
-      <c r="R61" s="3">
-        <v>278600</v>
       </c>
       <c r="S61" s="3">
         <v>278600</v>
       </c>
       <c r="T61" s="3">
+        <v>278600</v>
+      </c>
+      <c r="U61" s="3">
         <v>315400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>316900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>269700</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>32400</v>
+        <v>31600</v>
       </c>
       <c r="E62" s="3">
-        <v>32500</v>
+        <v>32300</v>
       </c>
       <c r="F62" s="3">
-        <v>29900</v>
+        <v>32300</v>
       </c>
       <c r="G62" s="3">
-        <v>30200</v>
+        <v>29800</v>
       </c>
       <c r="H62" s="3">
-        <v>30300</v>
+        <v>30000</v>
       </c>
       <c r="I62" s="3">
+        <v>30100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K62" s="3">
+        <v>29400</v>
+      </c>
+      <c r="L62" s="3">
+        <v>28600</v>
+      </c>
+      <c r="M62" s="3">
         <v>28400</v>
       </c>
-      <c r="J62" s="3">
-        <v>29400</v>
-      </c>
-      <c r="K62" s="3">
-        <v>28600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>28400</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>28300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>24800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>22000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>23400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>23100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>22300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>20900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>550500</v>
+        <v>539900</v>
       </c>
       <c r="E66" s="3">
-        <v>511000</v>
+        <v>547700</v>
       </c>
       <c r="F66" s="3">
-        <v>504800</v>
+        <v>508400</v>
       </c>
       <c r="G66" s="3">
-        <v>576700</v>
+        <v>502200</v>
       </c>
       <c r="H66" s="3">
-        <v>642700</v>
+        <v>573800</v>
       </c>
       <c r="I66" s="3">
-        <v>525500</v>
+        <v>639500</v>
       </c>
       <c r="J66" s="3">
+        <v>522900</v>
+      </c>
+      <c r="K66" s="3">
         <v>544800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>528900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>533700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>513200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>534500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>423400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>480700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>481800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>507000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>563800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>511600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>489900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>572600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>298200</v>
+        <v>342500</v>
       </c>
       <c r="E72" s="3">
-        <v>263800</v>
+        <v>296700</v>
       </c>
       <c r="F72" s="3">
-        <v>240700</v>
+        <v>262500</v>
       </c>
       <c r="G72" s="3">
-        <v>225500</v>
+        <v>239500</v>
       </c>
       <c r="H72" s="3">
-        <v>252900</v>
+        <v>224300</v>
       </c>
       <c r="I72" s="3">
-        <v>227300</v>
+        <v>251600</v>
       </c>
       <c r="J72" s="3">
+        <v>226200</v>
+      </c>
+      <c r="K72" s="3">
         <v>207700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>190600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>185900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>173900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>154600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>139600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>144000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>137400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>130700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>125400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>124100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>46500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>192400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>780300</v>
+        <v>822500</v>
       </c>
       <c r="E76" s="3">
-        <v>747000</v>
+        <v>776400</v>
       </c>
       <c r="F76" s="3">
-        <v>719900</v>
+        <v>743300</v>
       </c>
       <c r="G76" s="3">
-        <v>701600</v>
+        <v>716300</v>
       </c>
       <c r="H76" s="3">
-        <v>728300</v>
+        <v>698100</v>
       </c>
       <c r="I76" s="3">
-        <v>704700</v>
+        <v>724700</v>
       </c>
       <c r="J76" s="3">
+        <v>701200</v>
+      </c>
+      <c r="K76" s="3">
         <v>686800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>653000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>642300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>615700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>585300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>614200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>618600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>596100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>588800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>581500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>600300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>530700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>564300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,61 +4938,64 @@
         <v>10</v>
       </c>
       <c r="E81" s="3">
-        <v>24600</v>
+        <v>34200</v>
       </c>
       <c r="F81" s="3">
-        <v>15200</v>
+        <v>24500</v>
       </c>
       <c r="G81" s="3">
-        <v>19500</v>
+        <v>15100</v>
       </c>
       <c r="H81" s="3">
-        <v>25600</v>
+        <v>19400</v>
       </c>
       <c r="I81" s="3">
-        <v>19000</v>
+        <v>25400</v>
       </c>
       <c r="J81" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K81" s="3">
         <v>21000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>44500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>14700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>800</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>5300</v>
       </c>
       <c r="R81" s="3">
         <v>5300</v>
       </c>
       <c r="S81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="T81" s="3">
         <v>10400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>77600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>50000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>40400</v>
+        <v>41300</v>
       </c>
       <c r="E83" s="3">
-        <v>38000</v>
+        <v>40200</v>
       </c>
       <c r="F83" s="3">
-        <v>38100</v>
+        <v>37800</v>
       </c>
       <c r="G83" s="3">
-        <v>37600</v>
+        <v>37900</v>
       </c>
       <c r="H83" s="3">
-        <v>36000</v>
+        <v>37400</v>
       </c>
       <c r="I83" s="3">
-        <v>34400</v>
+        <v>35900</v>
       </c>
       <c r="J83" s="3">
         <v>34200</v>
       </c>
       <c r="K83" s="3">
+        <v>34200</v>
+      </c>
+      <c r="L83" s="3">
         <v>32200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>31500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>29300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>28600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>28100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>25300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>24100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>23000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>105300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>72500</v>
+        <v>60500</v>
       </c>
       <c r="E89" s="3">
-        <v>67700</v>
+        <v>72100</v>
       </c>
       <c r="F89" s="3">
-        <v>45700</v>
+        <v>67400</v>
       </c>
       <c r="G89" s="3">
-        <v>73300</v>
+        <v>45500</v>
       </c>
       <c r="H89" s="3">
-        <v>26300</v>
+        <v>73000</v>
       </c>
       <c r="I89" s="3">
-        <v>77000</v>
+        <v>26100</v>
       </c>
       <c r="J89" s="3">
+        <v>76600</v>
+      </c>
+      <c r="K89" s="3">
         <v>50400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>59800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>48200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>41100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>24100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>25200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>41000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>39400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>60700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>120300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-53500</v>
+        <v>-55600</v>
       </c>
       <c r="E91" s="3">
-        <v>-37100</v>
+        <v>-53200</v>
       </c>
       <c r="F91" s="3">
-        <v>-26000</v>
+        <v>-37000</v>
       </c>
       <c r="G91" s="3">
-        <v>-23500</v>
+        <v>-25800</v>
       </c>
       <c r="H91" s="3">
-        <v>-55500</v>
+        <v>-23400</v>
       </c>
       <c r="I91" s="3">
-        <v>-62100</v>
+        <v>-55200</v>
       </c>
       <c r="J91" s="3">
+        <v>-61800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-46500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-33000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-51500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-26700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-32400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-45500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-34700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-31900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-44100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-291600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-78500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-54200</v>
+        <v>-54800</v>
       </c>
       <c r="E94" s="3">
-        <v>-37100</v>
+        <v>-53900</v>
       </c>
       <c r="F94" s="3">
-        <v>-26200</v>
+        <v>-36900</v>
       </c>
       <c r="G94" s="3">
-        <v>-21600</v>
+        <v>-26000</v>
       </c>
       <c r="H94" s="3">
-        <v>-51400</v>
+        <v>-21500</v>
       </c>
       <c r="I94" s="3">
-        <v>-60300</v>
+        <v>-51100</v>
       </c>
       <c r="J94" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-43500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-54900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-31900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-34900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-32100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-72400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-32300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-29300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-84900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>41300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-156800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-39200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5583,11 +5817,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-8700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5607,13 +5841,16 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-58500</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,100 +6041,106 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>34700</v>
+        <v>-12400</v>
       </c>
       <c r="E100" s="3">
-        <v>-54700</v>
+        <v>34500</v>
       </c>
       <c r="F100" s="3">
-        <v>-47600</v>
+        <v>-54400</v>
       </c>
       <c r="G100" s="3">
-        <v>-121100</v>
+        <v>-47300</v>
       </c>
       <c r="H100" s="3">
-        <v>125800</v>
+        <v>-120500</v>
       </c>
       <c r="I100" s="3">
-        <v>-13900</v>
+        <v>125100</v>
       </c>
       <c r="J100" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-31700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-24200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-65400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>60000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-78400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-29000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-61200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>24600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>32900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-105100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
       <c r="G101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -5899,89 +6148,95 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>53000</v>
+        <v>-6800</v>
       </c>
       <c r="E102" s="3">
-        <v>-24200</v>
+        <v>52700</v>
       </c>
       <c r="F102" s="3">
-        <v>-28200</v>
+        <v>-24100</v>
       </c>
       <c r="G102" s="3">
-        <v>-69500</v>
+        <v>-28000</v>
       </c>
       <c r="H102" s="3">
-        <v>100700</v>
+        <v>-69200</v>
       </c>
       <c r="I102" s="3">
+        <v>100200</v>
+      </c>
+      <c r="J102" s="3">
         <v>2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-24800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-48500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>66200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-86700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-44800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-20500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-78200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-19900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>134400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-148600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-23900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
@@ -763,25 +763,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>249100</v>
+        <v>251500</v>
       </c>
       <c r="E8" s="3">
-        <v>230700</v>
+        <v>232900</v>
       </c>
       <c r="F8" s="3">
-        <v>225200</v>
+        <v>227300</v>
       </c>
       <c r="G8" s="3">
-        <v>202900</v>
+        <v>204800</v>
       </c>
       <c r="H8" s="3">
-        <v>193700</v>
+        <v>195500</v>
       </c>
       <c r="I8" s="3">
-        <v>199300</v>
+        <v>201200</v>
       </c>
       <c r="J8" s="3">
-        <v>198800</v>
+        <v>200700</v>
       </c>
       <c r="K8" s="3">
         <v>193600</v>
@@ -828,25 +828,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>179000</v>
+        <v>180700</v>
       </c>
       <c r="E9" s="3">
-        <v>175000</v>
+        <v>176600</v>
       </c>
       <c r="F9" s="3">
-        <v>170200</v>
+        <v>171800</v>
       </c>
       <c r="G9" s="3">
-        <v>163800</v>
+        <v>165400</v>
       </c>
       <c r="H9" s="3">
-        <v>153600</v>
+        <v>155000</v>
       </c>
       <c r="I9" s="3">
-        <v>154000</v>
+        <v>155500</v>
       </c>
       <c r="J9" s="3">
-        <v>153600</v>
+        <v>155100</v>
       </c>
       <c r="K9" s="3">
         <v>152300</v>
@@ -893,25 +893,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>70100</v>
+        <v>70800</v>
       </c>
       <c r="E10" s="3">
-        <v>55700</v>
+        <v>56200</v>
       </c>
       <c r="F10" s="3">
-        <v>55000</v>
+        <v>55500</v>
       </c>
       <c r="G10" s="3">
-        <v>39100</v>
+        <v>39500</v>
       </c>
       <c r="H10" s="3">
-        <v>40100</v>
+        <v>40500</v>
       </c>
       <c r="I10" s="3">
-        <v>45300</v>
+        <v>45800</v>
       </c>
       <c r="J10" s="3">
-        <v>45200</v>
+        <v>45600</v>
       </c>
       <c r="K10" s="3">
         <v>41300</v>
@@ -983,22 +983,22 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="E12" s="3">
         <v>9600</v>
       </c>
       <c r="F12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I12" s="3">
         <v>9300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>9200</v>
       </c>
       <c r="J12" s="3">
         <v>9100</v>
@@ -1268,22 +1268,22 @@
         <v>10</v>
       </c>
       <c r="E17" s="3">
-        <v>189300</v>
+        <v>191100</v>
       </c>
       <c r="F17" s="3">
-        <v>183800</v>
+        <v>185500</v>
       </c>
       <c r="G17" s="3">
-        <v>177300</v>
+        <v>179000</v>
       </c>
       <c r="H17" s="3">
-        <v>165500</v>
+        <v>167100</v>
       </c>
       <c r="I17" s="3">
-        <v>167200</v>
+        <v>168800</v>
       </c>
       <c r="J17" s="3">
-        <v>166700</v>
+        <v>168200</v>
       </c>
       <c r="K17" s="3">
         <v>165400</v>
@@ -1333,22 +1333,22 @@
         <v>10</v>
       </c>
       <c r="E18" s="3">
-        <v>41400</v>
+        <v>41800</v>
       </c>
       <c r="F18" s="3">
-        <v>41400</v>
+        <v>41800</v>
       </c>
       <c r="G18" s="3">
-        <v>25600</v>
+        <v>25800</v>
       </c>
       <c r="H18" s="3">
-        <v>28200</v>
+        <v>28400</v>
       </c>
       <c r="I18" s="3">
-        <v>32100</v>
+        <v>32400</v>
       </c>
       <c r="J18" s="3">
-        <v>32100</v>
+        <v>32400</v>
       </c>
       <c r="K18" s="3">
         <v>28200</v>
@@ -1426,19 +1426,19 @@
         <v>2000</v>
       </c>
       <c r="F20" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="G20" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="H20" s="3">
         <v>-3100</v>
       </c>
       <c r="I20" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J20" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="K20" s="3">
         <v>-400</v>
@@ -1488,22 +1488,22 @@
         <v>10</v>
       </c>
       <c r="E21" s="3">
-        <v>83500</v>
+        <v>84300</v>
       </c>
       <c r="F21" s="3">
-        <v>70600</v>
+        <v>71200</v>
       </c>
       <c r="G21" s="3">
-        <v>58500</v>
+        <v>59100</v>
       </c>
       <c r="H21" s="3">
-        <v>62500</v>
+        <v>63100</v>
       </c>
       <c r="I21" s="3">
-        <v>69300</v>
+        <v>70000</v>
       </c>
       <c r="J21" s="3">
-        <v>59800</v>
+        <v>60400</v>
       </c>
       <c r="K21" s="3">
         <v>61900</v>
@@ -1559,7 +1559,7 @@
         <v>1300</v>
       </c>
       <c r="G22" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H22" s="3">
         <v>1700</v>
@@ -1615,25 +1615,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>54300</v>
+        <v>54800</v>
       </c>
       <c r="E23" s="3">
-        <v>42300</v>
+        <v>42700</v>
       </c>
       <c r="F23" s="3">
-        <v>31500</v>
+        <v>31800</v>
       </c>
       <c r="G23" s="3">
-        <v>19200</v>
+        <v>19400</v>
       </c>
       <c r="H23" s="3">
-        <v>23400</v>
+        <v>23600</v>
       </c>
       <c r="I23" s="3">
-        <v>32000</v>
+        <v>32300</v>
       </c>
       <c r="J23" s="3">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="K23" s="3">
         <v>26200</v>
@@ -1689,16 +1689,16 @@
         <v>7000</v>
       </c>
       <c r="G24" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="H24" s="3">
         <v>4000</v>
       </c>
       <c r="I24" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="J24" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="K24" s="3">
         <v>5200</v>
@@ -1813,22 +1813,22 @@
         <v>10</v>
       </c>
       <c r="E26" s="3">
-        <v>34200</v>
+        <v>34500</v>
       </c>
       <c r="F26" s="3">
-        <v>24500</v>
+        <v>24700</v>
       </c>
       <c r="G26" s="3">
-        <v>15100</v>
+        <v>15300</v>
       </c>
       <c r="H26" s="3">
-        <v>19400</v>
+        <v>19600</v>
       </c>
       <c r="I26" s="3">
-        <v>25400</v>
+        <v>25700</v>
       </c>
       <c r="J26" s="3">
-        <v>18900</v>
+        <v>19100</v>
       </c>
       <c r="K26" s="3">
         <v>21000</v>
@@ -1878,22 +1878,22 @@
         <v>10</v>
       </c>
       <c r="E27" s="3">
-        <v>34200</v>
+        <v>34500</v>
       </c>
       <c r="F27" s="3">
-        <v>24500</v>
+        <v>24700</v>
       </c>
       <c r="G27" s="3">
-        <v>15100</v>
+        <v>15300</v>
       </c>
       <c r="H27" s="3">
-        <v>19400</v>
+        <v>19600</v>
       </c>
       <c r="I27" s="3">
-        <v>25400</v>
+        <v>25700</v>
       </c>
       <c r="J27" s="3">
-        <v>18900</v>
+        <v>19100</v>
       </c>
       <c r="K27" s="3">
         <v>21000</v>
@@ -2206,19 +2206,19 @@
         <v>-2000</v>
       </c>
       <c r="F32" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="G32" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="H32" s="3">
         <v>3100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J32" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="K32" s="3">
         <v>400</v>
@@ -2268,22 +2268,22 @@
         <v>10</v>
       </c>
       <c r="E33" s="3">
-        <v>34200</v>
+        <v>34500</v>
       </c>
       <c r="F33" s="3">
-        <v>24500</v>
+        <v>24700</v>
       </c>
       <c r="G33" s="3">
-        <v>15100</v>
+        <v>15300</v>
       </c>
       <c r="H33" s="3">
-        <v>19400</v>
+        <v>19600</v>
       </c>
       <c r="I33" s="3">
-        <v>25400</v>
+        <v>25700</v>
       </c>
       <c r="J33" s="3">
-        <v>18900</v>
+        <v>19100</v>
       </c>
       <c r="K33" s="3">
         <v>21000</v>
@@ -2398,22 +2398,22 @@
         <v>10</v>
       </c>
       <c r="E35" s="3">
-        <v>34200</v>
+        <v>34500</v>
       </c>
       <c r="F35" s="3">
-        <v>24500</v>
+        <v>24700</v>
       </c>
       <c r="G35" s="3">
-        <v>15100</v>
+        <v>15300</v>
       </c>
       <c r="H35" s="3">
-        <v>19400</v>
+        <v>19600</v>
       </c>
       <c r="I35" s="3">
-        <v>25400</v>
+        <v>25700</v>
       </c>
       <c r="J35" s="3">
-        <v>18900</v>
+        <v>19100</v>
       </c>
       <c r="K35" s="3">
         <v>21000</v>
@@ -2580,25 +2580,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>192600</v>
+        <v>194500</v>
       </c>
       <c r="E41" s="3">
-        <v>199500</v>
+        <v>201400</v>
       </c>
       <c r="F41" s="3">
-        <v>146800</v>
+        <v>148200</v>
       </c>
       <c r="G41" s="3">
-        <v>170800</v>
+        <v>172500</v>
       </c>
       <c r="H41" s="3">
-        <v>198900</v>
+        <v>200800</v>
       </c>
       <c r="I41" s="3">
-        <v>268000</v>
+        <v>270600</v>
       </c>
       <c r="J41" s="3">
-        <v>167800</v>
+        <v>169400</v>
       </c>
       <c r="K41" s="3">
         <v>166200</v>
@@ -2645,25 +2645,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="E42" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="F42" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="G42" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="H42" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="I42" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="J42" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="K42" s="3">
         <v>6200</v>
@@ -2710,25 +2710,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>230100</v>
+        <v>232300</v>
       </c>
       <c r="E43" s="3">
-        <v>209400</v>
+        <v>211400</v>
       </c>
       <c r="F43" s="3">
-        <v>207100</v>
+        <v>209100</v>
       </c>
       <c r="G43" s="3">
-        <v>179600</v>
+        <v>181400</v>
       </c>
       <c r="H43" s="3">
-        <v>174100</v>
+        <v>175800</v>
       </c>
       <c r="I43" s="3">
-        <v>188300</v>
+        <v>190100</v>
       </c>
       <c r="J43" s="3">
-        <v>180700</v>
+        <v>182400</v>
       </c>
       <c r="K43" s="3">
         <v>205400</v>
@@ -2775,25 +2775,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>90100</v>
+        <v>91000</v>
       </c>
       <c r="E44" s="3">
-        <v>81300</v>
+        <v>82100</v>
       </c>
       <c r="F44" s="3">
-        <v>75000</v>
+        <v>75700</v>
       </c>
       <c r="G44" s="3">
-        <v>72700</v>
+        <v>73300</v>
       </c>
       <c r="H44" s="3">
-        <v>82600</v>
+        <v>83400</v>
       </c>
       <c r="I44" s="3">
-        <v>82700</v>
+        <v>83500</v>
       </c>
       <c r="J44" s="3">
-        <v>63100</v>
+        <v>63700</v>
       </c>
       <c r="K44" s="3">
         <v>63500</v>
@@ -2843,7 +2843,7 @@
         <v>2300</v>
       </c>
       <c r="E45" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="F45" s="3">
         <v>2700</v>
@@ -2905,25 +2905,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>524500</v>
+        <v>529500</v>
       </c>
       <c r="E46" s="3">
-        <v>503100</v>
+        <v>507900</v>
       </c>
       <c r="F46" s="3">
-        <v>440900</v>
+        <v>445100</v>
       </c>
       <c r="G46" s="3">
-        <v>439500</v>
+        <v>443700</v>
       </c>
       <c r="H46" s="3">
-        <v>469600</v>
+        <v>474100</v>
       </c>
       <c r="I46" s="3">
-        <v>554600</v>
+        <v>559900</v>
       </c>
       <c r="J46" s="3">
-        <v>419700</v>
+        <v>423700</v>
       </c>
       <c r="K46" s="3">
         <v>444000</v>
@@ -2970,25 +2970,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>131100</v>
+        <v>132300</v>
       </c>
       <c r="E47" s="3">
-        <v>128500</v>
+        <v>129800</v>
       </c>
       <c r="F47" s="3">
-        <v>128200</v>
+        <v>129400</v>
       </c>
       <c r="G47" s="3">
-        <v>127200</v>
+        <v>128400</v>
       </c>
       <c r="H47" s="3">
-        <v>125800</v>
+        <v>127000</v>
       </c>
       <c r="I47" s="3">
-        <v>125400</v>
+        <v>126600</v>
       </c>
       <c r="J47" s="3">
-        <v>128200</v>
+        <v>129500</v>
       </c>
       <c r="K47" s="3">
         <v>133100</v>
@@ -3035,25 +3035,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>696100</v>
+        <v>702800</v>
       </c>
       <c r="E48" s="3">
-        <v>681100</v>
+        <v>687600</v>
       </c>
       <c r="F48" s="3">
-        <v>672700</v>
+        <v>679100</v>
       </c>
       <c r="G48" s="3">
-        <v>642500</v>
+        <v>648700</v>
       </c>
       <c r="H48" s="3">
-        <v>666700</v>
+        <v>673100</v>
       </c>
       <c r="I48" s="3">
-        <v>675300</v>
+        <v>681700</v>
       </c>
       <c r="J48" s="3">
-        <v>666000</v>
+        <v>672400</v>
       </c>
       <c r="K48" s="3">
         <v>643800</v>
@@ -3295,25 +3295,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="E52" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="F52" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="G52" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="H52" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="I52" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="J52" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="K52" s="3">
         <v>10500</v>
@@ -3425,25 +3425,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1362400</v>
+        <v>1375400</v>
       </c>
       <c r="E54" s="3">
-        <v>1324100</v>
+        <v>1336700</v>
       </c>
       <c r="F54" s="3">
-        <v>1251700</v>
+        <v>1263600</v>
       </c>
       <c r="G54" s="3">
-        <v>1218500</v>
+        <v>1230100</v>
       </c>
       <c r="H54" s="3">
-        <v>1271800</v>
+        <v>1284000</v>
       </c>
       <c r="I54" s="3">
-        <v>1364200</v>
+        <v>1377200</v>
       </c>
       <c r="J54" s="3">
-        <v>1224000</v>
+        <v>1235700</v>
       </c>
       <c r="K54" s="3">
         <v>1231500</v>
@@ -3540,25 +3540,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>40200</v>
+        <v>40600</v>
       </c>
       <c r="E57" s="3">
-        <v>40600</v>
+        <v>41000</v>
       </c>
       <c r="F57" s="3">
-        <v>34600</v>
+        <v>34900</v>
       </c>
       <c r="G57" s="3">
-        <v>28200</v>
+        <v>28500</v>
       </c>
       <c r="H57" s="3">
-        <v>29900</v>
+        <v>30100</v>
       </c>
       <c r="I57" s="3">
-        <v>29300</v>
+        <v>29600</v>
       </c>
       <c r="J57" s="3">
-        <v>29200</v>
+        <v>29500</v>
       </c>
       <c r="K57" s="3">
         <v>39700</v>
@@ -3605,25 +3605,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>43400</v>
+        <v>43900</v>
       </c>
       <c r="E58" s="3">
-        <v>47500</v>
+        <v>48000</v>
       </c>
       <c r="F58" s="3">
-        <v>31400</v>
+        <v>31700</v>
       </c>
       <c r="G58" s="3">
-        <v>28600</v>
+        <v>28800</v>
       </c>
       <c r="H58" s="3">
-        <v>28700</v>
+        <v>28900</v>
       </c>
       <c r="I58" s="3">
-        <v>28700</v>
+        <v>29000</v>
       </c>
       <c r="J58" s="3">
-        <v>27600</v>
+        <v>27800</v>
       </c>
       <c r="K58" s="3">
         <v>28100</v>
@@ -3670,25 +3670,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>153700</v>
+        <v>155200</v>
       </c>
       <c r="E59" s="3">
-        <v>123900</v>
+        <v>125100</v>
       </c>
       <c r="F59" s="3">
-        <v>134500</v>
+        <v>135800</v>
       </c>
       <c r="G59" s="3">
-        <v>88900</v>
+        <v>89800</v>
       </c>
       <c r="H59" s="3">
-        <v>156900</v>
+        <v>158400</v>
       </c>
       <c r="I59" s="3">
-        <v>102900</v>
+        <v>103900</v>
       </c>
       <c r="J59" s="3">
-        <v>118100</v>
+        <v>119200</v>
       </c>
       <c r="K59" s="3">
         <v>112500</v>
@@ -3735,25 +3735,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>237400</v>
+        <v>239600</v>
       </c>
       <c r="E60" s="3">
-        <v>212000</v>
+        <v>214100</v>
       </c>
       <c r="F60" s="3">
-        <v>200500</v>
+        <v>202400</v>
       </c>
       <c r="G60" s="3">
-        <v>145700</v>
+        <v>147100</v>
       </c>
       <c r="H60" s="3">
-        <v>215400</v>
+        <v>217500</v>
       </c>
       <c r="I60" s="3">
-        <v>160900</v>
+        <v>162500</v>
       </c>
       <c r="J60" s="3">
-        <v>174900</v>
+        <v>176600</v>
       </c>
       <c r="K60" s="3">
         <v>180300</v>
@@ -3800,25 +3800,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>270900</v>
+        <v>273500</v>
       </c>
       <c r="E61" s="3">
-        <v>303400</v>
+        <v>306300</v>
       </c>
       <c r="F61" s="3">
-        <v>275600</v>
+        <v>278200</v>
       </c>
       <c r="G61" s="3">
-        <v>326700</v>
+        <v>329800</v>
       </c>
       <c r="H61" s="3">
-        <v>328300</v>
+        <v>331500</v>
       </c>
       <c r="I61" s="3">
-        <v>448400</v>
+        <v>452700</v>
       </c>
       <c r="J61" s="3">
-        <v>319800</v>
+        <v>322800</v>
       </c>
       <c r="K61" s="3">
         <v>335100</v>
@@ -3865,25 +3865,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>31600</v>
+        <v>31900</v>
       </c>
       <c r="E62" s="3">
-        <v>32300</v>
+        <v>32600</v>
       </c>
       <c r="F62" s="3">
-        <v>32300</v>
+        <v>32600</v>
       </c>
       <c r="G62" s="3">
-        <v>29800</v>
+        <v>30100</v>
       </c>
       <c r="H62" s="3">
-        <v>30000</v>
+        <v>30300</v>
       </c>
       <c r="I62" s="3">
-        <v>30100</v>
+        <v>30400</v>
       </c>
       <c r="J62" s="3">
-        <v>28200</v>
+        <v>28500</v>
       </c>
       <c r="K62" s="3">
         <v>29400</v>
@@ -4125,25 +4125,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>539900</v>
+        <v>545100</v>
       </c>
       <c r="E66" s="3">
-        <v>547700</v>
+        <v>552900</v>
       </c>
       <c r="F66" s="3">
-        <v>508400</v>
+        <v>513300</v>
       </c>
       <c r="G66" s="3">
-        <v>502200</v>
+        <v>507000</v>
       </c>
       <c r="H66" s="3">
-        <v>573800</v>
+        <v>579300</v>
       </c>
       <c r="I66" s="3">
-        <v>639500</v>
+        <v>645600</v>
       </c>
       <c r="J66" s="3">
-        <v>522900</v>
+        <v>527900</v>
       </c>
       <c r="K66" s="3">
         <v>544800</v>
@@ -4475,25 +4475,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>342500</v>
+        <v>345800</v>
       </c>
       <c r="E72" s="3">
-        <v>296700</v>
+        <v>299500</v>
       </c>
       <c r="F72" s="3">
-        <v>262500</v>
+        <v>265000</v>
       </c>
       <c r="G72" s="3">
-        <v>239500</v>
+        <v>241700</v>
       </c>
       <c r="H72" s="3">
-        <v>224300</v>
+        <v>226500</v>
       </c>
       <c r="I72" s="3">
-        <v>251600</v>
+        <v>254000</v>
       </c>
       <c r="J72" s="3">
-        <v>226200</v>
+        <v>228300</v>
       </c>
       <c r="K72" s="3">
         <v>207700</v>
@@ -4735,25 +4735,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>822500</v>
+        <v>830300</v>
       </c>
       <c r="E76" s="3">
-        <v>776400</v>
+        <v>783800</v>
       </c>
       <c r="F76" s="3">
-        <v>743300</v>
+        <v>750400</v>
       </c>
       <c r="G76" s="3">
-        <v>716300</v>
+        <v>723100</v>
       </c>
       <c r="H76" s="3">
-        <v>698100</v>
+        <v>704700</v>
       </c>
       <c r="I76" s="3">
-        <v>724700</v>
+        <v>731600</v>
       </c>
       <c r="J76" s="3">
-        <v>701200</v>
+        <v>707800</v>
       </c>
       <c r="K76" s="3">
         <v>686800</v>
@@ -4938,22 +4938,22 @@
         <v>10</v>
       </c>
       <c r="E81" s="3">
-        <v>34200</v>
+        <v>34500</v>
       </c>
       <c r="F81" s="3">
-        <v>24500</v>
+        <v>24700</v>
       </c>
       <c r="G81" s="3">
-        <v>15100</v>
+        <v>15300</v>
       </c>
       <c r="H81" s="3">
-        <v>19400</v>
+        <v>19600</v>
       </c>
       <c r="I81" s="3">
-        <v>25400</v>
+        <v>25700</v>
       </c>
       <c r="J81" s="3">
-        <v>18900</v>
+        <v>19100</v>
       </c>
       <c r="K81" s="3">
         <v>21000</v>
@@ -5025,25 +5025,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>41300</v>
+        <v>41600</v>
       </c>
       <c r="E83" s="3">
-        <v>40200</v>
+        <v>40600</v>
       </c>
       <c r="F83" s="3">
-        <v>37800</v>
+        <v>38200</v>
       </c>
       <c r="G83" s="3">
-        <v>37900</v>
+        <v>38300</v>
       </c>
       <c r="H83" s="3">
-        <v>37400</v>
+        <v>37700</v>
       </c>
       <c r="I83" s="3">
-        <v>35900</v>
+        <v>36200</v>
       </c>
       <c r="J83" s="3">
-        <v>34200</v>
+        <v>34500</v>
       </c>
       <c r="K83" s="3">
         <v>34200</v>
@@ -5415,25 +5415,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="E89" s="3">
-        <v>72100</v>
+        <v>72800</v>
       </c>
       <c r="F89" s="3">
-        <v>67400</v>
+        <v>68000</v>
       </c>
       <c r="G89" s="3">
-        <v>45500</v>
+        <v>45900</v>
       </c>
       <c r="H89" s="3">
-        <v>73000</v>
+        <v>73700</v>
       </c>
       <c r="I89" s="3">
-        <v>26100</v>
+        <v>26400</v>
       </c>
       <c r="J89" s="3">
-        <v>76600</v>
+        <v>77400</v>
       </c>
       <c r="K89" s="3">
         <v>50400</v>
@@ -5505,25 +5505,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-55600</v>
+        <v>-56100</v>
       </c>
       <c r="E91" s="3">
-        <v>-53200</v>
+        <v>-53700</v>
       </c>
       <c r="F91" s="3">
-        <v>-37000</v>
+        <v>-37300</v>
       </c>
       <c r="G91" s="3">
-        <v>-25800</v>
+        <v>-26100</v>
       </c>
       <c r="H91" s="3">
-        <v>-23400</v>
+        <v>-23600</v>
       </c>
       <c r="I91" s="3">
-        <v>-55200</v>
+        <v>-55700</v>
       </c>
       <c r="J91" s="3">
-        <v>-61800</v>
+        <v>-62400</v>
       </c>
       <c r="K91" s="3">
         <v>-46500</v>
@@ -5700,25 +5700,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-54800</v>
+        <v>-55300</v>
       </c>
       <c r="E94" s="3">
-        <v>-53900</v>
+        <v>-54500</v>
       </c>
       <c r="F94" s="3">
-        <v>-36900</v>
+        <v>-37200</v>
       </c>
       <c r="G94" s="3">
-        <v>-26000</v>
+        <v>-26300</v>
       </c>
       <c r="H94" s="3">
-        <v>-21500</v>
+        <v>-21700</v>
       </c>
       <c r="I94" s="3">
-        <v>-51100</v>
+        <v>-51600</v>
       </c>
       <c r="J94" s="3">
-        <v>-60000</v>
+        <v>-60600</v>
       </c>
       <c r="K94" s="3">
         <v>-43500</v>
@@ -6050,25 +6050,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12400</v>
+        <v>-12500</v>
       </c>
       <c r="E100" s="3">
-        <v>34500</v>
+        <v>34800</v>
       </c>
       <c r="F100" s="3">
-        <v>-54400</v>
+        <v>-54900</v>
       </c>
       <c r="G100" s="3">
-        <v>-47300</v>
+        <v>-47800</v>
       </c>
       <c r="H100" s="3">
-        <v>-120500</v>
+        <v>-121600</v>
       </c>
       <c r="I100" s="3">
-        <v>125100</v>
+        <v>126300</v>
       </c>
       <c r="J100" s="3">
-        <v>-13800</v>
+        <v>-14000</v>
       </c>
       <c r="K100" s="3">
         <v>-31700</v>
@@ -6180,22 +6180,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="E102" s="3">
-        <v>52700</v>
+        <v>53200</v>
       </c>
       <c r="F102" s="3">
-        <v>-24100</v>
+        <v>-24300</v>
       </c>
       <c r="G102" s="3">
-        <v>-28000</v>
+        <v>-28300</v>
       </c>
       <c r="H102" s="3">
-        <v>-69200</v>
+        <v>-69800</v>
       </c>
       <c r="I102" s="3">
-        <v>100200</v>
+        <v>101100</v>
       </c>
       <c r="J102" s="3">
         <v>2500</v>

--- a/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>IMOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,320 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>251500</v>
+        <v>239100</v>
       </c>
       <c r="E8" s="3">
-        <v>232900</v>
+        <v>252100</v>
       </c>
       <c r="F8" s="3">
-        <v>227300</v>
+        <v>245800</v>
       </c>
       <c r="G8" s="3">
-        <v>204800</v>
+        <v>227600</v>
       </c>
       <c r="H8" s="3">
-        <v>195500</v>
+        <v>222200</v>
       </c>
       <c r="I8" s="3">
+        <v>200200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>191100</v>
+      </c>
+      <c r="K8" s="3">
         <v>201200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>200700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>193600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>171400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>156500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>169400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>166900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>149400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>133400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>142900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>143600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>147200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>148700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>599600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>155500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>180700</v>
+        <v>176900</v>
       </c>
       <c r="E9" s="3">
+        <v>183200</v>
+      </c>
+      <c r="F9" s="3">
         <v>176600</v>
       </c>
-      <c r="F9" s="3">
-        <v>171800</v>
-      </c>
       <c r="G9" s="3">
-        <v>165400</v>
+        <v>172700</v>
       </c>
       <c r="H9" s="3">
-        <v>155000</v>
+        <v>167900</v>
       </c>
       <c r="I9" s="3">
+        <v>161600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>151500</v>
+      </c>
+      <c r="K9" s="3">
         <v>155500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>155100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>152300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>142100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>133100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>130700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>134400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>124900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>114000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>118600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>119000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>117700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>122100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>480800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>70800</v>
+        <v>62300</v>
       </c>
       <c r="E10" s="3">
-        <v>56200</v>
+        <v>68900</v>
       </c>
       <c r="F10" s="3">
-        <v>55500</v>
+        <v>69200</v>
       </c>
       <c r="G10" s="3">
-        <v>39500</v>
+        <v>55000</v>
       </c>
       <c r="H10" s="3">
-        <v>40500</v>
+        <v>54300</v>
       </c>
       <c r="I10" s="3">
+        <v>38600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K10" s="3">
         <v>45800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>45600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>41300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>29300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>23400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>38700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>32500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>24500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>19400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>24300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>24700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>29500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>26600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>118800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>-100900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +1002,81 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="E12" s="3">
-        <v>9600</v>
+        <v>10200</v>
       </c>
       <c r="F12" s="3">
+        <v>10200</v>
+      </c>
+      <c r="G12" s="3">
         <v>9400</v>
       </c>
-      <c r="G12" s="3">
-        <v>8800</v>
-      </c>
       <c r="H12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="L12" s="3">
         <v>9100</v>
       </c>
-      <c r="I12" s="3">
-        <v>9300</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>9100</v>
       </c>
-      <c r="K12" s="3">
-        <v>9100</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>9200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>8300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>8200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>7800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>8300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>7200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>7700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>8000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>7900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>8400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>27400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,13 +1140,19 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -1130,14 +1169,14 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>400</v>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>400</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1148,17 +1187,17 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1166,14 +1205,20 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1282,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1310,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
+      <c r="D17" s="3">
+        <v>192100</v>
       </c>
       <c r="E17" s="3">
-        <v>191100</v>
+        <v>198400</v>
       </c>
       <c r="F17" s="3">
-        <v>185500</v>
+        <v>191600</v>
       </c>
       <c r="G17" s="3">
-        <v>179000</v>
+        <v>186800</v>
       </c>
       <c r="H17" s="3">
-        <v>167100</v>
+        <v>181400</v>
       </c>
       <c r="I17" s="3">
+        <v>174900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>163300</v>
+      </c>
+      <c r="K17" s="3">
         <v>168800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>168200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>165400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>155600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>145400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>142400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>145700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>135600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>124800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>132000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>130600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>132600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>114300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>534400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+      <c r="D18" s="3">
+        <v>47000</v>
       </c>
       <c r="E18" s="3">
-        <v>41800</v>
+        <v>53800</v>
       </c>
       <c r="F18" s="3">
-        <v>41800</v>
+        <v>54200</v>
       </c>
       <c r="G18" s="3">
-        <v>25800</v>
+        <v>40800</v>
       </c>
       <c r="H18" s="3">
-        <v>28400</v>
+        <v>40800</v>
       </c>
       <c r="I18" s="3">
+        <v>25300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K18" s="3">
         <v>32400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>32400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>28200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>15800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>11200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>27000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>21200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>13800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>8600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>10800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>13000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>14500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>34400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>65200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,161 +1479,175 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
+      <c r="D20" s="3">
+        <v>12300</v>
       </c>
       <c r="E20" s="3">
-        <v>2000</v>
+        <v>6300</v>
       </c>
       <c r="F20" s="3">
-        <v>-8700</v>
+        <v>400</v>
       </c>
       <c r="G20" s="3">
-        <v>-5100</v>
+        <v>1900</v>
       </c>
       <c r="H20" s="3">
-        <v>-3100</v>
+        <v>-8500</v>
       </c>
       <c r="I20" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-6600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>33600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>3300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-5600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-2100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-12400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-5000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>100000</v>
       </c>
       <c r="E21" s="3">
-        <v>84300</v>
+        <v>102200</v>
       </c>
       <c r="F21" s="3">
-        <v>71200</v>
+        <v>95300</v>
       </c>
       <c r="G21" s="3">
-        <v>59100</v>
+        <v>82400</v>
       </c>
       <c r="H21" s="3">
-        <v>63100</v>
+        <v>69600</v>
       </c>
       <c r="I21" s="3">
+        <v>57700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>61600</v>
+      </c>
+      <c r="K21" s="3">
         <v>70000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>60400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>61900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>81600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>42000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>54300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>48600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>45200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>30000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>33800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>35000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>37300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>43700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>165400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E22" s="3">
         <v>1100</v>
       </c>
       <c r="F22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1700</v>
-      </c>
       <c r="I22" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="J22" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K22" s="3">
         <v>1500</v>
@@ -1580,167 +1659,185 @@
         <v>1500</v>
       </c>
       <c r="N22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1600</v>
-      </c>
-      <c r="S22" s="3">
-        <v>1600</v>
       </c>
       <c r="T22" s="3">
         <v>1600</v>
       </c>
       <c r="U22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W22" s="3">
         <v>1700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>4700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>54800</v>
+        <v>58300</v>
       </c>
       <c r="E23" s="3">
-        <v>42700</v>
+        <v>59000</v>
       </c>
       <c r="F23" s="3">
-        <v>31800</v>
+        <v>53500</v>
       </c>
       <c r="G23" s="3">
-        <v>19400</v>
+        <v>41700</v>
       </c>
       <c r="H23" s="3">
-        <v>23600</v>
+        <v>31100</v>
       </c>
       <c r="I23" s="3">
+        <v>19000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K23" s="3">
         <v>32300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>24300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>26200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>47900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>8900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>23500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>18800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>15900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>6900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>9300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>12700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>20300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>55500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="E24" s="3">
-        <v>8100</v>
+        <v>9700</v>
       </c>
       <c r="F24" s="3">
-        <v>7000</v>
+        <v>8400</v>
       </c>
       <c r="G24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="M24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Q24" s="3">
         <v>4200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="R24" s="3">
+        <v>11700</v>
+      </c>
+      <c r="S24" s="3">
+        <v>900</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="W24" s="3">
         <v>4000</v>
       </c>
-      <c r="I24" s="3">
-        <v>6600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>5300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>5200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>3300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>2100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>5900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>4200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>11700</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>900</v>
-      </c>
-      <c r="R24" s="3">
-        <v>1600</v>
-      </c>
-      <c r="S24" s="3">
-        <v>2000</v>
-      </c>
-      <c r="T24" s="3">
-        <v>2300</v>
-      </c>
-      <c r="U24" s="3">
-        <v>4000</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>11500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1901,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
+      <c r="D26" s="3">
+        <v>49900</v>
       </c>
       <c r="E26" s="3">
-        <v>34500</v>
+        <v>49300</v>
       </c>
       <c r="F26" s="3">
-        <v>24700</v>
+        <v>45200</v>
       </c>
       <c r="G26" s="3">
-        <v>15300</v>
+        <v>33800</v>
       </c>
       <c r="H26" s="3">
-        <v>19600</v>
+        <v>24200</v>
       </c>
       <c r="I26" s="3">
+        <v>14900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K26" s="3">
         <v>25700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>19100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>21000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>44500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>6800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>17600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>14700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>4100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>5300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>7400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>10400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>16300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>44000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
+      <c r="D27" s="3">
+        <v>49900</v>
       </c>
       <c r="E27" s="3">
-        <v>34500</v>
+        <v>49300</v>
       </c>
       <c r="F27" s="3">
-        <v>24700</v>
+        <v>45200</v>
       </c>
       <c r="G27" s="3">
-        <v>15300</v>
+        <v>33800</v>
       </c>
       <c r="H27" s="3">
-        <v>19600</v>
+        <v>24200</v>
       </c>
       <c r="I27" s="3">
+        <v>14900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K27" s="3">
         <v>25700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>19100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>21000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>44500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>6800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>17600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>14700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>4100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>5300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>7400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>10400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>16300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>53900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2114,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2050,22 +2171,28 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-2100</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>61300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-4000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2327,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
+      <c r="D32" s="3">
+        <v>-12300</v>
       </c>
       <c r="E32" s="3">
-        <v>-2000</v>
+        <v>-6300</v>
       </c>
       <c r="F32" s="3">
-        <v>8700</v>
+        <v>-400</v>
       </c>
       <c r="G32" s="3">
-        <v>5100</v>
+        <v>-1900</v>
       </c>
       <c r="H32" s="3">
-        <v>3100</v>
+        <v>8500</v>
       </c>
       <c r="I32" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>6600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-33600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>5600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>2100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>12400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>5000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
+      <c r="D33" s="3">
+        <v>49900</v>
       </c>
       <c r="E33" s="3">
-        <v>34500</v>
+        <v>49300</v>
       </c>
       <c r="F33" s="3">
-        <v>24700</v>
+        <v>45200</v>
       </c>
       <c r="G33" s="3">
-        <v>15300</v>
+        <v>33800</v>
       </c>
       <c r="H33" s="3">
-        <v>19600</v>
+        <v>24200</v>
       </c>
       <c r="I33" s="3">
+        <v>14900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K33" s="3">
         <v>25700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>19100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>21000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>44500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>6800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>17600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>14700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>4100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>5300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>5300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>10400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>77600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>50000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2540,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
+      <c r="D35" s="3">
+        <v>49900</v>
       </c>
       <c r="E35" s="3">
-        <v>34500</v>
+        <v>49300</v>
       </c>
       <c r="F35" s="3">
-        <v>24700</v>
+        <v>45200</v>
       </c>
       <c r="G35" s="3">
-        <v>15300</v>
+        <v>33800</v>
       </c>
       <c r="H35" s="3">
-        <v>19600</v>
+        <v>24200</v>
       </c>
       <c r="I35" s="3">
+        <v>14900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K35" s="3">
         <v>25700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>19100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>21000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>44500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>6800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>17600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>14700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>4100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>5300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>5300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>10400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>77600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>50000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,121 +2745,129 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>194500</v>
+        <v>208000</v>
       </c>
       <c r="E41" s="3">
-        <v>201400</v>
+        <v>182700</v>
       </c>
       <c r="F41" s="3">
-        <v>148200</v>
+        <v>190100</v>
       </c>
       <c r="G41" s="3">
-        <v>172500</v>
+        <v>196900</v>
       </c>
       <c r="H41" s="3">
-        <v>200800</v>
+        <v>144800</v>
       </c>
       <c r="I41" s="3">
+        <v>168600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>196200</v>
+      </c>
+      <c r="K41" s="3">
         <v>270600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>169400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>166200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>186200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>177800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>158200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>202300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>135800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>222500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>260400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>280900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>359000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>381300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>246900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>396300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9400</v>
+        <v>13700</v>
       </c>
       <c r="E42" s="3">
-        <v>9700</v>
+        <v>19800</v>
       </c>
       <c r="F42" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="G42" s="3">
-        <v>14400</v>
+        <v>9500</v>
       </c>
       <c r="H42" s="3">
-        <v>12300</v>
+        <v>9100</v>
       </c>
       <c r="I42" s="3">
+        <v>14100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K42" s="3">
         <v>11500</v>
-      </c>
-      <c r="J42" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K42" s="3">
-        <v>6200</v>
       </c>
       <c r="L42" s="3">
         <v>6100</v>
       </c>
       <c r="M42" s="3">
+        <v>6200</v>
+      </c>
+      <c r="N42" s="3">
+        <v>6100</v>
+      </c>
+      <c r="O42" s="3">
         <v>6000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>5800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>500</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
@@ -2699,403 +2878,445 @@
         <v>0</v>
       </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
         <v>100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>232300</v>
+        <v>240600</v>
       </c>
       <c r="E43" s="3">
-        <v>211400</v>
+        <v>232200</v>
       </c>
       <c r="F43" s="3">
-        <v>209100</v>
+        <v>227100</v>
       </c>
       <c r="G43" s="3">
-        <v>181400</v>
+        <v>206700</v>
       </c>
       <c r="H43" s="3">
-        <v>175800</v>
+        <v>204400</v>
       </c>
       <c r="I43" s="3">
+        <v>177300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>171800</v>
+      </c>
+      <c r="K43" s="3">
         <v>190100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>182400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>205400</v>
-      </c>
-      <c r="L43" s="3">
-        <v>179000</v>
-      </c>
-      <c r="M43" s="3">
-        <v>163200</v>
       </c>
       <c r="N43" s="3">
         <v>179000</v>
       </c>
       <c r="O43" s="3">
+        <v>163200</v>
+      </c>
+      <c r="P43" s="3">
+        <v>179000</v>
+      </c>
+      <c r="Q43" s="3">
         <v>173100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>159800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>135700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>135500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>141200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>122700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>125700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>136900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>91000</v>
+        <v>112900</v>
       </c>
       <c r="E44" s="3">
-        <v>82100</v>
+        <v>92000</v>
       </c>
       <c r="F44" s="3">
-        <v>75700</v>
+        <v>89000</v>
       </c>
       <c r="G44" s="3">
-        <v>73300</v>
+        <v>80200</v>
       </c>
       <c r="H44" s="3">
-        <v>83400</v>
+        <v>74000</v>
       </c>
       <c r="I44" s="3">
+        <v>71700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>81500</v>
+      </c>
+      <c r="K44" s="3">
         <v>83500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>63700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>63500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>60000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>58500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>60600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>59000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>59900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>59400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>62500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>61900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>62600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>63100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>56200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="E45" s="3">
-        <v>3400</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1900</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>2100</v>
       </c>
       <c r="R45" s="3">
         <v>1800</v>
       </c>
       <c r="S45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U45" s="3">
         <v>1500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>4000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>105900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>529500</v>
+        <v>580400</v>
       </c>
       <c r="E46" s="3">
-        <v>507900</v>
+        <v>532500</v>
       </c>
       <c r="F46" s="3">
-        <v>445100</v>
+        <v>517600</v>
       </c>
       <c r="G46" s="3">
-        <v>443700</v>
+        <v>496500</v>
       </c>
       <c r="H46" s="3">
-        <v>474100</v>
+        <v>435100</v>
       </c>
       <c r="I46" s="3">
+        <v>433700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>463400</v>
+      </c>
+      <c r="K46" s="3">
         <v>559900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>423700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>444000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>433100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>407600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>405000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>436800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>357800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>419700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>460300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>485500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>545800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>574100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>551000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>623200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>132300</v>
+        <v>152200</v>
       </c>
       <c r="E47" s="3">
-        <v>129800</v>
+        <v>134500</v>
       </c>
       <c r="F47" s="3">
         <v>129400</v>
       </c>
       <c r="G47" s="3">
-        <v>128400</v>
+        <v>126900</v>
       </c>
       <c r="H47" s="3">
-        <v>127000</v>
+        <v>126500</v>
       </c>
       <c r="I47" s="3">
+        <v>125600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>124100</v>
+      </c>
+      <c r="K47" s="3">
         <v>126600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>129500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>133100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>133800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>145200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>141300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>139300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>143100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>146800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>114200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>115100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>116600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>73900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>14700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>702800</v>
+        <v>737500</v>
       </c>
       <c r="E48" s="3">
-        <v>687600</v>
+        <v>690100</v>
       </c>
       <c r="F48" s="3">
-        <v>679100</v>
+        <v>687000</v>
       </c>
       <c r="G48" s="3">
-        <v>648700</v>
+        <v>672200</v>
       </c>
       <c r="H48" s="3">
-        <v>673100</v>
+        <v>663800</v>
       </c>
       <c r="I48" s="3">
+        <v>634100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>658000</v>
+      </c>
+      <c r="K48" s="3">
         <v>681700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>672400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>643800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>601800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>610900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>573000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>532900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>527000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>522700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>494700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>485900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>473800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>454500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>440100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>490100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3380,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,22 +3522,28 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10800</v>
+        <v>27000</v>
       </c>
       <c r="E52" s="3">
-        <v>11400</v>
+        <v>27900</v>
       </c>
       <c r="F52" s="3">
-        <v>10000</v>
+        <v>10600</v>
       </c>
       <c r="G52" s="3">
-        <v>9300</v>
+        <v>11100</v>
       </c>
       <c r="H52" s="3">
         <v>9800</v>
@@ -3313,49 +3552,55 @@
         <v>9100</v>
       </c>
       <c r="J52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K52" s="3">
+        <v>9100</v>
+      </c>
+      <c r="L52" s="3">
         <v>10200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>10500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>13200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>12400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>9400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>10800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>9600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>10100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>8700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>9200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>9100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>9400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>14800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3664,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1375400</v>
+        <v>1497200</v>
       </c>
       <c r="E54" s="3">
-        <v>1336700</v>
+        <v>1384900</v>
       </c>
       <c r="F54" s="3">
-        <v>1263600</v>
+        <v>1344500</v>
       </c>
       <c r="G54" s="3">
-        <v>1230100</v>
+        <v>1306700</v>
       </c>
       <c r="H54" s="3">
-        <v>1284000</v>
+        <v>1235200</v>
       </c>
       <c r="I54" s="3">
+        <v>1202500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1255100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1377200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1235700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1231500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1181900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1176000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1128900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1119800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1037600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1099200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1078000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1095800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1145300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1111900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1020600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,333 +3793,365 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>40600</v>
+        <v>35600</v>
       </c>
       <c r="E57" s="3">
-        <v>41000</v>
+        <v>38700</v>
       </c>
       <c r="F57" s="3">
-        <v>34900</v>
+        <v>39700</v>
       </c>
       <c r="G57" s="3">
-        <v>28500</v>
+        <v>40100</v>
       </c>
       <c r="H57" s="3">
-        <v>30100</v>
+        <v>34100</v>
       </c>
       <c r="I57" s="3">
-        <v>29600</v>
+        <v>27900</v>
       </c>
       <c r="J57" s="3">
         <v>29500</v>
       </c>
       <c r="K57" s="3">
+        <v>29600</v>
+      </c>
+      <c r="L57" s="3">
+        <v>29500</v>
+      </c>
+      <c r="M57" s="3">
         <v>39700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>25800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>20300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>21700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>25600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>24000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>21600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>22300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>21100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>24800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>23700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>26900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>43900</v>
+        <v>33400</v>
       </c>
       <c r="E58" s="3">
-        <v>48000</v>
+        <v>80700</v>
       </c>
       <c r="F58" s="3">
-        <v>31700</v>
+        <v>69200</v>
       </c>
       <c r="G58" s="3">
-        <v>28800</v>
+        <v>46900</v>
       </c>
       <c r="H58" s="3">
-        <v>28900</v>
+        <v>31000</v>
       </c>
       <c r="I58" s="3">
+        <v>28200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>28300</v>
+      </c>
+      <c r="K58" s="3">
         <v>29000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>27800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>28100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>27500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>38200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>26100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>25600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>25200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>106500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>101300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>95200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>128600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>69400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>35000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>155200</v>
+        <v>183800</v>
       </c>
       <c r="E59" s="3">
-        <v>125100</v>
+        <v>124000</v>
       </c>
       <c r="F59" s="3">
-        <v>135800</v>
+        <v>125300</v>
       </c>
       <c r="G59" s="3">
-        <v>89800</v>
+        <v>122300</v>
       </c>
       <c r="H59" s="3">
-        <v>158400</v>
+        <v>132700</v>
       </c>
       <c r="I59" s="3">
+        <v>87800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>154800</v>
+      </c>
+      <c r="K59" s="3">
         <v>103900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>119200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>112500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>114800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>100300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>129000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>144000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>95300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>77700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>92600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>88800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>108700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>80700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>90200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>120100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>239600</v>
+        <v>252900</v>
       </c>
       <c r="E60" s="3">
-        <v>214100</v>
+        <v>243400</v>
       </c>
       <c r="F60" s="3">
-        <v>202400</v>
+        <v>234300</v>
       </c>
       <c r="G60" s="3">
-        <v>147100</v>
+        <v>209200</v>
       </c>
       <c r="H60" s="3">
-        <v>217500</v>
+        <v>197900</v>
       </c>
       <c r="I60" s="3">
+        <v>143800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>212600</v>
+      </c>
+      <c r="K60" s="3">
         <v>162500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>176600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>180300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>168100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>158700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>176800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>195200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>144500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>205900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>216200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>205100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>262100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>173900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>152100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>273500</v>
+        <v>353800</v>
       </c>
       <c r="E61" s="3">
-        <v>306300</v>
+        <v>306800</v>
       </c>
       <c r="F61" s="3">
-        <v>278200</v>
+        <v>267300</v>
       </c>
       <c r="G61" s="3">
-        <v>329800</v>
+        <v>299400</v>
       </c>
       <c r="H61" s="3">
-        <v>331500</v>
+        <v>271900</v>
       </c>
       <c r="I61" s="3">
+        <v>322400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>324000</v>
+      </c>
+      <c r="K61" s="3">
         <v>452700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>322800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>335100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>332200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>346600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>308100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>314100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>253700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>250000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>243600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>278600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>278600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>315400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>316900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>269700</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3868,64 +4159,70 @@
         <v>31900</v>
       </c>
       <c r="E62" s="3">
-        <v>32600</v>
+        <v>30500</v>
       </c>
       <c r="F62" s="3">
-        <v>32600</v>
+        <v>31200</v>
       </c>
       <c r="G62" s="3">
-        <v>30100</v>
+        <v>31800</v>
       </c>
       <c r="H62" s="3">
-        <v>30300</v>
+        <v>31900</v>
       </c>
       <c r="I62" s="3">
+        <v>29400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K62" s="3">
         <v>30400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>28500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>29400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>28600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>28400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>28300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>25200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>25100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>24800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>22000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>23400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>23100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>22300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>20900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4428,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>545100</v>
+        <v>638600</v>
       </c>
       <c r="E66" s="3">
-        <v>552900</v>
+        <v>580700</v>
       </c>
       <c r="F66" s="3">
-        <v>513300</v>
+        <v>532800</v>
       </c>
       <c r="G66" s="3">
+        <v>540500</v>
+      </c>
+      <c r="H66" s="3">
+        <v>501700</v>
+      </c>
+      <c r="I66" s="3">
+        <v>495600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>566200</v>
+      </c>
+      <c r="K66" s="3">
+        <v>645600</v>
+      </c>
+      <c r="L66" s="3">
+        <v>527900</v>
+      </c>
+      <c r="M66" s="3">
+        <v>544800</v>
+      </c>
+      <c r="N66" s="3">
+        <v>528900</v>
+      </c>
+      <c r="O66" s="3">
+        <v>533700</v>
+      </c>
+      <c r="P66" s="3">
+        <v>513200</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>534500</v>
+      </c>
+      <c r="R66" s="3">
+        <v>423400</v>
+      </c>
+      <c r="S66" s="3">
+        <v>480700</v>
+      </c>
+      <c r="T66" s="3">
+        <v>481800</v>
+      </c>
+      <c r="U66" s="3">
         <v>507000</v>
       </c>
-      <c r="H66" s="3">
-        <v>579300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>645600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>527900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>544800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>528900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>533700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>513200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>534500</v>
-      </c>
-      <c r="P66" s="3">
-        <v>423400</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>480700</v>
-      </c>
-      <c r="R66" s="3">
-        <v>481800</v>
-      </c>
-      <c r="S66" s="3">
-        <v>507000</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>563800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>511600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>489900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>572600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4810,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>345800</v>
+        <v>380700</v>
       </c>
       <c r="E72" s="3">
-        <v>299500</v>
+        <v>331200</v>
       </c>
       <c r="F72" s="3">
-        <v>265000</v>
+        <v>338000</v>
       </c>
       <c r="G72" s="3">
-        <v>241700</v>
+        <v>292800</v>
       </c>
       <c r="H72" s="3">
-        <v>226500</v>
+        <v>259000</v>
       </c>
       <c r="I72" s="3">
+        <v>236300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>221400</v>
+      </c>
+      <c r="K72" s="3">
         <v>254000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>228300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>207700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>190600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>185900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>173900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>154600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>139600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>144000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>137400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>130700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>125400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>124100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>46500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>192400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5094,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>830300</v>
+        <v>858600</v>
       </c>
       <c r="E76" s="3">
-        <v>783800</v>
+        <v>804300</v>
       </c>
       <c r="F76" s="3">
-        <v>750400</v>
+        <v>811700</v>
       </c>
       <c r="G76" s="3">
-        <v>723100</v>
+        <v>766200</v>
       </c>
       <c r="H76" s="3">
-        <v>704700</v>
+        <v>733500</v>
       </c>
       <c r="I76" s="3">
+        <v>706800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>688900</v>
+      </c>
+      <c r="K76" s="3">
         <v>731600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>707800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>686800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>653000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>642300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>615700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>585300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>614200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>618600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>596100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>588800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>581500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>600300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>530700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>564300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5236,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>10</v>
+      <c r="D81" s="3">
+        <v>49900</v>
       </c>
       <c r="E81" s="3">
-        <v>34500</v>
+        <v>49300</v>
       </c>
       <c r="F81" s="3">
-        <v>24700</v>
+        <v>45200</v>
       </c>
       <c r="G81" s="3">
-        <v>15300</v>
+        <v>33800</v>
       </c>
       <c r="H81" s="3">
-        <v>19600</v>
+        <v>24200</v>
       </c>
       <c r="I81" s="3">
+        <v>14900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K81" s="3">
         <v>25700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>19100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>21000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>44500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>6800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>17600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>14700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>4100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>5300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>5300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>10400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>77600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>50000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5414,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>41600</v>
+        <v>40700</v>
       </c>
       <c r="E83" s="3">
-        <v>40600</v>
+        <v>42100</v>
       </c>
       <c r="F83" s="3">
-        <v>38200</v>
+        <v>40700</v>
       </c>
       <c r="G83" s="3">
-        <v>38300</v>
+        <v>39700</v>
       </c>
       <c r="H83" s="3">
-        <v>37700</v>
+        <v>37300</v>
       </c>
       <c r="I83" s="3">
+        <v>37400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>36900</v>
+      </c>
+      <c r="K83" s="3">
         <v>36200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>34500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>34200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>32200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>31500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>29300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>28600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>28100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>27000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>25300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>24100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>23000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>21700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>105300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5836,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>61100</v>
+        <v>69600</v>
       </c>
       <c r="E89" s="3">
-        <v>72800</v>
+        <v>57200</v>
       </c>
       <c r="F89" s="3">
-        <v>68000</v>
+        <v>59700</v>
       </c>
       <c r="G89" s="3">
-        <v>45900</v>
+        <v>71200</v>
       </c>
       <c r="H89" s="3">
-        <v>73700</v>
+        <v>66500</v>
       </c>
       <c r="I89" s="3">
+        <v>44900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>72000</v>
+      </c>
+      <c r="K89" s="3">
         <v>26400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>77400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>50400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>25800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>59800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>48200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>41100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>24100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>25200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>41000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>13400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>39400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>60700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>120300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5938,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-56100</v>
+        <v>-58800</v>
       </c>
       <c r="E91" s="3">
-        <v>-53700</v>
+        <v>-41000</v>
       </c>
       <c r="F91" s="3">
-        <v>-37300</v>
+        <v>-54900</v>
       </c>
       <c r="G91" s="3">
-        <v>-26100</v>
+        <v>-52500</v>
       </c>
       <c r="H91" s="3">
-        <v>-23600</v>
+        <v>-36500</v>
       </c>
       <c r="I91" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-55700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-62400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-46500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-33000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-51500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-26700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-34300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-32400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-45500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-34700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-31900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-44100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-32500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-291600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-78500</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +6147,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-55300</v>
+        <v>-49900</v>
       </c>
       <c r="E94" s="3">
-        <v>-54500</v>
+        <v>-54600</v>
       </c>
       <c r="F94" s="3">
-        <v>-37200</v>
+        <v>-54100</v>
       </c>
       <c r="G94" s="3">
-        <v>-26300</v>
+        <v>-53200</v>
       </c>
       <c r="H94" s="3">
-        <v>-21700</v>
+        <v>-36400</v>
       </c>
       <c r="I94" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-51600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-60600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-43500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>7400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-54900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-31900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-34900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-32100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-72400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-32300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-29300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-84900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>41300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-156800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-39200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5820,14 +6287,14 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-8700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5844,13 +6311,19 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-58500</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6529,223 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12500</v>
+        <v>5600</v>
       </c>
       <c r="E100" s="3">
-        <v>34800</v>
+        <v>-10000</v>
       </c>
       <c r="F100" s="3">
-        <v>-54900</v>
+        <v>-12200</v>
       </c>
       <c r="G100" s="3">
-        <v>-47800</v>
+        <v>34000</v>
       </c>
       <c r="H100" s="3">
-        <v>-121600</v>
+        <v>-53700</v>
       </c>
       <c r="I100" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-118900</v>
+      </c>
+      <c r="K100" s="3">
         <v>126300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-14000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-31700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-24200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>10100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-65400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>60000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-78400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>2600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-29000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-61200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>24600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>32900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-105100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-2400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6900</v>
+        <v>25300</v>
       </c>
       <c r="E102" s="3">
-        <v>53200</v>
+        <v>-7400</v>
       </c>
       <c r="F102" s="3">
-        <v>-24300</v>
+        <v>-6700</v>
       </c>
       <c r="G102" s="3">
-        <v>-28300</v>
+        <v>52000</v>
       </c>
       <c r="H102" s="3">
-        <v>-69800</v>
+        <v>-23800</v>
       </c>
       <c r="I102" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-68300</v>
+      </c>
+      <c r="K102" s="3">
         <v>101100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-24800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>9000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>15000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-48500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>66200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-86700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-44800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-20500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-78200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-19900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>134400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-148600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-23900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>IMOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>239100</v>
+        <v>225200</v>
       </c>
       <c r="E8" s="3">
-        <v>252100</v>
+        <v>227400</v>
       </c>
       <c r="F8" s="3">
-        <v>245800</v>
+        <v>239800</v>
       </c>
       <c r="G8" s="3">
-        <v>227600</v>
+        <v>233800</v>
       </c>
       <c r="H8" s="3">
-        <v>222200</v>
+        <v>216500</v>
       </c>
       <c r="I8" s="3">
-        <v>200200</v>
+        <v>211300</v>
       </c>
       <c r="J8" s="3">
+        <v>190400</v>
+      </c>
+      <c r="K8" s="3">
         <v>191100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>201200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>193600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>171400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>156500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>169400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>166900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>149400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>133400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>142900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>143600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>147200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>148700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>599600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>155500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>176900</v>
+        <v>169000</v>
       </c>
       <c r="E9" s="3">
-        <v>183200</v>
+        <v>168200</v>
       </c>
       <c r="F9" s="3">
-        <v>176600</v>
+        <v>174200</v>
       </c>
       <c r="G9" s="3">
-        <v>172700</v>
+        <v>167900</v>
       </c>
       <c r="H9" s="3">
-        <v>167900</v>
+        <v>164200</v>
       </c>
       <c r="I9" s="3">
-        <v>161600</v>
+        <v>159700</v>
       </c>
       <c r="J9" s="3">
+        <v>153700</v>
+      </c>
+      <c r="K9" s="3">
         <v>151500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>155500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>155100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>152300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>142100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>133100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>130700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>134400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>124900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>114000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>118600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>119000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>117700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>122100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>480800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>62300</v>
+        <v>56200</v>
       </c>
       <c r="E10" s="3">
-        <v>68900</v>
+        <v>59200</v>
       </c>
       <c r="F10" s="3">
-        <v>69200</v>
+        <v>65500</v>
       </c>
       <c r="G10" s="3">
-        <v>55000</v>
+        <v>65800</v>
       </c>
       <c r="H10" s="3">
-        <v>54300</v>
+        <v>52300</v>
       </c>
       <c r="I10" s="3">
-        <v>38600</v>
+        <v>51600</v>
       </c>
       <c r="J10" s="3">
+        <v>36700</v>
+      </c>
+      <c r="K10" s="3">
         <v>39600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>45800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>45600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>41300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>29300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>32500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>24500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>19400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>24300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>24700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>29500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>26600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>118800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-100900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10300</v>
+        <v>10100</v>
       </c>
       <c r="E12" s="3">
-        <v>10200</v>
+        <v>9800</v>
       </c>
       <c r="F12" s="3">
-        <v>10200</v>
+        <v>9700</v>
       </c>
       <c r="G12" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="H12" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="I12" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="J12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K12" s="3">
         <v>8900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9300</v>
-      </c>
-      <c r="L12" s="3">
-        <v>9100</v>
       </c>
       <c r="M12" s="3">
         <v>9100</v>
       </c>
       <c r="N12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="O12" s="3">
         <v>9200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>8000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>8400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>27400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,16 +1163,19 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1175,11 +1195,11 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1193,14 +1213,14 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1211,14 +1231,17 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>192100</v>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E17" s="3">
-        <v>198400</v>
+        <v>182700</v>
       </c>
       <c r="F17" s="3">
-        <v>191600</v>
+        <v>188600</v>
       </c>
       <c r="G17" s="3">
-        <v>186800</v>
+        <v>182200</v>
       </c>
       <c r="H17" s="3">
-        <v>181400</v>
+        <v>177600</v>
       </c>
       <c r="I17" s="3">
-        <v>174900</v>
+        <v>172400</v>
       </c>
       <c r="J17" s="3">
+        <v>166300</v>
+      </c>
+      <c r="K17" s="3">
         <v>163300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>168800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>168200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>165400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>155600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>145400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>142400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>145700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>135600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>124800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>132000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>130600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>132600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>114300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>534400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>47000</v>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E18" s="3">
-        <v>53800</v>
+        <v>44700</v>
       </c>
       <c r="F18" s="3">
-        <v>54200</v>
+        <v>51100</v>
       </c>
       <c r="G18" s="3">
-        <v>40800</v>
+        <v>51500</v>
       </c>
       <c r="H18" s="3">
-        <v>40800</v>
+        <v>38800</v>
       </c>
       <c r="I18" s="3">
-        <v>25300</v>
+        <v>38800</v>
       </c>
       <c r="J18" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K18" s="3">
         <v>27800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>32400</v>
       </c>
       <c r="L18" s="3">
         <v>32400</v>
       </c>
       <c r="M18" s="3">
+        <v>32400</v>
+      </c>
+      <c r="N18" s="3">
         <v>28200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>15800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>27000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>21200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>34400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>65200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,176 +1514,183 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>12300</v>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="3">
-        <v>6300</v>
+        <v>11700</v>
       </c>
       <c r="F20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>1900</v>
-      </c>
       <c r="H20" s="3">
-        <v>-8500</v>
+        <v>1800</v>
       </c>
       <c r="I20" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O20" s="3">
+        <v>33600</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X20" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-5000</v>
       </c>
-      <c r="J20" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>33600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>3300</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-12400</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>100000</v>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E21" s="3">
-        <v>102200</v>
+        <v>95100</v>
       </c>
       <c r="F21" s="3">
-        <v>95300</v>
+        <v>97100</v>
       </c>
       <c r="G21" s="3">
-        <v>82400</v>
+        <v>90600</v>
       </c>
       <c r="H21" s="3">
-        <v>69600</v>
+        <v>78400</v>
       </c>
       <c r="I21" s="3">
-        <v>57700</v>
+        <v>66200</v>
       </c>
       <c r="J21" s="3">
+        <v>54900</v>
+      </c>
+      <c r="K21" s="3">
         <v>61600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>70000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>60400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>61900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>81600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>42000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>54300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>48600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>45200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>30000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>33800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>35000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>37300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>43700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>165400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G22" s="3">
         <v>1000</v>
       </c>
       <c r="H22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1500</v>
       </c>
       <c r="L22" s="3">
         <v>1500</v>
@@ -1665,19 +1705,19 @@
         <v>1500</v>
       </c>
       <c r="P22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1300</v>
       </c>
       <c r="S22" s="3">
         <v>1300</v>
       </c>
       <c r="T22" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="U22" s="3">
         <v>1600</v>
@@ -1686,158 +1726,167 @@
         <v>1600</v>
       </c>
       <c r="W22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X22" s="3">
         <v>1700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>58300</v>
+        <v>48900</v>
       </c>
       <c r="E23" s="3">
-        <v>59000</v>
+        <v>55400</v>
       </c>
       <c r="F23" s="3">
-        <v>53500</v>
+        <v>56100</v>
       </c>
       <c r="G23" s="3">
-        <v>41700</v>
+        <v>50900</v>
       </c>
       <c r="H23" s="3">
-        <v>31100</v>
+        <v>39700</v>
       </c>
       <c r="I23" s="3">
-        <v>19000</v>
+        <v>29500</v>
       </c>
       <c r="J23" s="3">
+        <v>18100</v>
+      </c>
+      <c r="K23" s="3">
         <v>23100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>32300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>26200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>47900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>23500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>18800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>15900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>12700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>20300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>55500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8400</v>
+        <v>7900</v>
       </c>
       <c r="E24" s="3">
-        <v>9700</v>
+        <v>7900</v>
       </c>
       <c r="F24" s="3">
-        <v>8400</v>
+        <v>9200</v>
       </c>
       <c r="G24" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="H24" s="3">
-        <v>6900</v>
+        <v>7600</v>
       </c>
       <c r="I24" s="3">
-        <v>4100</v>
+        <v>6500</v>
       </c>
       <c r="J24" s="3">
         <v>3900</v>
       </c>
       <c r="K24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L24" s="3">
         <v>6600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>49900</v>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E26" s="3">
-        <v>49300</v>
+        <v>47500</v>
       </c>
       <c r="F26" s="3">
-        <v>45200</v>
+        <v>46800</v>
       </c>
       <c r="G26" s="3">
-        <v>33800</v>
+        <v>43000</v>
       </c>
       <c r="H26" s="3">
-        <v>24200</v>
+        <v>32100</v>
       </c>
       <c r="I26" s="3">
-        <v>14900</v>
+        <v>23000</v>
       </c>
       <c r="J26" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K26" s="3">
         <v>19200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>21000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>44500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>14700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>10400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>16300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>44000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>49900</v>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E27" s="3">
-        <v>49300</v>
+        <v>47500</v>
       </c>
       <c r="F27" s="3">
-        <v>45200</v>
+        <v>46800</v>
       </c>
       <c r="G27" s="3">
-        <v>33800</v>
+        <v>43000</v>
       </c>
       <c r="H27" s="3">
-        <v>24200</v>
+        <v>32100</v>
       </c>
       <c r="I27" s="3">
-        <v>14900</v>
+        <v>23000</v>
       </c>
       <c r="J27" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K27" s="3">
         <v>19200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>25700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>21000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>44500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>14700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>10400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>16300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>53900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2177,22 +2238,25 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-2100</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>61300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-12300</v>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="3">
-        <v>-6300</v>
+        <v>-11700</v>
       </c>
       <c r="F32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H32" s="3">
-        <v>8500</v>
+        <v>-1800</v>
       </c>
       <c r="I32" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M32" s="3">
+        <v>6600</v>
+      </c>
+      <c r="N32" s="3">
+        <v>400</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="P32" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="T32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="U32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W32" s="3">
+        <v>200</v>
+      </c>
+      <c r="X32" s="3">
+        <v>12400</v>
+      </c>
+      <c r="Y32" s="3">
         <v>5000</v>
       </c>
-      <c r="J32" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>6600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-33600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="S32" s="3">
-        <v>5600</v>
-      </c>
-      <c r="T32" s="3">
-        <v>2300</v>
-      </c>
-      <c r="U32" s="3">
-        <v>2100</v>
-      </c>
-      <c r="V32" s="3">
-        <v>200</v>
-      </c>
-      <c r="W32" s="3">
-        <v>12400</v>
-      </c>
-      <c r="X32" s="3">
-        <v>5000</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>49900</v>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E33" s="3">
-        <v>49300</v>
+        <v>47500</v>
       </c>
       <c r="F33" s="3">
-        <v>45200</v>
+        <v>46800</v>
       </c>
       <c r="G33" s="3">
-        <v>33800</v>
+        <v>43000</v>
       </c>
       <c r="H33" s="3">
-        <v>24200</v>
+        <v>32100</v>
       </c>
       <c r="I33" s="3">
-        <v>14900</v>
+        <v>23000</v>
       </c>
       <c r="J33" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K33" s="3">
         <v>19200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>25700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>44500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>14700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>800</v>
-      </c>
-      <c r="T33" s="3">
-        <v>5300</v>
       </c>
       <c r="U33" s="3">
         <v>5300</v>
       </c>
       <c r="V33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="W33" s="3">
         <v>10400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>77600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>50000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>49900</v>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E35" s="3">
-        <v>49300</v>
+        <v>47500</v>
       </c>
       <c r="F35" s="3">
-        <v>45200</v>
+        <v>46800</v>
       </c>
       <c r="G35" s="3">
-        <v>33800</v>
+        <v>43000</v>
       </c>
       <c r="H35" s="3">
-        <v>24200</v>
+        <v>32100</v>
       </c>
       <c r="I35" s="3">
-        <v>14900</v>
+        <v>23000</v>
       </c>
       <c r="J35" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K35" s="3">
         <v>19200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>25700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>44500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>14700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>800</v>
-      </c>
-      <c r="T35" s="3">
-        <v>5300</v>
       </c>
       <c r="U35" s="3">
         <v>5300</v>
       </c>
       <c r="V35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="W35" s="3">
         <v>10400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>77600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>50000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,129 +2833,133 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>208000</v>
+        <v>210500</v>
       </c>
       <c r="E41" s="3">
-        <v>182700</v>
+        <v>197700</v>
       </c>
       <c r="F41" s="3">
-        <v>190100</v>
+        <v>173700</v>
       </c>
       <c r="G41" s="3">
-        <v>196900</v>
+        <v>180800</v>
       </c>
       <c r="H41" s="3">
-        <v>144800</v>
+        <v>187200</v>
       </c>
       <c r="I41" s="3">
-        <v>168600</v>
+        <v>137700</v>
       </c>
       <c r="J41" s="3">
+        <v>160300</v>
+      </c>
+      <c r="K41" s="3">
         <v>196200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>270600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>169400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>166200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>186200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>177800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>158200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>202300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>135800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>222500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>260400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>280900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>359000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>381300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>246900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>396300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13700</v>
+        <v>13100</v>
       </c>
       <c r="E42" s="3">
-        <v>19800</v>
+        <v>13000</v>
       </c>
       <c r="F42" s="3">
-        <v>9100</v>
+        <v>18900</v>
       </c>
       <c r="G42" s="3">
-        <v>9500</v>
+        <v>8700</v>
       </c>
       <c r="H42" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="I42" s="3">
-        <v>14100</v>
+        <v>8700</v>
       </c>
       <c r="J42" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K42" s="3">
         <v>12100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5800</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>500</v>
       </c>
       <c r="R42" s="3">
         <v>500</v>
       </c>
       <c r="S42" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2884,297 +2974,312 @@
         <v>0</v>
       </c>
       <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
         <v>100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>240600</v>
+        <v>202500</v>
       </c>
       <c r="E43" s="3">
-        <v>232200</v>
+        <v>228800</v>
       </c>
       <c r="F43" s="3">
-        <v>227100</v>
+        <v>220800</v>
       </c>
       <c r="G43" s="3">
-        <v>206700</v>
+        <v>216000</v>
       </c>
       <c r="H43" s="3">
-        <v>204400</v>
+        <v>196500</v>
       </c>
       <c r="I43" s="3">
-        <v>177300</v>
+        <v>194400</v>
       </c>
       <c r="J43" s="3">
+        <v>168600</v>
+      </c>
+      <c r="K43" s="3">
         <v>171800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>190100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>182400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>205400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>179000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>163200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>179000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>173100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>159800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>135700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>135500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>141200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>122700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>125700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>136900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>112900</v>
+        <v>105900</v>
       </c>
       <c r="E44" s="3">
-        <v>92000</v>
+        <v>107400</v>
       </c>
       <c r="F44" s="3">
-        <v>89000</v>
+        <v>87500</v>
       </c>
       <c r="G44" s="3">
-        <v>80200</v>
+        <v>84600</v>
       </c>
       <c r="H44" s="3">
-        <v>74000</v>
+        <v>76300</v>
       </c>
       <c r="I44" s="3">
-        <v>71700</v>
+        <v>70400</v>
       </c>
       <c r="J44" s="3">
+        <v>68200</v>
+      </c>
+      <c r="K44" s="3">
         <v>81500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>83500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>63700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>63500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>60000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>58500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>60600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>59000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>59900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>59400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>62500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>61900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>62600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>63100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>56200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="E45" s="3">
-        <v>5900</v>
+        <v>5000</v>
       </c>
       <c r="F45" s="3">
-        <v>2300</v>
+        <v>5600</v>
       </c>
       <c r="G45" s="3">
-        <v>3300</v>
+        <v>2200</v>
       </c>
       <c r="H45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N45" s="3">
         <v>2700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="O45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="Q45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
-        <v>4100</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="T45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1900</v>
-      </c>
-      <c r="O45" s="3">
-        <v>2100</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="U45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V45" s="3">
         <v>1500</v>
       </c>
-      <c r="Q45" s="3">
-        <v>1900</v>
-      </c>
-      <c r="R45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="S45" s="3">
-        <v>2100</v>
-      </c>
-      <c r="T45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="U45" s="3">
-        <v>1500</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>105900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>580400</v>
+        <v>537700</v>
       </c>
       <c r="E46" s="3">
-        <v>532500</v>
+        <v>551900</v>
       </c>
       <c r="F46" s="3">
-        <v>517600</v>
+        <v>506400</v>
       </c>
       <c r="G46" s="3">
-        <v>496500</v>
+        <v>492200</v>
       </c>
       <c r="H46" s="3">
-        <v>435100</v>
+        <v>472100</v>
       </c>
       <c r="I46" s="3">
-        <v>433700</v>
+        <v>413700</v>
       </c>
       <c r="J46" s="3">
+        <v>412400</v>
+      </c>
+      <c r="K46" s="3">
         <v>463400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>559900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>423700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>444000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>433100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>407600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>405000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>436800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>357800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>419700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>460300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>485500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>545800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>574100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>551000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>623200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3182,141 +3287,147 @@
         <v>152200</v>
       </c>
       <c r="E47" s="3">
-        <v>134500</v>
+        <v>144700</v>
       </c>
       <c r="F47" s="3">
-        <v>129400</v>
+        <v>127900</v>
       </c>
       <c r="G47" s="3">
-        <v>126900</v>
+        <v>123000</v>
       </c>
       <c r="H47" s="3">
-        <v>126500</v>
+        <v>120600</v>
       </c>
       <c r="I47" s="3">
-        <v>125600</v>
+        <v>120300</v>
       </c>
       <c r="J47" s="3">
+        <v>119400</v>
+      </c>
+      <c r="K47" s="3">
         <v>124100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>126600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>129500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>133100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>133800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>145200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>141300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>139300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>143100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>146800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>114200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>115100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>116600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>73900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>14700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>737500</v>
+        <v>689100</v>
       </c>
       <c r="E48" s="3">
-        <v>690100</v>
+        <v>701300</v>
       </c>
       <c r="F48" s="3">
-        <v>687000</v>
+        <v>656200</v>
       </c>
       <c r="G48" s="3">
-        <v>672200</v>
+        <v>653200</v>
       </c>
       <c r="H48" s="3">
-        <v>663800</v>
+        <v>639100</v>
       </c>
       <c r="I48" s="3">
-        <v>634100</v>
+        <v>631200</v>
       </c>
       <c r="J48" s="3">
+        <v>602900</v>
+      </c>
+      <c r="K48" s="3">
         <v>658000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>681700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>672400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>643800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>601800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>610900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>573000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>532900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>527000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>522700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>494700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>485900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>473800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>454500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>440100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>490100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27000</v>
+        <v>27700</v>
       </c>
       <c r="E52" s="3">
-        <v>27900</v>
+        <v>25700</v>
       </c>
       <c r="F52" s="3">
+        <v>26500</v>
+      </c>
+      <c r="G52" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H52" s="3">
         <v>10600</v>
       </c>
-      <c r="G52" s="3">
-        <v>11100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>9800</v>
-      </c>
       <c r="I52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="L52" s="3">
         <v>9100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
+        <v>10200</v>
+      </c>
+      <c r="N52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="O52" s="3">
+        <v>13200</v>
+      </c>
+      <c r="P52" s="3">
+        <v>12400</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="R52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="S52" s="3">
         <v>9600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="T52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="U52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="V52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="W52" s="3">
         <v>9100</v>
       </c>
-      <c r="L52" s="3">
-        <v>10200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>10500</v>
-      </c>
-      <c r="N52" s="3">
-        <v>13200</v>
-      </c>
-      <c r="O52" s="3">
-        <v>12400</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="X52" s="3">
         <v>9400</v>
       </c>
-      <c r="Q52" s="3">
-        <v>10800</v>
-      </c>
-      <c r="R52" s="3">
-        <v>9600</v>
-      </c>
-      <c r="S52" s="3">
-        <v>10100</v>
-      </c>
-      <c r="T52" s="3">
-        <v>8700</v>
-      </c>
-      <c r="U52" s="3">
-        <v>9200</v>
-      </c>
-      <c r="V52" s="3">
-        <v>9100</v>
-      </c>
-      <c r="W52" s="3">
-        <v>9400</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>14800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1497200</v>
+        <v>1406700</v>
       </c>
       <c r="E54" s="3">
-        <v>1384900</v>
+        <v>1423700</v>
       </c>
       <c r="F54" s="3">
-        <v>1344500</v>
+        <v>1316900</v>
       </c>
       <c r="G54" s="3">
-        <v>1306700</v>
+        <v>1278400</v>
       </c>
       <c r="H54" s="3">
-        <v>1235200</v>
+        <v>1242500</v>
       </c>
       <c r="I54" s="3">
-        <v>1202500</v>
+        <v>1174500</v>
       </c>
       <c r="J54" s="3">
+        <v>1143400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1255100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1377200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1235700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1231500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1181900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1176000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1128900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1119800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1037600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1099200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1078000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1095800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1145300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1111900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1020600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35600</v>
+        <v>33100</v>
       </c>
       <c r="E57" s="3">
-        <v>38700</v>
+        <v>33900</v>
       </c>
       <c r="F57" s="3">
+        <v>36800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>37700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>38100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>32500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K57" s="3">
+        <v>29500</v>
+      </c>
+      <c r="L57" s="3">
+        <v>29600</v>
+      </c>
+      <c r="M57" s="3">
+        <v>29500</v>
+      </c>
+      <c r="N57" s="3">
         <v>39700</v>
       </c>
-      <c r="G57" s="3">
-        <v>40100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>34100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>27900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>29500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>29600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>29500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>39700</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>25800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>20300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>21700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>25600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>24000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>21600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>22300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>21100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>24800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>23700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>26900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>33400</v>
+        <v>7000</v>
       </c>
       <c r="E58" s="3">
-        <v>80700</v>
+        <v>31800</v>
       </c>
       <c r="F58" s="3">
-        <v>69200</v>
+        <v>76700</v>
       </c>
       <c r="G58" s="3">
-        <v>46900</v>
+        <v>65800</v>
       </c>
       <c r="H58" s="3">
-        <v>31000</v>
+        <v>44600</v>
       </c>
       <c r="I58" s="3">
-        <v>28200</v>
+        <v>29500</v>
       </c>
       <c r="J58" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K58" s="3">
         <v>28300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>29000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>27800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>28100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>27500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>38200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>26100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>25600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>25200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>106500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>101300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>95200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>128600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>69400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>35000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>183800</v>
+        <v>137500</v>
       </c>
       <c r="E59" s="3">
-        <v>124000</v>
+        <v>174800</v>
       </c>
       <c r="F59" s="3">
-        <v>125300</v>
+        <v>117900</v>
       </c>
       <c r="G59" s="3">
-        <v>122300</v>
+        <v>119200</v>
       </c>
       <c r="H59" s="3">
-        <v>132700</v>
+        <v>116300</v>
       </c>
       <c r="I59" s="3">
-        <v>87800</v>
+        <v>126200</v>
       </c>
       <c r="J59" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K59" s="3">
         <v>154800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>103900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>119200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>112500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>114800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>100300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>129000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>144000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>95300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>77700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>92600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>88800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>108700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>80700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>90200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>120100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>252900</v>
+        <v>177600</v>
       </c>
       <c r="E60" s="3">
-        <v>243400</v>
+        <v>240400</v>
       </c>
       <c r="F60" s="3">
-        <v>234300</v>
+        <v>231400</v>
       </c>
       <c r="G60" s="3">
-        <v>209200</v>
+        <v>222700</v>
       </c>
       <c r="H60" s="3">
-        <v>197900</v>
+        <v>199000</v>
       </c>
       <c r="I60" s="3">
-        <v>143800</v>
+        <v>188200</v>
       </c>
       <c r="J60" s="3">
+        <v>136800</v>
+      </c>
+      <c r="K60" s="3">
         <v>212600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>162500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>176600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>180300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>168100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>158700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>176800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>195200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>144500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>205900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>216200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>205100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>262100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>173900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>152100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>353800</v>
+        <v>337300</v>
       </c>
       <c r="E61" s="3">
-        <v>306800</v>
+        <v>336400</v>
       </c>
       <c r="F61" s="3">
-        <v>267300</v>
+        <v>291700</v>
       </c>
       <c r="G61" s="3">
-        <v>299400</v>
+        <v>254200</v>
       </c>
       <c r="H61" s="3">
-        <v>271900</v>
+        <v>284700</v>
       </c>
       <c r="I61" s="3">
-        <v>322400</v>
+        <v>258600</v>
       </c>
       <c r="J61" s="3">
+        <v>306500</v>
+      </c>
+      <c r="K61" s="3">
         <v>324000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>452700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>322800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>335100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>332200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>346600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>308100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>314100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>253700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>250000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>243600</v>
-      </c>
-      <c r="U61" s="3">
-        <v>278600</v>
       </c>
       <c r="V61" s="3">
         <v>278600</v>
       </c>
       <c r="W61" s="3">
+        <v>278600</v>
+      </c>
+      <c r="X61" s="3">
         <v>315400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>316900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>269700</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>31900</v>
+        <v>30200</v>
       </c>
       <c r="E62" s="3">
-        <v>30500</v>
+        <v>30400</v>
       </c>
       <c r="F62" s="3">
-        <v>31200</v>
+        <v>29000</v>
       </c>
       <c r="G62" s="3">
-        <v>31800</v>
+        <v>29700</v>
       </c>
       <c r="H62" s="3">
-        <v>31900</v>
+        <v>30300</v>
       </c>
       <c r="I62" s="3">
+        <v>30300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K62" s="3">
+        <v>29700</v>
+      </c>
+      <c r="L62" s="3">
+        <v>30400</v>
+      </c>
+      <c r="M62" s="3">
+        <v>28500</v>
+      </c>
+      <c r="N62" s="3">
         <v>29400</v>
       </c>
-      <c r="J62" s="3">
-        <v>29700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>30400</v>
-      </c>
-      <c r="L62" s="3">
-        <v>28500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>29400</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>28600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>28400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>28300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>24800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>22000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>23400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>23100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>22300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>20900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>638600</v>
+        <v>545100</v>
       </c>
       <c r="E66" s="3">
-        <v>580700</v>
+        <v>607200</v>
       </c>
       <c r="F66" s="3">
-        <v>532800</v>
+        <v>552100</v>
       </c>
       <c r="G66" s="3">
-        <v>540500</v>
+        <v>506600</v>
       </c>
       <c r="H66" s="3">
-        <v>501700</v>
+        <v>513900</v>
       </c>
       <c r="I66" s="3">
-        <v>495600</v>
+        <v>477100</v>
       </c>
       <c r="J66" s="3">
+        <v>471300</v>
+      </c>
+      <c r="K66" s="3">
         <v>566200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>645600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>527900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>544800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>528900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>533700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>513200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>534500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>423400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>480700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>481800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>507000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>563800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>511600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>489900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>572600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>380700</v>
+        <v>403000</v>
       </c>
       <c r="E72" s="3">
-        <v>331200</v>
+        <v>362000</v>
       </c>
       <c r="F72" s="3">
-        <v>338000</v>
+        <v>314900</v>
       </c>
       <c r="G72" s="3">
-        <v>292800</v>
+        <v>321400</v>
       </c>
       <c r="H72" s="3">
-        <v>259000</v>
+        <v>278400</v>
       </c>
       <c r="I72" s="3">
-        <v>236300</v>
+        <v>246300</v>
       </c>
       <c r="J72" s="3">
+        <v>224700</v>
+      </c>
+      <c r="K72" s="3">
         <v>221400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>254000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>228300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>207700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>190600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>185900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>173900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>154600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>139600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>144000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>137400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>130700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>125400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>124100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>46500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>192400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>858600</v>
+        <v>861600</v>
       </c>
       <c r="E76" s="3">
-        <v>804300</v>
+        <v>816400</v>
       </c>
       <c r="F76" s="3">
-        <v>811700</v>
+        <v>764800</v>
       </c>
       <c r="G76" s="3">
-        <v>766200</v>
+        <v>771800</v>
       </c>
       <c r="H76" s="3">
-        <v>733500</v>
+        <v>728500</v>
       </c>
       <c r="I76" s="3">
-        <v>706800</v>
+        <v>697400</v>
       </c>
       <c r="J76" s="3">
+        <v>672100</v>
+      </c>
+      <c r="K76" s="3">
         <v>688900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>731600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>707800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>686800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>653000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>642300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>615700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>585300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>614200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>618600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>596100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>588800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>581500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>600300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>530700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>564300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>49900</v>
+      <c r="D81" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E81" s="3">
-        <v>49300</v>
+        <v>47500</v>
       </c>
       <c r="F81" s="3">
-        <v>45200</v>
+        <v>46800</v>
       </c>
       <c r="G81" s="3">
-        <v>33800</v>
+        <v>43000</v>
       </c>
       <c r="H81" s="3">
-        <v>24200</v>
+        <v>32100</v>
       </c>
       <c r="I81" s="3">
-        <v>14900</v>
+        <v>23000</v>
       </c>
       <c r="J81" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K81" s="3">
         <v>19200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>25700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>44500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>14700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>800</v>
-      </c>
-      <c r="T81" s="3">
-        <v>5300</v>
       </c>
       <c r="U81" s="3">
         <v>5300</v>
       </c>
       <c r="V81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="W81" s="3">
         <v>10400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>77600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>50000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>40700</v>
+        <v>39800</v>
       </c>
       <c r="E83" s="3">
-        <v>42100</v>
+        <v>38700</v>
       </c>
       <c r="F83" s="3">
-        <v>40700</v>
+        <v>40000</v>
       </c>
       <c r="G83" s="3">
-        <v>39700</v>
+        <v>38700</v>
       </c>
       <c r="H83" s="3">
-        <v>37300</v>
+        <v>37700</v>
       </c>
       <c r="I83" s="3">
-        <v>37400</v>
+        <v>35500</v>
       </c>
       <c r="J83" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K83" s="3">
         <v>36900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>36200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>31500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>29300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>28600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>28100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>27000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>25300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>24100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>23000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>21700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>105300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>69600</v>
+        <v>108500</v>
       </c>
       <c r="E89" s="3">
-        <v>57200</v>
+        <v>66200</v>
       </c>
       <c r="F89" s="3">
-        <v>59700</v>
+        <v>54400</v>
       </c>
       <c r="G89" s="3">
-        <v>71200</v>
+        <v>56800</v>
       </c>
       <c r="H89" s="3">
-        <v>66500</v>
+        <v>67700</v>
       </c>
       <c r="I89" s="3">
-        <v>44900</v>
+        <v>63200</v>
       </c>
       <c r="J89" s="3">
+        <v>42700</v>
+      </c>
+      <c r="K89" s="3">
         <v>72000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>77400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>50400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>25800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>59800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>48200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>41100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>24100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>25200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>41000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>13400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>39400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>60700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>120300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-58800</v>
+        <v>-65800</v>
       </c>
       <c r="E91" s="3">
-        <v>-41000</v>
+        <v>-55900</v>
       </c>
       <c r="F91" s="3">
-        <v>-54900</v>
+        <v>-38900</v>
       </c>
       <c r="G91" s="3">
-        <v>-52500</v>
+        <v>-52200</v>
       </c>
       <c r="H91" s="3">
-        <v>-36500</v>
+        <v>-49900</v>
       </c>
       <c r="I91" s="3">
-        <v>-25500</v>
+        <v>-34700</v>
       </c>
       <c r="J91" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-23000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-55700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-62400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-46500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-33000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-51500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-34300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-32400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-45500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-34700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-31900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-44100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-32500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-291600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-78500</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-49900</v>
+        <v>-67800</v>
       </c>
       <c r="E94" s="3">
-        <v>-54600</v>
+        <v>-47400</v>
       </c>
       <c r="F94" s="3">
-        <v>-54100</v>
+        <v>-51900</v>
       </c>
       <c r="G94" s="3">
-        <v>-53200</v>
+        <v>-51400</v>
       </c>
       <c r="H94" s="3">
-        <v>-36400</v>
+        <v>-50600</v>
       </c>
       <c r="I94" s="3">
-        <v>-25700</v>
+        <v>-34600</v>
       </c>
       <c r="J94" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-21200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-51600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-60600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-43500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>7400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-54900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-31900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-34900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-32100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-72400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-32300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-29300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-84900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>41300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-156800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-39200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6293,11 +6527,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6317,13 +6551,16 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-58500</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,118 +6778,124 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5600</v>
+        <v>-28100</v>
       </c>
       <c r="E100" s="3">
-        <v>-10000</v>
+        <v>5300</v>
       </c>
       <c r="F100" s="3">
-        <v>-12200</v>
+        <v>-9500</v>
       </c>
       <c r="G100" s="3">
-        <v>34000</v>
+        <v>-11600</v>
       </c>
       <c r="H100" s="3">
-        <v>-53700</v>
+        <v>32400</v>
       </c>
       <c r="I100" s="3">
-        <v>-46700</v>
+        <v>-51000</v>
       </c>
       <c r="J100" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-118900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>126300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-31700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-24200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>10100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-65400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>60000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-78400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-29000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-61200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>24600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>32900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-105100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
       </c>
       <c r="J101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -6654,98 +6903,104 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>25300</v>
+        <v>12800</v>
       </c>
       <c r="E102" s="3">
-        <v>-7400</v>
+        <v>24000</v>
       </c>
       <c r="F102" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="G102" s="3">
-        <v>52000</v>
+        <v>-6400</v>
       </c>
       <c r="H102" s="3">
-        <v>-23800</v>
+        <v>49500</v>
       </c>
       <c r="I102" s="3">
-        <v>-27700</v>
+        <v>-22600</v>
       </c>
       <c r="J102" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-68300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>101100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-24800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>15000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-48500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>66200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-86700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-44800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-20500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-78200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-19900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>134400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-148600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-23900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>IMOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>225200</v>
+        <v>226800</v>
       </c>
       <c r="E8" s="3">
-        <v>227400</v>
+        <v>222600</v>
       </c>
       <c r="F8" s="3">
-        <v>239800</v>
+        <v>224800</v>
       </c>
       <c r="G8" s="3">
-        <v>233800</v>
+        <v>237000</v>
       </c>
       <c r="H8" s="3">
-        <v>216500</v>
+        <v>231100</v>
       </c>
       <c r="I8" s="3">
-        <v>211300</v>
+        <v>214000</v>
       </c>
       <c r="J8" s="3">
+        <v>208900</v>
+      </c>
+      <c r="K8" s="3">
         <v>190400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>191100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>201200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>193600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>171400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>156500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>169400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>166900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>149400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>133400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>142900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>143600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>147200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>148700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>599600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>155500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>169000</v>
+        <v>169100</v>
       </c>
       <c r="E9" s="3">
-        <v>168200</v>
+        <v>167100</v>
       </c>
       <c r="F9" s="3">
-        <v>174200</v>
+        <v>166300</v>
       </c>
       <c r="G9" s="3">
-        <v>167900</v>
+        <v>172200</v>
       </c>
       <c r="H9" s="3">
-        <v>164200</v>
+        <v>166000</v>
       </c>
       <c r="I9" s="3">
-        <v>159700</v>
+        <v>162300</v>
       </c>
       <c r="J9" s="3">
+        <v>157900</v>
+      </c>
+      <c r="K9" s="3">
         <v>153700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>151500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>155500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>155100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>152300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>142100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>133100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>130700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>134400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>124900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>114000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>118600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>119000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>117700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>122100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>480800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>56200</v>
+        <v>57700</v>
       </c>
       <c r="E10" s="3">
-        <v>59200</v>
+        <v>55500</v>
       </c>
       <c r="F10" s="3">
-        <v>65500</v>
+        <v>58500</v>
       </c>
       <c r="G10" s="3">
-        <v>65800</v>
+        <v>64800</v>
       </c>
       <c r="H10" s="3">
-        <v>52300</v>
+        <v>65100</v>
       </c>
       <c r="I10" s="3">
-        <v>51600</v>
+        <v>51700</v>
       </c>
       <c r="J10" s="3">
+        <v>51000</v>
+      </c>
+      <c r="K10" s="3">
         <v>36700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>39600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>45800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>45600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>41300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>29300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>32500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>24500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>19400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>24300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>24700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>29500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>26600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>118800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-100900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="E12" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="F12" s="3">
         <v>9700</v>
       </c>
       <c r="G12" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="H12" s="3">
-        <v>9000</v>
+        <v>9600</v>
       </c>
       <c r="I12" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="J12" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K12" s="3">
         <v>8200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9300</v>
-      </c>
-      <c r="M12" s="3">
-        <v>9100</v>
       </c>
       <c r="N12" s="3">
         <v>9100</v>
       </c>
       <c r="O12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="P12" s="3">
         <v>9200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>8000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>8400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>27400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,19 +1183,22 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1198,11 +1218,11 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1216,14 +1236,14 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
@@ -1234,14 +1254,17 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
+      <c r="D17" s="3">
+        <v>184500</v>
       </c>
       <c r="E17" s="3">
-        <v>182700</v>
+        <v>181800</v>
       </c>
       <c r="F17" s="3">
-        <v>188600</v>
+        <v>180600</v>
       </c>
       <c r="G17" s="3">
-        <v>182200</v>
+        <v>186500</v>
       </c>
       <c r="H17" s="3">
-        <v>177600</v>
+        <v>180100</v>
       </c>
       <c r="I17" s="3">
-        <v>172400</v>
+        <v>175600</v>
       </c>
       <c r="J17" s="3">
+        <v>170500</v>
+      </c>
+      <c r="K17" s="3">
         <v>166300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>163300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>168800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>168200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>165400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>155600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>145400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>142400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>145700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>135600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>124800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>132000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>130600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>132600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>114300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>534400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+      <c r="D18" s="3">
+        <v>42300</v>
       </c>
       <c r="E18" s="3">
-        <v>44700</v>
+        <v>40800</v>
       </c>
       <c r="F18" s="3">
-        <v>51100</v>
+        <v>44200</v>
       </c>
       <c r="G18" s="3">
-        <v>51500</v>
+        <v>50600</v>
       </c>
       <c r="H18" s="3">
-        <v>38800</v>
+        <v>51000</v>
       </c>
       <c r="I18" s="3">
-        <v>38800</v>
+        <v>38400</v>
       </c>
       <c r="J18" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K18" s="3">
         <v>24000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>27800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>32400</v>
       </c>
       <c r="M18" s="3">
         <v>32400</v>
       </c>
       <c r="N18" s="3">
+        <v>32400</v>
+      </c>
+      <c r="O18" s="3">
         <v>28200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>15800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>11200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>27000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>21200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>14500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>34400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>65200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,164 +1548,171 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
+      <c r="D20" s="3">
+        <v>11200</v>
       </c>
       <c r="E20" s="3">
-        <v>11700</v>
+        <v>8400</v>
       </c>
       <c r="F20" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G20" s="3">
         <v>5900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
-        <v>-8100</v>
-      </c>
       <c r="J20" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>33600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-12400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>93100</v>
       </c>
       <c r="E21" s="3">
-        <v>95100</v>
+        <v>88600</v>
       </c>
       <c r="F21" s="3">
-        <v>97100</v>
+        <v>94000</v>
       </c>
       <c r="G21" s="3">
-        <v>90600</v>
+        <v>96000</v>
       </c>
       <c r="H21" s="3">
-        <v>78400</v>
+        <v>89600</v>
       </c>
       <c r="I21" s="3">
-        <v>66200</v>
+        <v>77500</v>
       </c>
       <c r="J21" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K21" s="3">
         <v>54900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>61600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>70000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>60400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>61900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>81600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>42000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>54300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>48600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>45200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>30000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>33800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>35000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>37300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>43700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>165400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F22" s="3">
         <v>1000</v>
@@ -1684,16 +1724,16 @@
         <v>1000</v>
       </c>
       <c r="I22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1500</v>
       </c>
       <c r="M22" s="3">
         <v>1500</v>
@@ -1708,19 +1748,19 @@
         <v>1500</v>
       </c>
       <c r="Q22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R22" s="3">
         <v>1400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>1300</v>
       </c>
       <c r="T22" s="3">
         <v>1300</v>
       </c>
       <c r="U22" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="V22" s="3">
         <v>1600</v>
@@ -1729,164 +1769,173 @@
         <v>1600</v>
       </c>
       <c r="X22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y22" s="3">
         <v>1700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>48900</v>
+        <v>52500</v>
       </c>
       <c r="E23" s="3">
+        <v>48400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>54800</v>
+      </c>
+      <c r="G23" s="3">
         <v>55400</v>
       </c>
-      <c r="F23" s="3">
-        <v>56100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>50900</v>
-      </c>
       <c r="H23" s="3">
-        <v>39700</v>
+        <v>50300</v>
       </c>
       <c r="I23" s="3">
-        <v>29500</v>
+        <v>39200</v>
       </c>
       <c r="J23" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K23" s="3">
         <v>18100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>23100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>32300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>26200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>47900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>23500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>18800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>15900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>9300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>12700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>20300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>55500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F24" s="3">
         <v>7900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H24" s="3">
         <v>7900</v>
       </c>
-      <c r="F24" s="3">
-        <v>9200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>7900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>7600</v>
-      </c>
       <c r="I24" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J24" s="3">
         <v>6500</v>
-      </c>
-      <c r="J24" s="3">
-        <v>3900</v>
       </c>
       <c r="K24" s="3">
         <v>3900</v>
       </c>
       <c r="L24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="M24" s="3">
         <v>6600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>11500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
+      <c r="D26" s="3">
+        <v>43700</v>
       </c>
       <c r="E26" s="3">
-        <v>47500</v>
+        <v>40500</v>
       </c>
       <c r="F26" s="3">
-        <v>46800</v>
+        <v>46900</v>
       </c>
       <c r="G26" s="3">
-        <v>43000</v>
+        <v>46300</v>
       </c>
       <c r="H26" s="3">
-        <v>32100</v>
+        <v>42500</v>
       </c>
       <c r="I26" s="3">
-        <v>23000</v>
+        <v>31700</v>
       </c>
       <c r="J26" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K26" s="3">
         <v>14200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>25700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>21000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>44500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>14700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>10400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>16300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>44000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
+      <c r="D27" s="3">
+        <v>43700</v>
       </c>
       <c r="E27" s="3">
-        <v>47500</v>
+        <v>40500</v>
       </c>
       <c r="F27" s="3">
-        <v>46800</v>
+        <v>46900</v>
       </c>
       <c r="G27" s="3">
-        <v>43000</v>
+        <v>46300</v>
       </c>
       <c r="H27" s="3">
-        <v>32100</v>
+        <v>42500</v>
       </c>
       <c r="I27" s="3">
-        <v>23000</v>
+        <v>31700</v>
       </c>
       <c r="J27" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K27" s="3">
         <v>14200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>25700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>21000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>44500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>14700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>10400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>16300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>53900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2241,22 +2302,25 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-2100</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>61300</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
+      <c r="D32" s="3">
+        <v>-11200</v>
       </c>
       <c r="E32" s="3">
-        <v>-11700</v>
+        <v>-8400</v>
       </c>
       <c r="F32" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-5900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
-        <v>8100</v>
-      </c>
       <c r="J32" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K32" s="3">
         <v>4700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-33600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>12400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>5000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
+      <c r="D33" s="3">
+        <v>43700</v>
       </c>
       <c r="E33" s="3">
-        <v>47500</v>
+        <v>40500</v>
       </c>
       <c r="F33" s="3">
-        <v>46800</v>
+        <v>46900</v>
       </c>
       <c r="G33" s="3">
-        <v>43000</v>
+        <v>46300</v>
       </c>
       <c r="H33" s="3">
-        <v>32100</v>
+        <v>42500</v>
       </c>
       <c r="I33" s="3">
-        <v>23000</v>
+        <v>31700</v>
       </c>
       <c r="J33" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K33" s="3">
         <v>14200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>25700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>21000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>44500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>14700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>800</v>
-      </c>
-      <c r="U33" s="3">
-        <v>5300</v>
       </c>
       <c r="V33" s="3">
         <v>5300</v>
       </c>
       <c r="W33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="X33" s="3">
         <v>10400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>77600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>50000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
+      <c r="D35" s="3">
+        <v>43700</v>
       </c>
       <c r="E35" s="3">
-        <v>47500</v>
+        <v>40500</v>
       </c>
       <c r="F35" s="3">
-        <v>46800</v>
+        <v>46900</v>
       </c>
       <c r="G35" s="3">
-        <v>43000</v>
+        <v>46300</v>
       </c>
       <c r="H35" s="3">
-        <v>32100</v>
+        <v>42500</v>
       </c>
       <c r="I35" s="3">
-        <v>23000</v>
+        <v>31700</v>
       </c>
       <c r="J35" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K35" s="3">
         <v>14200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>25700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>21000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>44500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>14700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>800</v>
-      </c>
-      <c r="U35" s="3">
-        <v>5300</v>
       </c>
       <c r="V35" s="3">
         <v>5300</v>
       </c>
       <c r="W35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="X35" s="3">
         <v>10400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>77600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>50000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,135 +2920,139 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>210500</v>
+        <v>240600</v>
       </c>
       <c r="E41" s="3">
-        <v>197700</v>
+        <v>208100</v>
       </c>
       <c r="F41" s="3">
-        <v>173700</v>
+        <v>195500</v>
       </c>
       <c r="G41" s="3">
-        <v>180800</v>
+        <v>171700</v>
       </c>
       <c r="H41" s="3">
-        <v>187200</v>
+        <v>178700</v>
       </c>
       <c r="I41" s="3">
-        <v>137700</v>
+        <v>185100</v>
       </c>
       <c r="J41" s="3">
+        <v>136200</v>
+      </c>
+      <c r="K41" s="3">
         <v>160300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>196200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>270600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>169400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>166200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>186200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>177800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>158200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>202300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>135800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>222500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>260400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>280900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>359000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>381300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>246900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>396300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13100</v>
+        <v>6100</v>
       </c>
       <c r="E42" s="3">
         <v>13000</v>
       </c>
       <c r="F42" s="3">
-        <v>18900</v>
+        <v>12900</v>
       </c>
       <c r="G42" s="3">
-        <v>8700</v>
+        <v>18600</v>
       </c>
       <c r="H42" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="I42" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="J42" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K42" s="3">
         <v>13400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5800</v>
-      </c>
-      <c r="R42" s="3">
-        <v>500</v>
       </c>
       <c r="S42" s="3">
         <v>500</v>
       </c>
       <c r="T42" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2977,457 +3067,478 @@
         <v>0</v>
       </c>
       <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
         <v>100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>202500</v>
+        <v>209000</v>
       </c>
       <c r="E43" s="3">
-        <v>228800</v>
+        <v>200200</v>
       </c>
       <c r="F43" s="3">
-        <v>220800</v>
+        <v>226200</v>
       </c>
       <c r="G43" s="3">
-        <v>216000</v>
+        <v>218300</v>
       </c>
       <c r="H43" s="3">
-        <v>196500</v>
+        <v>213500</v>
       </c>
       <c r="I43" s="3">
-        <v>194400</v>
+        <v>194300</v>
       </c>
       <c r="J43" s="3">
+        <v>192200</v>
+      </c>
+      <c r="K43" s="3">
         <v>168600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>171800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>190100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>182400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>205400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>179000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>163200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>179000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>173100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>159800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>135700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>135500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>141200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>122700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>125700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>136900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>105900</v>
+        <v>102600</v>
       </c>
       <c r="E44" s="3">
-        <v>107400</v>
+        <v>104700</v>
       </c>
       <c r="F44" s="3">
-        <v>87500</v>
+        <v>106200</v>
       </c>
       <c r="G44" s="3">
-        <v>84600</v>
+        <v>86500</v>
       </c>
       <c r="H44" s="3">
-        <v>76300</v>
+        <v>83600</v>
       </c>
       <c r="I44" s="3">
-        <v>70400</v>
+        <v>75400</v>
       </c>
       <c r="J44" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K44" s="3">
         <v>68200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>81500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>83500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>63700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>63500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>60000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>58500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>60600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>59000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>59900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>59400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>62500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>61900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>62600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>63100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>56200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5600</v>
+        <v>3800</v>
       </c>
       <c r="E45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F45" s="3">
         <v>5000</v>
       </c>
-      <c r="F45" s="3">
-        <v>5600</v>
-      </c>
       <c r="G45" s="3">
-        <v>2200</v>
+        <v>5500</v>
       </c>
       <c r="H45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>105900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>537700</v>
+        <v>562100</v>
       </c>
       <c r="E46" s="3">
-        <v>551900</v>
+        <v>531600</v>
       </c>
       <c r="F46" s="3">
-        <v>506400</v>
+        <v>545700</v>
       </c>
       <c r="G46" s="3">
-        <v>492200</v>
+        <v>500600</v>
       </c>
       <c r="H46" s="3">
-        <v>472100</v>
+        <v>486600</v>
       </c>
       <c r="I46" s="3">
-        <v>413700</v>
+        <v>466800</v>
       </c>
       <c r="J46" s="3">
+        <v>409000</v>
+      </c>
+      <c r="K46" s="3">
         <v>412400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>463400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>559900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>423700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>444000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>433100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>407600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>405000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>436800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>357800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>419700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>460300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>485500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>545800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>574100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>551000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>623200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>152200</v>
+        <v>148700</v>
       </c>
       <c r="E47" s="3">
-        <v>144700</v>
+        <v>150500</v>
       </c>
       <c r="F47" s="3">
-        <v>127900</v>
+        <v>143100</v>
       </c>
       <c r="G47" s="3">
-        <v>123000</v>
+        <v>126400</v>
       </c>
       <c r="H47" s="3">
-        <v>120600</v>
+        <v>121600</v>
       </c>
       <c r="I47" s="3">
-        <v>120300</v>
+        <v>119300</v>
       </c>
       <c r="J47" s="3">
+        <v>118900</v>
+      </c>
+      <c r="K47" s="3">
         <v>119400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>124100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>126600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>129500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>133100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>133800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>145200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>141300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>139300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>143100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>146800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>114200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>115100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>116600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>73900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>14700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>689100</v>
+        <v>687500</v>
       </c>
       <c r="E48" s="3">
-        <v>701300</v>
+        <v>681300</v>
       </c>
       <c r="F48" s="3">
-        <v>656200</v>
+        <v>693300</v>
       </c>
       <c r="G48" s="3">
-        <v>653200</v>
+        <v>648700</v>
       </c>
       <c r="H48" s="3">
-        <v>639100</v>
+        <v>645800</v>
       </c>
       <c r="I48" s="3">
-        <v>631200</v>
+        <v>631900</v>
       </c>
       <c r="J48" s="3">
+        <v>624100</v>
+      </c>
+      <c r="K48" s="3">
         <v>602900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>658000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>681700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>672400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>643800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>601800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>610900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>573000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>532900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>527000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>522700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>494700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>485900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>473800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>454500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>440100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>490100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27700</v>
+        <v>26200</v>
       </c>
       <c r="E52" s="3">
-        <v>25700</v>
+        <v>27300</v>
       </c>
       <c r="F52" s="3">
-        <v>26500</v>
+        <v>25400</v>
       </c>
       <c r="G52" s="3">
-        <v>10000</v>
+        <v>26200</v>
       </c>
       <c r="H52" s="3">
-        <v>10600</v>
+        <v>9900</v>
       </c>
       <c r="I52" s="3">
-        <v>9300</v>
+        <v>10500</v>
       </c>
       <c r="J52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K52" s="3">
         <v>8700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>14800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1406700</v>
+        <v>1424500</v>
       </c>
       <c r="E54" s="3">
-        <v>1423700</v>
+        <v>1390700</v>
       </c>
       <c r="F54" s="3">
-        <v>1316900</v>
+        <v>1407500</v>
       </c>
       <c r="G54" s="3">
-        <v>1278400</v>
+        <v>1302000</v>
       </c>
       <c r="H54" s="3">
-        <v>1242500</v>
+        <v>1263900</v>
       </c>
       <c r="I54" s="3">
-        <v>1174500</v>
+        <v>1228400</v>
       </c>
       <c r="J54" s="3">
+        <v>1161200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1143400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1255100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1377200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1235700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1231500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1181900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1176000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1128900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1119800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1037600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1099200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1078000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1095800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1145300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1111900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1020600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>33100</v>
+        <v>32000</v>
       </c>
       <c r="E57" s="3">
-        <v>33900</v>
+        <v>32700</v>
       </c>
       <c r="F57" s="3">
-        <v>36800</v>
+        <v>33500</v>
       </c>
       <c r="G57" s="3">
+        <v>36400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>37300</v>
+      </c>
+      <c r="I57" s="3">
         <v>37700</v>
       </c>
-      <c r="H57" s="3">
-        <v>38100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>32500</v>
-      </c>
       <c r="J57" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K57" s="3">
         <v>26500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>29500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>39700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>25800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>20300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>21700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>25600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>24000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>21600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>22300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>21100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>24800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>23700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>26900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7000</v>
+        <v>19600</v>
       </c>
       <c r="E58" s="3">
-        <v>31800</v>
+        <v>10000</v>
       </c>
       <c r="F58" s="3">
-        <v>76700</v>
+        <v>31400</v>
       </c>
       <c r="G58" s="3">
-        <v>65800</v>
+        <v>75900</v>
       </c>
       <c r="H58" s="3">
-        <v>44600</v>
+        <v>65100</v>
       </c>
       <c r="I58" s="3">
-        <v>29500</v>
+        <v>44100</v>
       </c>
       <c r="J58" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K58" s="3">
         <v>26800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>28300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>29000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>27800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>28100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>27500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>38200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>26100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>25600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>25200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>106500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>101300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>95200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>128600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>69400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>35000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>137500</v>
+        <v>235600</v>
       </c>
       <c r="E59" s="3">
-        <v>174800</v>
+        <v>132800</v>
       </c>
       <c r="F59" s="3">
-        <v>117900</v>
+        <v>172800</v>
       </c>
       <c r="G59" s="3">
+        <v>116600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>117800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>115000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>124800</v>
+      </c>
+      <c r="K59" s="3">
+        <v>83400</v>
+      </c>
+      <c r="L59" s="3">
+        <v>154800</v>
+      </c>
+      <c r="M59" s="3">
+        <v>103900</v>
+      </c>
+      <c r="N59" s="3">
         <v>119200</v>
       </c>
-      <c r="H59" s="3">
-        <v>116300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>126200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>83400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>154800</v>
-      </c>
-      <c r="L59" s="3">
-        <v>103900</v>
-      </c>
-      <c r="M59" s="3">
-        <v>119200</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>112500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>114800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>129000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>144000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>95300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>77700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>92600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>88800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>108700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>80700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>90200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>120100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>177600</v>
+        <v>287200</v>
       </c>
       <c r="E60" s="3">
-        <v>240400</v>
+        <v>175600</v>
       </c>
       <c r="F60" s="3">
-        <v>231400</v>
+        <v>237700</v>
       </c>
       <c r="G60" s="3">
-        <v>222700</v>
+        <v>228800</v>
       </c>
       <c r="H60" s="3">
-        <v>199000</v>
+        <v>220200</v>
       </c>
       <c r="I60" s="3">
-        <v>188200</v>
+        <v>196700</v>
       </c>
       <c r="J60" s="3">
+        <v>186000</v>
+      </c>
+      <c r="K60" s="3">
         <v>136800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>212600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>162500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>176600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>180300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>168100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>158700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>176800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>195200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>144500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>205900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>216200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>205100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>262100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>173900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>152100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>337300</v>
+        <v>322300</v>
       </c>
       <c r="E61" s="3">
-        <v>336400</v>
+        <v>333500</v>
       </c>
       <c r="F61" s="3">
-        <v>291700</v>
+        <v>332600</v>
       </c>
       <c r="G61" s="3">
-        <v>254200</v>
+        <v>288400</v>
       </c>
       <c r="H61" s="3">
-        <v>284700</v>
+        <v>251300</v>
       </c>
       <c r="I61" s="3">
-        <v>258600</v>
+        <v>281400</v>
       </c>
       <c r="J61" s="3">
+        <v>255600</v>
+      </c>
+      <c r="K61" s="3">
         <v>306500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>324000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>452700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>322800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>335100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>332200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>346600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>308100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>314100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>253700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>250000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>243600</v>
-      </c>
-      <c r="V61" s="3">
-        <v>278600</v>
       </c>
       <c r="W61" s="3">
         <v>278600</v>
       </c>
       <c r="X61" s="3">
+        <v>278600</v>
+      </c>
+      <c r="Y61" s="3">
         <v>315400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>316900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>269700</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>30200</v>
+        <v>28000</v>
       </c>
       <c r="E62" s="3">
+        <v>29800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>28700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>29400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>29900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K62" s="3">
+        <v>28000</v>
+      </c>
+      <c r="L62" s="3">
+        <v>29700</v>
+      </c>
+      <c r="M62" s="3">
         <v>30400</v>
       </c>
-      <c r="F62" s="3">
-        <v>29000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>29700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>30300</v>
-      </c>
-      <c r="I62" s="3">
-        <v>30300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>28000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>29700</v>
-      </c>
-      <c r="L62" s="3">
-        <v>30400</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>28500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>29400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>28600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>28400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>28300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>25100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>24800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>22000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>23400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>23100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>22300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>20900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>545100</v>
+        <v>637600</v>
       </c>
       <c r="E66" s="3">
-        <v>607200</v>
+        <v>538900</v>
       </c>
       <c r="F66" s="3">
-        <v>552100</v>
+        <v>600300</v>
       </c>
       <c r="G66" s="3">
-        <v>506600</v>
+        <v>545900</v>
       </c>
       <c r="H66" s="3">
-        <v>513900</v>
+        <v>500900</v>
       </c>
       <c r="I66" s="3">
-        <v>477100</v>
+        <v>508100</v>
       </c>
       <c r="J66" s="3">
+        <v>471600</v>
+      </c>
+      <c r="K66" s="3">
         <v>471300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>566200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>645600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>527900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>544800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>528900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>533700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>513200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>534500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>423400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>480700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>481800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>507000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>563800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>511600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>489900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>572600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>403000</v>
+        <v>338600</v>
       </c>
       <c r="E72" s="3">
-        <v>362000</v>
+        <v>398400</v>
       </c>
       <c r="F72" s="3">
-        <v>314900</v>
+        <v>357800</v>
       </c>
       <c r="G72" s="3">
-        <v>321400</v>
+        <v>311300</v>
       </c>
       <c r="H72" s="3">
-        <v>278400</v>
+        <v>317700</v>
       </c>
       <c r="I72" s="3">
-        <v>246300</v>
+        <v>275200</v>
       </c>
       <c r="J72" s="3">
+        <v>243500</v>
+      </c>
+      <c r="K72" s="3">
         <v>224700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>221400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>254000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>228300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>207700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>190600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>185900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>173900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>154600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>139600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>144000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>137400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>130700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>125400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>124100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>46500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>192400</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>861600</v>
+        <v>787000</v>
       </c>
       <c r="E76" s="3">
-        <v>816400</v>
+        <v>851800</v>
       </c>
       <c r="F76" s="3">
-        <v>764800</v>
+        <v>807200</v>
       </c>
       <c r="G76" s="3">
-        <v>771800</v>
+        <v>756100</v>
       </c>
       <c r="H76" s="3">
-        <v>728500</v>
+        <v>763000</v>
       </c>
       <c r="I76" s="3">
-        <v>697400</v>
+        <v>720300</v>
       </c>
       <c r="J76" s="3">
+        <v>689500</v>
+      </c>
+      <c r="K76" s="3">
         <v>672100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>688900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>731600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>707800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>686800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>653000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>642300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>615700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>585300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>614200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>618600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>596100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>588800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>581500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>600300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>530700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>564300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>10</v>
+      <c r="D81" s="3">
+        <v>43700</v>
       </c>
       <c r="E81" s="3">
-        <v>47500</v>
+        <v>40500</v>
       </c>
       <c r="F81" s="3">
-        <v>46800</v>
+        <v>46900</v>
       </c>
       <c r="G81" s="3">
-        <v>43000</v>
+        <v>46300</v>
       </c>
       <c r="H81" s="3">
-        <v>32100</v>
+        <v>42500</v>
       </c>
       <c r="I81" s="3">
-        <v>23000</v>
+        <v>31700</v>
       </c>
       <c r="J81" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K81" s="3">
         <v>14200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>25700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>21000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>44500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>14700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>800</v>
-      </c>
-      <c r="U81" s="3">
-        <v>5300</v>
       </c>
       <c r="V81" s="3">
         <v>5300</v>
       </c>
       <c r="W81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="X81" s="3">
         <v>10400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>77600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>50000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>39800</v>
+        <v>39600</v>
       </c>
       <c r="E83" s="3">
-        <v>38700</v>
+        <v>39300</v>
       </c>
       <c r="F83" s="3">
-        <v>40000</v>
+        <v>38200</v>
       </c>
       <c r="G83" s="3">
-        <v>38700</v>
+        <v>39600</v>
       </c>
       <c r="H83" s="3">
-        <v>37700</v>
+        <v>38300</v>
       </c>
       <c r="I83" s="3">
-        <v>35500</v>
+        <v>37300</v>
       </c>
       <c r="J83" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K83" s="3">
         <v>35600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>36900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>36200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>32200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>31500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>29300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>28600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>28100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>27000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>25300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>24100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>23000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>105300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>108500</v>
+        <v>73300</v>
       </c>
       <c r="E89" s="3">
-        <v>66200</v>
+        <v>107300</v>
       </c>
       <c r="F89" s="3">
-        <v>54400</v>
+        <v>65400</v>
       </c>
       <c r="G89" s="3">
-        <v>56800</v>
+        <v>53800</v>
       </c>
       <c r="H89" s="3">
-        <v>67700</v>
+        <v>56200</v>
       </c>
       <c r="I89" s="3">
-        <v>63200</v>
+        <v>66900</v>
       </c>
       <c r="J89" s="3">
+        <v>62500</v>
+      </c>
+      <c r="K89" s="3">
         <v>42700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>72000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>77400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>50400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>25800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>59800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>48200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>41100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>24100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>25200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>41000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>13400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>39400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>60700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>120300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-65800</v>
+        <v>-41100</v>
       </c>
       <c r="E91" s="3">
-        <v>-55900</v>
+        <v>-65100</v>
       </c>
       <c r="F91" s="3">
-        <v>-38900</v>
+        <v>-55300</v>
       </c>
       <c r="G91" s="3">
-        <v>-52200</v>
+        <v>-38500</v>
       </c>
       <c r="H91" s="3">
-        <v>-49900</v>
+        <v>-51600</v>
       </c>
       <c r="I91" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-62400</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="V91" s="3">
         <v>-34700</v>
       </c>
-      <c r="J91" s="3">
-        <v>-24300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-23000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-55700</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-62400</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-46500</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-33000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-51500</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-26700</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-34300</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-32400</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-45500</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-34700</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-31900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-44100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-32500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-291600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-78500</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-67800</v>
+        <v>-39000</v>
       </c>
       <c r="E94" s="3">
-        <v>-47400</v>
+        <v>-67100</v>
       </c>
       <c r="F94" s="3">
-        <v>-51900</v>
+        <v>-46900</v>
       </c>
       <c r="G94" s="3">
-        <v>-51400</v>
+        <v>-51300</v>
       </c>
       <c r="H94" s="3">
-        <v>-50600</v>
+        <v>-50900</v>
       </c>
       <c r="I94" s="3">
-        <v>-34600</v>
+        <v>-50000</v>
       </c>
       <c r="J94" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-24400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-51600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-60600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-43500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>7400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-54900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-31900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-34900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-32100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-72400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-32300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-29300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-84900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>41300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-156800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-39200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6530,11 +6764,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-8700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6554,13 +6788,16 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-58500</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-28100</v>
+        <v>-2000</v>
       </c>
       <c r="E100" s="3">
-        <v>5300</v>
+        <v>-27800</v>
       </c>
       <c r="F100" s="3">
-        <v>-9500</v>
+        <v>5200</v>
       </c>
       <c r="G100" s="3">
-        <v>-11600</v>
+        <v>-9400</v>
       </c>
       <c r="H100" s="3">
-        <v>32400</v>
+        <v>-11500</v>
       </c>
       <c r="I100" s="3">
-        <v>-51000</v>
+        <v>32000</v>
       </c>
       <c r="J100" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-44400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-118900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>126300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-31700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-24200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>10100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-65400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>60000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-78400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-29000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-61200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>24600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>32900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-105100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6864,41 +7113,41 @@
         <v>200</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
       <c r="K101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -6906,101 +7155,107 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>12800</v>
+        <v>32500</v>
       </c>
       <c r="E102" s="3">
-        <v>24000</v>
+        <v>12600</v>
       </c>
       <c r="F102" s="3">
+        <v>23700</v>
+      </c>
+      <c r="G102" s="3">
         <v>-7000</v>
       </c>
-      <c r="G102" s="3">
-        <v>-6400</v>
-      </c>
       <c r="H102" s="3">
-        <v>49500</v>
+        <v>-6300</v>
       </c>
       <c r="I102" s="3">
-        <v>-22600</v>
+        <v>48900</v>
       </c>
       <c r="J102" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-26300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-68300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>101100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-24800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>15000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-48500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>66200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-86700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-44800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-20500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-78200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-19900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>134400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-148600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-23900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>IMOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>226800</v>
+        <v>167500</v>
       </c>
       <c r="E8" s="3">
+        <v>218400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>214400</v>
+      </c>
+      <c r="G8" s="3">
+        <v>216500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>228300</v>
+      </c>
+      <c r="I8" s="3">
         <v>222600</v>
       </c>
-      <c r="F8" s="3">
-        <v>224800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>237000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>231100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>214000</v>
-      </c>
       <c r="J8" s="3">
+        <v>206100</v>
+      </c>
+      <c r="K8" s="3">
         <v>208900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>190400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>191100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>201200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>200700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>193600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>171400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>156500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>169400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>166900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>149400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>133400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>142900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>143600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>147200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>148700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>599600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>155500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>169100</v>
+        <v>141600</v>
       </c>
       <c r="E9" s="3">
-        <v>167100</v>
+        <v>162900</v>
       </c>
       <c r="F9" s="3">
-        <v>166300</v>
+        <v>160900</v>
       </c>
       <c r="G9" s="3">
-        <v>172200</v>
+        <v>160100</v>
       </c>
       <c r="H9" s="3">
-        <v>166000</v>
+        <v>165900</v>
       </c>
       <c r="I9" s="3">
-        <v>162300</v>
+        <v>159900</v>
       </c>
       <c r="J9" s="3">
+        <v>156300</v>
+      </c>
+      <c r="K9" s="3">
         <v>157900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>153700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>151500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>155500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>155100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>152300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>142100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>133100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>130700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>134400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>124900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>114000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>118600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>119000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>117700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>122100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>480800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>57700</v>
+        <v>25900</v>
       </c>
       <c r="E10" s="3">
         <v>55500</v>
       </c>
       <c r="F10" s="3">
-        <v>58500</v>
+        <v>53500</v>
       </c>
       <c r="G10" s="3">
-        <v>64800</v>
+        <v>56400</v>
       </c>
       <c r="H10" s="3">
-        <v>65100</v>
+        <v>62400</v>
       </c>
       <c r="I10" s="3">
-        <v>51700</v>
+        <v>62700</v>
       </c>
       <c r="J10" s="3">
+        <v>49800</v>
+      </c>
+      <c r="K10" s="3">
         <v>51000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>36700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>39600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>45800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>45600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>41300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>23400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>38700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>32500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>24500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>19400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>24300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>24700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>29500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>26600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>118800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>-100900</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10200</v>
+        <v>9300</v>
       </c>
       <c r="E12" s="3">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="F12" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="G12" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="H12" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="I12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K12" s="3">
+        <v>8600</v>
+      </c>
+      <c r="L12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="M12" s="3">
         <v>8900</v>
       </c>
-      <c r="J12" s="3">
-        <v>8600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>8200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>8900</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>9100</v>
       </c>
       <c r="O12" s="3">
         <v>9100</v>
       </c>
       <c r="P12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>9200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>8000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>7900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>8400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>27400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1197,11 +1217,11 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1221,11 +1241,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>400</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1239,14 +1259,14 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1257,14 +1277,17 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>184500</v>
+        <v>154800</v>
       </c>
       <c r="E17" s="3">
-        <v>181800</v>
+        <v>177700</v>
       </c>
       <c r="F17" s="3">
-        <v>180600</v>
+        <v>175100</v>
       </c>
       <c r="G17" s="3">
-        <v>186500</v>
+        <v>173900</v>
       </c>
       <c r="H17" s="3">
-        <v>180100</v>
+        <v>179600</v>
       </c>
       <c r="I17" s="3">
-        <v>175600</v>
+        <v>173500</v>
       </c>
       <c r="J17" s="3">
+        <v>169100</v>
+      </c>
+      <c r="K17" s="3">
         <v>170500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>166300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>163300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>168800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>168200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>165400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>155600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>145400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>142400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>145700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>135600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>124800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>132000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>130600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>132600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>114300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>534400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>42300</v>
+        <v>12700</v>
       </c>
       <c r="E18" s="3">
-        <v>40800</v>
+        <v>40700</v>
       </c>
       <c r="F18" s="3">
-        <v>44200</v>
+        <v>39300</v>
       </c>
       <c r="G18" s="3">
-        <v>50600</v>
+        <v>42600</v>
       </c>
       <c r="H18" s="3">
-        <v>51000</v>
+        <v>48700</v>
       </c>
       <c r="I18" s="3">
+        <v>49100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K18" s="3">
         <v>38400</v>
       </c>
-      <c r="J18" s="3">
-        <v>38400</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>24000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>27800</v>
-      </c>
-      <c r="M18" s="3">
-        <v>32400</v>
       </c>
       <c r="N18" s="3">
         <v>32400</v>
       </c>
       <c r="O18" s="3">
+        <v>32400</v>
+      </c>
+      <c r="P18" s="3">
         <v>28200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>15800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>27000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>21200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>14500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>34400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>65200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,173 +1582,180 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G20" s="3">
         <v>11200</v>
       </c>
-      <c r="E20" s="3">
-        <v>8400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>11600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>5900</v>
-      </c>
       <c r="H20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>1800</v>
-      </c>
       <c r="J20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>33600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-12400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>93100</v>
+        <v>65000</v>
       </c>
       <c r="E21" s="3">
-        <v>88600</v>
+        <v>89700</v>
       </c>
       <c r="F21" s="3">
-        <v>94000</v>
+        <v>85300</v>
       </c>
       <c r="G21" s="3">
-        <v>96000</v>
+        <v>90600</v>
       </c>
       <c r="H21" s="3">
-        <v>89600</v>
+        <v>92500</v>
       </c>
       <c r="I21" s="3">
-        <v>77500</v>
+        <v>86300</v>
       </c>
       <c r="J21" s="3">
+        <v>74600</v>
+      </c>
+      <c r="K21" s="3">
         <v>65500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>54900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>61600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>70000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>60400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>61900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>81600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>42000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>54300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>48600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>45200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>30000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>33800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>35000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>37300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>43700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>165400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E22" s="3">
         <v>900</v>
       </c>
       <c r="F22" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G22" s="3">
         <v>1000</v>
@@ -1727,16 +1767,16 @@
         <v>1000</v>
       </c>
       <c r="J22" s="3">
+        <v>900</v>
+      </c>
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1500</v>
       </c>
       <c r="N22" s="3">
         <v>1500</v>
@@ -1751,19 +1791,19 @@
         <v>1500</v>
       </c>
       <c r="R22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S22" s="3">
         <v>1400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1100</v>
-      </c>
-      <c r="T22" s="3">
-        <v>1300</v>
       </c>
       <c r="U22" s="3">
         <v>1300</v>
       </c>
       <c r="V22" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="W22" s="3">
         <v>1600</v>
@@ -1772,170 +1812,179 @@
         <v>1600</v>
       </c>
       <c r="Y22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z22" s="3">
         <v>1700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>4700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>52500</v>
+        <v>25500</v>
       </c>
       <c r="E23" s="3">
-        <v>48400</v>
+        <v>50600</v>
       </c>
       <c r="F23" s="3">
-        <v>54800</v>
+        <v>46600</v>
       </c>
       <c r="G23" s="3">
-        <v>55400</v>
+        <v>52800</v>
       </c>
       <c r="H23" s="3">
-        <v>50300</v>
+        <v>53400</v>
       </c>
       <c r="I23" s="3">
-        <v>39200</v>
+        <v>48500</v>
       </c>
       <c r="J23" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K23" s="3">
         <v>29200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>23100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>32300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>24300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>26200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>47900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>23500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>18800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>15900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>9300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>12700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>20300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>55500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H24" s="3">
         <v>8800</v>
       </c>
-      <c r="E24" s="3">
-        <v>7800</v>
-      </c>
-      <c r="F24" s="3">
-        <v>7900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>9100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>7900</v>
-      </c>
       <c r="I24" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="J24" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K24" s="3">
         <v>6500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>3900</v>
       </c>
       <c r="L24" s="3">
         <v>3900</v>
       </c>
       <c r="M24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="N24" s="3">
         <v>6600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>11500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>43700</v>
+        <v>21400</v>
       </c>
       <c r="E26" s="3">
-        <v>40500</v>
+        <v>42100</v>
       </c>
       <c r="F26" s="3">
-        <v>46900</v>
+        <v>39000</v>
       </c>
       <c r="G26" s="3">
-        <v>46300</v>
+        <v>45200</v>
       </c>
       <c r="H26" s="3">
-        <v>42500</v>
+        <v>44600</v>
       </c>
       <c r="I26" s="3">
-        <v>31700</v>
+        <v>40900</v>
       </c>
       <c r="J26" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K26" s="3">
         <v>22700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>21000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>44500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>14700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>10400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>16300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>44000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>43700</v>
+        <v>21400</v>
       </c>
       <c r="E27" s="3">
-        <v>40500</v>
+        <v>42100</v>
       </c>
       <c r="F27" s="3">
-        <v>46900</v>
+        <v>39000</v>
       </c>
       <c r="G27" s="3">
-        <v>46300</v>
+        <v>45200</v>
       </c>
       <c r="H27" s="3">
-        <v>42500</v>
+        <v>44600</v>
       </c>
       <c r="I27" s="3">
-        <v>31700</v>
+        <v>40900</v>
       </c>
       <c r="J27" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K27" s="3">
         <v>22700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>25700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>21000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>44500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>14700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>10400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>16300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>53900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2305,22 +2366,25 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-2100</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>61300</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-11200</v>
       </c>
-      <c r="E32" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-5900</v>
-      </c>
       <c r="H32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>-1800</v>
-      </c>
       <c r="J32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K32" s="3">
         <v>8000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-33600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>12400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>5000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>43700</v>
+        <v>21400</v>
       </c>
       <c r="E33" s="3">
-        <v>40500</v>
+        <v>42100</v>
       </c>
       <c r="F33" s="3">
-        <v>46900</v>
+        <v>39000</v>
       </c>
       <c r="G33" s="3">
-        <v>46300</v>
+        <v>45200</v>
       </c>
       <c r="H33" s="3">
-        <v>42500</v>
+        <v>44600</v>
       </c>
       <c r="I33" s="3">
-        <v>31700</v>
+        <v>40900</v>
       </c>
       <c r="J33" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K33" s="3">
         <v>22700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>25700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>21000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>44500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>14700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>800</v>
-      </c>
-      <c r="V33" s="3">
-        <v>5300</v>
       </c>
       <c r="W33" s="3">
         <v>5300</v>
       </c>
       <c r="X33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Y33" s="3">
         <v>10400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>77600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>50000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>43700</v>
+        <v>21400</v>
       </c>
       <c r="E35" s="3">
-        <v>40500</v>
+        <v>42100</v>
       </c>
       <c r="F35" s="3">
-        <v>46900</v>
+        <v>39000</v>
       </c>
       <c r="G35" s="3">
-        <v>46300</v>
+        <v>45200</v>
       </c>
       <c r="H35" s="3">
-        <v>42500</v>
+        <v>44600</v>
       </c>
       <c r="I35" s="3">
-        <v>31700</v>
+        <v>40900</v>
       </c>
       <c r="J35" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K35" s="3">
         <v>22700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>25700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>21000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>44500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>14700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>800</v>
-      </c>
-      <c r="V35" s="3">
-        <v>5300</v>
       </c>
       <c r="W35" s="3">
         <v>5300</v>
       </c>
       <c r="X35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Y35" s="3">
         <v>10400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>77600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>50000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,141 +3007,145 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>240600</v>
+        <v>238100</v>
       </c>
       <c r="E41" s="3">
-        <v>208100</v>
+        <v>231800</v>
       </c>
       <c r="F41" s="3">
-        <v>195500</v>
+        <v>200500</v>
       </c>
       <c r="G41" s="3">
-        <v>171700</v>
+        <v>188300</v>
       </c>
       <c r="H41" s="3">
-        <v>178700</v>
+        <v>165400</v>
       </c>
       <c r="I41" s="3">
-        <v>185100</v>
+        <v>172100</v>
       </c>
       <c r="J41" s="3">
+        <v>178200</v>
+      </c>
+      <c r="K41" s="3">
         <v>136200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>160300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>196200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>270600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>169400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>166200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>186200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>177800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>158200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>202300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>135800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>222500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>260400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>280900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>359000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>381300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>246900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>396300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6100</v>
+        <v>3900</v>
       </c>
       <c r="E42" s="3">
-        <v>13000</v>
+        <v>5900</v>
       </c>
       <c r="F42" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="G42" s="3">
-        <v>18600</v>
+        <v>12400</v>
       </c>
       <c r="H42" s="3">
-        <v>8600</v>
+        <v>18000</v>
       </c>
       <c r="I42" s="3">
-        <v>8900</v>
+        <v>8300</v>
       </c>
       <c r="J42" s="3">
         <v>8600</v>
       </c>
       <c r="K42" s="3">
+        <v>8600</v>
+      </c>
+      <c r="L42" s="3">
         <v>13400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>6000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5800</v>
-      </c>
-      <c r="S42" s="3">
-        <v>500</v>
       </c>
       <c r="T42" s="3">
         <v>500</v>
       </c>
       <c r="U42" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -3070,475 +3160,496 @@
         <v>0</v>
       </c>
       <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
         <v>100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>209000</v>
+        <v>159600</v>
       </c>
       <c r="E43" s="3">
-        <v>200200</v>
+        <v>201300</v>
       </c>
       <c r="F43" s="3">
-        <v>226200</v>
+        <v>192900</v>
       </c>
       <c r="G43" s="3">
-        <v>218300</v>
+        <v>217800</v>
       </c>
       <c r="H43" s="3">
-        <v>213500</v>
+        <v>210200</v>
       </c>
       <c r="I43" s="3">
-        <v>194300</v>
+        <v>205600</v>
       </c>
       <c r="J43" s="3">
+        <v>187100</v>
+      </c>
+      <c r="K43" s="3">
         <v>192200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>168600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>171800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>190100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>182400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>205400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>179000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>163200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>179000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>173100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>159800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>135700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>135500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>141200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>122700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>125700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>136900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>102600</v>
+        <v>105200</v>
       </c>
       <c r="E44" s="3">
-        <v>104700</v>
+        <v>98800</v>
       </c>
       <c r="F44" s="3">
-        <v>106200</v>
+        <v>100800</v>
       </c>
       <c r="G44" s="3">
-        <v>86500</v>
+        <v>102200</v>
       </c>
       <c r="H44" s="3">
-        <v>83600</v>
+        <v>83300</v>
       </c>
       <c r="I44" s="3">
-        <v>75400</v>
+        <v>80500</v>
       </c>
       <c r="J44" s="3">
+        <v>72600</v>
+      </c>
+      <c r="K44" s="3">
         <v>69600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>68200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>81500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>83500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>63700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>63500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>60000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>58500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>60600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>59000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>59900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>59400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>62500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>61900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>62600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>63100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>56200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="E45" s="3">
-        <v>5500</v>
+        <v>3600</v>
       </c>
       <c r="F45" s="3">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="G45" s="3">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="H45" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
-        <v>3100</v>
-      </c>
       <c r="J45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>105900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>562100</v>
+        <v>510300</v>
       </c>
       <c r="E46" s="3">
-        <v>531600</v>
+        <v>541400</v>
       </c>
       <c r="F46" s="3">
-        <v>545700</v>
+        <v>512000</v>
       </c>
       <c r="G46" s="3">
-        <v>500600</v>
+        <v>525600</v>
       </c>
       <c r="H46" s="3">
-        <v>486600</v>
+        <v>482200</v>
       </c>
       <c r="I46" s="3">
-        <v>466800</v>
+        <v>468600</v>
       </c>
       <c r="J46" s="3">
+        <v>449600</v>
+      </c>
+      <c r="K46" s="3">
         <v>409000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>412400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>463400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>559900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>423700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>444000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>433100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>407600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>405000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>436800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>357800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>419700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>460300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>485500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>545800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>574100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>551000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>623200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>148700</v>
+        <v>149700</v>
       </c>
       <c r="E47" s="3">
-        <v>150500</v>
+        <v>143200</v>
       </c>
       <c r="F47" s="3">
+        <v>144900</v>
+      </c>
+      <c r="G47" s="3">
+        <v>137800</v>
+      </c>
+      <c r="H47" s="3">
+        <v>121800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>117100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>114900</v>
+      </c>
+      <c r="K47" s="3">
+        <v>118900</v>
+      </c>
+      <c r="L47" s="3">
+        <v>119400</v>
+      </c>
+      <c r="M47" s="3">
+        <v>124100</v>
+      </c>
+      <c r="N47" s="3">
+        <v>126600</v>
+      </c>
+      <c r="O47" s="3">
+        <v>129500</v>
+      </c>
+      <c r="P47" s="3">
+        <v>133100</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>133800</v>
+      </c>
+      <c r="R47" s="3">
+        <v>145200</v>
+      </c>
+      <c r="S47" s="3">
+        <v>141300</v>
+      </c>
+      <c r="T47" s="3">
+        <v>139300</v>
+      </c>
+      <c r="U47" s="3">
         <v>143100</v>
       </c>
-      <c r="G47" s="3">
-        <v>126400</v>
-      </c>
-      <c r="H47" s="3">
-        <v>121600</v>
-      </c>
-      <c r="I47" s="3">
-        <v>119300</v>
-      </c>
-      <c r="J47" s="3">
-        <v>118900</v>
-      </c>
-      <c r="K47" s="3">
-        <v>119400</v>
-      </c>
-      <c r="L47" s="3">
-        <v>124100</v>
-      </c>
-      <c r="M47" s="3">
-        <v>126600</v>
-      </c>
-      <c r="N47" s="3">
-        <v>129500</v>
-      </c>
-      <c r="O47" s="3">
-        <v>133100</v>
-      </c>
-      <c r="P47" s="3">
-        <v>133800</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>145200</v>
-      </c>
-      <c r="R47" s="3">
-        <v>141300</v>
-      </c>
-      <c r="S47" s="3">
-        <v>139300</v>
-      </c>
-      <c r="T47" s="3">
-        <v>143100</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>146800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>114200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>115100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>116600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>73900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>14700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>687500</v>
+        <v>660100</v>
       </c>
       <c r="E48" s="3">
-        <v>681300</v>
+        <v>662200</v>
       </c>
       <c r="F48" s="3">
-        <v>693300</v>
+        <v>656200</v>
       </c>
       <c r="G48" s="3">
-        <v>648700</v>
+        <v>667800</v>
       </c>
       <c r="H48" s="3">
-        <v>645800</v>
+        <v>624800</v>
       </c>
       <c r="I48" s="3">
-        <v>631900</v>
+        <v>622000</v>
       </c>
       <c r="J48" s="3">
+        <v>608600</v>
+      </c>
+      <c r="K48" s="3">
         <v>624100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>602900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>658000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>681700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>672400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>643800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>601800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>610900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>573000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>532900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>527000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>522700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>494700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>485900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>473800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>454500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>440100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>490100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26200</v>
+        <v>20400</v>
       </c>
       <c r="E52" s="3">
-        <v>27300</v>
+        <v>25300</v>
       </c>
       <c r="F52" s="3">
-        <v>25400</v>
+        <v>26300</v>
       </c>
       <c r="G52" s="3">
-        <v>26200</v>
+        <v>24500</v>
       </c>
       <c r="H52" s="3">
-        <v>9900</v>
+        <v>25200</v>
       </c>
       <c r="I52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="L52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="M52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="N52" s="3">
+        <v>9100</v>
+      </c>
+      <c r="O52" s="3">
+        <v>10200</v>
+      </c>
+      <c r="P52" s="3">
         <v>10500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="Q52" s="3">
+        <v>13200</v>
+      </c>
+      <c r="R52" s="3">
+        <v>12400</v>
+      </c>
+      <c r="S52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="T52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="U52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="V52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="W52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="X52" s="3">
         <v>9200</v>
       </c>
-      <c r="K52" s="3">
-        <v>8700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>9600</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="Y52" s="3">
         <v>9100</v>
       </c>
-      <c r="N52" s="3">
-        <v>10200</v>
-      </c>
-      <c r="O52" s="3">
-        <v>10500</v>
-      </c>
-      <c r="P52" s="3">
-        <v>13200</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>12400</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="Z52" s="3">
         <v>9400</v>
       </c>
-      <c r="S52" s="3">
-        <v>10800</v>
-      </c>
-      <c r="T52" s="3">
-        <v>9600</v>
-      </c>
-      <c r="U52" s="3">
-        <v>10100</v>
-      </c>
-      <c r="V52" s="3">
-        <v>8700</v>
-      </c>
-      <c r="W52" s="3">
-        <v>9200</v>
-      </c>
-      <c r="X52" s="3">
-        <v>9100</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>9400</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>14800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1424500</v>
+        <v>1340600</v>
       </c>
       <c r="E54" s="3">
-        <v>1390700</v>
+        <v>1372000</v>
       </c>
       <c r="F54" s="3">
-        <v>1407500</v>
+        <v>1339400</v>
       </c>
       <c r="G54" s="3">
-        <v>1302000</v>
+        <v>1355600</v>
       </c>
       <c r="H54" s="3">
-        <v>1263900</v>
+        <v>1254000</v>
       </c>
       <c r="I54" s="3">
-        <v>1228400</v>
+        <v>1217300</v>
       </c>
       <c r="J54" s="3">
+        <v>1183100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1161200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1143400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1255100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1377200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1235700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1231500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1181900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1176000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1128900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1119800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1037600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1099200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1078000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1095800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1145300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1111900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1020600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>32000</v>
+        <v>28300</v>
       </c>
       <c r="E57" s="3">
-        <v>32700</v>
+        <v>30900</v>
       </c>
       <c r="F57" s="3">
-        <v>33500</v>
+        <v>31500</v>
       </c>
       <c r="G57" s="3">
-        <v>36400</v>
+        <v>32300</v>
       </c>
       <c r="H57" s="3">
-        <v>37300</v>
+        <v>35000</v>
       </c>
       <c r="I57" s="3">
-        <v>37700</v>
+        <v>35900</v>
       </c>
       <c r="J57" s="3">
+        <v>36300</v>
+      </c>
+      <c r="K57" s="3">
         <v>32100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>29600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>29500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>39700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>25800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>20300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>21700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>25600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>24000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>21600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>22300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>21100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>24800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>23700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>26900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19600</v>
+        <v>35700</v>
       </c>
       <c r="E58" s="3">
-        <v>10000</v>
+        <v>18900</v>
       </c>
       <c r="F58" s="3">
-        <v>31400</v>
+        <v>9700</v>
       </c>
       <c r="G58" s="3">
-        <v>75900</v>
+        <v>30200</v>
       </c>
       <c r="H58" s="3">
-        <v>65100</v>
+        <v>73100</v>
       </c>
       <c r="I58" s="3">
-        <v>44100</v>
+        <v>62700</v>
       </c>
       <c r="J58" s="3">
+        <v>42500</v>
+      </c>
+      <c r="K58" s="3">
         <v>29200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>26800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>28300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>29000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>27800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>28100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>27500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>38200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>26100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>25600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>25200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>106500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>101300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>95200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>128600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>69400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>35000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>235600</v>
+        <v>96500</v>
       </c>
       <c r="E59" s="3">
-        <v>132800</v>
+        <v>226900</v>
       </c>
       <c r="F59" s="3">
-        <v>172800</v>
+        <v>127900</v>
       </c>
       <c r="G59" s="3">
-        <v>116600</v>
+        <v>166400</v>
       </c>
       <c r="H59" s="3">
-        <v>117800</v>
+        <v>112300</v>
       </c>
       <c r="I59" s="3">
-        <v>115000</v>
+        <v>113500</v>
       </c>
       <c r="J59" s="3">
+        <v>110700</v>
+      </c>
+      <c r="K59" s="3">
         <v>124800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>83400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>154800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>103900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>119200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>112500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>114800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>100300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>129000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>144000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>95300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>77700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>92600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>88800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>108700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>80700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>90200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>120100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>287200</v>
+        <v>160500</v>
       </c>
       <c r="E60" s="3">
-        <v>175600</v>
+        <v>276700</v>
       </c>
       <c r="F60" s="3">
-        <v>237700</v>
+        <v>169100</v>
       </c>
       <c r="G60" s="3">
-        <v>228800</v>
+        <v>228900</v>
       </c>
       <c r="H60" s="3">
-        <v>220200</v>
+        <v>220400</v>
       </c>
       <c r="I60" s="3">
-        <v>196700</v>
+        <v>212100</v>
       </c>
       <c r="J60" s="3">
+        <v>189500</v>
+      </c>
+      <c r="K60" s="3">
         <v>186000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>136800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>212600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>162500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>176600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>180300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>168100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>158700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>176800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>195200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>144500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>205900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>216200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>205100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>262100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>173900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>152100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>322300</v>
+        <v>371200</v>
       </c>
       <c r="E61" s="3">
-        <v>333500</v>
+        <v>310400</v>
       </c>
       <c r="F61" s="3">
-        <v>332600</v>
+        <v>321200</v>
       </c>
       <c r="G61" s="3">
-        <v>288400</v>
+        <v>320300</v>
       </c>
       <c r="H61" s="3">
-        <v>251300</v>
+        <v>277800</v>
       </c>
       <c r="I61" s="3">
-        <v>281400</v>
+        <v>242000</v>
       </c>
       <c r="J61" s="3">
+        <v>271100</v>
+      </c>
+      <c r="K61" s="3">
         <v>255600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>306500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>324000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>452700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>322800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>335100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>332200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>346600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>308100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>314100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>253700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>250000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>243600</v>
-      </c>
-      <c r="W61" s="3">
-        <v>278600</v>
       </c>
       <c r="X61" s="3">
         <v>278600</v>
       </c>
       <c r="Y61" s="3">
+        <v>278600</v>
+      </c>
+      <c r="Z61" s="3">
         <v>315400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>316900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>269700</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>28700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>28900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>27600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>28300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K62" s="3">
+        <v>30000</v>
+      </c>
+      <c r="L62" s="3">
         <v>28000</v>
       </c>
-      <c r="E62" s="3">
-        <v>29800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>30000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>28700</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="M62" s="3">
+        <v>29700</v>
+      </c>
+      <c r="N62" s="3">
+        <v>30400</v>
+      </c>
+      <c r="O62" s="3">
+        <v>28500</v>
+      </c>
+      <c r="P62" s="3">
         <v>29400</v>
       </c>
-      <c r="I62" s="3">
-        <v>29900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>28000</v>
-      </c>
-      <c r="L62" s="3">
-        <v>29700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>30400</v>
-      </c>
-      <c r="N62" s="3">
-        <v>28500</v>
-      </c>
-      <c r="O62" s="3">
-        <v>29400</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>28600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>28400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>28300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>25200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>25100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>24800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>22000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>23400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>23100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>22300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>20900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>637600</v>
+        <v>559000</v>
       </c>
       <c r="E66" s="3">
-        <v>538900</v>
+        <v>614100</v>
       </c>
       <c r="F66" s="3">
-        <v>600300</v>
+        <v>519000</v>
       </c>
       <c r="G66" s="3">
-        <v>545900</v>
+        <v>578200</v>
       </c>
       <c r="H66" s="3">
-        <v>500900</v>
+        <v>525800</v>
       </c>
       <c r="I66" s="3">
-        <v>508100</v>
+        <v>482400</v>
       </c>
       <c r="J66" s="3">
+        <v>489400</v>
+      </c>
+      <c r="K66" s="3">
         <v>471600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>471300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>566200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>645600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>527900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>544800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>528900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>533700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>513200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>534500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>423400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>480700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>481800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>507000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>563800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>511600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>489900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>572600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>338600</v>
+        <v>347500</v>
       </c>
       <c r="E72" s="3">
-        <v>398400</v>
+        <v>326100</v>
       </c>
       <c r="F72" s="3">
-        <v>357800</v>
+        <v>383700</v>
       </c>
       <c r="G72" s="3">
-        <v>311300</v>
+        <v>344700</v>
       </c>
       <c r="H72" s="3">
-        <v>317700</v>
+        <v>299800</v>
       </c>
       <c r="I72" s="3">
-        <v>275200</v>
+        <v>306000</v>
       </c>
       <c r="J72" s="3">
+        <v>265100</v>
+      </c>
+      <c r="K72" s="3">
         <v>243500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>224700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>221400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>254000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>228300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>207700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>190600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>185900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>173900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>154600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>139600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>144000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>137400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>130700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>125400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>124100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>46500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>192400</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>787000</v>
+        <v>781600</v>
       </c>
       <c r="E76" s="3">
-        <v>851800</v>
+        <v>758000</v>
       </c>
       <c r="F76" s="3">
-        <v>807200</v>
+        <v>820400</v>
       </c>
       <c r="G76" s="3">
-        <v>756100</v>
+        <v>777400</v>
       </c>
       <c r="H76" s="3">
-        <v>763000</v>
+        <v>728200</v>
       </c>
       <c r="I76" s="3">
-        <v>720300</v>
+        <v>734900</v>
       </c>
       <c r="J76" s="3">
+        <v>693700</v>
+      </c>
+      <c r="K76" s="3">
         <v>689500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>672100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>688900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>731600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>707800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>686800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>653000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>642300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>615700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>585300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>614200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>618600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>596100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>588800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>581500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>600300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>530700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>564300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>43700</v>
+        <v>21400</v>
       </c>
       <c r="E81" s="3">
-        <v>40500</v>
+        <v>42100</v>
       </c>
       <c r="F81" s="3">
-        <v>46900</v>
+        <v>39000</v>
       </c>
       <c r="G81" s="3">
-        <v>46300</v>
+        <v>45200</v>
       </c>
       <c r="H81" s="3">
-        <v>42500</v>
+        <v>44600</v>
       </c>
       <c r="I81" s="3">
-        <v>31700</v>
+        <v>40900</v>
       </c>
       <c r="J81" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K81" s="3">
         <v>22700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>25700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>21000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>44500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>14700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>800</v>
-      </c>
-      <c r="V81" s="3">
-        <v>5300</v>
       </c>
       <c r="W81" s="3">
         <v>5300</v>
       </c>
       <c r="X81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Y81" s="3">
         <v>10400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>77600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>50000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>39600</v>
+        <v>38300</v>
       </c>
       <c r="E83" s="3">
-        <v>39300</v>
+        <v>38200</v>
       </c>
       <c r="F83" s="3">
-        <v>38200</v>
+        <v>37900</v>
       </c>
       <c r="G83" s="3">
-        <v>39600</v>
+        <v>36800</v>
       </c>
       <c r="H83" s="3">
-        <v>38300</v>
+        <v>38100</v>
       </c>
       <c r="I83" s="3">
-        <v>37300</v>
+        <v>36900</v>
       </c>
       <c r="J83" s="3">
+        <v>35900</v>
+      </c>
+      <c r="K83" s="3">
         <v>35100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>36900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>36200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>32200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>31500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>29300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>28600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>28100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>27000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>25300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>24100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>23000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>21700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>105300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>73300</v>
+        <v>56300</v>
       </c>
       <c r="E89" s="3">
-        <v>107300</v>
+        <v>70600</v>
       </c>
       <c r="F89" s="3">
-        <v>65400</v>
+        <v>103300</v>
       </c>
       <c r="G89" s="3">
-        <v>53800</v>
+        <v>63000</v>
       </c>
       <c r="H89" s="3">
-        <v>56200</v>
+        <v>51800</v>
       </c>
       <c r="I89" s="3">
-        <v>66900</v>
+        <v>54100</v>
       </c>
       <c r="J89" s="3">
+        <v>64500</v>
+      </c>
+      <c r="K89" s="3">
         <v>62500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>42700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>72000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>77400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>50400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>25800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>59800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>48200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>41100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>24100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>25200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>41000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>13400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>39400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>60700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>120300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-41100</v>
+        <v>-15400</v>
       </c>
       <c r="E91" s="3">
-        <v>-65100</v>
+        <v>-39600</v>
       </c>
       <c r="F91" s="3">
-        <v>-55300</v>
+        <v>-62700</v>
       </c>
       <c r="G91" s="3">
-        <v>-38500</v>
+        <v>-53200</v>
       </c>
       <c r="H91" s="3">
-        <v>-51600</v>
+        <v>-37100</v>
       </c>
       <c r="I91" s="3">
-        <v>-49300</v>
+        <v>-49700</v>
       </c>
       <c r="J91" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-34300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-55700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-62400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-46500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-51500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-26700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-34300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-45500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-34700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-31900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-44100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-32500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-291600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-78500</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-39000</v>
+        <v>-25300</v>
       </c>
       <c r="E94" s="3">
-        <v>-67100</v>
+        <v>-37600</v>
       </c>
       <c r="F94" s="3">
-        <v>-46900</v>
+        <v>-64600</v>
       </c>
       <c r="G94" s="3">
-        <v>-51300</v>
+        <v>-45100</v>
       </c>
       <c r="H94" s="3">
-        <v>-50900</v>
+        <v>-49500</v>
       </c>
       <c r="I94" s="3">
-        <v>-50000</v>
+        <v>-49000</v>
       </c>
       <c r="J94" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-34200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-21200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-51600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-60600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-43500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>7400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-54900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-31900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-34900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-32100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-72400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-32300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-29300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-84900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>41300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-156800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-39200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6767,11 +7001,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-8700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -6791,13 +7025,16 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-58500</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,130 +7270,136 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2000</v>
+        <v>-25200</v>
       </c>
       <c r="E100" s="3">
-        <v>-27800</v>
+        <v>-1900</v>
       </c>
       <c r="F100" s="3">
-        <v>5200</v>
+        <v>-26800</v>
       </c>
       <c r="G100" s="3">
-        <v>-9400</v>
+        <v>5000</v>
       </c>
       <c r="H100" s="3">
-        <v>-11500</v>
+        <v>-9000</v>
       </c>
       <c r="I100" s="3">
-        <v>32000</v>
+        <v>-11100</v>
       </c>
       <c r="J100" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-50500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-44400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-118900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>126300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-31700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>10100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-65400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>60000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-78400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-29000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-61200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>24600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>32900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-105100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E101" s="3">
         <v>200</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
       </c>
       <c r="L101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -7158,104 +7407,110 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>32500</v>
+        <v>6300</v>
       </c>
       <c r="E102" s="3">
-        <v>12600</v>
+        <v>31300</v>
       </c>
       <c r="F102" s="3">
-        <v>23700</v>
+        <v>12200</v>
       </c>
       <c r="G102" s="3">
-        <v>-7000</v>
+        <v>22900</v>
       </c>
       <c r="H102" s="3">
-        <v>-6300</v>
+        <v>-6700</v>
       </c>
       <c r="I102" s="3">
-        <v>48900</v>
+        <v>-6100</v>
       </c>
       <c r="J102" s="3">
+        <v>47100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-22300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-26300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-68300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>101100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-24800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>15000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-48500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>66200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-86700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-44800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-20500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-78200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-19900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>134400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-148600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-23900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>167500</v>
+        <v>152000</v>
       </c>
       <c r="E8" s="3">
-        <v>218400</v>
+        <v>170400</v>
       </c>
       <c r="F8" s="3">
-        <v>214400</v>
+        <v>222200</v>
       </c>
       <c r="G8" s="3">
-        <v>216500</v>
+        <v>218100</v>
       </c>
       <c r="H8" s="3">
-        <v>228300</v>
+        <v>220200</v>
       </c>
       <c r="I8" s="3">
-        <v>222600</v>
+        <v>232200</v>
       </c>
       <c r="J8" s="3">
+        <v>226400</v>
+      </c>
+      <c r="K8" s="3">
         <v>206100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>208900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>190400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>191100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>201200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>200700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>193600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>171400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>156500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>169400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>166900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>149400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>133400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>142900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>143600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>147200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>148700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>599600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>155500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>141600</v>
+        <v>129900</v>
       </c>
       <c r="E9" s="3">
+        <v>144000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>165700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>163700</v>
+      </c>
+      <c r="H9" s="3">
         <v>162900</v>
       </c>
-      <c r="F9" s="3">
-        <v>160900</v>
-      </c>
-      <c r="G9" s="3">
-        <v>160100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>165900</v>
-      </c>
       <c r="I9" s="3">
-        <v>159900</v>
+        <v>168700</v>
       </c>
       <c r="J9" s="3">
+        <v>162700</v>
+      </c>
+      <c r="K9" s="3">
         <v>156300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>157900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>153700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>151500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>155500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>155100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>152300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>142100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>133100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>130700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>134400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>124900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>114000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>118600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>119000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>117700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>122100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>480800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>25900</v>
+        <v>22000</v>
       </c>
       <c r="E10" s="3">
-        <v>55500</v>
+        <v>26300</v>
       </c>
       <c r="F10" s="3">
-        <v>53500</v>
+        <v>56500</v>
       </c>
       <c r="G10" s="3">
-        <v>56400</v>
+        <v>54400</v>
       </c>
       <c r="H10" s="3">
-        <v>62400</v>
+        <v>57400</v>
       </c>
       <c r="I10" s="3">
-        <v>62700</v>
+        <v>63500</v>
       </c>
       <c r="J10" s="3">
+        <v>63800</v>
+      </c>
+      <c r="K10" s="3">
         <v>49800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>51000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>36700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>39600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>45800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>45600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>41300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>29300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>23400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>38700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>32500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>24500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>19400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>24300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>24700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>29500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>26600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>118800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>-100900</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="L12" s="3">
+        <v>8600</v>
+      </c>
+      <c r="M12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="N12" s="3">
+        <v>8900</v>
+      </c>
+      <c r="O12" s="3">
         <v>9300</v>
-      </c>
-      <c r="E12" s="3">
-        <v>9800</v>
-      </c>
-      <c r="F12" s="3">
-        <v>9600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>9300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>9300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>9200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>8500</v>
-      </c>
-      <c r="K12" s="3">
-        <v>8600</v>
-      </c>
-      <c r="L12" s="3">
-        <v>8200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>8900</v>
-      </c>
-      <c r="N12" s="3">
-        <v>9300</v>
-      </c>
-      <c r="O12" s="3">
-        <v>9100</v>
       </c>
       <c r="P12" s="3">
         <v>9100</v>
       </c>
       <c r="Q12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="R12" s="3">
         <v>9200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>8300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>8000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>7900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>8400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>27400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,13 +1222,16 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -1220,11 +1239,11 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1244,11 +1263,11 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>400</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1262,14 +1281,14 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1280,14 +1299,17 @@
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>154800</v>
+        <v>141900</v>
       </c>
       <c r="E17" s="3">
-        <v>177700</v>
+        <v>157500</v>
       </c>
       <c r="F17" s="3">
-        <v>175100</v>
+        <v>180800</v>
       </c>
       <c r="G17" s="3">
-        <v>173900</v>
+        <v>178100</v>
       </c>
       <c r="H17" s="3">
-        <v>179600</v>
+        <v>176900</v>
       </c>
       <c r="I17" s="3">
-        <v>173500</v>
+        <v>182700</v>
       </c>
       <c r="J17" s="3">
+        <v>176500</v>
+      </c>
+      <c r="K17" s="3">
         <v>169100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>170500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>166300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>163300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>168800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>168200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>165400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>155600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>145400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>142400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>145700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>135600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>124800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>132000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>130600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>132600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>114300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>534400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12700</v>
+        <v>10100</v>
       </c>
       <c r="E18" s="3">
-        <v>40700</v>
+        <v>12900</v>
       </c>
       <c r="F18" s="3">
-        <v>39300</v>
+        <v>41400</v>
       </c>
       <c r="G18" s="3">
-        <v>42600</v>
+        <v>40000</v>
       </c>
       <c r="H18" s="3">
-        <v>48700</v>
+        <v>43300</v>
       </c>
       <c r="I18" s="3">
-        <v>49100</v>
+        <v>49500</v>
       </c>
       <c r="J18" s="3">
+        <v>49900</v>
+      </c>
+      <c r="K18" s="3">
         <v>37000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>24000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>27800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>32400</v>
       </c>
       <c r="O18" s="3">
         <v>32400</v>
       </c>
       <c r="P18" s="3">
+        <v>32400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>28200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>15800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>27000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>21200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>8600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>10800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>13000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>14500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>34400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>65200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,182 +1615,189 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14100</v>
+        <v>-2600</v>
       </c>
       <c r="E20" s="3">
-        <v>10800</v>
+        <v>14300</v>
       </c>
       <c r="F20" s="3">
-        <v>8100</v>
+        <v>11000</v>
       </c>
       <c r="G20" s="3">
-        <v>11200</v>
+        <v>8300</v>
       </c>
       <c r="H20" s="3">
-        <v>5700</v>
+        <v>11400</v>
       </c>
       <c r="I20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>33600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-12400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>65000</v>
+        <v>45200</v>
       </c>
       <c r="E21" s="3">
-        <v>89700</v>
+        <v>66100</v>
       </c>
       <c r="F21" s="3">
-        <v>85300</v>
+        <v>91200</v>
       </c>
       <c r="G21" s="3">
-        <v>90600</v>
+        <v>86800</v>
       </c>
       <c r="H21" s="3">
-        <v>92500</v>
+        <v>92100</v>
       </c>
       <c r="I21" s="3">
-        <v>86300</v>
+        <v>94100</v>
       </c>
       <c r="J21" s="3">
+        <v>87800</v>
+      </c>
+      <c r="K21" s="3">
         <v>74600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>65500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>54900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>61600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>70000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>60400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>61900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>81600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>42000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>54300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>48600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>45200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>30000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>33800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>35000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>37300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>43700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>165400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
-        <v>900</v>
-      </c>
       <c r="F22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="3">
         <v>800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1000</v>
       </c>
       <c r="H22" s="3">
         <v>1000</v>
@@ -1767,19 +1806,19 @@
         <v>1000</v>
       </c>
       <c r="J22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1500</v>
       </c>
       <c r="O22" s="3">
         <v>1500</v>
@@ -1794,19 +1833,19 @@
         <v>1500</v>
       </c>
       <c r="S22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T22" s="3">
         <v>1400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>1300</v>
       </c>
       <c r="V22" s="3">
         <v>1300</v>
       </c>
       <c r="W22" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="X22" s="3">
         <v>1600</v>
@@ -1815,176 +1854,185 @@
         <v>1600</v>
       </c>
       <c r="Z22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AA22" s="3">
         <v>1700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>4700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>25500</v>
+        <v>5800</v>
       </c>
       <c r="E23" s="3">
-        <v>50600</v>
+        <v>26000</v>
       </c>
       <c r="F23" s="3">
-        <v>46600</v>
+        <v>51400</v>
       </c>
       <c r="G23" s="3">
-        <v>52800</v>
+        <v>47400</v>
       </c>
       <c r="H23" s="3">
-        <v>53400</v>
+        <v>53700</v>
       </c>
       <c r="I23" s="3">
-        <v>48500</v>
+        <v>54300</v>
       </c>
       <c r="J23" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K23" s="3">
         <v>37800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>29200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>18100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>23100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>32300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>26200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>47900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>23500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>18800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>15900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>9300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>12700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>20300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>55500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4100</v>
+        <v>800</v>
       </c>
       <c r="E24" s="3">
-        <v>8500</v>
+        <v>4200</v>
       </c>
       <c r="F24" s="3">
-        <v>7500</v>
+        <v>8600</v>
       </c>
       <c r="G24" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="H24" s="3">
-        <v>8800</v>
+        <v>7700</v>
       </c>
       <c r="I24" s="3">
-        <v>7600</v>
+        <v>9000</v>
       </c>
       <c r="J24" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K24" s="3">
         <v>7200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>3900</v>
       </c>
       <c r="M24" s="3">
         <v>3900</v>
       </c>
       <c r="N24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="O24" s="3">
         <v>6600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>4000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>11500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>21400</v>
+        <v>5000</v>
       </c>
       <c r="E26" s="3">
-        <v>42100</v>
+        <v>21800</v>
       </c>
       <c r="F26" s="3">
-        <v>39000</v>
+        <v>42800</v>
       </c>
       <c r="G26" s="3">
-        <v>45200</v>
+        <v>39700</v>
       </c>
       <c r="H26" s="3">
-        <v>44600</v>
+        <v>46000</v>
       </c>
       <c r="I26" s="3">
-        <v>40900</v>
+        <v>45400</v>
       </c>
       <c r="J26" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K26" s="3">
         <v>30600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>22700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>25700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>19100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>21000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>44500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>14700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>10400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>16300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>44000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>21400</v>
+        <v>5000</v>
       </c>
       <c r="E27" s="3">
-        <v>42100</v>
+        <v>21800</v>
       </c>
       <c r="F27" s="3">
-        <v>39000</v>
+        <v>42800</v>
       </c>
       <c r="G27" s="3">
-        <v>45200</v>
+        <v>39700</v>
       </c>
       <c r="H27" s="3">
-        <v>44600</v>
+        <v>46000</v>
       </c>
       <c r="I27" s="3">
-        <v>40900</v>
+        <v>45400</v>
       </c>
       <c r="J27" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K27" s="3">
         <v>30600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>22700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>25700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>21000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>44500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>14700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>10400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>16300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>53900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2369,22 +2429,25 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>61300</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14100</v>
+        <v>2600</v>
       </c>
       <c r="E32" s="3">
-        <v>-10800</v>
+        <v>-14300</v>
       </c>
       <c r="F32" s="3">
-        <v>-8100</v>
+        <v>-11000</v>
       </c>
       <c r="G32" s="3">
-        <v>-11200</v>
+        <v>-8300</v>
       </c>
       <c r="H32" s="3">
-        <v>-5700</v>
+        <v>-11400</v>
       </c>
       <c r="I32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-33600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>12400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>5000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>21400</v>
+        <v>5000</v>
       </c>
       <c r="E33" s="3">
-        <v>42100</v>
+        <v>21800</v>
       </c>
       <c r="F33" s="3">
-        <v>39000</v>
+        <v>42800</v>
       </c>
       <c r="G33" s="3">
-        <v>45200</v>
+        <v>39700</v>
       </c>
       <c r="H33" s="3">
-        <v>44600</v>
+        <v>46000</v>
       </c>
       <c r="I33" s="3">
-        <v>40900</v>
+        <v>45400</v>
       </c>
       <c r="J33" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K33" s="3">
         <v>30600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>22700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>25700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>21000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>44500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>14700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>800</v>
-      </c>
-      <c r="W33" s="3">
-        <v>5300</v>
       </c>
       <c r="X33" s="3">
         <v>5300</v>
       </c>
       <c r="Y33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Z33" s="3">
         <v>10400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>77600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>50000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>21400</v>
+        <v>5000</v>
       </c>
       <c r="E35" s="3">
-        <v>42100</v>
+        <v>21800</v>
       </c>
       <c r="F35" s="3">
-        <v>39000</v>
+        <v>42800</v>
       </c>
       <c r="G35" s="3">
-        <v>45200</v>
+        <v>39700</v>
       </c>
       <c r="H35" s="3">
-        <v>44600</v>
+        <v>46000</v>
       </c>
       <c r="I35" s="3">
-        <v>40900</v>
+        <v>45400</v>
       </c>
       <c r="J35" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K35" s="3">
         <v>30600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>22700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>25700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>21000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>44500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>14700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>800</v>
-      </c>
-      <c r="W35" s="3">
-        <v>5300</v>
       </c>
       <c r="X35" s="3">
         <v>5300</v>
       </c>
       <c r="Y35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Z35" s="3">
         <v>10400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>77600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>50000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,147 +3093,151 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>238100</v>
+        <v>320900</v>
       </c>
       <c r="E41" s="3">
-        <v>231800</v>
+        <v>242200</v>
       </c>
       <c r="F41" s="3">
-        <v>200500</v>
+        <v>235800</v>
       </c>
       <c r="G41" s="3">
-        <v>188300</v>
+        <v>203900</v>
       </c>
       <c r="H41" s="3">
-        <v>165400</v>
+        <v>191500</v>
       </c>
       <c r="I41" s="3">
-        <v>172100</v>
+        <v>168300</v>
       </c>
       <c r="J41" s="3">
+        <v>175100</v>
+      </c>
+      <c r="K41" s="3">
         <v>178200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>136200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>160300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>196200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>270600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>169400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>166200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>186200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>177800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>158200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>202300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>135800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>222500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>260400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>280900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>359000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>381300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>246900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>396300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3900</v>
+        <v>7400</v>
       </c>
       <c r="E42" s="3">
-        <v>5900</v>
+        <v>4000</v>
       </c>
       <c r="F42" s="3">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="G42" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="H42" s="3">
-        <v>18000</v>
+        <v>12600</v>
       </c>
       <c r="I42" s="3">
-        <v>8300</v>
+        <v>18300</v>
       </c>
       <c r="J42" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="K42" s="3">
         <v>8600</v>
       </c>
       <c r="L42" s="3">
+        <v>8600</v>
+      </c>
+      <c r="M42" s="3">
         <v>13400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>6100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>6000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>5800</v>
-      </c>
-      <c r="T42" s="3">
-        <v>500</v>
       </c>
       <c r="U42" s="3">
         <v>500</v>
       </c>
       <c r="V42" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -3163,493 +3252,514 @@
         <v>0</v>
       </c>
       <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
         <v>100</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>159600</v>
+        <v>158700</v>
       </c>
       <c r="E43" s="3">
-        <v>201300</v>
+        <v>162300</v>
       </c>
       <c r="F43" s="3">
-        <v>192900</v>
+        <v>204800</v>
       </c>
       <c r="G43" s="3">
-        <v>217800</v>
+        <v>196200</v>
       </c>
       <c r="H43" s="3">
-        <v>210200</v>
+        <v>221600</v>
       </c>
       <c r="I43" s="3">
-        <v>205600</v>
+        <v>213900</v>
       </c>
       <c r="J43" s="3">
+        <v>209200</v>
+      </c>
+      <c r="K43" s="3">
         <v>187100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>192200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>168600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>171800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>190100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>182400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>205400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>179000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>163200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>179000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>173100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>159800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>135700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>135500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>141200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>122700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>125700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>136900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>105200</v>
+        <v>104100</v>
       </c>
       <c r="E44" s="3">
-        <v>98800</v>
+        <v>107000</v>
       </c>
       <c r="F44" s="3">
-        <v>100800</v>
+        <v>100500</v>
       </c>
       <c r="G44" s="3">
-        <v>102200</v>
+        <v>102600</v>
       </c>
       <c r="H44" s="3">
-        <v>83300</v>
+        <v>104000</v>
       </c>
       <c r="I44" s="3">
-        <v>80500</v>
+        <v>84700</v>
       </c>
       <c r="J44" s="3">
+        <v>81900</v>
+      </c>
+      <c r="K44" s="3">
         <v>72600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>69600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>68200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>81500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>83500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>63700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>63500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>60000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>58500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>60600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>59000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>59900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>59400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>62500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>61900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>62600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>63100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>56200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="E45" s="3">
         <v>3600</v>
       </c>
       <c r="F45" s="3">
-        <v>5300</v>
+        <v>3700</v>
       </c>
       <c r="G45" s="3">
-        <v>4800</v>
+        <v>5400</v>
       </c>
       <c r="H45" s="3">
-        <v>5300</v>
+        <v>4900</v>
       </c>
       <c r="I45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>105900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>510300</v>
+        <v>595200</v>
       </c>
       <c r="E46" s="3">
-        <v>541400</v>
+        <v>519100</v>
       </c>
       <c r="F46" s="3">
-        <v>512000</v>
+        <v>550700</v>
       </c>
       <c r="G46" s="3">
-        <v>525600</v>
+        <v>520800</v>
       </c>
       <c r="H46" s="3">
-        <v>482200</v>
+        <v>534600</v>
       </c>
       <c r="I46" s="3">
-        <v>468600</v>
+        <v>490500</v>
       </c>
       <c r="J46" s="3">
+        <v>476700</v>
+      </c>
+      <c r="K46" s="3">
         <v>449600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>409000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>412400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>463400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>559900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>423700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>444000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>433100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>407600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>405000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>436800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>357800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>419700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>460300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>485500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>545800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>574100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>551000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>623200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>149700</v>
+        <v>153400</v>
       </c>
       <c r="E47" s="3">
-        <v>143200</v>
+        <v>152300</v>
       </c>
       <c r="F47" s="3">
-        <v>144900</v>
+        <v>145700</v>
       </c>
       <c r="G47" s="3">
-        <v>137800</v>
+        <v>147400</v>
       </c>
       <c r="H47" s="3">
-        <v>121800</v>
+        <v>140200</v>
       </c>
       <c r="I47" s="3">
-        <v>117100</v>
+        <v>123900</v>
       </c>
       <c r="J47" s="3">
+        <v>119100</v>
+      </c>
+      <c r="K47" s="3">
         <v>114900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>118900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>119400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>124100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>126600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>129500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>133100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>133800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>145200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>141300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>139300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>143100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>146800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>114200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>115100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>116600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>73900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>14700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>660100</v>
+        <v>692200</v>
       </c>
       <c r="E48" s="3">
-        <v>662200</v>
+        <v>671500</v>
       </c>
       <c r="F48" s="3">
-        <v>656200</v>
+        <v>673600</v>
       </c>
       <c r="G48" s="3">
-        <v>667800</v>
+        <v>667500</v>
       </c>
       <c r="H48" s="3">
-        <v>624800</v>
+        <v>679300</v>
       </c>
       <c r="I48" s="3">
-        <v>622000</v>
+        <v>635600</v>
       </c>
       <c r="J48" s="3">
+        <v>632700</v>
+      </c>
+      <c r="K48" s="3">
         <v>608600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>624100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>602900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>658000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>681700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>672400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>643800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>601800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>610900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>573000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>532900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>527000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>522700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>494700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>485900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>473800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>454500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>440100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>490100</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20400</v>
+        <v>16800</v>
       </c>
       <c r="E52" s="3">
-        <v>25300</v>
+        <v>20800</v>
       </c>
       <c r="F52" s="3">
-        <v>26300</v>
+        <v>25700</v>
       </c>
       <c r="G52" s="3">
-        <v>24500</v>
+        <v>26800</v>
       </c>
       <c r="H52" s="3">
-        <v>25200</v>
+        <v>24900</v>
       </c>
       <c r="I52" s="3">
+        <v>25700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="L52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="M52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="N52" s="3">
         <v>9600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="O52" s="3">
+        <v>9100</v>
+      </c>
+      <c r="P52" s="3">
+        <v>10200</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="R52" s="3">
+        <v>13200</v>
+      </c>
+      <c r="S52" s="3">
+        <v>12400</v>
+      </c>
+      <c r="T52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="U52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="V52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="W52" s="3">
         <v>10100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="X52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="Y52" s="3">
         <v>9200</v>
       </c>
-      <c r="L52" s="3">
-        <v>8700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>9600</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="Z52" s="3">
         <v>9100</v>
       </c>
-      <c r="O52" s="3">
-        <v>10200</v>
-      </c>
-      <c r="P52" s="3">
-        <v>10500</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>13200</v>
-      </c>
-      <c r="R52" s="3">
-        <v>12400</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="AA52" s="3">
         <v>9400</v>
       </c>
-      <c r="T52" s="3">
-        <v>10800</v>
-      </c>
-      <c r="U52" s="3">
-        <v>9600</v>
-      </c>
-      <c r="V52" s="3">
-        <v>10100</v>
-      </c>
-      <c r="W52" s="3">
-        <v>8700</v>
-      </c>
-      <c r="X52" s="3">
-        <v>9200</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>9100</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>9400</v>
-      </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>14800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1340600</v>
+        <v>1457500</v>
       </c>
       <c r="E54" s="3">
-        <v>1372000</v>
+        <v>1363800</v>
       </c>
       <c r="F54" s="3">
-        <v>1339400</v>
+        <v>1395700</v>
       </c>
       <c r="G54" s="3">
-        <v>1355600</v>
+        <v>1362500</v>
       </c>
       <c r="H54" s="3">
-        <v>1254000</v>
+        <v>1379000</v>
       </c>
       <c r="I54" s="3">
-        <v>1217300</v>
+        <v>1275600</v>
       </c>
       <c r="J54" s="3">
+        <v>1238300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1183100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1161200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1143400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1255100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1377200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1235700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1231500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1181900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1176000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1128900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1119800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1037600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1099200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1078000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1095800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1145300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1111900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1020600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>28300</v>
+        <v>18200</v>
       </c>
       <c r="E57" s="3">
-        <v>30900</v>
+        <v>28800</v>
       </c>
       <c r="F57" s="3">
+        <v>31400</v>
+      </c>
+      <c r="G57" s="3">
+        <v>32100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>32800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>35600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K57" s="3">
+        <v>36300</v>
+      </c>
+      <c r="L57" s="3">
+        <v>32100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>26500</v>
+      </c>
+      <c r="N57" s="3">
+        <v>29500</v>
+      </c>
+      <c r="O57" s="3">
+        <v>29600</v>
+      </c>
+      <c r="P57" s="3">
+        <v>29500</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>39700</v>
+      </c>
+      <c r="R57" s="3">
+        <v>25800</v>
+      </c>
+      <c r="S57" s="3">
+        <v>20300</v>
+      </c>
+      <c r="T57" s="3">
+        <v>21700</v>
+      </c>
+      <c r="U57" s="3">
+        <v>25600</v>
+      </c>
+      <c r="V57" s="3">
+        <v>24000</v>
+      </c>
+      <c r="W57" s="3">
+        <v>21600</v>
+      </c>
+      <c r="X57" s="3">
+        <v>22300</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>21100</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>24800</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>23700</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>26900</v>
+      </c>
+      <c r="AC57" s="3">
         <v>31500</v>
       </c>
-      <c r="G57" s="3">
-        <v>32300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>35000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>35900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>36300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>32100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>26500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>29500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>29600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>29500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>39700</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>25800</v>
-      </c>
-      <c r="R57" s="3">
-        <v>20300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>21700</v>
-      </c>
-      <c r="T57" s="3">
-        <v>25600</v>
-      </c>
-      <c r="U57" s="3">
-        <v>24000</v>
-      </c>
-      <c r="V57" s="3">
-        <v>21600</v>
-      </c>
-      <c r="W57" s="3">
-        <v>22300</v>
-      </c>
-      <c r="X57" s="3">
-        <v>21100</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>24800</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>23700</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>26900</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>31500</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>35700</v>
+        <v>54600</v>
       </c>
       <c r="E58" s="3">
-        <v>18900</v>
+        <v>36300</v>
       </c>
       <c r="F58" s="3">
-        <v>9700</v>
+        <v>19200</v>
       </c>
       <c r="G58" s="3">
-        <v>30200</v>
+        <v>9800</v>
       </c>
       <c r="H58" s="3">
-        <v>73100</v>
+        <v>30800</v>
       </c>
       <c r="I58" s="3">
-        <v>62700</v>
+        <v>74300</v>
       </c>
       <c r="J58" s="3">
+        <v>63800</v>
+      </c>
+      <c r="K58" s="3">
         <v>42500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>29200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>26800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>28300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>29000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>27800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>28100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>27500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>38200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>26100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>25600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>25200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>106500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>101300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>95200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>128600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>69400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>35000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>96500</v>
+        <v>132500</v>
       </c>
       <c r="E59" s="3">
-        <v>226900</v>
+        <v>98200</v>
       </c>
       <c r="F59" s="3">
-        <v>127900</v>
+        <v>230800</v>
       </c>
       <c r="G59" s="3">
-        <v>166400</v>
+        <v>130100</v>
       </c>
       <c r="H59" s="3">
-        <v>112300</v>
+        <v>169300</v>
       </c>
       <c r="I59" s="3">
-        <v>113500</v>
+        <v>114200</v>
       </c>
       <c r="J59" s="3">
+        <v>115400</v>
+      </c>
+      <c r="K59" s="3">
         <v>110700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>124800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>83400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>154800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>103900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>119200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>112500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>114800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>100300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>129000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>144000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>95300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>77700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>92600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>88800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>108700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>80700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>90200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>120100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>160500</v>
+        <v>205300</v>
       </c>
       <c r="E60" s="3">
-        <v>276700</v>
+        <v>163300</v>
       </c>
       <c r="F60" s="3">
-        <v>169100</v>
+        <v>281400</v>
       </c>
       <c r="G60" s="3">
-        <v>228900</v>
+        <v>172000</v>
       </c>
       <c r="H60" s="3">
-        <v>220400</v>
+        <v>232900</v>
       </c>
       <c r="I60" s="3">
-        <v>212100</v>
+        <v>224200</v>
       </c>
       <c r="J60" s="3">
+        <v>215800</v>
+      </c>
+      <c r="K60" s="3">
         <v>189500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>186000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>136800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>212600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>162500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>176600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>180300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>168100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>158700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>176800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>195200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>144500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>205900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>216200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>205100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>262100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>173900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>152100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>371200</v>
+        <v>428200</v>
       </c>
       <c r="E61" s="3">
-        <v>310400</v>
+        <v>377600</v>
       </c>
       <c r="F61" s="3">
-        <v>321200</v>
+        <v>315800</v>
       </c>
       <c r="G61" s="3">
-        <v>320300</v>
+        <v>326700</v>
       </c>
       <c r="H61" s="3">
-        <v>277800</v>
+        <v>325900</v>
       </c>
       <c r="I61" s="3">
-        <v>242000</v>
+        <v>282600</v>
       </c>
       <c r="J61" s="3">
+        <v>246200</v>
+      </c>
+      <c r="K61" s="3">
         <v>271100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>255600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>306500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>324000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>452700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>322800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>335100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>332200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>346600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>308100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>314100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>253700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>250000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>243600</v>
-      </c>
-      <c r="X61" s="3">
-        <v>278600</v>
       </c>
       <c r="Y61" s="3">
         <v>278600</v>
       </c>
       <c r="Z61" s="3">
+        <v>278600</v>
+      </c>
+      <c r="AA61" s="3">
         <v>315400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>316900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>269700</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27300</v>
+        <v>19400</v>
       </c>
       <c r="E62" s="3">
-        <v>27000</v>
+        <v>27800</v>
       </c>
       <c r="F62" s="3">
-        <v>28700</v>
+        <v>27500</v>
       </c>
       <c r="G62" s="3">
-        <v>28900</v>
+        <v>29200</v>
       </c>
       <c r="H62" s="3">
-        <v>27600</v>
+        <v>29400</v>
       </c>
       <c r="I62" s="3">
-        <v>28300</v>
+        <v>28100</v>
       </c>
       <c r="J62" s="3">
         <v>28800</v>
       </c>
       <c r="K62" s="3">
+        <v>28800</v>
+      </c>
+      <c r="L62" s="3">
         <v>30000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>28000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>29700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>30400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>28500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>29400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>28600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>28400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>28300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>25200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>25100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>24800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>22000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>23400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>23100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>22300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>20900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>559000</v>
+        <v>652800</v>
       </c>
       <c r="E66" s="3">
-        <v>614100</v>
+        <v>568600</v>
       </c>
       <c r="F66" s="3">
-        <v>519000</v>
+        <v>624700</v>
       </c>
       <c r="G66" s="3">
-        <v>578200</v>
+        <v>528000</v>
       </c>
       <c r="H66" s="3">
-        <v>525800</v>
+        <v>588200</v>
       </c>
       <c r="I66" s="3">
-        <v>482400</v>
+        <v>534800</v>
       </c>
       <c r="J66" s="3">
+        <v>490700</v>
+      </c>
+      <c r="K66" s="3">
         <v>489400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>471600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>471300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>566200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>645600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>527900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>544800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>528900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>533700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>513200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>534500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>423400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>480700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>481800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>507000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>563800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>511600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>489900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>572600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>347500</v>
+        <v>364300</v>
       </c>
       <c r="E72" s="3">
-        <v>326100</v>
+        <v>353500</v>
       </c>
       <c r="F72" s="3">
-        <v>383700</v>
+        <v>331700</v>
       </c>
       <c r="G72" s="3">
-        <v>344700</v>
+        <v>390300</v>
       </c>
       <c r="H72" s="3">
-        <v>299800</v>
+        <v>350600</v>
       </c>
       <c r="I72" s="3">
-        <v>306000</v>
+        <v>305000</v>
       </c>
       <c r="J72" s="3">
+        <v>311300</v>
+      </c>
+      <c r="K72" s="3">
         <v>265100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>243500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>224700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>221400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>254000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>228300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>207700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>190600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>185900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>173900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>154600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>139600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>144000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>137400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>130700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>125400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>124100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>46500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>192400</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>781600</v>
+        <v>804700</v>
       </c>
       <c r="E76" s="3">
-        <v>758000</v>
+        <v>795100</v>
       </c>
       <c r="F76" s="3">
-        <v>820400</v>
+        <v>771000</v>
       </c>
       <c r="G76" s="3">
-        <v>777400</v>
+        <v>834600</v>
       </c>
       <c r="H76" s="3">
-        <v>728200</v>
+        <v>790800</v>
       </c>
       <c r="I76" s="3">
-        <v>734900</v>
+        <v>740800</v>
       </c>
       <c r="J76" s="3">
+        <v>747600</v>
+      </c>
+      <c r="K76" s="3">
         <v>693700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>689500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>672100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>688900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>731600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>707800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>686800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>653000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>642300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>615700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>585300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>614200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>618600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>596100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>588800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>581500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>600300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>530700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>564300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>21400</v>
+        <v>5000</v>
       </c>
       <c r="E81" s="3">
-        <v>42100</v>
+        <v>21800</v>
       </c>
       <c r="F81" s="3">
-        <v>39000</v>
+        <v>42800</v>
       </c>
       <c r="G81" s="3">
-        <v>45200</v>
+        <v>39700</v>
       </c>
       <c r="H81" s="3">
-        <v>44600</v>
+        <v>46000</v>
       </c>
       <c r="I81" s="3">
-        <v>40900</v>
+        <v>45400</v>
       </c>
       <c r="J81" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K81" s="3">
         <v>30600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>22700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>25700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>21000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>44500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>14700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>800</v>
-      </c>
-      <c r="W81" s="3">
-        <v>5300</v>
       </c>
       <c r="X81" s="3">
         <v>5300</v>
       </c>
       <c r="Y81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Z81" s="3">
         <v>10400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>77600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>50000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>38300</v>
+        <v>37800</v>
       </c>
       <c r="E83" s="3">
-        <v>38200</v>
+        <v>38900</v>
       </c>
       <c r="F83" s="3">
-        <v>37900</v>
+        <v>38800</v>
       </c>
       <c r="G83" s="3">
-        <v>36800</v>
+        <v>38500</v>
       </c>
       <c r="H83" s="3">
-        <v>38100</v>
+        <v>37500</v>
       </c>
       <c r="I83" s="3">
+        <v>38800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>37500</v>
+      </c>
+      <c r="K83" s="3">
+        <v>35900</v>
+      </c>
+      <c r="L83" s="3">
+        <v>35100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>35600</v>
+      </c>
+      <c r="N83" s="3">
         <v>36900</v>
       </c>
-      <c r="J83" s="3">
-        <v>35900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>35100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>35600</v>
-      </c>
-      <c r="M83" s="3">
-        <v>36900</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>36200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>34200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>32200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>31500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>29300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>28600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>28100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>27000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>25300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>24100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>23000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>21700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>105300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>56300</v>
+        <v>45300</v>
       </c>
       <c r="E89" s="3">
-        <v>70600</v>
+        <v>57300</v>
       </c>
       <c r="F89" s="3">
-        <v>103300</v>
+        <v>71800</v>
       </c>
       <c r="G89" s="3">
-        <v>63000</v>
+        <v>105100</v>
       </c>
       <c r="H89" s="3">
-        <v>51800</v>
+        <v>64100</v>
       </c>
       <c r="I89" s="3">
-        <v>54100</v>
+        <v>52700</v>
       </c>
       <c r="J89" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K89" s="3">
         <v>64500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>62500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>42700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>72000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>77400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>50400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>25800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>59800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>48200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>41100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>24100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>25200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>41000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>13400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>39400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>60700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>120300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15400</v>
+        <v>-32700</v>
       </c>
       <c r="E91" s="3">
-        <v>-39600</v>
+        <v>-15700</v>
       </c>
       <c r="F91" s="3">
-        <v>-62700</v>
+        <v>-40300</v>
       </c>
       <c r="G91" s="3">
-        <v>-53200</v>
+        <v>-63800</v>
       </c>
       <c r="H91" s="3">
-        <v>-37100</v>
+        <v>-54100</v>
       </c>
       <c r="I91" s="3">
-        <v>-49700</v>
+        <v>-37700</v>
       </c>
       <c r="J91" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-47500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-55700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-62400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-46500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-33000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-51500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-26700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-34300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-32400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-45500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-34700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-31900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-44100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-32500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-291600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-78500</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-25300</v>
+        <v>-34500</v>
       </c>
       <c r="E94" s="3">
-        <v>-37600</v>
+        <v>-25700</v>
       </c>
       <c r="F94" s="3">
-        <v>-64600</v>
+        <v>-38200</v>
       </c>
       <c r="G94" s="3">
-        <v>-45100</v>
+        <v>-65700</v>
       </c>
       <c r="H94" s="3">
-        <v>-49500</v>
+        <v>-45900</v>
       </c>
       <c r="I94" s="3">
-        <v>-49000</v>
+        <v>-50300</v>
       </c>
       <c r="J94" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-48200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-21200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-51600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-60600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>7400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-54900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-31900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-34900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-32100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-72400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-32300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-29300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-84900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>41300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-156800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-39200</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7004,11 +7237,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-8700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -7028,13 +7261,16 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-58500</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,136 +7515,142 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-25200</v>
+        <v>68400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1900</v>
+        <v>-25700</v>
       </c>
       <c r="F100" s="3">
-        <v>-26800</v>
+        <v>-2000</v>
       </c>
       <c r="G100" s="3">
-        <v>5000</v>
+        <v>-27200</v>
       </c>
       <c r="H100" s="3">
-        <v>-9000</v>
+        <v>5100</v>
       </c>
       <c r="I100" s="3">
-        <v>-11100</v>
+        <v>-9200</v>
       </c>
       <c r="J100" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K100" s="3">
         <v>30800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-50500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-44400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-118900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>126300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-14000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-24200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>10100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-65400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>60000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-78400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-29000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-61200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>24600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>32900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-105100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
-      </c>
-      <c r="E101" s="3">
-        <v>200</v>
       </c>
       <c r="F101" s="3">
         <v>200</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>-100</v>
       </c>
       <c r="M101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -7410,107 +7658,113 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6300</v>
+        <v>78800</v>
       </c>
       <c r="E102" s="3">
-        <v>31300</v>
+        <v>6400</v>
       </c>
       <c r="F102" s="3">
-        <v>12200</v>
+        <v>31800</v>
       </c>
       <c r="G102" s="3">
-        <v>22900</v>
+        <v>12400</v>
       </c>
       <c r="H102" s="3">
-        <v>-6700</v>
+        <v>23300</v>
       </c>
       <c r="I102" s="3">
-        <v>-6100</v>
+        <v>-6800</v>
       </c>
       <c r="J102" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K102" s="3">
         <v>47100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-22300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-26300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-68300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>101100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-24800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>15000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-48500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>66200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-86700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-44800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-20500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-78200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-19900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>134400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-148600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-23900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
@@ -785,25 +785,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>152000</v>
+        <v>152500</v>
       </c>
       <c r="E8" s="3">
-        <v>170400</v>
+        <v>171000</v>
       </c>
       <c r="F8" s="3">
-        <v>222200</v>
+        <v>223000</v>
       </c>
       <c r="G8" s="3">
-        <v>218100</v>
+        <v>218900</v>
       </c>
       <c r="H8" s="3">
-        <v>220200</v>
+        <v>221100</v>
       </c>
       <c r="I8" s="3">
-        <v>232200</v>
+        <v>233100</v>
       </c>
       <c r="J8" s="3">
-        <v>226400</v>
+        <v>227300</v>
       </c>
       <c r="K8" s="3">
         <v>206100</v>
@@ -868,25 +868,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>129900</v>
+        <v>130400</v>
       </c>
       <c r="E9" s="3">
-        <v>144000</v>
+        <v>144600</v>
       </c>
       <c r="F9" s="3">
-        <v>165700</v>
+        <v>166300</v>
       </c>
       <c r="G9" s="3">
-        <v>163700</v>
+        <v>164300</v>
       </c>
       <c r="H9" s="3">
-        <v>162900</v>
+        <v>163500</v>
       </c>
       <c r="I9" s="3">
-        <v>168700</v>
+        <v>169400</v>
       </c>
       <c r="J9" s="3">
-        <v>162700</v>
+        <v>163300</v>
       </c>
       <c r="K9" s="3">
         <v>156300</v>
@@ -951,25 +951,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="E10" s="3">
-        <v>26300</v>
+        <v>26400</v>
       </c>
       <c r="F10" s="3">
-        <v>56500</v>
+        <v>56700</v>
       </c>
       <c r="G10" s="3">
-        <v>54400</v>
+        <v>54600</v>
       </c>
       <c r="H10" s="3">
-        <v>57400</v>
+        <v>57600</v>
       </c>
       <c r="I10" s="3">
-        <v>63500</v>
+        <v>63700</v>
       </c>
       <c r="J10" s="3">
-        <v>63800</v>
+        <v>64000</v>
       </c>
       <c r="K10" s="3">
         <v>49800</v>
@@ -1065,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="E12" s="3">
         <v>9500</v>
@@ -1080,7 +1080,7 @@
         <v>9500</v>
       </c>
       <c r="I12" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="J12" s="3">
         <v>9400</v>
@@ -1425,25 +1425,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>141900</v>
+        <v>142400</v>
       </c>
       <c r="E17" s="3">
-        <v>157500</v>
+        <v>158100</v>
       </c>
       <c r="F17" s="3">
-        <v>180800</v>
+        <v>181500</v>
       </c>
       <c r="G17" s="3">
-        <v>178100</v>
+        <v>178800</v>
       </c>
       <c r="H17" s="3">
-        <v>176900</v>
+        <v>177600</v>
       </c>
       <c r="I17" s="3">
-        <v>182700</v>
+        <v>183400</v>
       </c>
       <c r="J17" s="3">
-        <v>176500</v>
+        <v>177200</v>
       </c>
       <c r="K17" s="3">
         <v>169100</v>
@@ -1514,19 +1514,19 @@
         <v>12900</v>
       </c>
       <c r="F18" s="3">
-        <v>41400</v>
+        <v>41600</v>
       </c>
       <c r="G18" s="3">
-        <v>40000</v>
+        <v>40100</v>
       </c>
       <c r="H18" s="3">
-        <v>43300</v>
+        <v>43500</v>
       </c>
       <c r="I18" s="3">
-        <v>49500</v>
+        <v>49700</v>
       </c>
       <c r="J18" s="3">
-        <v>49900</v>
+        <v>50100</v>
       </c>
       <c r="K18" s="3">
         <v>37000</v>
@@ -1622,10 +1622,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="E20" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="F20" s="3">
         <v>11000</v>
@@ -1705,25 +1705,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>45200</v>
+        <v>45400</v>
       </c>
       <c r="E21" s="3">
-        <v>66100</v>
+        <v>66400</v>
       </c>
       <c r="F21" s="3">
-        <v>91200</v>
+        <v>91500</v>
       </c>
       <c r="G21" s="3">
-        <v>86800</v>
+        <v>87100</v>
       </c>
       <c r="H21" s="3">
-        <v>92100</v>
+        <v>92500</v>
       </c>
       <c r="I21" s="3">
-        <v>94100</v>
+        <v>94400</v>
       </c>
       <c r="J21" s="3">
-        <v>87800</v>
+        <v>88100</v>
       </c>
       <c r="K21" s="3">
         <v>74600</v>
@@ -1871,25 +1871,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="E23" s="3">
-        <v>26000</v>
+        <v>26100</v>
       </c>
       <c r="F23" s="3">
-        <v>51400</v>
+        <v>51600</v>
       </c>
       <c r="G23" s="3">
-        <v>47400</v>
+        <v>47600</v>
       </c>
       <c r="H23" s="3">
-        <v>53700</v>
+        <v>53900</v>
       </c>
       <c r="I23" s="3">
-        <v>54300</v>
+        <v>54500</v>
       </c>
       <c r="J23" s="3">
-        <v>49300</v>
+        <v>49500</v>
       </c>
       <c r="K23" s="3">
         <v>37800</v>
@@ -2123,22 +2123,22 @@
         <v>5000</v>
       </c>
       <c r="E26" s="3">
-        <v>21800</v>
+        <v>21900</v>
       </c>
       <c r="F26" s="3">
-        <v>42800</v>
+        <v>43000</v>
       </c>
       <c r="G26" s="3">
-        <v>39700</v>
+        <v>39900</v>
       </c>
       <c r="H26" s="3">
-        <v>46000</v>
+        <v>46100</v>
       </c>
       <c r="I26" s="3">
-        <v>45400</v>
+        <v>45500</v>
       </c>
       <c r="J26" s="3">
-        <v>41600</v>
+        <v>41800</v>
       </c>
       <c r="K26" s="3">
         <v>30600</v>
@@ -2206,22 +2206,22 @@
         <v>5000</v>
       </c>
       <c r="E27" s="3">
-        <v>21800</v>
+        <v>21900</v>
       </c>
       <c r="F27" s="3">
-        <v>42800</v>
+        <v>43000</v>
       </c>
       <c r="G27" s="3">
-        <v>39700</v>
+        <v>39900</v>
       </c>
       <c r="H27" s="3">
-        <v>46000</v>
+        <v>46100</v>
       </c>
       <c r="I27" s="3">
-        <v>45400</v>
+        <v>45500</v>
       </c>
       <c r="J27" s="3">
-        <v>41600</v>
+        <v>41800</v>
       </c>
       <c r="K27" s="3">
         <v>30600</v>
@@ -2618,10 +2618,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E32" s="3">
-        <v>-14300</v>
+        <v>-14400</v>
       </c>
       <c r="F32" s="3">
         <v>-11000</v>
@@ -2704,22 +2704,22 @@
         <v>5000</v>
       </c>
       <c r="E33" s="3">
-        <v>21800</v>
+        <v>21900</v>
       </c>
       <c r="F33" s="3">
-        <v>42800</v>
+        <v>43000</v>
       </c>
       <c r="G33" s="3">
-        <v>39700</v>
+        <v>39900</v>
       </c>
       <c r="H33" s="3">
-        <v>46000</v>
+        <v>46100</v>
       </c>
       <c r="I33" s="3">
-        <v>45400</v>
+        <v>45500</v>
       </c>
       <c r="J33" s="3">
-        <v>41600</v>
+        <v>41800</v>
       </c>
       <c r="K33" s="3">
         <v>30600</v>
@@ -2870,22 +2870,22 @@
         <v>5000</v>
       </c>
       <c r="E35" s="3">
-        <v>21800</v>
+        <v>21900</v>
       </c>
       <c r="F35" s="3">
-        <v>42800</v>
+        <v>43000</v>
       </c>
       <c r="G35" s="3">
-        <v>39700</v>
+        <v>39900</v>
       </c>
       <c r="H35" s="3">
-        <v>46000</v>
+        <v>46100</v>
       </c>
       <c r="I35" s="3">
-        <v>45400</v>
+        <v>45500</v>
       </c>
       <c r="J35" s="3">
-        <v>41600</v>
+        <v>41800</v>
       </c>
       <c r="K35" s="3">
         <v>30600</v>
@@ -3100,25 +3100,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>320900</v>
+        <v>322100</v>
       </c>
       <c r="E41" s="3">
-        <v>242200</v>
+        <v>243100</v>
       </c>
       <c r="F41" s="3">
-        <v>235800</v>
+        <v>236600</v>
       </c>
       <c r="G41" s="3">
-        <v>203900</v>
+        <v>204700</v>
       </c>
       <c r="H41" s="3">
-        <v>191500</v>
+        <v>192200</v>
       </c>
       <c r="I41" s="3">
-        <v>168300</v>
+        <v>168900</v>
       </c>
       <c r="J41" s="3">
-        <v>175100</v>
+        <v>175700</v>
       </c>
       <c r="K41" s="3">
         <v>178200</v>
@@ -3192,16 +3192,16 @@
         <v>6000</v>
       </c>
       <c r="G42" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H42" s="3">
         <v>12700</v>
-      </c>
-      <c r="H42" s="3">
-        <v>12600</v>
       </c>
       <c r="I42" s="3">
         <v>18300</v>
       </c>
       <c r="J42" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="K42" s="3">
         <v>8600</v>
@@ -3266,25 +3266,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>158700</v>
+        <v>159300</v>
       </c>
       <c r="E43" s="3">
-        <v>162300</v>
+        <v>162900</v>
       </c>
       <c r="F43" s="3">
-        <v>204800</v>
+        <v>205500</v>
       </c>
       <c r="G43" s="3">
-        <v>196200</v>
+        <v>196900</v>
       </c>
       <c r="H43" s="3">
-        <v>221600</v>
+        <v>222400</v>
       </c>
       <c r="I43" s="3">
-        <v>213900</v>
+        <v>214600</v>
       </c>
       <c r="J43" s="3">
-        <v>209200</v>
+        <v>210000</v>
       </c>
       <c r="K43" s="3">
         <v>187100</v>
@@ -3349,25 +3349,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>104100</v>
+        <v>104500</v>
       </c>
       <c r="E44" s="3">
-        <v>107000</v>
+        <v>107400</v>
       </c>
       <c r="F44" s="3">
-        <v>100500</v>
+        <v>100900</v>
       </c>
       <c r="G44" s="3">
-        <v>102600</v>
+        <v>103000</v>
       </c>
       <c r="H44" s="3">
-        <v>104000</v>
+        <v>104400</v>
       </c>
       <c r="I44" s="3">
-        <v>84700</v>
+        <v>85000</v>
       </c>
       <c r="J44" s="3">
-        <v>81900</v>
+        <v>82200</v>
       </c>
       <c r="K44" s="3">
         <v>72600</v>
@@ -3441,7 +3441,7 @@
         <v>3700</v>
       </c>
       <c r="G45" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H45" s="3">
         <v>4900</v>
@@ -3515,25 +3515,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>595200</v>
+        <v>597400</v>
       </c>
       <c r="E46" s="3">
-        <v>519100</v>
+        <v>521000</v>
       </c>
       <c r="F46" s="3">
-        <v>550700</v>
+        <v>552700</v>
       </c>
       <c r="G46" s="3">
-        <v>520800</v>
+        <v>522800</v>
       </c>
       <c r="H46" s="3">
-        <v>534600</v>
+        <v>536600</v>
       </c>
       <c r="I46" s="3">
-        <v>490500</v>
+        <v>492300</v>
       </c>
       <c r="J46" s="3">
-        <v>476700</v>
+        <v>478500</v>
       </c>
       <c r="K46" s="3">
         <v>449600</v>
@@ -3598,25 +3598,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>153400</v>
+        <v>153900</v>
       </c>
       <c r="E47" s="3">
-        <v>152300</v>
+        <v>152900</v>
       </c>
       <c r="F47" s="3">
-        <v>145700</v>
+        <v>146200</v>
       </c>
       <c r="G47" s="3">
-        <v>147400</v>
+        <v>148000</v>
       </c>
       <c r="H47" s="3">
-        <v>140200</v>
+        <v>140700</v>
       </c>
       <c r="I47" s="3">
-        <v>123900</v>
+        <v>124300</v>
       </c>
       <c r="J47" s="3">
-        <v>119100</v>
+        <v>119600</v>
       </c>
       <c r="K47" s="3">
         <v>114900</v>
@@ -3681,25 +3681,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>692200</v>
+        <v>694800</v>
       </c>
       <c r="E48" s="3">
-        <v>671500</v>
+        <v>674000</v>
       </c>
       <c r="F48" s="3">
-        <v>673600</v>
+        <v>676100</v>
       </c>
       <c r="G48" s="3">
-        <v>667500</v>
+        <v>670000</v>
       </c>
       <c r="H48" s="3">
-        <v>679300</v>
+        <v>681800</v>
       </c>
       <c r="I48" s="3">
-        <v>635600</v>
+        <v>637900</v>
       </c>
       <c r="J48" s="3">
-        <v>632700</v>
+        <v>635100</v>
       </c>
       <c r="K48" s="3">
         <v>608600</v>
@@ -4016,22 +4016,22 @@
         <v>16800</v>
       </c>
       <c r="E52" s="3">
-        <v>20800</v>
+        <v>20900</v>
       </c>
       <c r="F52" s="3">
-        <v>25700</v>
+        <v>25800</v>
       </c>
       <c r="G52" s="3">
-        <v>26800</v>
+        <v>26900</v>
       </c>
       <c r="H52" s="3">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="I52" s="3">
         <v>25700</v>
       </c>
       <c r="J52" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="K52" s="3">
         <v>10100</v>
@@ -4179,25 +4179,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1457500</v>
+        <v>1462900</v>
       </c>
       <c r="E54" s="3">
-        <v>1363800</v>
+        <v>1368800</v>
       </c>
       <c r="F54" s="3">
-        <v>1395700</v>
+        <v>1400900</v>
       </c>
       <c r="G54" s="3">
-        <v>1362500</v>
+        <v>1367600</v>
       </c>
       <c r="H54" s="3">
-        <v>1379000</v>
+        <v>1384100</v>
       </c>
       <c r="I54" s="3">
-        <v>1275600</v>
+        <v>1280300</v>
       </c>
       <c r="J54" s="3">
-        <v>1238300</v>
+        <v>1242900</v>
       </c>
       <c r="K54" s="3">
         <v>1183100</v>
@@ -4324,25 +4324,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="E57" s="3">
-        <v>28800</v>
+        <v>28900</v>
       </c>
       <c r="F57" s="3">
-        <v>31400</v>
+        <v>31500</v>
       </c>
       <c r="G57" s="3">
-        <v>32100</v>
+        <v>32200</v>
       </c>
       <c r="H57" s="3">
-        <v>32800</v>
+        <v>33000</v>
       </c>
       <c r="I57" s="3">
-        <v>35600</v>
+        <v>35800</v>
       </c>
       <c r="J57" s="3">
-        <v>36600</v>
+        <v>36700</v>
       </c>
       <c r="K57" s="3">
         <v>36300</v>
@@ -4407,25 +4407,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>54600</v>
+        <v>54800</v>
       </c>
       <c r="E58" s="3">
-        <v>36300</v>
+        <v>36400</v>
       </c>
       <c r="F58" s="3">
-        <v>19200</v>
+        <v>19300</v>
       </c>
       <c r="G58" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="H58" s="3">
-        <v>30800</v>
+        <v>30900</v>
       </c>
       <c r="I58" s="3">
-        <v>74300</v>
+        <v>74600</v>
       </c>
       <c r="J58" s="3">
-        <v>63800</v>
+        <v>64000</v>
       </c>
       <c r="K58" s="3">
         <v>42500</v>
@@ -4490,25 +4490,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>132500</v>
+        <v>133000</v>
       </c>
       <c r="E59" s="3">
-        <v>98200</v>
+        <v>98500</v>
       </c>
       <c r="F59" s="3">
-        <v>230800</v>
+        <v>231700</v>
       </c>
       <c r="G59" s="3">
-        <v>130100</v>
+        <v>130600</v>
       </c>
       <c r="H59" s="3">
-        <v>169300</v>
+        <v>169900</v>
       </c>
       <c r="I59" s="3">
-        <v>114200</v>
+        <v>114600</v>
       </c>
       <c r="J59" s="3">
-        <v>115400</v>
+        <v>115900</v>
       </c>
       <c r="K59" s="3">
         <v>110700</v>
@@ -4573,25 +4573,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>205300</v>
+        <v>206000</v>
       </c>
       <c r="E60" s="3">
-        <v>163300</v>
+        <v>163900</v>
       </c>
       <c r="F60" s="3">
-        <v>281400</v>
+        <v>282500</v>
       </c>
       <c r="G60" s="3">
-        <v>172000</v>
+        <v>172700</v>
       </c>
       <c r="H60" s="3">
-        <v>232900</v>
+        <v>233800</v>
       </c>
       <c r="I60" s="3">
-        <v>224200</v>
+        <v>225000</v>
       </c>
       <c r="J60" s="3">
-        <v>215800</v>
+        <v>216600</v>
       </c>
       <c r="K60" s="3">
         <v>189500</v>
@@ -4656,25 +4656,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>428200</v>
+        <v>429800</v>
       </c>
       <c r="E61" s="3">
-        <v>377600</v>
+        <v>379000</v>
       </c>
       <c r="F61" s="3">
-        <v>315800</v>
+        <v>316900</v>
       </c>
       <c r="G61" s="3">
-        <v>326700</v>
+        <v>327900</v>
       </c>
       <c r="H61" s="3">
-        <v>325900</v>
+        <v>327100</v>
       </c>
       <c r="I61" s="3">
-        <v>282600</v>
+        <v>283600</v>
       </c>
       <c r="J61" s="3">
-        <v>246200</v>
+        <v>247100</v>
       </c>
       <c r="K61" s="3">
         <v>271100</v>
@@ -4742,22 +4742,22 @@
         <v>19400</v>
       </c>
       <c r="E62" s="3">
-        <v>27800</v>
+        <v>27900</v>
       </c>
       <c r="F62" s="3">
-        <v>27500</v>
+        <v>27600</v>
       </c>
       <c r="G62" s="3">
-        <v>29200</v>
+        <v>29300</v>
       </c>
       <c r="H62" s="3">
-        <v>29400</v>
+        <v>29500</v>
       </c>
       <c r="I62" s="3">
-        <v>28100</v>
+        <v>28200</v>
       </c>
       <c r="J62" s="3">
-        <v>28800</v>
+        <v>28900</v>
       </c>
       <c r="K62" s="3">
         <v>28800</v>
@@ -5071,25 +5071,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>652800</v>
+        <v>655300</v>
       </c>
       <c r="E66" s="3">
-        <v>568600</v>
+        <v>570800</v>
       </c>
       <c r="F66" s="3">
-        <v>624700</v>
+        <v>627000</v>
       </c>
       <c r="G66" s="3">
-        <v>528000</v>
+        <v>529900</v>
       </c>
       <c r="H66" s="3">
-        <v>588200</v>
+        <v>590300</v>
       </c>
       <c r="I66" s="3">
-        <v>534800</v>
+        <v>536800</v>
       </c>
       <c r="J66" s="3">
-        <v>490700</v>
+        <v>492500</v>
       </c>
       <c r="K66" s="3">
         <v>489400</v>
@@ -5517,25 +5517,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>364300</v>
+        <v>365700</v>
       </c>
       <c r="E72" s="3">
-        <v>353500</v>
+        <v>354800</v>
       </c>
       <c r="F72" s="3">
-        <v>331700</v>
+        <v>333000</v>
       </c>
       <c r="G72" s="3">
-        <v>390300</v>
+        <v>391800</v>
       </c>
       <c r="H72" s="3">
-        <v>350600</v>
+        <v>351900</v>
       </c>
       <c r="I72" s="3">
-        <v>305000</v>
+        <v>306200</v>
       </c>
       <c r="J72" s="3">
-        <v>311300</v>
+        <v>312500</v>
       </c>
       <c r="K72" s="3">
         <v>265100</v>
@@ -5849,25 +5849,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>804700</v>
+        <v>807600</v>
       </c>
       <c r="E76" s="3">
-        <v>795100</v>
+        <v>798000</v>
       </c>
       <c r="F76" s="3">
-        <v>771000</v>
+        <v>773900</v>
       </c>
       <c r="G76" s="3">
-        <v>834600</v>
+        <v>837700</v>
       </c>
       <c r="H76" s="3">
-        <v>790800</v>
+        <v>793800</v>
       </c>
       <c r="I76" s="3">
-        <v>740800</v>
+        <v>743500</v>
       </c>
       <c r="J76" s="3">
-        <v>747600</v>
+        <v>750300</v>
       </c>
       <c r="K76" s="3">
         <v>693700</v>
@@ -6106,22 +6106,22 @@
         <v>5000</v>
       </c>
       <c r="E81" s="3">
-        <v>21800</v>
+        <v>21900</v>
       </c>
       <c r="F81" s="3">
-        <v>42800</v>
+        <v>43000</v>
       </c>
       <c r="G81" s="3">
-        <v>39700</v>
+        <v>39900</v>
       </c>
       <c r="H81" s="3">
-        <v>46000</v>
+        <v>46100</v>
       </c>
       <c r="I81" s="3">
-        <v>45400</v>
+        <v>45500</v>
       </c>
       <c r="J81" s="3">
-        <v>41600</v>
+        <v>41800</v>
       </c>
       <c r="K81" s="3">
         <v>30600</v>
@@ -6217,25 +6217,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>37800</v>
+        <v>38000</v>
       </c>
       <c r="E83" s="3">
+        <v>39100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>39000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>38700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>37600</v>
+      </c>
+      <c r="I83" s="3">
         <v>38900</v>
       </c>
-      <c r="F83" s="3">
-        <v>38800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>38500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>37500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>38800</v>
-      </c>
       <c r="J83" s="3">
-        <v>37500</v>
+        <v>37600</v>
       </c>
       <c r="K83" s="3">
         <v>35900</v>
@@ -6715,25 +6715,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>45300</v>
+        <v>45400</v>
       </c>
       <c r="E89" s="3">
-        <v>57300</v>
+        <v>57500</v>
       </c>
       <c r="F89" s="3">
-        <v>71800</v>
+        <v>72100</v>
       </c>
       <c r="G89" s="3">
-        <v>105100</v>
+        <v>105500</v>
       </c>
       <c r="H89" s="3">
-        <v>64100</v>
+        <v>64300</v>
       </c>
       <c r="I89" s="3">
-        <v>52700</v>
+        <v>52900</v>
       </c>
       <c r="J89" s="3">
-        <v>55000</v>
+        <v>55200</v>
       </c>
       <c r="K89" s="3">
         <v>64500</v>
@@ -6829,25 +6829,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-32700</v>
+        <v>-1008700</v>
       </c>
       <c r="E91" s="3">
-        <v>-15700</v>
+        <v>-482700</v>
       </c>
       <c r="F91" s="3">
-        <v>-40300</v>
+        <v>-1241400</v>
       </c>
       <c r="G91" s="3">
-        <v>-63800</v>
+        <v>-1966500</v>
       </c>
       <c r="H91" s="3">
-        <v>-54100</v>
+        <v>-1669400</v>
       </c>
       <c r="I91" s="3">
-        <v>-37700</v>
+        <v>-1163300</v>
       </c>
       <c r="J91" s="3">
-        <v>-50500</v>
+        <v>-1558100</v>
       </c>
       <c r="K91" s="3">
         <v>-47500</v>
@@ -7078,25 +7078,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-34500</v>
+        <v>-34700</v>
       </c>
       <c r="E94" s="3">
-        <v>-25700</v>
+        <v>-25800</v>
       </c>
       <c r="F94" s="3">
-        <v>-38200</v>
+        <v>-38400</v>
       </c>
       <c r="G94" s="3">
-        <v>-65700</v>
+        <v>-65900</v>
       </c>
       <c r="H94" s="3">
-        <v>-45900</v>
+        <v>-46100</v>
       </c>
       <c r="I94" s="3">
-        <v>-50300</v>
+        <v>-50500</v>
       </c>
       <c r="J94" s="3">
-        <v>-49800</v>
+        <v>-50000</v>
       </c>
       <c r="K94" s="3">
         <v>-48200</v>
@@ -7524,25 +7524,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>68400</v>
+        <v>68600</v>
       </c>
       <c r="E100" s="3">
-        <v>-25700</v>
+        <v>-25800</v>
       </c>
       <c r="F100" s="3">
         <v>-2000</v>
       </c>
       <c r="G100" s="3">
-        <v>-27200</v>
+        <v>-27300</v>
       </c>
       <c r="H100" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="I100" s="3">
         <v>-9200</v>
       </c>
       <c r="J100" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="K100" s="3">
         <v>30800</v>
@@ -7690,22 +7690,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>78800</v>
+        <v>79000</v>
       </c>
       <c r="E102" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="F102" s="3">
-        <v>31800</v>
+        <v>32000</v>
       </c>
       <c r="G102" s="3">
         <v>12400</v>
       </c>
       <c r="H102" s="3">
-        <v>23300</v>
+        <v>23400</v>
       </c>
       <c r="I102" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="J102" s="3">
         <v>-6200</v>

--- a/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>IMOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,397 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>152500</v>
+        <v>170900</v>
       </c>
       <c r="E8" s="3">
-        <v>171000</v>
+        <v>144600</v>
       </c>
       <c r="F8" s="3">
-        <v>223000</v>
+        <v>147100</v>
       </c>
       <c r="G8" s="3">
-        <v>218900</v>
+        <v>165000</v>
       </c>
       <c r="H8" s="3">
-        <v>221100</v>
+        <v>215100</v>
       </c>
       <c r="I8" s="3">
+        <v>211200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>213200</v>
+      </c>
+      <c r="K8" s="3">
         <v>233100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>227300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>206100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>208900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>190400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>191100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>201200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>200700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>193600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>171400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>156500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>169400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>166900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>149400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>133400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>142900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>143600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>147200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>148700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>599600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>155500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>130400</v>
+        <v>141400</v>
       </c>
       <c r="E9" s="3">
-        <v>144600</v>
+        <v>126700</v>
       </c>
       <c r="F9" s="3">
-        <v>166300</v>
+        <v>125800</v>
       </c>
       <c r="G9" s="3">
-        <v>164300</v>
+        <v>139500</v>
       </c>
       <c r="H9" s="3">
-        <v>163500</v>
+        <v>160400</v>
       </c>
       <c r="I9" s="3">
+        <v>158500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>157700</v>
+      </c>
+      <c r="K9" s="3">
         <v>169400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>163300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>156300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>157900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>153700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>151500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>155500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>155100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>152300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>142100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>133100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>130700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>134400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>124900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>114000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>118600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>119000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>117700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>122100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>480800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22100</v>
+        <v>29500</v>
       </c>
       <c r="E10" s="3">
-        <v>26400</v>
+        <v>17900</v>
       </c>
       <c r="F10" s="3">
-        <v>56700</v>
+        <v>21300</v>
       </c>
       <c r="G10" s="3">
-        <v>54600</v>
+        <v>25500</v>
       </c>
       <c r="H10" s="3">
-        <v>57600</v>
+        <v>54700</v>
       </c>
       <c r="I10" s="3">
+        <v>52700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>55500</v>
+      </c>
+      <c r="K10" s="3">
         <v>63700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>64000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>49800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>51000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>36700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>39600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>45800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>45600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>41300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>29300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>23400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>38700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>32500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>24500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>19400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>24300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>24700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>29500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>26600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>118800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>-100900</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1085,99 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="E12" s="3">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="F12" s="3">
-        <v>10000</v>
+        <v>8100</v>
       </c>
       <c r="G12" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="H12" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="I12" s="3">
         <v>9500</v>
       </c>
       <c r="J12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K12" s="3">
+        <v>9500</v>
+      </c>
+      <c r="L12" s="3">
         <v>9400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>8500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>8600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>8200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>8900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>9300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>9100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>9100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>9200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>8300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>8200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>7800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>8300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>7200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>7700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>8000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>7900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>8400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>27400</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,31 +1259,37 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>400</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+      <c r="F14" s="3">
+        <v>400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>200</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="J14" s="3">
+        <v>200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1266,14 +1306,14 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>400</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>400</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1284,17 +1324,17 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>10</v>
@@ -1302,14 +1342,20 @@
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>154600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>138800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>137400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>152500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>175100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>172500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>171300</v>
+      </c>
+      <c r="K17" s="3">
+        <v>183400</v>
+      </c>
+      <c r="L17" s="3">
+        <v>177200</v>
+      </c>
+      <c r="M17" s="3">
+        <v>169100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>170500</v>
+      </c>
+      <c r="O17" s="3">
+        <v>166300</v>
+      </c>
+      <c r="P17" s="3">
+        <v>163300</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>168800</v>
+      </c>
+      <c r="R17" s="3">
+        <v>168200</v>
+      </c>
+      <c r="S17" s="3">
+        <v>165400</v>
+      </c>
+      <c r="T17" s="3">
+        <v>155600</v>
+      </c>
+      <c r="U17" s="3">
+        <v>145400</v>
+      </c>
+      <c r="V17" s="3">
         <v>142400</v>
       </c>
-      <c r="E17" s="3">
-        <v>158100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>181500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>178800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>177600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>183400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>177200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>169100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>170500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>166300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>163300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>168800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>168200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>165400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>155600</v>
-      </c>
-      <c r="S17" s="3">
-        <v>145400</v>
-      </c>
-      <c r="T17" s="3">
-        <v>142400</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>145700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>135600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>124800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>132000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>130600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>132600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>114300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>534400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10100</v>
+        <v>16400</v>
       </c>
       <c r="E18" s="3">
-        <v>12900</v>
+        <v>5800</v>
       </c>
       <c r="F18" s="3">
-        <v>41600</v>
+        <v>9700</v>
       </c>
       <c r="G18" s="3">
+        <v>12500</v>
+      </c>
+      <c r="H18" s="3">
         <v>40100</v>
       </c>
-      <c r="H18" s="3">
-        <v>43500</v>
-      </c>
       <c r="I18" s="3">
+        <v>38700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>41900</v>
+      </c>
+      <c r="K18" s="3">
         <v>49700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>50100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>37000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>38400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>24000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>27800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>32400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>32400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>28200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>15800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>11200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>27000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>21200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>13800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>8600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>10800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>13000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>14500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>34400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>65200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,215 +1682,229 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2700</v>
+        <v>9100</v>
       </c>
       <c r="E20" s="3">
-        <v>14400</v>
+        <v>3300</v>
       </c>
       <c r="F20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G20" s="3">
+        <v>13900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>10600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J20" s="3">
         <v>11000</v>
       </c>
-      <c r="G20" s="3">
-        <v>8300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>11400</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>5800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-8000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-4700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>33600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>3300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-5600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-12400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-5000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>45400</v>
-      </c>
-      <c r="E21" s="3">
-        <v>66400</v>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F21" s="3">
-        <v>91500</v>
+        <v>43800</v>
       </c>
       <c r="G21" s="3">
-        <v>87100</v>
+        <v>64000</v>
       </c>
       <c r="H21" s="3">
-        <v>92500</v>
+        <v>125600</v>
       </c>
       <c r="I21" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>89200</v>
+      </c>
+      <c r="K21" s="3">
         <v>94400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>88100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>74600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>65500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>54900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>61600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>70000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>60400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>61900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>81600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>42000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>54300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>48600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>45200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>30000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>33800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>35000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>37300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>43700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>165400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="E22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>900</v>
+      </c>
+      <c r="I22" s="3">
         <v>800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1000</v>
       </c>
       <c r="J22" s="3">
         <v>1000</v>
       </c>
       <c r="K22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1600</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1500</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1500</v>
       </c>
       <c r="Q22" s="3">
         <v>1500</v>
@@ -1836,203 +1916,221 @@
         <v>1500</v>
       </c>
       <c r="T22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V22" s="3">
         <v>1400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>1100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>1300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>1300</v>
-      </c>
-      <c r="X22" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>1600</v>
       </c>
       <c r="Z22" s="3">
         <v>1600</v>
       </c>
       <c r="AA22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AC22" s="3">
         <v>1700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>4700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5900</v>
+        <v>23400</v>
       </c>
       <c r="E23" s="3">
-        <v>26100</v>
+        <v>7200</v>
       </c>
       <c r="F23" s="3">
-        <v>51600</v>
+        <v>5700</v>
       </c>
       <c r="G23" s="3">
-        <v>47600</v>
+        <v>25100</v>
       </c>
       <c r="H23" s="3">
-        <v>53900</v>
+        <v>49800</v>
       </c>
       <c r="I23" s="3">
+        <v>45900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K23" s="3">
         <v>54500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>49500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>37800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>29200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>18100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>23100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>32300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>24300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>26200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>47900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>8900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>23500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>18800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>15900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>6900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>9300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>12700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>20300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>55500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>7700</v>
+      </c>
+      <c r="M24" s="3">
+        <v>7200</v>
+      </c>
+      <c r="N24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="O24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="R24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="S24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="T24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="U24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="W24" s="3">
         <v>4200</v>
       </c>
-      <c r="F24" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>7700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>7700</v>
-      </c>
-      <c r="K24" s="3">
-        <v>7200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>6500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>3900</v>
-      </c>
-      <c r="N24" s="3">
-        <v>3900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>6600</v>
-      </c>
-      <c r="P24" s="3">
-        <v>5300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>5200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>3300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>2100</v>
-      </c>
-      <c r="T24" s="3">
-        <v>5900</v>
-      </c>
-      <c r="U24" s="3">
-        <v>4200</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>11700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>1600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>2000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>2300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>4000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>11500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5000</v>
+        <v>19700</v>
       </c>
       <c r="E26" s="3">
-        <v>21900</v>
+        <v>6400</v>
       </c>
       <c r="F26" s="3">
-        <v>43000</v>
+        <v>4900</v>
       </c>
       <c r="G26" s="3">
-        <v>39900</v>
+        <v>21100</v>
       </c>
       <c r="H26" s="3">
-        <v>46100</v>
+        <v>41500</v>
       </c>
       <c r="I26" s="3">
+        <v>38500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K26" s="3">
         <v>45500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>41800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>30600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>22700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>14200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>19200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>25700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>19100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>21000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>44500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>6800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>17600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>14700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>4100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>5300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>7400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>10400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>16300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>44000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5000</v>
+        <v>19700</v>
       </c>
       <c r="E27" s="3">
-        <v>21900</v>
+        <v>6400</v>
       </c>
       <c r="F27" s="3">
-        <v>43000</v>
+        <v>4900</v>
       </c>
       <c r="G27" s="3">
-        <v>39900</v>
+        <v>21100</v>
       </c>
       <c r="H27" s="3">
-        <v>46100</v>
+        <v>41500</v>
       </c>
       <c r="I27" s="3">
+        <v>38500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K27" s="3">
         <v>45500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>41800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>30600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>22700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>14200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>19200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>25700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>19100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>21000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>44500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>6800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>17600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>14700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>4100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>5300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>7400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>10400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>16300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>53900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2432,22 +2554,28 @@
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>61300</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AD29" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AE29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2700</v>
+        <v>-9100</v>
       </c>
       <c r="E32" s="3">
-        <v>-14400</v>
+        <v>-3300</v>
       </c>
       <c r="F32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-11000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-5800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>8000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>4700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>6600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-33600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-3300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>5600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>2300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>2100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>12400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>5000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5000</v>
+        <v>19700</v>
       </c>
       <c r="E33" s="3">
-        <v>21900</v>
+        <v>6400</v>
       </c>
       <c r="F33" s="3">
-        <v>43000</v>
+        <v>4900</v>
       </c>
       <c r="G33" s="3">
-        <v>39900</v>
+        <v>21100</v>
       </c>
       <c r="H33" s="3">
-        <v>46100</v>
+        <v>41500</v>
       </c>
       <c r="I33" s="3">
+        <v>38500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K33" s="3">
         <v>45500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>41800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>30600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>22700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>14200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>19200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>25700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>19100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>21000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>44500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>6800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>17600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>14700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>4100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>5300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>5300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>10400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>77600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>50000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5000</v>
+        <v>19700</v>
       </c>
       <c r="E35" s="3">
-        <v>21900</v>
+        <v>6400</v>
       </c>
       <c r="F35" s="3">
-        <v>43000</v>
+        <v>4900</v>
       </c>
       <c r="G35" s="3">
-        <v>39900</v>
+        <v>21100</v>
       </c>
       <c r="H35" s="3">
-        <v>46100</v>
+        <v>41500</v>
       </c>
       <c r="I35" s="3">
+        <v>38500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K35" s="3">
         <v>45500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>41800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>30600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>22700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>14200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>19200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>25700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>19100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>21000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>44500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>6800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>17600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>14700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>4100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>5300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>5300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>10400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>77600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>50000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,157 +3266,165 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>322100</v>
+        <v>386000</v>
       </c>
       <c r="E41" s="3">
-        <v>243100</v>
+        <v>310800</v>
       </c>
       <c r="F41" s="3">
-        <v>236600</v>
+        <v>234500</v>
       </c>
       <c r="G41" s="3">
-        <v>204700</v>
+        <v>228300</v>
       </c>
       <c r="H41" s="3">
-        <v>192200</v>
+        <v>197400</v>
       </c>
       <c r="I41" s="3">
+        <v>185500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>162900</v>
+      </c>
+      <c r="K41" s="3">
         <v>168900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>175700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>178200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>136200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>160300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>196200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>270600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>169400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>166200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>186200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>177800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>158200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>202300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>135800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>222500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>260400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>280900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>359000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>381300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>246900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>396300</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7400</v>
+        <v>4900</v>
       </c>
       <c r="E42" s="3">
-        <v>4000</v>
+        <v>7100</v>
       </c>
       <c r="F42" s="3">
-        <v>6000</v>
+        <v>3900</v>
       </c>
       <c r="G42" s="3">
-        <v>12800</v>
+        <v>5800</v>
       </c>
       <c r="H42" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="I42" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K42" s="3">
         <v>18300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>8500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>8600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>8600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>13400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>12100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>11500</v>
-      </c>
-      <c r="P42" s="3">
-        <v>6100</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>6200</v>
       </c>
       <c r="R42" s="3">
         <v>6100</v>
       </c>
       <c r="S42" s="3">
+        <v>6200</v>
+      </c>
+      <c r="T42" s="3">
+        <v>6100</v>
+      </c>
+      <c r="U42" s="3">
         <v>6000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>5800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>500</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
-      <c r="X42" s="3">
-        <v>0</v>
-      </c>
       <c r="Y42" s="3">
         <v>0</v>
       </c>
@@ -3255,511 +3435,553 @@
         <v>0</v>
       </c>
       <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
         <v>100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>159300</v>
+        <v>161500</v>
       </c>
       <c r="E43" s="3">
-        <v>162900</v>
+        <v>153700</v>
       </c>
       <c r="F43" s="3">
-        <v>205500</v>
+        <v>157200</v>
       </c>
       <c r="G43" s="3">
-        <v>196900</v>
+        <v>198300</v>
       </c>
       <c r="H43" s="3">
-        <v>222400</v>
+        <v>190000</v>
       </c>
       <c r="I43" s="3">
         <v>214600</v>
       </c>
       <c r="J43" s="3">
+        <v>207100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>214600</v>
+      </c>
+      <c r="L43" s="3">
         <v>210000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>187100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>192200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>168600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>171800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>190100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>182400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>205400</v>
-      </c>
-      <c r="R43" s="3">
-        <v>179000</v>
-      </c>
-      <c r="S43" s="3">
-        <v>163200</v>
       </c>
       <c r="T43" s="3">
         <v>179000</v>
       </c>
       <c r="U43" s="3">
+        <v>163200</v>
+      </c>
+      <c r="V43" s="3">
+        <v>179000</v>
+      </c>
+      <c r="W43" s="3">
         <v>173100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>159800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>135700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>135500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>141200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>122700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>125700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>136900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>104500</v>
+        <v>89100</v>
       </c>
       <c r="E44" s="3">
-        <v>107400</v>
+        <v>100800</v>
       </c>
       <c r="F44" s="3">
-        <v>100900</v>
+        <v>103600</v>
       </c>
       <c r="G44" s="3">
-        <v>103000</v>
+        <v>97300</v>
       </c>
       <c r="H44" s="3">
-        <v>104400</v>
+        <v>99300</v>
       </c>
       <c r="I44" s="3">
+        <v>100700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>82000</v>
+      </c>
+      <c r="K44" s="3">
         <v>85000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>82200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>72600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>69600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>68200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>81500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>83500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>63700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>63500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>60000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>58500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>60600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>59000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>59900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>59400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>62500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>61900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>62600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>63100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>56200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4000</v>
+        <v>3100</v>
       </c>
       <c r="E45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G45" s="3">
         <v>3600</v>
       </c>
-      <c r="F45" s="3">
-        <v>3700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>5500</v>
-      </c>
       <c r="H45" s="3">
-        <v>4900</v>
+        <v>5300</v>
       </c>
       <c r="I45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K45" s="3">
         <v>5400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>4100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>2100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1900</v>
-      </c>
-      <c r="V45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="W45" s="3">
-        <v>2100</v>
       </c>
       <c r="X45" s="3">
         <v>1800</v>
       </c>
       <c r="Y45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AA45" s="3">
         <v>1500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>1400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>4000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>105900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>597400</v>
+        <v>644600</v>
       </c>
       <c r="E46" s="3">
-        <v>521000</v>
+        <v>576300</v>
       </c>
       <c r="F46" s="3">
-        <v>552700</v>
+        <v>502600</v>
       </c>
       <c r="G46" s="3">
-        <v>522800</v>
+        <v>533200</v>
       </c>
       <c r="H46" s="3">
-        <v>536600</v>
+        <v>504300</v>
       </c>
       <c r="I46" s="3">
+        <v>517600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>474900</v>
+      </c>
+      <c r="K46" s="3">
         <v>492300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>478500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>449600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>409000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>412400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>463400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>559900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>423700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>444000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>433100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>407600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>405000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>436800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>357800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>419700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>460300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>485500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>545800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>574100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>551000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>623200</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>153900</v>
+        <v>146800</v>
       </c>
       <c r="E47" s="3">
-        <v>152900</v>
+        <v>148500</v>
       </c>
       <c r="F47" s="3">
-        <v>146200</v>
+        <v>147500</v>
       </c>
       <c r="G47" s="3">
-        <v>148000</v>
+        <v>141100</v>
       </c>
       <c r="H47" s="3">
-        <v>140700</v>
+        <v>142700</v>
       </c>
       <c r="I47" s="3">
+        <v>135700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>119900</v>
+      </c>
+      <c r="K47" s="3">
         <v>124300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>119600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>114900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>118900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>119400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>124100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>126600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>129500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>133100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>133800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>145200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>141300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>139300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>143100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>146800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>114200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>115100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>116600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>73900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>14700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>694800</v>
+        <v>637200</v>
       </c>
       <c r="E48" s="3">
-        <v>674000</v>
+        <v>670200</v>
       </c>
       <c r="F48" s="3">
-        <v>676100</v>
+        <v>650200</v>
       </c>
       <c r="G48" s="3">
-        <v>670000</v>
+        <v>652200</v>
       </c>
       <c r="H48" s="3">
-        <v>681800</v>
+        <v>646300</v>
       </c>
       <c r="I48" s="3">
+        <v>657700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>615400</v>
+      </c>
+      <c r="K48" s="3">
         <v>637900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>635100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>608600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>624100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>602900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>658000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>681700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>672400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>643800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>601800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>610900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>573000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>532900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>527000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>522700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>494700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>485900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>473800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>454500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>440100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>490100</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16800</v>
+        <v>10600</v>
       </c>
       <c r="E52" s="3">
-        <v>20900</v>
+        <v>16200</v>
       </c>
       <c r="F52" s="3">
-        <v>25800</v>
+        <v>20100</v>
       </c>
       <c r="G52" s="3">
-        <v>26900</v>
+        <v>24900</v>
       </c>
       <c r="H52" s="3">
-        <v>25000</v>
+        <v>25900</v>
       </c>
       <c r="I52" s="3">
+        <v>24100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K52" s="3">
         <v>25700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>9800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>10100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>9200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>8700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>9600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>9100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>10200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>10500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>13200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>12400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>9400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>10800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>9600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>10100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>8700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>9200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>9100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>9400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>14800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1462900</v>
+        <v>1439300</v>
       </c>
       <c r="E54" s="3">
-        <v>1368800</v>
+        <v>1411200</v>
       </c>
       <c r="F54" s="3">
-        <v>1400900</v>
+        <v>1320400</v>
       </c>
       <c r="G54" s="3">
-        <v>1367600</v>
+        <v>1351400</v>
       </c>
       <c r="H54" s="3">
-        <v>1384100</v>
+        <v>1319300</v>
       </c>
       <c r="I54" s="3">
+        <v>1335200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1235100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1280300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1242900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1183100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1161200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1143400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1255100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1377200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1235700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1231500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1181900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1176000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1128900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1119800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1037600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1099200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1078000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1095800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1145300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1111900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1020600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4578,544 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18300</v>
+        <v>22000</v>
       </c>
       <c r="E57" s="3">
-        <v>28900</v>
+        <v>17600</v>
       </c>
       <c r="F57" s="3">
-        <v>31500</v>
+        <v>27900</v>
       </c>
       <c r="G57" s="3">
-        <v>32200</v>
+        <v>30400</v>
       </c>
       <c r="H57" s="3">
-        <v>33000</v>
+        <v>31000</v>
       </c>
       <c r="I57" s="3">
+        <v>31800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>34500</v>
+      </c>
+      <c r="K57" s="3">
         <v>35800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>36700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>36300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>32100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>26500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>29500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>29600</v>
       </c>
       <c r="P57" s="3">
         <v>29500</v>
       </c>
       <c r="Q57" s="3">
+        <v>29600</v>
+      </c>
+      <c r="R57" s="3">
+        <v>29500</v>
+      </c>
+      <c r="S57" s="3">
         <v>39700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>25800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>20300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>21700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>25600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>24000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>21600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>22300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>21100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>24800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>23700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>26900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>54800</v>
+        <v>70700</v>
       </c>
       <c r="E58" s="3">
-        <v>36400</v>
+        <v>52900</v>
       </c>
       <c r="F58" s="3">
-        <v>19300</v>
+        <v>35100</v>
       </c>
       <c r="G58" s="3">
-        <v>9900</v>
+        <v>18600</v>
       </c>
       <c r="H58" s="3">
-        <v>30900</v>
+        <v>9500</v>
       </c>
       <c r="I58" s="3">
+        <v>29800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>72000</v>
+      </c>
+      <c r="K58" s="3">
         <v>74600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>64000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>42500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>29200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>26800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>28300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>29000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>27800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>28100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>27500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>38200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>26100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>25600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>25200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>106500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>101300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>95200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>128600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>69400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>35000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>133000</v>
+        <v>152700</v>
       </c>
       <c r="E59" s="3">
-        <v>98500</v>
+        <v>128300</v>
       </c>
       <c r="F59" s="3">
-        <v>231700</v>
+        <v>95000</v>
       </c>
       <c r="G59" s="3">
-        <v>130600</v>
+        <v>223500</v>
       </c>
       <c r="H59" s="3">
-        <v>169900</v>
+        <v>126000</v>
       </c>
       <c r="I59" s="3">
+        <v>163900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>110600</v>
+      </c>
+      <c r="K59" s="3">
         <v>114600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>115900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>110700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>124800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>83400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>154800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>103900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>119200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>112500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>114800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>100300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>129000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>144000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>95300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>77700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>92600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>88800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>108700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>80700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>90200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>120100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>206000</v>
+        <v>245400</v>
       </c>
       <c r="E60" s="3">
-        <v>163900</v>
+        <v>198700</v>
       </c>
       <c r="F60" s="3">
-        <v>282500</v>
+        <v>158100</v>
       </c>
       <c r="G60" s="3">
-        <v>172700</v>
+        <v>272500</v>
       </c>
       <c r="H60" s="3">
-        <v>233800</v>
+        <v>166600</v>
       </c>
       <c r="I60" s="3">
+        <v>225500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>217100</v>
+      </c>
+      <c r="K60" s="3">
         <v>225000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>216600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>189500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>186000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>136800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>212600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>162500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>176600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>180300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>168100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>158700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>176800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>195200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>144500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>205900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>216200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>205100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>262100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>173900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>152100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>429800</v>
+        <v>427900</v>
       </c>
       <c r="E61" s="3">
-        <v>379000</v>
+        <v>414600</v>
       </c>
       <c r="F61" s="3">
+        <v>365600</v>
+      </c>
+      <c r="G61" s="3">
+        <v>305700</v>
+      </c>
+      <c r="H61" s="3">
+        <v>316300</v>
+      </c>
+      <c r="I61" s="3">
+        <v>315500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>273600</v>
+      </c>
+      <c r="K61" s="3">
+        <v>283600</v>
+      </c>
+      <c r="L61" s="3">
+        <v>247100</v>
+      </c>
+      <c r="M61" s="3">
+        <v>271100</v>
+      </c>
+      <c r="N61" s="3">
+        <v>255600</v>
+      </c>
+      <c r="O61" s="3">
+        <v>306500</v>
+      </c>
+      <c r="P61" s="3">
+        <v>324000</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>452700</v>
+      </c>
+      <c r="R61" s="3">
+        <v>322800</v>
+      </c>
+      <c r="S61" s="3">
+        <v>335100</v>
+      </c>
+      <c r="T61" s="3">
+        <v>332200</v>
+      </c>
+      <c r="U61" s="3">
+        <v>346600</v>
+      </c>
+      <c r="V61" s="3">
+        <v>308100</v>
+      </c>
+      <c r="W61" s="3">
+        <v>314100</v>
+      </c>
+      <c r="X61" s="3">
+        <v>253700</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>250000</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>243600</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>278600</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>278600</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>315400</v>
+      </c>
+      <c r="AD61" s="3">
         <v>316900</v>
       </c>
-      <c r="G61" s="3">
-        <v>327900</v>
-      </c>
-      <c r="H61" s="3">
-        <v>327100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>283600</v>
-      </c>
-      <c r="J61" s="3">
-        <v>247100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>271100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>255600</v>
-      </c>
-      <c r="M61" s="3">
-        <v>306500</v>
-      </c>
-      <c r="N61" s="3">
-        <v>324000</v>
-      </c>
-      <c r="O61" s="3">
-        <v>452700</v>
-      </c>
-      <c r="P61" s="3">
-        <v>322800</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>335100</v>
-      </c>
-      <c r="R61" s="3">
-        <v>332200</v>
-      </c>
-      <c r="S61" s="3">
-        <v>346600</v>
-      </c>
-      <c r="T61" s="3">
-        <v>308100</v>
-      </c>
-      <c r="U61" s="3">
-        <v>314100</v>
-      </c>
-      <c r="V61" s="3">
-        <v>253700</v>
-      </c>
-      <c r="W61" s="3">
-        <v>250000</v>
-      </c>
-      <c r="X61" s="3">
-        <v>243600</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>278600</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>278600</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>315400</v>
-      </c>
-      <c r="AB61" s="3">
-        <v>316900</v>
-      </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>269700</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>26900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>26600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>28300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>28500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K62" s="3">
+        <v>28200</v>
+      </c>
+      <c r="L62" s="3">
+        <v>28900</v>
+      </c>
+      <c r="M62" s="3">
+        <v>28800</v>
+      </c>
+      <c r="N62" s="3">
+        <v>30000</v>
+      </c>
+      <c r="O62" s="3">
+        <v>28000</v>
+      </c>
+      <c r="P62" s="3">
+        <v>29700</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>30400</v>
+      </c>
+      <c r="R62" s="3">
+        <v>28500</v>
+      </c>
+      <c r="S62" s="3">
+        <v>29400</v>
+      </c>
+      <c r="T62" s="3">
+        <v>28600</v>
+      </c>
+      <c r="U62" s="3">
+        <v>28400</v>
+      </c>
+      <c r="V62" s="3">
+        <v>28300</v>
+      </c>
+      <c r="W62" s="3">
+        <v>25200</v>
+      </c>
+      <c r="X62" s="3">
+        <v>25100</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>24800</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>22000</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>23400</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>23100</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>22300</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>20900</v>
+      </c>
+      <c r="AE62" s="3">
         <v>19400</v>
       </c>
-      <c r="E62" s="3">
-        <v>27900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>27600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>29300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>29500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>28200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>28900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>28800</v>
-      </c>
-      <c r="L62" s="3">
-        <v>30000</v>
-      </c>
-      <c r="M62" s="3">
-        <v>28000</v>
-      </c>
-      <c r="N62" s="3">
-        <v>29700</v>
-      </c>
-      <c r="O62" s="3">
-        <v>30400</v>
-      </c>
-      <c r="P62" s="3">
-        <v>28500</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>29400</v>
-      </c>
-      <c r="R62" s="3">
-        <v>28600</v>
-      </c>
-      <c r="S62" s="3">
-        <v>28400</v>
-      </c>
-      <c r="T62" s="3">
-        <v>28300</v>
-      </c>
-      <c r="U62" s="3">
-        <v>25200</v>
-      </c>
-      <c r="V62" s="3">
-        <v>25100</v>
-      </c>
-      <c r="W62" s="3">
-        <v>24800</v>
-      </c>
-      <c r="X62" s="3">
-        <v>22000</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>23400</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>23100</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>22300</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>20900</v>
-      </c>
-      <c r="AC62" s="3">
-        <v>19400</v>
-      </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>655300</v>
+        <v>691100</v>
       </c>
       <c r="E66" s="3">
-        <v>570800</v>
+        <v>632100</v>
       </c>
       <c r="F66" s="3">
-        <v>627000</v>
+        <v>550600</v>
       </c>
       <c r="G66" s="3">
-        <v>529900</v>
+        <v>604800</v>
       </c>
       <c r="H66" s="3">
-        <v>590300</v>
+        <v>511200</v>
       </c>
       <c r="I66" s="3">
+        <v>569500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>517800</v>
+      </c>
+      <c r="K66" s="3">
         <v>536800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>492500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>489400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>471600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>471300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>566200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>645600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>527900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>544800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>528900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>533700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>513200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>534500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>423400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>480700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>481800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>507000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>563800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>511600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>489900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>572600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>365700</v>
+        <v>326300</v>
       </c>
       <c r="E72" s="3">
-        <v>354800</v>
+        <v>352700</v>
       </c>
       <c r="F72" s="3">
-        <v>333000</v>
+        <v>342300</v>
       </c>
       <c r="G72" s="3">
-        <v>391800</v>
+        <v>321200</v>
       </c>
       <c r="H72" s="3">
-        <v>351900</v>
+        <v>377900</v>
       </c>
       <c r="I72" s="3">
+        <v>339500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>295300</v>
+      </c>
+      <c r="K72" s="3">
         <v>306200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>312500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>265100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>243500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>224700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>221400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>254000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>228300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>207700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>190600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>185900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>173900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>154600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>139600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>144000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>137400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>130700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>125400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>124100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>46500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>192400</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>807600</v>
+        <v>748200</v>
       </c>
       <c r="E76" s="3">
-        <v>798000</v>
+        <v>779100</v>
       </c>
       <c r="F76" s="3">
-        <v>773900</v>
+        <v>769900</v>
       </c>
       <c r="G76" s="3">
-        <v>837700</v>
+        <v>746500</v>
       </c>
       <c r="H76" s="3">
-        <v>793800</v>
+        <v>808100</v>
       </c>
       <c r="I76" s="3">
+        <v>765700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>717200</v>
+      </c>
+      <c r="K76" s="3">
         <v>743500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>750300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>693700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>689500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>672100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>688900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>731600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>707800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>686800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>653000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>642300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>615700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>585300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>614200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>618600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>596100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>588800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>581500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>600300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>530700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>564300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5000</v>
+        <v>19700</v>
       </c>
       <c r="E81" s="3">
-        <v>21900</v>
+        <v>6400</v>
       </c>
       <c r="F81" s="3">
-        <v>43000</v>
+        <v>4900</v>
       </c>
       <c r="G81" s="3">
-        <v>39900</v>
+        <v>21100</v>
       </c>
       <c r="H81" s="3">
-        <v>46100</v>
+        <v>41500</v>
       </c>
       <c r="I81" s="3">
+        <v>38500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K81" s="3">
         <v>45500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>41800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>30600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>22700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>14200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>19200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>25700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>19100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>21000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>44500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>6800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>17600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>14700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>4100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>5300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>5300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>10400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>77600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>50000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6607,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>38000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>39100</v>
+      <c r="D83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F83" s="3">
-        <v>39000</v>
+        <v>36600</v>
       </c>
       <c r="G83" s="3">
-        <v>38700</v>
+        <v>37700</v>
       </c>
       <c r="H83" s="3">
+        <v>74900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>-108200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>36300</v>
+      </c>
+      <c r="K83" s="3">
+        <v>38900</v>
+      </c>
+      <c r="L83" s="3">
         <v>37600</v>
       </c>
-      <c r="I83" s="3">
-        <v>38900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>37600</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>35900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>35100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>35600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>36900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>36200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>34500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>34200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>32200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>31500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>29300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>28600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>28100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>27000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>25300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>24100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>23000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>21700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>105300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>45400</v>
-      </c>
-      <c r="E89" s="3">
-        <v>57500</v>
+      <c r="D89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F89" s="3">
-        <v>72100</v>
+        <v>43800</v>
       </c>
       <c r="G89" s="3">
-        <v>105500</v>
+        <v>55500</v>
       </c>
       <c r="H89" s="3">
-        <v>64300</v>
+        <v>171300</v>
       </c>
       <c r="I89" s="3">
+        <v>-128100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>62100</v>
+      </c>
+      <c r="K89" s="3">
         <v>52900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>55200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>64500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>62500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>42700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>72000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>26400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>77400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>50400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>25800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>59800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>48200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>41100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>24100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>25200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>41000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>13400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>39400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>60700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>120300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7263,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1570700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1008700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-482700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1241400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1966500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1669400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1163300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
+        <v>-1163300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1558100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-47500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-34300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-24300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-23000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-55700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-62400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-46500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-33000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-51500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-26700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-34300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-32400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-45500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-34700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-31900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-44100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-32500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-291600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-78500</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-34700</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-25800</v>
+      <c r="D94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F94" s="3">
-        <v>-38400</v>
+        <v>-33400</v>
       </c>
       <c r="G94" s="3">
-        <v>-65900</v>
+        <v>-24900</v>
       </c>
       <c r="H94" s="3">
-        <v>-46100</v>
+        <v>-100600</v>
       </c>
       <c r="I94" s="3">
+        <v>125300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-50500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-50000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-48200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-34200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-24400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-21200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-51600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-60600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-43500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>7400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-54900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-31900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-34900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-32100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-72400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-32300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-29300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-84900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>41300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-156800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-39200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7240,14 +7708,14 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-8700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -7264,13 +7732,19 @@
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-58500</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +8004,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>68600</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-25800</v>
+      <c r="D100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F100" s="3">
-        <v>-2000</v>
+        <v>66200</v>
       </c>
       <c r="G100" s="3">
-        <v>-27300</v>
+        <v>-24900</v>
       </c>
       <c r="H100" s="3">
-        <v>5200</v>
+        <v>-28300</v>
       </c>
       <c r="I100" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-9200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-11300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>30800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-50500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-44400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-118900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>126300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-31700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-24200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>10100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-65400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>60000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-78400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>2600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-29000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-61200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>24600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>32900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-105100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
-        <v>200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>200</v>
-      </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>1100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>79000</v>
-      </c>
-      <c r="E102" s="3">
-        <v>6500</v>
+      <c r="D102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F102" s="3">
-        <v>32000</v>
+        <v>76200</v>
       </c>
       <c r="G102" s="3">
-        <v>12400</v>
+        <v>6200</v>
       </c>
       <c r="H102" s="3">
-        <v>23400</v>
+        <v>42800</v>
       </c>
       <c r="I102" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-6900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-6200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>47100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-22300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-26300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-68300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>101100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-24800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>9000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>15000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-48500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>66200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-86700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-44800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-20500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-78200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-19900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>134400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-148600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-23900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>IMOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>170900</v>
+        <v>175000</v>
       </c>
       <c r="E8" s="3">
-        <v>144600</v>
+        <v>170700</v>
       </c>
       <c r="F8" s="3">
-        <v>147100</v>
+        <v>144400</v>
       </c>
       <c r="G8" s="3">
-        <v>165000</v>
+        <v>146900</v>
       </c>
       <c r="H8" s="3">
-        <v>215100</v>
+        <v>164700</v>
       </c>
       <c r="I8" s="3">
-        <v>211200</v>
+        <v>214800</v>
       </c>
       <c r="J8" s="3">
+        <v>210800</v>
+      </c>
+      <c r="K8" s="3">
         <v>213200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>233100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>227300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>206100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>208900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>190400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>191100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>201200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>200700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>193600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>171400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>156500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>169400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>166900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>149400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>133400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>142900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>143600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>147200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>148700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>599600</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>155500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>141400</v>
+        <v>147100</v>
       </c>
       <c r="E9" s="3">
-        <v>126700</v>
+        <v>141200</v>
       </c>
       <c r="F9" s="3">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="G9" s="3">
-        <v>139500</v>
+        <v>125600</v>
       </c>
       <c r="H9" s="3">
-        <v>160400</v>
+        <v>139200</v>
       </c>
       <c r="I9" s="3">
-        <v>158500</v>
+        <v>160200</v>
       </c>
       <c r="J9" s="3">
+        <v>158200</v>
+      </c>
+      <c r="K9" s="3">
         <v>157700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>169400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>163300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>156300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>157900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>153700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>151500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>155500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>155100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>152300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>142100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>133100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>130700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>134400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>124900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>114000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>118600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>119000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>117700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>122100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>480800</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E10" s="3">
         <v>29500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>21300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25500</v>
       </c>
-      <c r="H10" s="3">
-        <v>54700</v>
-      </c>
       <c r="I10" s="3">
-        <v>52700</v>
+        <v>54600</v>
       </c>
       <c r="J10" s="3">
+        <v>52600</v>
+      </c>
+      <c r="K10" s="3">
         <v>55500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>63700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>64000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>49800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>51000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>36700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>39600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>45800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>45600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>41300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>29300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>23400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>38700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>32500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>24500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>19400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>24300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>24700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>29500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>26600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>118800</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>-100900</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,97 +1100,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E12" s="3">
         <v>8700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9300</v>
-      </c>
-      <c r="R12" s="3">
-        <v>9100</v>
       </c>
       <c r="S12" s="3">
         <v>9100</v>
       </c>
       <c r="T12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="U12" s="3">
         <v>9200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>8300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>8200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>8300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>7200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>7700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>8000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>7900</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>8400</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>27400</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1276,11 +1296,11 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1288,11 +1308,11 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1312,11 +1332,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>400</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1330,14 +1350,14 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>10</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>10</v>
@@ -1348,14 +1368,17 @@
       <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>154600</v>
+        <v>159700</v>
       </c>
       <c r="E17" s="3">
-        <v>138800</v>
+        <v>154300</v>
       </c>
       <c r="F17" s="3">
-        <v>137400</v>
+        <v>138600</v>
       </c>
       <c r="G17" s="3">
-        <v>152500</v>
+        <v>137200</v>
       </c>
       <c r="H17" s="3">
-        <v>175100</v>
+        <v>152300</v>
       </c>
       <c r="I17" s="3">
-        <v>172500</v>
+        <v>174800</v>
       </c>
       <c r="J17" s="3">
+        <v>172200</v>
+      </c>
+      <c r="K17" s="3">
         <v>171300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>183400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>177200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>169100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>170500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>166300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>163300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>168800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>168200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>165400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>155600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>145400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>142400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>145700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>135600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>124800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>132000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>130600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>132600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>114300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>534400</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>16400</v>
+        <v>15300</v>
       </c>
       <c r="E18" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F18" s="3">
         <v>5800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12500</v>
       </c>
-      <c r="H18" s="3">
-        <v>40100</v>
-      </c>
       <c r="I18" s="3">
-        <v>38700</v>
+        <v>40000</v>
       </c>
       <c r="J18" s="3">
+        <v>38600</v>
+      </c>
+      <c r="K18" s="3">
         <v>41900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>49700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>50100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>37000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>38400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>24000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>27800</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>32400</v>
       </c>
       <c r="R18" s="3">
         <v>32400</v>
       </c>
       <c r="S18" s="3">
+        <v>32400</v>
+      </c>
+      <c r="T18" s="3">
         <v>28200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>15800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>11200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>27000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>21200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>13800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>8600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>10800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>13000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>14500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>34400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>65200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,209 +1717,216 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E20" s="3">
         <v>9100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2600</v>
       </c>
-      <c r="G20" s="3">
-        <v>13900</v>
-      </c>
       <c r="H20" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I20" s="3">
         <v>10600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>11000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>33600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-12400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-5000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>62700</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="3">
-        <v>43800</v>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G21" s="3">
-        <v>64000</v>
+        <v>43700</v>
       </c>
       <c r="H21" s="3">
-        <v>125600</v>
+        <v>63900</v>
       </c>
       <c r="I21" s="3">
-        <v>-61500</v>
+        <v>125400</v>
       </c>
       <c r="J21" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="K21" s="3">
         <v>89200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>94400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>88100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>74600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>65500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>54900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>61600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>70000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>60400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>61900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>81600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>42000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>54300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>48600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>45200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>30000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>33800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>35000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>37300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>43700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>165400</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E22" s="3">
         <v>2100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1000</v>
       </c>
       <c r="K22" s="3">
         <v>1000</v>
@@ -1895,19 +1935,19 @@
         <v>1000</v>
       </c>
       <c r="M22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N22" s="3">
         <v>900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>1500</v>
       </c>
       <c r="R22" s="3">
         <v>1500</v>
@@ -1922,19 +1962,19 @@
         <v>1500</v>
       </c>
       <c r="V22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W22" s="3">
         <v>1400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1100</v>
-      </c>
-      <c r="X22" s="3">
-        <v>1300</v>
       </c>
       <c r="Y22" s="3">
         <v>1300</v>
       </c>
       <c r="Z22" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="AA22" s="3">
         <v>1600</v>
@@ -1943,194 +1983,203 @@
         <v>1600</v>
       </c>
       <c r="AC22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AD22" s="3">
         <v>1700</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>4700</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>23400</v>
+        <v>22500</v>
       </c>
       <c r="E23" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F23" s="3">
         <v>7200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>25100</v>
       </c>
-      <c r="H23" s="3">
-        <v>49800</v>
-      </c>
       <c r="I23" s="3">
-        <v>45900</v>
+        <v>49700</v>
       </c>
       <c r="J23" s="3">
+        <v>45800</v>
+      </c>
+      <c r="K23" s="3">
         <v>52000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>54500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>49500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>37800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>29200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>18100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>23100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>32300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>24300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>26200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>47900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>23500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>18800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>15900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>6900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>9300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>12700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>20300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>55500</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E24" s="3">
         <v>3600</v>
-      </c>
-      <c r="E24" s="3">
-        <v>800</v>
       </c>
       <c r="F24" s="3">
         <v>800</v>
       </c>
       <c r="G24" s="3">
+        <v>800</v>
+      </c>
+      <c r="H24" s="3">
         <v>4000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>3900</v>
       </c>
       <c r="P24" s="3">
         <v>3900</v>
       </c>
       <c r="Q24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="R24" s="3">
         <v>6600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>4000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>11500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E26" s="3">
         <v>19700</v>
       </c>
-      <c r="E26" s="3">
-        <v>6400</v>
-      </c>
       <c r="F26" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G26" s="3">
         <v>4900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21100</v>
       </c>
-      <c r="H26" s="3">
-        <v>41500</v>
-      </c>
       <c r="I26" s="3">
-        <v>38500</v>
+        <v>41400</v>
       </c>
       <c r="J26" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K26" s="3">
         <v>44500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>45500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>41800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>22700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>19200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>25700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>19100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>21000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>44500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>17600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>14700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>5300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>7400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>10400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>16300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>44000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E27" s="3">
         <v>19700</v>
       </c>
-      <c r="E27" s="3">
-        <v>6400</v>
-      </c>
       <c r="F27" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G27" s="3">
         <v>4900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21100</v>
       </c>
-      <c r="H27" s="3">
-        <v>41500</v>
-      </c>
       <c r="I27" s="3">
-        <v>38500</v>
+        <v>41400</v>
       </c>
       <c r="J27" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K27" s="3">
         <v>44500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>45500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>41800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>22700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>14200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>19200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>25700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>21000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>44500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>17600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>14700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>5300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>7400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>10400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>16300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>53900</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2560,22 +2621,25 @@
         <v>0</v>
       </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
       <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
         <v>61300</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-4000</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2600</v>
       </c>
-      <c r="G32" s="3">
-        <v>-13900</v>
-      </c>
       <c r="H32" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-10600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-11000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-33600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>5600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>12400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>5000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E33" s="3">
         <v>19700</v>
       </c>
-      <c r="E33" s="3">
-        <v>6400</v>
-      </c>
       <c r="F33" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G33" s="3">
         <v>4900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21100</v>
       </c>
-      <c r="H33" s="3">
-        <v>41500</v>
-      </c>
       <c r="I33" s="3">
-        <v>38500</v>
+        <v>41400</v>
       </c>
       <c r="J33" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K33" s="3">
         <v>44500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>45500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>41800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>30600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>22700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>14200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>19200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>25700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>21000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>44500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>17600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>14700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>800</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>5300</v>
       </c>
       <c r="AA33" s="3">
         <v>5300</v>
       </c>
       <c r="AB33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="AC33" s="3">
         <v>10400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>77600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>50000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E35" s="3">
         <v>19700</v>
       </c>
-      <c r="E35" s="3">
-        <v>6400</v>
-      </c>
       <c r="F35" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G35" s="3">
         <v>4900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21100</v>
       </c>
-      <c r="H35" s="3">
-        <v>41500</v>
-      </c>
       <c r="I35" s="3">
-        <v>38500</v>
+        <v>41400</v>
       </c>
       <c r="J35" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K35" s="3">
         <v>44500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>45500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>41800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>30600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>22700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>14200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>19200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>25700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>21000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>44500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>17600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>14700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>800</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>5300</v>
       </c>
       <c r="AA35" s="3">
         <v>5300</v>
       </c>
       <c r="AB35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="AC35" s="3">
         <v>10400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>77600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>50000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,165 +3354,169 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>386000</v>
+        <v>354600</v>
       </c>
       <c r="E41" s="3">
-        <v>310800</v>
+        <v>385400</v>
       </c>
       <c r="F41" s="3">
-        <v>234500</v>
+        <v>310300</v>
       </c>
       <c r="G41" s="3">
-        <v>228300</v>
+        <v>234100</v>
       </c>
       <c r="H41" s="3">
-        <v>197400</v>
+        <v>227900</v>
       </c>
       <c r="I41" s="3">
-        <v>185500</v>
+        <v>197100</v>
       </c>
       <c r="J41" s="3">
+        <v>185200</v>
+      </c>
+      <c r="K41" s="3">
         <v>162900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>168900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>175700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>178200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>136200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>160300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>196200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>270600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>169400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>166200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>186200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>177800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>158200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>202300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>135800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>222500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>260400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>280900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>359000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>381300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>246900</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>396300</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E42" s="3">
         <v>4900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>7100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>12300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>12200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>17700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>18300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8500</v>
-      </c>
-      <c r="M42" s="3">
-        <v>8600</v>
       </c>
       <c r="N42" s="3">
         <v>8600</v>
       </c>
       <c r="O42" s="3">
+        <v>8600</v>
+      </c>
+      <c r="P42" s="3">
         <v>13400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>6100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>6200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>6100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>6000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>5800</v>
-      </c>
-      <c r="W42" s="3">
-        <v>500</v>
       </c>
       <c r="X42" s="3">
         <v>500</v>
       </c>
       <c r="Y42" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3441,547 +3531,568 @@
         <v>0</v>
       </c>
       <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
         <v>100</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>161500</v>
+        <v>185100</v>
       </c>
       <c r="E43" s="3">
-        <v>153700</v>
+        <v>161200</v>
       </c>
       <c r="F43" s="3">
-        <v>157200</v>
+        <v>153500</v>
       </c>
       <c r="G43" s="3">
-        <v>198300</v>
+        <v>156900</v>
       </c>
       <c r="H43" s="3">
-        <v>190000</v>
+        <v>198000</v>
       </c>
       <c r="I43" s="3">
+        <v>189700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>214200</v>
+      </c>
+      <c r="K43" s="3">
+        <v>207100</v>
+      </c>
+      <c r="L43" s="3">
         <v>214600</v>
       </c>
-      <c r="J43" s="3">
-        <v>207100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>214600</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>210000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>187100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>192200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>168600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>171800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>190100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>182400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>205400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>179000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>163200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>179000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>173100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>159800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>135700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>135500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>141200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>122700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>125700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>136900</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>89100</v>
+        <v>84800</v>
       </c>
       <c r="E44" s="3">
-        <v>100800</v>
+        <v>89000</v>
       </c>
       <c r="F44" s="3">
-        <v>103600</v>
+        <v>100600</v>
       </c>
       <c r="G44" s="3">
-        <v>97300</v>
+        <v>103400</v>
       </c>
       <c r="H44" s="3">
-        <v>99300</v>
+        <v>97200</v>
       </c>
       <c r="I44" s="3">
-        <v>100700</v>
+        <v>99200</v>
       </c>
       <c r="J44" s="3">
+        <v>100500</v>
+      </c>
+      <c r="K44" s="3">
         <v>82000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>85000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>82200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>72600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>69600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>68200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>81500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>83500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>63700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>63500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>60000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>58500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>60600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>59000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>59900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>59400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>62500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>61900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>62600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>63100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>56200</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>4000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>105900</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>644600</v>
+        <v>629400</v>
       </c>
       <c r="E46" s="3">
-        <v>576300</v>
+        <v>643600</v>
       </c>
       <c r="F46" s="3">
-        <v>502600</v>
+        <v>575300</v>
       </c>
       <c r="G46" s="3">
-        <v>533200</v>
+        <v>501800</v>
       </c>
       <c r="H46" s="3">
-        <v>504300</v>
+        <v>532400</v>
       </c>
       <c r="I46" s="3">
-        <v>517600</v>
+        <v>503500</v>
       </c>
       <c r="J46" s="3">
+        <v>516800</v>
+      </c>
+      <c r="K46" s="3">
         <v>474900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>492300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>478500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>449600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>409000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>412400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>463400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>559900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>423700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>444000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>433100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>407600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>405000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>436800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>357800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>419700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>460300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>485500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>545800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>574100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>551000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>623200</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>150100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>146500</v>
+      </c>
+      <c r="F47" s="3">
+        <v>148300</v>
+      </c>
+      <c r="G47" s="3">
+        <v>147200</v>
+      </c>
+      <c r="H47" s="3">
+        <v>140900</v>
+      </c>
+      <c r="I47" s="3">
+        <v>142500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>135500</v>
+      </c>
+      <c r="K47" s="3">
+        <v>119900</v>
+      </c>
+      <c r="L47" s="3">
+        <v>124300</v>
+      </c>
+      <c r="M47" s="3">
+        <v>119600</v>
+      </c>
+      <c r="N47" s="3">
+        <v>114900</v>
+      </c>
+      <c r="O47" s="3">
+        <v>118900</v>
+      </c>
+      <c r="P47" s="3">
+        <v>119400</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>124100</v>
+      </c>
+      <c r="R47" s="3">
+        <v>126600</v>
+      </c>
+      <c r="S47" s="3">
+        <v>129500</v>
+      </c>
+      <c r="T47" s="3">
+        <v>133100</v>
+      </c>
+      <c r="U47" s="3">
+        <v>133800</v>
+      </c>
+      <c r="V47" s="3">
+        <v>145200</v>
+      </c>
+      <c r="W47" s="3">
+        <v>141300</v>
+      </c>
+      <c r="X47" s="3">
+        <v>139300</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>143100</v>
+      </c>
+      <c r="Z47" s="3">
         <v>146800</v>
       </c>
-      <c r="E47" s="3">
-        <v>148500</v>
-      </c>
-      <c r="F47" s="3">
-        <v>147500</v>
-      </c>
-      <c r="G47" s="3">
-        <v>141100</v>
-      </c>
-      <c r="H47" s="3">
-        <v>142700</v>
-      </c>
-      <c r="I47" s="3">
-        <v>135700</v>
-      </c>
-      <c r="J47" s="3">
-        <v>119900</v>
-      </c>
-      <c r="K47" s="3">
-        <v>124300</v>
-      </c>
-      <c r="L47" s="3">
-        <v>119600</v>
-      </c>
-      <c r="M47" s="3">
-        <v>114900</v>
-      </c>
-      <c r="N47" s="3">
-        <v>118900</v>
-      </c>
-      <c r="O47" s="3">
-        <v>119400</v>
-      </c>
-      <c r="P47" s="3">
-        <v>124100</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>126600</v>
-      </c>
-      <c r="R47" s="3">
-        <v>129500</v>
-      </c>
-      <c r="S47" s="3">
-        <v>133100</v>
-      </c>
-      <c r="T47" s="3">
-        <v>133800</v>
-      </c>
-      <c r="U47" s="3">
-        <v>145200</v>
-      </c>
-      <c r="V47" s="3">
-        <v>141300</v>
-      </c>
-      <c r="W47" s="3">
-        <v>139300</v>
-      </c>
-      <c r="X47" s="3">
-        <v>143100</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>146800</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>114200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>115100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>116600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>73900</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>14700</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>637200</v>
+        <v>622200</v>
       </c>
       <c r="E48" s="3">
-        <v>670200</v>
+        <v>636200</v>
       </c>
       <c r="F48" s="3">
-        <v>650200</v>
+        <v>669200</v>
       </c>
       <c r="G48" s="3">
-        <v>652200</v>
+        <v>649100</v>
       </c>
       <c r="H48" s="3">
-        <v>646300</v>
+        <v>651200</v>
       </c>
       <c r="I48" s="3">
-        <v>657700</v>
+        <v>645300</v>
       </c>
       <c r="J48" s="3">
+        <v>656700</v>
+      </c>
+      <c r="K48" s="3">
         <v>615400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>637900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>635100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>608600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>624100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>602900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>658000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>681700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>672400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>643800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>601800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>610900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>573000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>532900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>527000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>522700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>494700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>485900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>473800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>454500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>440100</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>490100</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E52" s="3">
         <v>10600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20100</v>
       </c>
-      <c r="G52" s="3">
-        <v>24900</v>
-      </c>
       <c r="H52" s="3">
+        <v>24800</v>
+      </c>
+      <c r="I52" s="3">
         <v>25900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>24100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>24800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>13200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>12400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>9200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>9100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>9400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>14800</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1439300</v>
+        <v>1413200</v>
       </c>
       <c r="E54" s="3">
-        <v>1411200</v>
+        <v>1437000</v>
       </c>
       <c r="F54" s="3">
-        <v>1320400</v>
+        <v>1409000</v>
       </c>
       <c r="G54" s="3">
-        <v>1351400</v>
+        <v>1318300</v>
       </c>
       <c r="H54" s="3">
-        <v>1319300</v>
+        <v>1349200</v>
       </c>
       <c r="I54" s="3">
-        <v>1335200</v>
+        <v>1317200</v>
       </c>
       <c r="J54" s="3">
+        <v>1333100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1235100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1280300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1242900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1183100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1161200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1143400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1255100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1377200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1235700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1231500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1181900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1176000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1128900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1119800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1037600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1099200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1078000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1095800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1145300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1111900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1020600</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22000</v>
+        <v>23800</v>
       </c>
       <c r="E57" s="3">
+        <v>21900</v>
+      </c>
+      <c r="F57" s="3">
         <v>17600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>30400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>31000</v>
       </c>
-      <c r="I57" s="3">
-        <v>31800</v>
-      </c>
       <c r="J57" s="3">
+        <v>31700</v>
+      </c>
+      <c r="K57" s="3">
         <v>34500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>32100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>26500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>29500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>29600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>29500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>39700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>25800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>20300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>21700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>25600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>24000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>21600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>22300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>21100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>24800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>23700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>26900</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>70700</v>
+        <v>79300</v>
       </c>
       <c r="E58" s="3">
-        <v>52900</v>
+        <v>70600</v>
       </c>
       <c r="F58" s="3">
+        <v>52800</v>
+      </c>
+      <c r="G58" s="3">
         <v>35100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>18600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9500</v>
       </c>
-      <c r="I58" s="3">
-        <v>29800</v>
-      </c>
       <c r="J58" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K58" s="3">
         <v>72000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>74600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>64000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>42500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>29200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>26800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>28300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>29000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>27800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>28100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>27500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>38200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>26100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>25600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>25200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>106500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>101300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>95200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>128600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>69400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>35000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>152700</v>
+        <v>93500</v>
       </c>
       <c r="E59" s="3">
-        <v>128300</v>
+        <v>152500</v>
       </c>
       <c r="F59" s="3">
-        <v>95000</v>
+        <v>128100</v>
       </c>
       <c r="G59" s="3">
-        <v>223500</v>
+        <v>94900</v>
       </c>
       <c r="H59" s="3">
-        <v>126000</v>
+        <v>223100</v>
       </c>
       <c r="I59" s="3">
-        <v>163900</v>
+        <v>125800</v>
       </c>
       <c r="J59" s="3">
+        <v>163700</v>
+      </c>
+      <c r="K59" s="3">
         <v>110600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>114600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>115900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>110700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>124800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>83400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>154800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>103900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>119200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>112500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>114800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>100300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>129000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>144000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>95300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>77700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>92600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>88800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>108700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>80700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>90200</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>120100</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>245400</v>
+        <v>196600</v>
       </c>
       <c r="E60" s="3">
-        <v>198700</v>
+        <v>245000</v>
       </c>
       <c r="F60" s="3">
-        <v>158100</v>
+        <v>198400</v>
       </c>
       <c r="G60" s="3">
-        <v>272500</v>
+        <v>157800</v>
       </c>
       <c r="H60" s="3">
-        <v>166600</v>
+        <v>272100</v>
       </c>
       <c r="I60" s="3">
-        <v>225500</v>
+        <v>166300</v>
       </c>
       <c r="J60" s="3">
+        <v>225100</v>
+      </c>
+      <c r="K60" s="3">
         <v>217100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>225000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>216600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>189500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>186000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>136800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>212600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>162500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>176600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>180300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>168100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>158700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>176800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>195200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>144500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>205900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>216200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>205100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>262100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>173900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>152100</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>427900</v>
+        <v>432100</v>
       </c>
       <c r="E61" s="3">
-        <v>414600</v>
+        <v>427200</v>
       </c>
       <c r="F61" s="3">
-        <v>365600</v>
+        <v>414000</v>
       </c>
       <c r="G61" s="3">
-        <v>305700</v>
+        <v>365000</v>
       </c>
       <c r="H61" s="3">
-        <v>316300</v>
+        <v>305300</v>
       </c>
       <c r="I61" s="3">
-        <v>315500</v>
+        <v>315800</v>
       </c>
       <c r="J61" s="3">
+        <v>315000</v>
+      </c>
+      <c r="K61" s="3">
         <v>273600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>283600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>247100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>271100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>255600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>306500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>324000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>452700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>322800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>335100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>332200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>346600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>308100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>314100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>253700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>250000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>243600</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>278600</v>
       </c>
       <c r="AB61" s="3">
         <v>278600</v>
       </c>
       <c r="AC61" s="3">
+        <v>278600</v>
+      </c>
+      <c r="AD61" s="3">
         <v>315400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>316900</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>269700</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17800</v>
+        <v>17200</v>
       </c>
       <c r="E62" s="3">
-        <v>18800</v>
+        <v>17700</v>
       </c>
       <c r="F62" s="3">
+        <v>18700</v>
+      </c>
+      <c r="G62" s="3">
         <v>26900</v>
       </c>
-      <c r="G62" s="3">
-        <v>26600</v>
-      </c>
       <c r="H62" s="3">
+        <v>26500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>28200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K62" s="3">
+        <v>27200</v>
+      </c>
+      <c r="L62" s="3">
+        <v>28200</v>
+      </c>
+      <c r="M62" s="3">
+        <v>28900</v>
+      </c>
+      <c r="N62" s="3">
+        <v>28800</v>
+      </c>
+      <c r="O62" s="3">
+        <v>30000</v>
+      </c>
+      <c r="P62" s="3">
+        <v>28000</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>29700</v>
+      </c>
+      <c r="R62" s="3">
+        <v>30400</v>
+      </c>
+      <c r="S62" s="3">
+        <v>28500</v>
+      </c>
+      <c r="T62" s="3">
+        <v>29400</v>
+      </c>
+      <c r="U62" s="3">
+        <v>28600</v>
+      </c>
+      <c r="V62" s="3">
+        <v>28400</v>
+      </c>
+      <c r="W62" s="3">
         <v>28300</v>
       </c>
-      <c r="I62" s="3">
-        <v>28500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>27200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>28200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>28900</v>
-      </c>
-      <c r="M62" s="3">
-        <v>28800</v>
-      </c>
-      <c r="N62" s="3">
-        <v>30000</v>
-      </c>
-      <c r="O62" s="3">
-        <v>28000</v>
-      </c>
-      <c r="P62" s="3">
-        <v>29700</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>30400</v>
-      </c>
-      <c r="R62" s="3">
-        <v>28500</v>
-      </c>
-      <c r="S62" s="3">
-        <v>29400</v>
-      </c>
-      <c r="T62" s="3">
-        <v>28600</v>
-      </c>
-      <c r="U62" s="3">
-        <v>28400</v>
-      </c>
-      <c r="V62" s="3">
-        <v>28300</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>25200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>25100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>24800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>22000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>23400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>23100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>22300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>20900</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>691100</v>
+        <v>645900</v>
       </c>
       <c r="E66" s="3">
-        <v>632100</v>
+        <v>690000</v>
       </c>
       <c r="F66" s="3">
-        <v>550600</v>
+        <v>631100</v>
       </c>
       <c r="G66" s="3">
-        <v>604800</v>
+        <v>549700</v>
       </c>
       <c r="H66" s="3">
-        <v>511200</v>
+        <v>603900</v>
       </c>
       <c r="I66" s="3">
-        <v>569500</v>
+        <v>510400</v>
       </c>
       <c r="J66" s="3">
+        <v>568600</v>
+      </c>
+      <c r="K66" s="3">
         <v>517800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>536800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>492500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>489400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>471600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>471300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>566200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>645600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>527900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>544800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>528900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>533700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>513200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>534500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>423400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>480700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>481800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>507000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>563800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>511600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>489900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>572600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>326300</v>
+        <v>344000</v>
       </c>
       <c r="E72" s="3">
-        <v>352700</v>
+        <v>325800</v>
       </c>
       <c r="F72" s="3">
-        <v>342300</v>
+        <v>352200</v>
       </c>
       <c r="G72" s="3">
-        <v>321200</v>
+        <v>341700</v>
       </c>
       <c r="H72" s="3">
-        <v>377900</v>
+        <v>320700</v>
       </c>
       <c r="I72" s="3">
-        <v>339500</v>
+        <v>377300</v>
       </c>
       <c r="J72" s="3">
+        <v>338900</v>
+      </c>
+      <c r="K72" s="3">
         <v>295300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>306200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>312500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>265100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>243500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>224700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>221400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>254000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>228300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>207700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>190600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>185900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>173900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>154600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>139600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>144000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>137400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>130700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>125400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>124100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>46500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>192400</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>748200</v>
+        <v>767300</v>
       </c>
       <c r="E76" s="3">
-        <v>779100</v>
+        <v>747000</v>
       </c>
       <c r="F76" s="3">
-        <v>769900</v>
+        <v>777900</v>
       </c>
       <c r="G76" s="3">
-        <v>746500</v>
+        <v>768600</v>
       </c>
       <c r="H76" s="3">
-        <v>808100</v>
+        <v>745400</v>
       </c>
       <c r="I76" s="3">
-        <v>765700</v>
+        <v>806800</v>
       </c>
       <c r="J76" s="3">
+        <v>764500</v>
+      </c>
+      <c r="K76" s="3">
         <v>717200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>743500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>750300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>693700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>689500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>672100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>688900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>731600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>707800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>686800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>653000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>642300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>615700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>585300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>614200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>618600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>596100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>588800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>581500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>600300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>530700</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>564300</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E81" s="3">
         <v>19700</v>
       </c>
-      <c r="E81" s="3">
-        <v>6400</v>
-      </c>
       <c r="F81" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G81" s="3">
         <v>4900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21100</v>
       </c>
-      <c r="H81" s="3">
-        <v>41500</v>
-      </c>
       <c r="I81" s="3">
-        <v>38500</v>
+        <v>41400</v>
       </c>
       <c r="J81" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K81" s="3">
         <v>44500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>45500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>41800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>30600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>22700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>14200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>19200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>25700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>21000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>44500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>17600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>14700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>800</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>5300</v>
       </c>
       <c r="AA81" s="3">
         <v>5300</v>
       </c>
       <c r="AB81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="AC81" s="3">
         <v>10400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>77600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>50000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>10</v>
+      <c r="D83" s="3">
+        <v>38100</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="3">
         <v>36600</v>
       </c>
-      <c r="G83" s="3">
-        <v>37700</v>
-      </c>
       <c r="H83" s="3">
-        <v>74900</v>
+        <v>37600</v>
       </c>
       <c r="I83" s="3">
-        <v>-108200</v>
+        <v>74800</v>
       </c>
       <c r="J83" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="K83" s="3">
         <v>36300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>38900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>37600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>35100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>35600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>36900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>36200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>34500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>34200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>32200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>31500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>29300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>28600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>28100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>27000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>25300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>24100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>23000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>21700</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>105300</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>10</v>
+      <c r="D89" s="3">
+        <v>34700</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="3">
         <v>43800</v>
       </c>
-      <c r="G89" s="3">
-        <v>55500</v>
-      </c>
       <c r="H89" s="3">
-        <v>171300</v>
+        <v>55400</v>
       </c>
       <c r="I89" s="3">
-        <v>-128100</v>
+        <v>171000</v>
       </c>
       <c r="J89" s="3">
+        <v>-127900</v>
+      </c>
+      <c r="K89" s="3">
         <v>62100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>52900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>55200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>64500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>62500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>42700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>72000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>26400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>77400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>50400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>25800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>59800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>48200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>41100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>24100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>25200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>41000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>13400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>39400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>60700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>120300</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-768100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1570700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1008700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-482700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1241400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1966500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1669400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1163300</v>
       </c>
       <c r="K91" s="3">
         <v>-1163300</v>
       </c>
       <c r="L91" s="3">
+        <v>-1163300</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1558100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-47500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-24300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-55700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-62400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-46500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-33000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-51500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-26700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-34300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-32400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-45500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-34700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-31900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-44100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-32500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-291600</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-78500</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>10</v>
+      <c r="D94" s="3">
+        <v>-25000</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="3">
         <v>-33400</v>
       </c>
-      <c r="G94" s="3">
-        <v>-24900</v>
-      </c>
       <c r="H94" s="3">
-        <v>-100600</v>
+        <v>-24800</v>
       </c>
       <c r="I94" s="3">
-        <v>125300</v>
+        <v>-100500</v>
       </c>
       <c r="J94" s="3">
+        <v>125100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-44500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-50500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-50000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-48200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-34200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-51600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-60600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-43500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>7400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-54900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-31900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-34900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-32100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-72400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-32300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-29300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-84900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>41300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-156800</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-39200</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7714,11 +7948,11 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-8700</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -7738,13 +7972,16 @@
         <v>0</v>
       </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-58500</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,154 +8253,160 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>10</v>
+      <c r="D100" s="3">
+        <v>-40700</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="3">
-        <v>66200</v>
+      <c r="F100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G100" s="3">
-        <v>-24900</v>
+        <v>66100</v>
       </c>
       <c r="H100" s="3">
-        <v>-28300</v>
+        <v>-24800</v>
       </c>
       <c r="I100" s="3">
-        <v>-41900</v>
+        <v>-28200</v>
       </c>
       <c r="J100" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="K100" s="3">
         <v>5000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>30800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-50500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-44400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-118900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>126300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-31700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-24200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>10100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-65400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>60000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-78400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-29000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-61200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>24600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>32900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-105100</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>10</v>
+      <c r="D101" s="3">
+        <v>300</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
-      </c>
-      <c r="H101" s="3">
-        <v>400</v>
       </c>
       <c r="I101" s="3">
         <v>400</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>-100</v>
       </c>
       <c r="P101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
@@ -8165,116 +8414,122 @@
         <v>0</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-500</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-2400</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>10</v>
+      <c r="D102" s="3">
+        <v>-30800</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F102" s="3">
-        <v>76200</v>
+      <c r="F102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G102" s="3">
+        <v>76100</v>
+      </c>
+      <c r="H102" s="3">
         <v>6200</v>
       </c>
-      <c r="H102" s="3">
-        <v>42800</v>
-      </c>
       <c r="I102" s="3">
-        <v>-44300</v>
+        <v>42700</v>
       </c>
       <c r="J102" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="K102" s="3">
         <v>22500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>47100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-22300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-26300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-68300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>101100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-24800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>9000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>15000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-48500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>66200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-86700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-44800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-20500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-78200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-19900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>134400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-148600</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-23900</v>
       </c>
     </row>
